--- a/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
+++ b/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\studies\2020_Aperol_Git\Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587CA996-20B7-4536-8119-DB43A4C889B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FB8B31-F033-4DB1-8CEE-4FA4C125A431}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="coding" sheetId="1" r:id="rId1"/>
+    <sheet name="codingschema" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="74">
   <si>
     <t xml:space="preserve">disturbance </t>
   </si>
@@ -256,7 +257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,20 +284,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -362,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,13 +411,7 @@
     <xf numFmtId="46" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="46" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -749,9 +730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DD2F59-5577-4BF1-9B09-7232E83E7D11}">
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -766,9 +747,9 @@
     <col min="9" max="9" width="19.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.44140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="54.88671875" style="1" customWidth="1"/>
     <col min="13" max="14" width="11.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="1" customWidth="1"/>
     <col min="16" max="16" width="21.33203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="14.88671875" style="1" customWidth="1"/>
     <col min="18" max="18" width="15.33203125" style="1" customWidth="1"/>
@@ -1378,7 +1359,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <f>SUM(G2:G10)</f>
         <v>2.4652777777777772E-3</v>
       </c>
@@ -1387,7 +1368,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="19"/>
-      <c r="J11" s="21">
+      <c r="J11" s="20">
         <f>SUM(J2:J10)</f>
         <v>3.935185185185182E-4</v>
       </c>
@@ -1950,7 +1931,7 @@
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="22">
+      <c r="G21" s="21">
         <f>SUM(G12:G20)</f>
         <v>1.9212962962962959E-3</v>
       </c>
@@ -1959,7 +1940,7 @@
         <v>8</v>
       </c>
       <c r="I21" s="19"/>
-      <c r="J21" s="21">
+      <c r="J21" s="20">
         <f>SUM(J12:J20)</f>
         <v>3.9351851851852047E-4</v>
       </c>
@@ -2028,11 +2009,11 @@
         <v>1.5624999999999999E-3</v>
       </c>
       <c r="O22" s="3">
-        <f xml:space="preserve"> N22-M22</f>
+        <f t="shared" ref="O22:O30" si="8" xml:space="preserve"> N22-M22</f>
         <v>8.1018518518518462E-5</v>
       </c>
       <c r="P22" s="3">
-        <f>M22-I22</f>
+        <f t="shared" ref="P22:P30" si="9">M22-I22</f>
         <v>2.0833333333333316E-4</v>
       </c>
       <c r="Q22" s="2"/>
@@ -2087,11 +2068,11 @@
         <v>2.0601851851851853E-3</v>
       </c>
       <c r="O23" s="3">
-        <f xml:space="preserve"> N23-M23</f>
+        <f t="shared" si="8"/>
         <v>5.7870370370370454E-5</v>
       </c>
       <c r="P23" s="3">
-        <f>M23-I23</f>
+        <f t="shared" si="9"/>
         <v>1.1574074074074004E-5</v>
       </c>
       <c r="Q23" s="2"/>
@@ -2146,11 +2127,11 @@
         <v>2.3148148148148151E-3</v>
       </c>
       <c r="O24" s="3">
-        <f xml:space="preserve"> N24-M24</f>
+        <f t="shared" si="8"/>
         <v>8.1018518518518462E-5</v>
       </c>
       <c r="P24" s="3">
-        <f>M24-I24</f>
+        <f t="shared" si="9"/>
         <v>1.1574074074074438E-5</v>
       </c>
       <c r="Q24" s="2"/>
@@ -2205,11 +2186,11 @@
         <v>3.0902777777777782E-3</v>
       </c>
       <c r="O25" s="3">
-        <f xml:space="preserve"> N25-M25</f>
+        <f t="shared" si="8"/>
         <v>4.6296296296296016E-5</v>
       </c>
       <c r="P25" s="3">
-        <f>M25-I25</f>
+        <f t="shared" si="9"/>
         <v>1.1574074074074871E-5</v>
       </c>
       <c r="Q25" s="2"/>
@@ -2264,11 +2245,11 @@
         <v>3.9236111111111112E-3</v>
       </c>
       <c r="O26" s="3">
-        <f xml:space="preserve"> N26-M26</f>
+        <f t="shared" si="8"/>
         <v>8.1018518518518896E-5</v>
       </c>
       <c r="P26" s="3">
-        <f>M26-I26</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q26" s="2"/>
@@ -2323,11 +2304,11 @@
         <v>4.7453703703703703E-3</v>
       </c>
       <c r="O27" s="3">
-        <f xml:space="preserve"> N27-M27</f>
+        <f t="shared" si="8"/>
         <v>1.7361111111111136E-4</v>
       </c>
       <c r="P27" s="3">
-        <f>M27-I27</f>
+        <f t="shared" si="9"/>
         <v>2.7777777777777783E-4</v>
       </c>
       <c r="Q27" s="2"/>
@@ -2382,11 +2363,11 @@
         <v>5.4166666666666669E-3</v>
       </c>
       <c r="O28" s="3">
-        <f xml:space="preserve"> N28-M28</f>
+        <f t="shared" si="8"/>
         <v>1.3888888888888978E-4</v>
       </c>
       <c r="P28" s="3">
-        <f>M28-I28</f>
+        <f t="shared" si="9"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="Q28" s="2"/>
@@ -2441,11 +2422,11 @@
         <v>6.2268518518518515E-3</v>
       </c>
       <c r="O29" s="3">
-        <f xml:space="preserve"> N29-M29</f>
+        <f t="shared" si="8"/>
         <v>1.7361111111111049E-4</v>
       </c>
       <c r="P29" s="3">
-        <f>M29-I29</f>
+        <f t="shared" si="9"/>
         <v>6.9444444444444892E-5</v>
       </c>
       <c r="Q29" s="2"/>
@@ -2500,11 +2481,11 @@
         <v>6.6550925925925935E-3</v>
       </c>
       <c r="O30" s="3">
-        <f xml:space="preserve"> N30-M30</f>
+        <f t="shared" si="8"/>
         <v>1.6203703703703866E-4</v>
       </c>
       <c r="P30" s="3">
-        <f>M30-I30</f>
+        <f t="shared" si="9"/>
         <v>1.0416666666666647E-4</v>
       </c>
       <c r="Q30" s="2"/>
@@ -2525,7 +2506,7 @@
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
-      <c r="G31" s="23">
+      <c r="G31" s="21">
         <f>SUM(G22:G30)</f>
         <v>3.9120370370370359E-3</v>
       </c>
@@ -2577,7 +2558,7 @@
         <v>8.6805555555555551E-4</v>
       </c>
       <c r="G32" s="5">
-        <f>F32-E32</f>
+        <f t="shared" ref="G32:G40" si="10">F32-E32</f>
         <v>1.5046296296296281E-4</v>
       </c>
       <c r="H32" s="1">
@@ -2587,7 +2568,7 @@
         <v>7.291666666666667E-4</v>
       </c>
       <c r="J32" s="3">
-        <f>I32-E32</f>
+        <f t="shared" ref="J32:J40" si="11">I32-E32</f>
         <v>1.1574074074074004E-5</v>
       </c>
       <c r="K32" s="2">
@@ -2636,7 +2617,7 @@
         <v>1.9097222222222222E-3</v>
       </c>
       <c r="G33" s="5">
-        <f>F33-E33</f>
+        <f t="shared" si="10"/>
         <v>1.6203703703703692E-4</v>
       </c>
       <c r="H33" s="2">
@@ -2646,7 +2627,7 @@
         <v>1.8634259259259261E-3</v>
       </c>
       <c r="J33" s="3">
-        <f>I33-E33</f>
+        <f t="shared" si="11"/>
         <v>1.1574074074074091E-4</v>
       </c>
       <c r="K33" s="2">
@@ -2695,7 +2676,7 @@
         <v>2.673611111111111E-3</v>
       </c>
       <c r="G34" s="5">
-        <f>F34-E34</f>
+        <f t="shared" si="10"/>
         <v>4.8611111111111121E-4</v>
       </c>
       <c r="H34" s="2">
@@ -2705,7 +2686,7 @@
         <v>2.1990740740740742E-3</v>
       </c>
       <c r="J34" s="3">
-        <f>I34-E34</f>
+        <f t="shared" si="11"/>
         <v>1.1574074074074438E-5</v>
       </c>
       <c r="K34" s="2">
@@ -2754,7 +2735,7 @@
         <v>4.4791666666666669E-3</v>
       </c>
       <c r="G35" s="5">
-        <f>F35-E35</f>
+        <f t="shared" si="10"/>
         <v>1.5740740740740741E-3</v>
       </c>
       <c r="H35" s="2">
@@ -2764,7 +2745,7 @@
         <v>4.3981481481481484E-3</v>
       </c>
       <c r="J35" s="3">
-        <f>I35-E35</f>
+        <f t="shared" si="11"/>
         <v>1.4930555555555556E-3</v>
       </c>
       <c r="K35" s="2">
@@ -2813,7 +2794,7 @@
         <v>3.6226851851851854E-3</v>
       </c>
       <c r="G36" s="5">
-        <f>F36-E36</f>
+        <f t="shared" si="10"/>
         <v>5.787037037037002E-5</v>
       </c>
       <c r="H36" s="2">
@@ -2823,7 +2804,7 @@
         <v>3.5648148148148154E-3</v>
       </c>
       <c r="J36" s="3">
-        <f>I36-E36</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K36" s="2">
@@ -2872,7 +2853,7 @@
         <v>4.6643518518518518E-3</v>
       </c>
       <c r="G37" s="5">
-        <f>F37-E37</f>
+        <f t="shared" si="10"/>
         <v>4.8611111111111164E-4</v>
       </c>
       <c r="H37" s="2">
@@ -2882,7 +2863,7 @@
         <v>4.5949074074074078E-3</v>
       </c>
       <c r="J37" s="3">
-        <f>I37-E37</f>
+        <f t="shared" si="11"/>
         <v>4.1666666666666761E-4</v>
       </c>
       <c r="K37" s="2">
@@ -2931,7 +2912,7 @@
         <v>5.1504629629629635E-3</v>
       </c>
       <c r="G38" s="5">
-        <f>F38-E38</f>
+        <f t="shared" si="10"/>
         <v>2.4305555555555625E-4</v>
       </c>
       <c r="H38" s="2">
@@ -2941,7 +2922,7 @@
         <v>4.9421296296296288E-3</v>
       </c>
       <c r="J38" s="3">
-        <f>I38-E38</f>
+        <f t="shared" si="11"/>
         <v>3.4722222222221578E-5</v>
       </c>
       <c r="K38" s="2">
@@ -2990,7 +2971,7 @@
         <v>5.9606481481481489E-3</v>
       </c>
       <c r="G39" s="5">
-        <f>F39-E39</f>
+        <f t="shared" si="10"/>
         <v>3.4722222222222186E-4</v>
       </c>
       <c r="H39" s="2">
@@ -3000,7 +2981,7 @@
         <v>5.7175925925925927E-3</v>
       </c>
       <c r="J39" s="3">
-        <f>I39-E39</f>
+        <f t="shared" si="11"/>
         <v>1.041666666666656E-4</v>
       </c>
       <c r="K39" s="2">
@@ -3049,7 +3030,7 @@
         <v>6.3194444444444444E-3</v>
       </c>
       <c r="G40" s="5">
-        <f>F40-E40</f>
+        <f t="shared" si="10"/>
         <v>1.1574074074074004E-4</v>
       </c>
       <c r="H40" s="2">
@@ -3059,7 +3040,7 @@
         <v>6.2268518518518515E-3</v>
       </c>
       <c r="J40" s="3">
-        <f>I40-E40</f>
+        <f t="shared" si="11"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="K40" s="2">
@@ -3100,7 +3081,7 @@
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
-      <c r="G41" s="23">
+      <c r="G41" s="21">
         <f>SUM(G32:G40)</f>
         <v>3.6226851851851849E-3</v>
       </c>
@@ -3152,7 +3133,7 @@
         <v>1.712962962962963E-3</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" ref="G42:G49" si="8">F42-E42</f>
+        <f t="shared" ref="G42:G49" si="12">F42-E42</f>
         <v>7.2916666666666659E-4</v>
       </c>
       <c r="H42" s="1">
@@ -3162,7 +3143,7 @@
         <v>1.0185185185185186E-3</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" ref="J42:J50" si="9">I42-E42</f>
+        <f t="shared" ref="J42:J50" si="13">I42-E42</f>
         <v>3.4722222222222229E-5</v>
       </c>
       <c r="K42" s="1">
@@ -3178,11 +3159,11 @@
         <v>1.712962962962963E-3</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" ref="O42" si="10" xml:space="preserve"> N42-M42</f>
+        <f t="shared" ref="O42" si="14" xml:space="preserve"> N42-M42</f>
         <v>3.4722222222222446E-5</v>
       </c>
       <c r="P42" s="3">
-        <f t="shared" ref="P42" si="11">M42-I42</f>
+        <f t="shared" ref="P42" si="15">M42-I42</f>
         <v>6.5972222222222192E-4</v>
       </c>
       <c r="Q42" s="2"/>
@@ -3211,7 +3192,7 @@
         <v>2.1527777777777778E-3</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.249999999999999E-4</v>
       </c>
       <c r="H43" s="2">
@@ -3221,7 +3202,7 @@
         <v>1.5393518518518519E-3</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.1574074074074004E-5</v>
       </c>
       <c r="K43" s="2">
@@ -3237,11 +3218,11 @@
         <v>2.1296296296296298E-3</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" ref="O43:O50" si="12" xml:space="preserve"> N43-M43</f>
+        <f t="shared" ref="O43:O50" si="16" xml:space="preserve"> N43-M43</f>
         <v>4.629629629629645E-5</v>
       </c>
       <c r="P43" s="3">
-        <f t="shared" ref="P43:P50" si="13">M43-I43</f>
+        <f t="shared" ref="P43:P50" si="17">M43-I43</f>
         <v>5.4398148148148144E-4</v>
       </c>
       <c r="Q43" s="2"/>
@@ -3270,7 +3251,7 @@
         <v>2.3495370370370371E-3</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.1574074074074047E-4</v>
       </c>
       <c r="H44" s="2">
@@ -3280,7 +3261,7 @@
         <v>2.2453703703703702E-3</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.157407407407357E-5</v>
       </c>
       <c r="K44" s="2">
@@ -3296,11 +3277,11 @@
         <v>2.3726851851851851E-3</v>
       </c>
       <c r="O44" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.2592592592592466E-5</v>
       </c>
       <c r="P44" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3.4722222222222446E-5</v>
       </c>
       <c r="Q44" s="2"/>
@@ -3329,7 +3310,7 @@
         <v>3.7847222222222223E-3</v>
       </c>
       <c r="G45" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.4398148148148166E-4</v>
       </c>
       <c r="H45" s="2">
@@ -3339,7 +3320,7 @@
         <v>3.2986111111111111E-3</v>
       </c>
       <c r="J45" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5.7870370370370454E-5</v>
       </c>
       <c r="K45" s="2">
@@ -3355,11 +3336,11 @@
         <v>3.7615740740740739E-3</v>
       </c>
       <c r="O45" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4.629629629629645E-5</v>
       </c>
       <c r="P45" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>4.1666666666666631E-4</v>
       </c>
       <c r="Q45" s="2"/>
@@ -3388,7 +3369,7 @@
         <v>4.0277777777777777E-3</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.0092592592592627E-4</v>
       </c>
       <c r="H46" s="2">
@@ -3398,7 +3379,7 @@
         <v>3.8310185185185183E-3</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.041666666666669E-4</v>
       </c>
       <c r="K46" s="2">
@@ -3414,11 +3395,11 @@
         <v>4.0046296296296297E-3</v>
       </c>
       <c r="O46" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.6203703703703736E-4</v>
       </c>
       <c r="P46" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1.1574074074074004E-5</v>
       </c>
       <c r="Q46" s="2"/>
@@ -3447,7 +3428,7 @@
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.6296296296296016E-5</v>
       </c>
       <c r="H47" s="2">
@@ -3457,7 +3438,7 @@
         <v>4.8379629629629632E-3</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="K47" s="2">
@@ -3473,11 +3454,11 @@
         <v>4.8842592592592592E-3</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="P47" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="Q47" s="2"/>
@@ -3506,7 +3487,7 @@
         <v>5.185185185185185E-3</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8.1018518518518462E-5</v>
       </c>
       <c r="H48" s="2">
@@ -3516,7 +3497,7 @@
         <v>5.1273148148148146E-3</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="K48" s="2">
@@ -3532,7 +3513,7 @@
         <v>5.1736111111111115E-3</v>
       </c>
       <c r="O48" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.4722222222222446E-5</v>
       </c>
       <c r="P48" s="3">
@@ -3565,7 +3546,7 @@
         <v>6.1111111111111114E-3</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.8935185185185227E-4</v>
       </c>
       <c r="H49" s="2">
@@ -3575,7 +3556,7 @@
         <v>6.0648148148148145E-3</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.4305555555555539E-4</v>
       </c>
       <c r="K49" s="2">
@@ -3591,11 +3572,11 @@
         <v>6.0995370370370361E-3</v>
       </c>
       <c r="O49" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="P49" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1.1574074074074438E-5</v>
       </c>
       <c r="Q49" s="2"/>
@@ -3634,7 +3615,7 @@
         <v>6.5393518518518517E-3</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5.7870370370370454E-5</v>
       </c>
       <c r="K50" s="2">
@@ -3650,11 +3631,11 @@
         <v>6.6898148148148142E-3</v>
       </c>
       <c r="O50" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.4722222222220711E-5</v>
       </c>
       <c r="P50" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1.1574074074074178E-4</v>
       </c>
       <c r="Q50" s="2"/>
@@ -3675,7 +3656,7 @@
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
-      <c r="G51" s="23">
+      <c r="G51" s="21">
         <f>SUM(G42:G50)</f>
         <v>2.9398148148148148E-3</v>
       </c>
@@ -3684,7 +3665,7 @@
         <v>9</v>
       </c>
       <c r="I51" s="19"/>
-      <c r="J51" s="21">
+      <c r="J51" s="20">
         <f>SUM(J42:J50)</f>
         <v>5.6712962962962902E-4</v>
       </c>
@@ -3737,7 +3718,7 @@
         <v>1.1921296296296296E-3</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" ref="J52:J72" si="14">I52-E52</f>
+        <f t="shared" ref="J52:J72" si="18">I52-E52</f>
         <v>2.0833333333333316E-4</v>
       </c>
       <c r="K52" s="1">
@@ -3753,11 +3734,11 @@
         <v>1.2731481481481483E-3</v>
       </c>
       <c r="O52" s="3">
-        <f t="shared" ref="O52:O70" si="15" xml:space="preserve"> N52-M52</f>
+        <f t="shared" ref="O52:O70" si="19" xml:space="preserve"> N52-M52</f>
         <v>4.629629629629645E-5</v>
       </c>
       <c r="P52" s="3">
-        <f t="shared" ref="P52:P80" si="16">M52-I52</f>
+        <f t="shared" ref="P52:P80" si="20">M52-I52</f>
         <v>3.4722222222222229E-5</v>
       </c>
       <c r="Q52" s="2"/>
@@ -3786,7 +3767,7 @@
         <v>3.1134259259259257E-3</v>
       </c>
       <c r="G53" s="5">
-        <f t="shared" ref="G53:G72" si="17">F53-E53</f>
+        <f t="shared" ref="G53:G72" si="21">F53-E53</f>
         <v>1.3425925925925925E-3</v>
       </c>
       <c r="H53" s="2">
@@ -3842,7 +3823,7 @@
         <v>2.615740740740741E-3</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9.25925925925929E-5</v>
       </c>
       <c r="H54" s="2">
@@ -3852,7 +3833,7 @@
         <v>2.5347222222222221E-3</v>
       </c>
       <c r="J54" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.1574074074074004E-5</v>
       </c>
       <c r="K54" s="2">
@@ -3868,11 +3849,11 @@
         <v>2.615740740740741E-3</v>
       </c>
       <c r="O54" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6.9444444444444892E-5</v>
       </c>
       <c r="P54" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
       <c r="Q54" s="2"/>
@@ -3901,7 +3882,7 @@
         <v>3.2407407407407406E-3</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>6.9444444444444892E-5</v>
       </c>
       <c r="H55" s="2">
@@ -3911,7 +3892,7 @@
         <v>3.1828703703703702E-3</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.1574074074074438E-5</v>
       </c>
       <c r="K55" s="2">
@@ -3927,11 +3908,11 @@
         <v>3.2523148148148151E-3</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>5.7870370370370888E-5</v>
       </c>
       <c r="P55" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
       <c r="Q55" s="2"/>
@@ -3960,7 +3941,7 @@
         <v>4.0277777777777777E-3</v>
       </c>
       <c r="G56" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3.0092592592592627E-4</v>
       </c>
       <c r="H56" s="2">
@@ -3970,7 +3951,7 @@
         <v>3.9814814814814817E-3</v>
       </c>
       <c r="J56" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.5462962962963026E-4</v>
       </c>
       <c r="K56" s="2">
@@ -3986,11 +3967,11 @@
         <v>4.0277777777777777E-3</v>
       </c>
       <c r="O56" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="P56" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="Q56" s="2"/>
@@ -4019,7 +4000,7 @@
         <v>4.7222222222222223E-3</v>
       </c>
       <c r="G57" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.7361111111111136E-4</v>
       </c>
       <c r="H57" s="2">
@@ -4029,7 +4010,7 @@
         <v>4.6874999999999998E-3</v>
       </c>
       <c r="J57" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.3888888888888892E-4</v>
       </c>
       <c r="K57" s="2">
@@ -4045,11 +4026,11 @@
         <v>4.7222222222222223E-3</v>
       </c>
       <c r="O57" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.1574074074074438E-5</v>
       </c>
       <c r="P57" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="Q57" s="2"/>
@@ -4078,7 +4059,7 @@
         <v>5.5439814814814822E-3</v>
       </c>
       <c r="G58" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.5046296296296335E-4</v>
       </c>
       <c r="H58" s="2">
@@ -4088,7 +4069,7 @@
         <v>5.4050925925925924E-3</v>
       </c>
       <c r="J58" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.157407407407357E-5</v>
       </c>
       <c r="K58" s="2">
@@ -4104,11 +4085,11 @@
         <v>5.5439814814814822E-3</v>
       </c>
       <c r="O58" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.2731481481481535E-4</v>
       </c>
       <c r="P58" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.1574074074074438E-5</v>
       </c>
       <c r="Q58" s="2"/>
@@ -4137,7 +4118,7 @@
         <v>5.9606481481481489E-3</v>
       </c>
       <c r="G59" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.6203703703703779E-4</v>
       </c>
       <c r="H59" s="2">
@@ -4147,7 +4128,7 @@
         <v>5.8680555555555543E-3</v>
       </c>
       <c r="J59" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.9444444444443157E-5</v>
       </c>
       <c r="K59" s="2">
@@ -4163,11 +4144,11 @@
         <v>5.9375000000000009E-3</v>
       </c>
       <c r="O59" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3.4722222222223313E-5</v>
       </c>
       <c r="P59" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3.4722222222223313E-5</v>
       </c>
       <c r="Q59" s="2"/>
@@ -4196,7 +4177,7 @@
         <v>6.6782407407407415E-3</v>
       </c>
       <c r="G60" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.6203703703703779E-4</v>
       </c>
       <c r="H60" s="2">
@@ -4206,7 +4187,7 @@
         <v>6.6319444444444446E-3</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.1574074074074091E-4</v>
       </c>
       <c r="K60" s="2">
@@ -4222,11 +4203,11 @@
         <v>6.7129629629629622E-3</v>
       </c>
       <c r="O60" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>5.7870370370368719E-5</v>
       </c>
       <c r="P60" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="Q60" s="2"/>
@@ -4247,7 +4228,7 @@
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
-      <c r="G61" s="23">
+      <c r="G61" s="21">
         <f>SUM(G52:G60)</f>
         <v>2.7430555555555585E-3</v>
       </c>
@@ -4296,7 +4277,7 @@
         <v>1.1689814814814816E-3</v>
       </c>
       <c r="G62" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.7361111111111114E-4</v>
       </c>
       <c r="H62" s="1">
@@ -4306,7 +4287,7 @@
         <v>1.0069444444444444E-3</v>
       </c>
       <c r="J62" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.1574074074074004E-5</v>
       </c>
       <c r="K62" s="1">
@@ -4322,11 +4303,11 @@
         <v>1.1689814814814816E-3</v>
       </c>
       <c r="O62" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.3888888888888892E-4</v>
       </c>
       <c r="P62" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2.3148148148148225E-5</v>
       </c>
       <c r="Q62" s="2"/>
@@ -4353,7 +4334,7 @@
         <v>1.8865740740740742E-3</v>
       </c>
       <c r="G63" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2.1990740740740738E-4</v>
       </c>
       <c r="H63" s="2">
@@ -4363,7 +4344,7 @@
         <v>1.8402777777777777E-3</v>
       </c>
       <c r="J63" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.7361111111111093E-4</v>
       </c>
       <c r="K63" s="2">
@@ -4379,11 +4360,11 @@
         <v>1.8865740740740742E-3</v>
       </c>
       <c r="O63" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3.4722222222222446E-5</v>
       </c>
       <c r="P63" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
       <c r="Q63" s="2"/>
@@ -4410,7 +4391,7 @@
         <v>2.5810185185185185E-3</v>
       </c>
       <c r="G64" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3.3564814814814829E-4</v>
       </c>
       <c r="H64" s="2">
@@ -4420,7 +4401,7 @@
         <v>2.2916666666666667E-3</v>
       </c>
       <c r="J64" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.629629629629645E-5</v>
       </c>
       <c r="K64" s="2">
@@ -4436,11 +4417,11 @@
         <v>2.6388888888888885E-3</v>
       </c>
       <c r="O64" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.8518518518518493E-4</v>
       </c>
       <c r="P64" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.6203703703703692E-4</v>
       </c>
       <c r="Q64" s="2"/>
@@ -4467,7 +4448,7 @@
         <v>3.5532407407407405E-3</v>
       </c>
       <c r="G65" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4.2824074074074075E-4</v>
       </c>
       <c r="H65" s="2">
@@ -4477,7 +4458,7 @@
         <v>3.3912037037037036E-3</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.6620370370370383E-4</v>
       </c>
       <c r="K65" s="2">
@@ -4493,11 +4474,11 @@
         <v>3.5532407407407405E-3</v>
       </c>
       <c r="O65" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.5046296296296205E-4</v>
       </c>
       <c r="P65" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.1574074074074871E-5</v>
       </c>
       <c r="Q65" s="2"/>
@@ -4524,7 +4505,7 @@
         <v>3.8541666666666668E-3</v>
       </c>
       <c r="G66" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8.1018518518518462E-5</v>
       </c>
       <c r="H66" s="2">
@@ -4534,7 +4515,7 @@
         <v>3.7731481481481483E-3</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K66" s="2">
@@ -4550,11 +4531,11 @@
         <v>3.8541666666666668E-3</v>
       </c>
       <c r="O66" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>5.7870370370370454E-5</v>
       </c>
       <c r="P66" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="Q66" s="2"/>
@@ -4581,7 +4562,7 @@
         <v>4.5833333333333334E-3</v>
       </c>
       <c r="G67" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2.4305555555555539E-4</v>
       </c>
       <c r="H67" s="2">
@@ -4591,7 +4572,7 @@
         <v>4.5254629629629629E-3</v>
       </c>
       <c r="J67" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.8518518518518493E-4</v>
       </c>
       <c r="K67" s="2">
@@ -4607,11 +4588,11 @@
         <v>4.5833333333333334E-3</v>
       </c>
       <c r="O67" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3.4722222222222446E-5</v>
       </c>
       <c r="P67" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="Q67" s="2"/>
@@ -4638,7 +4619,7 @@
         <v>6.3541666666666668E-3</v>
       </c>
       <c r="G68" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>6.481481481481477E-4</v>
       </c>
       <c r="H68" s="2">
@@ -4664,11 +4645,11 @@
         <v>6.3657407407407404E-3</v>
       </c>
       <c r="O68" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3.1249999999999941E-4</v>
       </c>
       <c r="P68" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>6.9444444444444892E-5</v>
       </c>
       <c r="Q68" s="2"/>
@@ -4695,7 +4676,7 @@
         <v>7.0023148148148154E-3</v>
       </c>
       <c r="G69" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7.2916666666666703E-4</v>
       </c>
       <c r="H69" s="2">
@@ -4705,7 +4686,7 @@
         <v>6.3425925925925915E-3</v>
       </c>
       <c r="J69" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.9444444444443157E-5</v>
       </c>
       <c r="K69" s="2">
@@ -4721,11 +4702,11 @@
         <v>7.106481481481481E-3</v>
       </c>
       <c r="O69" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.8518518518518406E-4</v>
       </c>
       <c r="P69" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5.7870370370370541E-4</v>
       </c>
       <c r="Q69" s="2"/>
@@ -4752,7 +4733,7 @@
         <v>6.7245370370370367E-3</v>
       </c>
       <c r="G70" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.5046296296296335E-4</v>
       </c>
       <c r="H70" s="2">
@@ -4762,7 +4743,7 @@
         <v>6.5972222222222222E-3</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="K70" s="2">
@@ -4778,11 +4759,11 @@
         <v>6.7245370370370367E-3</v>
       </c>
       <c r="O70" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4.6296296296295149E-5</v>
       </c>
       <c r="P70" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8.1018518518519329E-5</v>
       </c>
       <c r="Q70" s="2"/>
@@ -4801,7 +4782,7 @@
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
-      <c r="G71" s="23">
+      <c r="G71" s="21">
         <f>SUM(G62:G70)</f>
         <v>3.0092592592592593E-3</v>
       </c>
@@ -4850,7 +4831,7 @@
         <v>2.1064814814814813E-3</v>
       </c>
       <c r="G72" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.5046296296296292E-4</v>
       </c>
       <c r="H72" s="2">
@@ -4860,7 +4841,7 @@
         <v>1.9907407407407408E-3</v>
       </c>
       <c r="J72" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.4722222222222446E-5</v>
       </c>
       <c r="K72" s="2">
@@ -4876,11 +4857,11 @@
         <v>2.1064814814814813E-3</v>
       </c>
       <c r="O72" s="3">
-        <f t="shared" ref="O72:O78" si="18" xml:space="preserve"> N72-M72</f>
+        <f t="shared" ref="O72:O77" si="22" xml:space="preserve"> N72-M72</f>
         <v>1.1574074074074047E-4</v>
       </c>
       <c r="P72" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q72" s="2"/>
@@ -4907,7 +4888,7 @@
         <v>2.0023148148148148E-3</v>
       </c>
       <c r="G73" s="5">
-        <f t="shared" ref="G73:G80" si="19">F73-E73</f>
+        <f t="shared" ref="G73:G80" si="23">F73-E73</f>
         <v>3.1249999999999984E-4</v>
       </c>
       <c r="H73" s="2">
@@ -4917,7 +4898,7 @@
         <v>1.8981481481481482E-3</v>
       </c>
       <c r="J73" s="3">
-        <f t="shared" ref="J73:J80" si="20">I73-E73</f>
+        <f t="shared" ref="J73:J80" si="24">I73-E73</f>
         <v>2.0833333333333316E-4</v>
       </c>
       <c r="K73" s="2">
@@ -4933,11 +4914,11 @@
         <v>2.0023148148148148E-3</v>
       </c>
       <c r="O73" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>9.2592592592592683E-5</v>
       </c>
       <c r="P73" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
       <c r="Q73" s="2"/>
@@ -4964,7 +4945,7 @@
         <v>3.0671296296296297E-3</v>
       </c>
       <c r="G74" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>6.8287037037037058E-4</v>
       </c>
       <c r="H74" s="2">
@@ -4974,7 +4955,7 @@
         <v>2.5115740740740741E-3</v>
       </c>
       <c r="J74" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.2731481481481491E-4</v>
       </c>
       <c r="K74" s="2">
@@ -5019,7 +5000,7 @@
         <v>3.5995370370370369E-3</v>
       </c>
       <c r="G75" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3.9351851851851787E-4</v>
       </c>
       <c r="H75" s="2">
@@ -5029,7 +5010,7 @@
         <v>3.2986111111111111E-3</v>
       </c>
       <c r="J75" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>9.2592592592592032E-5</v>
       </c>
       <c r="K75" s="2">
@@ -5045,11 +5026,11 @@
         <v>3.5995370370370369E-3</v>
       </c>
       <c r="O75" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.8935185185185184E-4</v>
       </c>
       <c r="P75" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
       <c r="Q75" s="2"/>
@@ -5076,7 +5057,7 @@
         <v>3.9351851851851857E-3</v>
       </c>
       <c r="G76" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2.5462962962963026E-4</v>
       </c>
       <c r="H76" s="2">
@@ -5086,7 +5067,7 @@
         <v>3.6921296296296298E-3</v>
       </c>
       <c r="J76" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.1574074074074438E-5</v>
       </c>
       <c r="K76" s="2">
@@ -5102,11 +5083,11 @@
         <v>3.9004629629629632E-3</v>
       </c>
       <c r="O76" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.967592592592598E-4</v>
       </c>
       <c r="P76" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.157407407407357E-5</v>
       </c>
       <c r="Q76" s="2"/>
@@ -5133,7 +5114,7 @@
         <v>4.6759259259259263E-3</v>
       </c>
       <c r="G77" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2.8935185185185227E-4</v>
       </c>
       <c r="H77" s="2">
@@ -5143,7 +5124,7 @@
         <v>4.5833333333333334E-3</v>
       </c>
       <c r="J77" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.9675925925925937E-4</v>
       </c>
       <c r="K77" s="2">
@@ -5159,11 +5140,11 @@
         <v>4.6759259259259263E-3</v>
       </c>
       <c r="O77" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.4722222222222446E-5</v>
       </c>
       <c r="P77" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5.7870370370370454E-5</v>
       </c>
       <c r="Q77" s="2"/>
@@ -5190,7 +5171,7 @@
         <v>6.076388888888889E-3</v>
       </c>
       <c r="G78" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2.4305555555555539E-4</v>
       </c>
       <c r="H78" s="2">
@@ -5200,7 +5181,7 @@
         <v>5.8564814814814825E-3</v>
       </c>
       <c r="J78" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="K78" s="2">
@@ -5220,7 +5201,7 @@
         <v>2.1990740740740651E-4</v>
       </c>
       <c r="P78" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q78" s="2"/>
@@ -5247,7 +5228,7 @@
         <v>6.2037037037037043E-3</v>
       </c>
       <c r="G79" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.0509259259259318E-4</v>
       </c>
       <c r="H79" s="2">
@@ -5257,7 +5238,7 @@
         <v>6.145833333333333E-3</v>
       </c>
       <c r="J79" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3.4722222222222186E-4</v>
       </c>
       <c r="K79" s="2">
@@ -5277,7 +5258,7 @@
         <v>4.6296296296296884E-5</v>
       </c>
       <c r="P79" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.1574074074074438E-5</v>
       </c>
       <c r="Q79" s="2"/>
@@ -5304,7 +5285,7 @@
         <v>7.2453703703703708E-3</v>
       </c>
       <c r="G80" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.0416666666666647E-4</v>
       </c>
       <c r="H80" s="2">
@@ -5314,7 +5295,7 @@
         <v>7.1643518518518514E-3</v>
       </c>
       <c r="J80" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="K80" s="2">
@@ -5334,7 +5315,7 @@
         <v>4.6296296296296884E-5</v>
       </c>
       <c r="P80" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3.4722222222222446E-5</v>
       </c>
       <c r="Q80" s="2"/>
@@ -5353,7 +5334,7 @@
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
-      <c r="G81" s="23">
+      <c r="G81" s="21">
         <f>SUM(G72:G80)</f>
         <v>2.8356481481481488E-3</v>
       </c>
@@ -5392,4 +5373,77 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A75A8A-F741-4C3F-9138-10D56EF9D568}">
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
+++ b/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\studies\2020_Aperol_Git\Coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Desktop\020_Aperol_MK_GK_CL_forvideoserver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FB8B31-F033-4DB1-8CEE-4FA4C125A431}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B511F1-2D06-4433-9DEF-40BD9AFC8A74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
   </bookViews>
   <sheets>
-    <sheet name="coding" sheetId="1" r:id="rId1"/>
-    <sheet name="codingschema" sheetId="2" r:id="rId2"/>
+    <sheet name="coding scheme" sheetId="2" r:id="rId1"/>
+    <sheet name="coding" sheetId="1" r:id="rId2"/>
+    <sheet name="notes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="104">
   <si>
     <t xml:space="preserve">disturbance </t>
   </si>
@@ -248,6 +249,110 @@
   </si>
   <si>
     <t>verbal: interacting with disturbing person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exemple </t>
+  </si>
+  <si>
+    <t>disturbance  offset</t>
+  </si>
+  <si>
+    <t>reaction onset</t>
+  </si>
+  <si>
+    <t>reaction offset</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>disturbance seen (0/1)</t>
+  </si>
+  <si>
+    <t>disturbance onset</t>
+  </si>
+  <si>
+    <t>a disturbance is considered "executed" when the person addressed in the script executes the disturbance according to the instruction until she/he is asked to stop or the next instruction for her/him appears on the screen.</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <r>
+      <t>the classification of the different disturbances is based on Lohmann (2015)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Lohmann, G. (2015). Mit Schülern klarkommen. Professioneller Umgang mit Unterrichtsstörungen
+und Disziplinkonflikten (12. Aufl.). Berlin: Cornelsen Verlag Scriptor GmbH &amp; Co. KG.</t>
+  </si>
+  <si>
+    <t>the following instruction appears on the screen for person A: "clicking nervously with the pen". Person A takes a pen and clicks it several times until she/he is asked to stop or the next instruction for her/him appears on the screen.</t>
+  </si>
+  <si>
+    <t>the following instruction appears on the screen for person A: "drumming with hands on the table". The moment counts as the starting point when person A starts to drum with her/his hands on the table and makes drum sounds.</t>
+  </si>
+  <si>
+    <t>a disturbance is considered "started" as soon as the person starts to perform the movement, sound or gesture as instructed in the script.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a disturbance is considered to be "finished" as soon as the person who has performed the disturbance stops performing the sound, movement or gesture from the script because a new instruction is given or the teacher asks him/her to do so. </t>
+  </si>
+  <si>
+    <t>Person A is laying with the head on the table. The teacher approaches person A and tells her/him to take the head off the table. The moment person A is getting up, the disturbance is considered to be finished.</t>
+  </si>
+  <si>
+    <t>the duration of a disturbance means the time span from the start to the end point of the disturbance. It includes the time at which the disturbance begins until the time at which the disturbance ends.</t>
+  </si>
+  <si>
+    <t>The duration of the disturbance "scribbling on a sheet of paper" ranges from the starting point when person A takes a pencil to paint on a sheet of paper to the end point when the pencil is put down because the teacher has asked for it or a new disturbance appears on the screen.</t>
+  </si>
+  <si>
+    <t>Person A begins to turn around on the chair to stare out of the window. At the moment when the teacher's gaze meets person A for the first time, the disturbance counts as seen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a disturbance is considered to be "seen" when the teacher's gaze meets the person performing the disturbance for the first time. </t>
+  </si>
+  <si>
+    <t>physical disturbance:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lack of eagerness to learn: </t>
+  </si>
+  <si>
+    <t>verbal disturbance:</t>
+  </si>
+  <si>
+    <t>chitchatting with neighbour</t>
+  </si>
+  <si>
+    <t>shouting loudly "I have to pee"</t>
+  </si>
+  <si>
+    <t>snipping fingers and asking a question</t>
+  </si>
+  <si>
+    <t>in the case of verbal disturbance, the lesson is interrupted or disturbed by verbal comments from the teacher or the students.</t>
+  </si>
+  <si>
+    <t>chatting, cheeky behavior, heckling, insults</t>
+  </si>
+  <si>
+    <t>wriggling, drumming with the hands on the table, wobbling with the chair, walking around</t>
+  </si>
+  <si>
+    <t>mental absence, disinterest, inattention</t>
   </si>
 </sst>
 </file>
@@ -257,7 +362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,8 +393,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +426,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -413,6 +558,51 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,12 +917,333 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A75A8A-F741-4C3F-9138-10D56EF9D568}">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="46.5546875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="50.109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="19" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.5546875" style="24"/>
+    <col min="14" max="14" width="14.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.5546875" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+    </row>
+    <row r="3" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+    </row>
+    <row r="5" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+    </row>
+    <row r="18" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+    </row>
+    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="25"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="25"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="25"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="25"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="25"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="25"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="25"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="25"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="25"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DD2F59-5577-4BF1-9B09-7232E83E7D11}">
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5375,75 +5886,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A75A8A-F741-4C3F-9138-10D56EF9D568}">
-  <dimension ref="A1:O1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D00FF1-E49A-4AE2-A2F4-707024AC9741}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
+++ b/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Desktop\020_Aperol_MK_GK_CL_forvideoserver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\studies\2020_Aperol_Git\Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B511F1-2D06-4433-9DEF-40BD9AFC8A74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C27473C-0A03-4718-875F-030B1CCE21BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="154">
   <si>
     <t xml:space="preserve">disturbance </t>
   </si>
@@ -294,65 +294,216 @@
     </r>
   </si>
   <si>
-    <t>1 Lohmann, G. (2015). Mit Schülern klarkommen. Professioneller Umgang mit Unterrichtsstörungen
+    <t>the following instruction appears on the screen for person A: "clicking nervously with the pen". Person A takes a pen and clicks it several times until she/he is asked to stop or the next instruction for her/him appears on the screen.</t>
+  </si>
+  <si>
+    <t>the following instruction appears on the screen for person A: "drumming with hands on the table". The moment counts as the starting point when person A starts to drum with her/his hands on the table and makes drum sounds.</t>
+  </si>
+  <si>
+    <t>a disturbance is considered "started" as soon as the person starts to perform the movement, sound or gesture as instructed in the script.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a disturbance is considered to be "finished" as soon as the person who has performed the disturbance stops performing the sound, movement or gesture from the script because a new instruction is given or the teacher asks him/her to do so. </t>
+  </si>
+  <si>
+    <t>Person A is laying with the head on the table. The teacher approaches person A and tells her/him to take the head off the table. The moment person A is getting up, the disturbance is considered to be finished.</t>
+  </si>
+  <si>
+    <t>the duration of a disturbance means the time span from the start to the end point of the disturbance. It includes the time at which the disturbance begins until the time at which the disturbance ends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a disturbance is considered to be "seen" when the teacher's gaze meets the person performing the disturbance for the first time. </t>
+  </si>
+  <si>
+    <t>physical disturbance:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lack of eagerness to learn: </t>
+  </si>
+  <si>
+    <t>verbal disturbance:</t>
+  </si>
+  <si>
+    <t>chitchatting with neighbour</t>
+  </si>
+  <si>
+    <t>shouting loudly "I have to pee"</t>
+  </si>
+  <si>
+    <t>snipping fingers and asking a question</t>
+  </si>
+  <si>
+    <t>in the case of verbal disturbance, the lesson is interrupted or disturbed by verbal comments from the teacher or the students.</t>
+  </si>
+  <si>
+    <t>chatting, cheeky behavior, heckling, insults</t>
+  </si>
+  <si>
+    <t>wriggling, drumming with hands on the table, wobbling with the chair, walking around</t>
+  </si>
+  <si>
+    <t>1 Lohmann, G. (2015). Mit Schülern klarkommen. Professioneller Umgang mit Unterrichtsstörungen 
 und Disziplinkonflikten (12. Aufl.). Berlin: Cornelsen Verlag Scriptor GmbH &amp; Co. KG.</t>
   </si>
   <si>
-    <t>the following instruction appears on the screen for person A: "clicking nervously with the pen". Person A takes a pen and clicks it several times until she/he is asked to stop or the next instruction for her/him appears on the screen.</t>
-  </si>
-  <si>
-    <t>the following instruction appears on the screen for person A: "drumming with hands on the table". The moment counts as the starting point when person A starts to drum with her/his hands on the table and makes drum sounds.</t>
-  </si>
-  <si>
-    <t>a disturbance is considered "started" as soon as the person starts to perform the movement, sound or gesture as instructed in the script.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a disturbance is considered to be "finished" as soon as the person who has performed the disturbance stops performing the sound, movement or gesture from the script because a new instruction is given or the teacher asks him/her to do so. </t>
-  </si>
-  <si>
-    <t>Person A is laying with the head on the table. The teacher approaches person A and tells her/him to take the head off the table. The moment person A is getting up, the disturbance is considered to be finished.</t>
-  </si>
-  <si>
-    <t>the duration of a disturbance means the time span from the start to the end point of the disturbance. It includes the time at which the disturbance begins until the time at which the disturbance ends.</t>
-  </si>
-  <si>
-    <t>The duration of the disturbance "scribbling on a sheet of paper" ranges from the starting point when person A takes a pencil to paint on a sheet of paper to the end point when the pencil is put down because the teacher has asked for it or a new disturbance appears on the screen.</t>
-  </si>
-  <si>
-    <t>Person A begins to turn around on the chair to stare out of the window. At the moment when the teacher's gaze meets person A for the first time, the disturbance counts as seen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a disturbance is considered to be "seen" when the teacher's gaze meets the person performing the disturbance for the first time. </t>
-  </si>
-  <si>
-    <t>physical disturbance:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lack of eagerness to learn: </t>
-  </si>
-  <si>
-    <t>verbal disturbance:</t>
-  </si>
-  <si>
-    <t>chitchatting with neighbour</t>
-  </si>
-  <si>
-    <t>shouting loudly "I have to pee"</t>
-  </si>
-  <si>
-    <t>snipping fingers and asking a question</t>
-  </si>
-  <si>
-    <t>in the case of verbal disturbance, the lesson is interrupted or disturbed by verbal comments from the teacher or the students.</t>
-  </si>
-  <si>
-    <t>chatting, cheeky behavior, heckling, insults</t>
-  </si>
-  <si>
-    <t>wriggling, drumming with the hands on the table, wobbling with the chair, walking around</t>
-  </si>
-  <si>
-    <t>mental absence, disinterest, inattention</t>
+    <t>physical disturbances are disturbances in which the active learning time of students is disturbed or interrupted by physical activities from the student or the teacher that are not part of classroom activities.</t>
+  </si>
+  <si>
+    <t>drawing/ scribbling on a sheet of paper</t>
+  </si>
+  <si>
+    <t>lack of eagerness to learn is a passive disturbance that occurs when students do not actively participate in class due to mental absence, disinterest or inattention.</t>
+  </si>
+  <si>
+    <t>the disturbance "standing up and walking around" occurs when the person addressed in the script gets up from the chair and walks around the room without being asked to do so by the teacher.</t>
+  </si>
+  <si>
+    <t>on the screen, person A is asked to "chitchat with the neighbour". Person A then bends over to her/his neighbour or attracts her/his attention by making noises (calling the name of the neighbour or whistling) and starts whispering.</t>
+  </si>
+  <si>
+    <t>the distubance "shouting loudly 'I have to pee'" occurs when the person interrupts the lesson by shouting loudly "I have to pee" without raising the hand the moment the person reads the instruction on the screen.</t>
+  </si>
+  <si>
+    <t>person A reads on the screen to shout loudly "I have to pee". Person A executes the instruction immediately, without considering what is happening in the classroom.</t>
+  </si>
+  <si>
+    <t>max. Dauer: 100ms</t>
+  </si>
+  <si>
+    <t>Pixel weichen nicht mehr als 30px voneinander ab</t>
+  </si>
+  <si>
+    <t>the disturbance "snipping fingers and asking a question" occurs when the person asked in the script interrupts the lesson by rainsing the hand and snipping fingers to ask a question. The content of the question is not relevant.</t>
+  </si>
+  <si>
+    <t>the disturbance "chatting with the neigbour" occurs when the person asked in the script bends over to her/his neighbor or attracts attention by making noises and then starts whispering to the neigbour. The content is not relevant.</t>
+  </si>
+  <si>
+    <t>on the screen, person A is asked to "snip fingers and ask a question". Person A then starts snipping fingers and making snipping noises the moment she/he reads the instruction on the screen until the teacher ask her/him to stop.</t>
+  </si>
+  <si>
+    <t>on the screen, person A is asked to "click nervously with the pen". Person A then takes a pen and starts clicking it serveral times until the teacher asks to stop the behavior or a new disturbance for person A appears on the screen.</t>
+  </si>
+  <si>
+    <t>on the screen, person A is asked to "drum with the hands on the table". Person A then puts her/his hands on the table and starts making drum noises until the teacher asks to stop or the next instruction for her/him appears on the screen.</t>
+  </si>
+  <si>
+    <t>on the screen, person A is asked to "stand up and walk around". Person A then gets up from the chair, stands up - without being asked by the teacher - and moves around the classroom. Person A continues until the teacher asks to stop the behavior or the next instruction for person A appears on the screen.</t>
+  </si>
+  <si>
+    <t>mental absence, disinterest, inattention like looking at the phone, drawing, staring out of the window, putting the head on the table</t>
+  </si>
+  <si>
+    <t>the disturbance "putting head on the table" occurs when the person asked in the script lays down her/his head on the table - until the teacher asks to stop or the next instruction for her/him appears on the screen. If the person is standing, the moment she/he gets the instruction, she/he postpones the disturbance until she/he is sitting again.</t>
+  </si>
+  <si>
+    <t>the distubance "drumming hands on table" occurs when the person asked in the script starts making drum noises with the hands on the table until the teacher asks to stop the noise or the next instruction for her/him appears on the screen. If the person is standing, the moment she/he gets the instruction, she/he postpones the disturbance until she/he is sitting again.</t>
+  </si>
+  <si>
+    <t>the disturbance "clicking nervously with the pen" occurs when the person asked in the script takes a pen and starts clicking it several times until the teacher asks to stop or the next instruction for her/him appears on the screen. If the person has no pen, the moment she/he gets the instruction, she/he postpones the disturbance until she/he is sitting again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on the screen, person A is asked to "put the head on the table". Person A then moves back with the chair to lay down her/his head on the table no matter what activity she/he is doing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the disturbance "looking at the phone" occurs when the person asked in the script takes out her/his phone or has it already on the table and starts looking at it until the teacher asks to stop or the next instruction for her/him appears on the screen. Exceptions have to be considered where students are explicitly allowed to use mobile phones in class. </t>
+  </si>
+  <si>
+    <t>on the screen, person A is asked to "look at her/his phone". Person A then takes out the phone and starts looking at the phone until the teacher asked to stop or the next instruction is for her/him appears on the screen.</t>
+  </si>
+  <si>
+    <t>the disturbance "drawing/ scribbling on a sheet of paper" occurs when the person asked in the script takes a pen and starts drawing on a sheet of paper no matter what she/he is doing. The person continues until the teacher asks to stop or the next instruction for her/him appears on the screen.</t>
+  </si>
+  <si>
+    <t>on the screen, person A is asked to "draw on a sheet of paper". Person A then takes a pen and starts drawing until the teacher asks to stop or the next instruction for her/him appears on the screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the timecode for "disturbance seen" starts the moment, the teacher's gaze meets the person performing the disturbance for the first time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a reaction is considered a reaction when the teacher comments and/or stops the behavior, movement, sound or gesture of the person performing a disturbance that is defined in the script.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">different kind of reactions </t>
+  </si>
+  <si>
+    <t>maintaining proximity</t>
+  </si>
+  <si>
+    <t>invoking silence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">providing response opportunities </t>
+  </si>
+  <si>
+    <t>practicing "the look"</t>
+  </si>
+  <si>
+    <t>Boynton, M., &amp; Boynton, C. (2005). The educator's guide to preventing and solving discipline problems. ASCD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a reaction is considered "started" as soon as the teacher starts to react verbally or nonverbally to the movement, sound or gesture of the person performing a disturbance as instructed in the script. </t>
+  </si>
+  <si>
+    <t>verbal reactions: the teacher answers a question, the teacher asks the disturbing person to stop the disturbing behavior, the teacher comments on the disturbing behavior.
+non-verbal reactions: the teacher approaches the disturbing person, the teacher directs the gaze to the disturbing person, the teacher makes a gesture that makes it clear that the disturbing person has to stop the disturbing behavior.</t>
+  </si>
+  <si>
+    <t>the following instruction appears on the screen for person A: "drumming with hands on the table". The non-verbal reaction counts as started when the teacher starts to fixate the disturbing person and move towards her/him.</t>
+  </si>
+  <si>
+    <t>a reaction is considered to be "finished" as soon as the teacher stops dealing verbally or non-verbally with the disturbing person and continues the lesson.</t>
+  </si>
+  <si>
+    <t>Person A is laying with the head on the table. The teacher approaches person A and tells her/him to take the head off the table. The moment person A is getting up and the teacher continues the lesson, the reaction is considered to be "finished".</t>
+  </si>
+  <si>
+    <t>the duration of a reaction means the time span from the start to the end point of the teacher's reaction. It includes the time at which the teacher starts to react verbally or non-verbally to the disturbance until the time at which the teacher's reaction ends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The reaction to the disturbance "scribbling on a sheet of paper" performed by person A ranges from the starting point when the teacher moves toward person A, asks her/her to stop drawing until the end point when the teacher continues the lesson. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the duration "onset-seen" means the period of time when the disturbance first occurs to the moment the disturbance is first seen by the teacher. The duration is calculated by subtracting the time at which the disturbance first occurs from the time at which the disturbance is first seen by the teacher. </t>
+  </si>
+  <si>
+    <t>the duration "seen-reaction" means the period of time when the disturbance is first seen by the teacher to the moment the teachers reacts to the disturbance. The duration is calculated by subtracting the time at which the disturbance is first seen by the teacher from the time at which the teachers starts to react to the disturbance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person A bends over to her/his neighbour. The reation is considered a reaction when the teacher reacts verbally by asking person A if there are any questions concerning the lesson.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reactions are differentiated betweeen verbal and non-verbal reaction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixation: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fragen: </t>
+  </si>
+  <si>
+    <t>1. Wie gehe ich mit den unterschiedlichen Störungen in Sitzung 01 und 02 um? "Herumlaufen" als Störung in Sitzung 01 wurde in 02 ersetzt durch "aus dem Fenster starren"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Wie gehe ich mit missing values (n.a.) um? </t>
+  </si>
+  <si>
+    <t>verbal disturbances, physical disturbances, lack of eagerness to learn, (aggressive behavior as a disturbance was not included in the pilot study)</t>
+  </si>
+  <si>
+    <t>the following instruction appears on the screen for person A: "scribbling on a sheet of paper". The duration of the disturbance "scribbling on a sheet of paper" ranges from the starting point when person A takes a pencil to paint on a sheet of paper to the end point when the pencil is put down because the teacher has asked for it or a new disturbance appears on the screen.</t>
+  </si>
+  <si>
+    <t>the following instruction appears on the screen for person A: "staring out of the window". Person A begins to turn around on the chair to stare out of the window. The moment the teacher's gaze meets person A for the first time, the disturbance counts as seen.</t>
+  </si>
+  <si>
+    <t>the following instruction appears on the screen for person A: "staring out of the window". Person A begins to turn around on the chair to stare out of the window. The moment the teacher's gaze meets person A for the first time, the timestamp is the starting point for "disturbance seen".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the following instruction appears on the screen for person A: " "looking at phone". the duration "onset-seen" for the disturbance means the period of time when the person A takes out her/his phone and starts looking at it to the moment the teachers first sees person A looking at her/his phone. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the following instruction appears on the screen for person A: " "looking at phone". the duration "seen-reaction" for the disturbance means the period of time when the teachers first sees person A looking at her/his phone to the moment the teacher reacts verbally or non-verbally to the disturbance by asking the person to put away the mobile phone. </t>
   </si>
 </sst>
 </file>
@@ -410,7 +561,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +601,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -559,51 +722,68 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -918,317 +1098,441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A75A8A-F741-4C3F-9138-10D56EF9D568}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="46.5546875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="50.109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="19" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.5546875" style="24"/>
-    <col min="14" max="14" width="14.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.5546875" style="24"/>
+    <col min="1" max="1" width="40.33203125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="46.5546875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="50.109375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="19" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.5546875" style="30"/>
+    <col min="14" max="14" width="14.5546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.5546875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
     </row>
-    <row r="3" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+    </row>
+    <row r="5" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+    </row>
+    <row r="19" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-    </row>
-    <row r="5" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="23"/>
-    </row>
-    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="23" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+    </row>
+    <row r="21" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+    </row>
+    <row r="23" spans="1:3" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+    </row>
+    <row r="25" spans="1:3" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+    </row>
+    <row r="27" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+    </row>
+    <row r="29" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+    </row>
+    <row r="31" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+    </row>
+    <row r="33" spans="1:6" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+    </row>
+    <row r="35" spans="1:6" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+    </row>
+    <row r="37" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+    </row>
+    <row r="39" spans="1:6" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+    </row>
+    <row r="41" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-    </row>
-    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-    </row>
-    <row r="18" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-    </row>
-    <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-    </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="29" t="s">
-        <v>84</v>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="41"/>
+    </row>
+    <row r="49" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="38" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1242,8 +1546,8 @@
   <dimension ref="A1:S89"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W79" sqref="W79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1807,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -2202,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>29</v>
@@ -2659,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
@@ -3293,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>29</v>
@@ -3927,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>29</v>
@@ -3949,7 +4253,7 @@
         <v>4.8379629629629632E-3</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="13"/>
+        <f>I47-E47</f>
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="K47" s="2">
@@ -3969,7 +4273,7 @@
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="P47" s="3">
-        <f t="shared" si="17"/>
+        <f>M47-I47</f>
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="Q47" s="2"/>
@@ -4381,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>29</v>
@@ -4823,7 +5127,9 @@
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
-      <c r="S62" s="3"/>
+      <c r="S62" s="3">
+        <v>7.3263888888888892E-3</v>
+      </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
@@ -4880,7 +5186,9 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
-      <c r="S63" s="3"/>
+      <c r="S63" s="3">
+        <v>7.3263888888888892E-3</v>
+      </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
@@ -4937,7 +5245,9 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
-      <c r="S64" s="3"/>
+      <c r="S64" s="3">
+        <v>7.3263888888888892E-3</v>
+      </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
@@ -4994,7 +5304,9 @@
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
-      <c r="S65" s="3"/>
+      <c r="S65" s="3">
+        <v>7.3263888888888892E-3</v>
+      </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
@@ -5004,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>29</v>
@@ -5051,7 +5363,9 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
-      <c r="S66" s="3"/>
+      <c r="S66" s="3">
+        <v>7.3263888888888892E-3</v>
+      </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
@@ -5108,7 +5422,9 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
-      <c r="S67" s="3"/>
+      <c r="S67" s="3">
+        <v>7.3263888888888892E-3</v>
+      </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
@@ -5165,7 +5481,9 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
-      <c r="S68" s="3"/>
+      <c r="S68" s="3">
+        <v>7.3263888888888892E-3</v>
+      </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
@@ -5222,7 +5540,9 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
-      <c r="S69" s="3"/>
+      <c r="S69" s="3">
+        <v>7.3263888888888892E-3</v>
+      </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
@@ -5279,7 +5599,9 @@
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
-      <c r="S70" s="3"/>
+      <c r="S70" s="3">
+        <v>7.3263888888888892E-3</v>
+      </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
@@ -5377,7 +5699,9 @@
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
+      <c r="S72" s="3">
+        <v>7.5578703703703702E-3</v>
+      </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
@@ -5434,7 +5758,9 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
+      <c r="S73" s="3">
+        <v>7.5578703703703702E-3</v>
+      </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
@@ -5489,7 +5815,9 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
+      <c r="S74" s="3">
+        <v>7.5578703703703702E-3</v>
+      </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
@@ -5546,7 +5874,9 @@
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
+      <c r="S75" s="3">
+        <v>7.5578703703703702E-3</v>
+      </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
@@ -5603,7 +5933,9 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
+      <c r="S76" s="3">
+        <v>7.5578703703703702E-3</v>
+      </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
@@ -5660,7 +5992,9 @@
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
+      <c r="S77" s="3">
+        <v>7.5578703703703702E-3</v>
+      </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
@@ -5717,7 +6051,9 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
+      <c r="S78" s="3">
+        <v>7.5578703703703702E-3</v>
+      </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
@@ -5774,7 +6110,9 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
+      <c r="S79" s="3">
+        <v>7.5578703703703702E-3</v>
+      </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
@@ -5784,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>29</v>
@@ -5831,7 +6169,9 @@
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
+      <c r="S80" s="3">
+        <v>7.5578703703703702E-3</v>
+      </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
@@ -5888,14 +6228,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D00FF1-E49A-4AE2-A2F4-707024AC9741}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="38"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="38"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
+++ b/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\studies\2020_Aperol_Git\Coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\studies\2020_Aperol_Git\Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C27473C-0A03-4718-875F-030B1CCE21BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{6C27473C-0A03-4718-875F-030B1CCE21BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C1DA73BF-C3B9-4FDD-81D7-1632C153B2D7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="156">
   <si>
     <t xml:space="preserve">disturbance </t>
   </si>
@@ -424,9 +424,6 @@
     <t xml:space="preserve">a reaction is considered a reaction when the teacher comments and/or stops the behavior, movement, sound or gesture of the person performing a disturbance that is defined in the script.  </t>
   </si>
   <si>
-    <t xml:space="preserve">different kind of reactions </t>
-  </si>
-  <si>
     <t>maintaining proximity</t>
   </si>
   <si>
@@ -491,9 +488,6 @@
     <t>verbal disturbances, physical disturbances, lack of eagerness to learn, (aggressive behavior as a disturbance was not included in the pilot study)</t>
   </si>
   <si>
-    <t>the following instruction appears on the screen for person A: "scribbling on a sheet of paper". The duration of the disturbance "scribbling on a sheet of paper" ranges from the starting point when person A takes a pencil to paint on a sheet of paper to the end point when the pencil is put down because the teacher has asked for it or a new disturbance appears on the screen.</t>
-  </si>
-  <si>
     <t>the following instruction appears on the screen for person A: "staring out of the window". Person A begins to turn around on the chair to stare out of the window. The moment the teacher's gaze meets person A for the first time, the disturbance counts as seen.</t>
   </si>
   <si>
@@ -504,6 +498,18 @@
   </si>
   <si>
     <t xml:space="preserve">the following instruction appears on the screen for person A: " "looking at phone". the duration "seen-reaction" for the disturbance means the period of time when the teachers first sees person A looking at her/his phone to the moment the teacher reacts verbally or non-verbally to the disturbance by asking the person to put away the mobile phone. </t>
+  </si>
+  <si>
+    <t>disturbance seen timestamp</t>
+  </si>
+  <si>
+    <t>type of reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">different types of reactions </t>
+  </si>
+  <si>
+    <t>the following instruction appears on the screen for person A: "scribbling on a sheet of paper". The duration of the disturbance "scribbling on a sheet of paper" ranges from the starting point when person A takes a pencil to draw something on a sheet of paper to the end point when the pencil is put down because the teacher has asked for it or a new disturbance appears on the screen.</t>
   </si>
 </sst>
 </file>
@@ -1100,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A75A8A-F741-4C3F-9138-10D56EF9D568}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1162,7 +1168,7 @@
         <v>83</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="33"/>
     </row>
@@ -1199,7 +1205,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>96</v>
       </c>
@@ -1210,7 +1216,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>91</v>
       </c>
@@ -1232,7 +1238,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>26</v>
       </c>
@@ -1335,7 +1341,7 @@
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
     </row>
-    <row r="23" spans="1:3" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>3</v>
       </c>
@@ -1343,7 +1349,7 @@
         <v>89</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1359,7 +1365,7 @@
         <v>90</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1369,13 +1375,13 @@
     </row>
     <row r="27" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>125</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1388,10 +1394,10 @@
         <v>18</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1407,7 +1413,7 @@
         <v>126</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1417,13 +1423,13 @@
     </row>
     <row r="33" spans="1:6" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1436,10 +1442,10 @@
         <v>76</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1452,10 +1458,10 @@
         <v>77</v>
       </c>
       <c r="B37" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="29" t="s">
         <v>136</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1468,10 +1474,10 @@
         <v>24</v>
       </c>
       <c r="B39" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="29" t="s">
         <v>138</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1484,10 +1490,10 @@
         <v>19</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1502,7 +1508,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1510,29 +1516,29 @@
     </row>
     <row r="49" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -6238,17 +6244,17 @@
   <sheetData>
     <row r="1" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6259,7 +6265,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">

--- a/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
+++ b/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{6C27473C-0A03-4718-875F-030B1CCE21BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C1DA73BF-C3B9-4FDD-81D7-1632C153B2D7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" activeTab="1" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
   </bookViews>
   <sheets>
     <sheet name="coding scheme" sheetId="2" r:id="rId1"/>
@@ -1106,7 +1106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A75A8A-F741-4C3F-9138-10D56EF9D568}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1551,9 +1551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DD2F59-5577-4BF1-9B09-7232E83E7D11}">
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W79" sqref="W79"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
+++ b/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\studies\2020_Aperol_Git\Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{6C27473C-0A03-4718-875F-030B1CCE21BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C1DA73BF-C3B9-4FDD-81D7-1632C153B2D7}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{6C27473C-0A03-4718-875F-030B1CCE21BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5ABE49BA-997E-43DB-8883-4CC8CD2B4AC4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" activeTab="1" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
   </bookViews>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="156">
-  <si>
-    <t xml:space="preserve">disturbance </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="171">
   <si>
     <t>onset</t>
   </si>
@@ -68,21 +65,9 @@
     <t>verbal</t>
   </si>
   <si>
-    <t>kind of disturbance</t>
-  </si>
-  <si>
-    <t>physical</t>
-  </si>
-  <si>
-    <t>lack of eagerness to learn</t>
-  </si>
-  <si>
     <t>00:03:48</t>
   </si>
   <si>
-    <t>drawing</t>
-  </si>
-  <si>
     <t>duration onset-seen</t>
   </si>
   <si>
@@ -95,12 +80,6 @@
     <t>disturbance executed</t>
   </si>
   <si>
-    <t>interrupting with "I have to pee"</t>
-  </si>
-  <si>
-    <t>chatting with neighbour</t>
-  </si>
-  <si>
     <t>duration reaction</t>
   </si>
   <si>
@@ -116,102 +95,36 @@
     <t>standing up, walking around</t>
   </si>
   <si>
-    <t>snipping hands, asking questions</t>
-  </si>
-  <si>
     <t>putting head on table</t>
   </si>
   <si>
-    <t>verbal: any questions?</t>
-  </si>
-  <si>
-    <t>verbal: yes, of course</t>
-  </si>
-  <si>
     <t>Aperol_pilot_01_03_novice_B</t>
   </si>
   <si>
-    <t>verbal: rejecting question</t>
-  </si>
-  <si>
-    <t>verbal: yes, explaination</t>
-  </si>
-  <si>
-    <t>verbal: answering question</t>
-  </si>
-  <si>
-    <t>verbal: "don't need to snipp"; answering question</t>
-  </si>
-  <si>
     <t>nonverbal: gaze and gesture</t>
   </si>
   <si>
-    <t>verbal: involving disturbing person</t>
-  </si>
-  <si>
-    <t>nonverbal: gesture; verbal: involving dusturbing person in lesson</t>
-  </si>
-  <si>
-    <t>nonvberal: moving towards disturbing person, verbal: involving disturbing person in lesson</t>
-  </si>
-  <si>
     <t>nonverbal: moving towards disturbing person, involving person</t>
   </si>
   <si>
-    <t>verbal: disturbing person is addressed directly with name</t>
-  </si>
-  <si>
-    <t>verbal: disturbing person is addressed directly with name; involving disturbing person in lesson</t>
-  </si>
-  <si>
-    <t>nonverbal: gesture; verbal: disturbing person is addressed directly with name; involving disturbing person in lesson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verbal: disturbing person is addressed directly with name; nonverbal: gesture to stop </t>
-  </si>
-  <si>
-    <t>verbal: disturbing person is addressed directly with name; answering the question</t>
-  </si>
-  <si>
     <t>Aperol_pilot_01_04_novice_C</t>
   </si>
   <si>
-    <t>verbal: refusing question</t>
-  </si>
-  <si>
     <t>nonverbal: moving towards disturbing person</t>
   </si>
   <si>
-    <t>nonverbal: moving towards disturbing person; verbal: disturbing person is addressed directly with name</t>
-  </si>
-  <si>
     <t>verbal: commentating the noise</t>
   </si>
   <si>
     <t>Aperol_pilot_02_01_novice_A</t>
   </si>
   <si>
-    <t>verbal: laughing, ok, go</t>
-  </si>
-  <si>
     <t>staring out of the window</t>
   </si>
   <si>
-    <t>nonverbal: moving towards disturbing person; verbal: involving disturbing person</t>
-  </si>
-  <si>
-    <t>verbal: asking to stop</t>
-  </si>
-  <si>
     <t>Aperol_pilot_02_02_novice_B</t>
   </si>
   <si>
-    <t>verbal: ok, go</t>
-  </si>
-  <si>
-    <t>nonverbal: moving towards disturbing person; verbal: asking to stop</t>
-  </si>
-  <si>
     <t>verbal:</t>
   </si>
   <si>
@@ -242,15 +155,9 @@
     <t>nonverbal: moving towards disturbing person;</t>
   </si>
   <si>
-    <t>verbal: disturbing person is addressed directly</t>
-  </si>
-  <si>
     <t xml:space="preserve">verbal: in english </t>
   </si>
   <si>
-    <t>verbal: interacting with disturbing person</t>
-  </si>
-  <si>
     <t xml:space="preserve">exemple </t>
   </si>
   <si>
@@ -264,9 +171,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>disturbance seen (0/1)</t>
   </si>
   <si>
     <t>disturbance onset</t>
@@ -510,6 +414,147 @@
   </si>
   <si>
     <t>the following instruction appears on the screen for person A: "scribbling on a sheet of paper". The duration of the disturbance "scribbling on a sheet of paper" ranges from the starting point when person A takes a pencil to draw something on a sheet of paper to the end point when the pencil is put down because the teacher has asked for it or a new disturbance appears on the screen.</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>1 = yes; 0 = no</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>disturbance seen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbal reaction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-verbal reaction </t>
+  </si>
+  <si>
+    <t>type of disturbance</t>
+  </si>
+  <si>
+    <t>20-22</t>
+  </si>
+  <si>
+    <t>30-32</t>
+  </si>
+  <si>
+    <t>verbal reactions: the teacher answers a question, the teacher asks the disturbing person to stop the disturbing behavior, the teacher comments on the disturbing behavior.</t>
+  </si>
+  <si>
+    <t>non-verbal reactions: the teacher approaches the disturbing person, the teacher directs the gaze to the disturbing person, the teacher makes a gesture that makes it clear that the disturbing person has to stop the disturbing behavior.</t>
+  </si>
+  <si>
+    <t>a verbal reaction is a reaction in which the teacher reacts with the spoken word to a disturbance.</t>
+  </si>
+  <si>
+    <t>a non-verbal reaction is a reaction in which the teacher reacts to a disturbance by non-verbal communication. Non-verbal communication includes all gestures, facial expressions, posture and gaze direction.</t>
+  </si>
+  <si>
+    <t>50-59</t>
+  </si>
+  <si>
+    <t>10-12</t>
+  </si>
+  <si>
+    <t>the disturbance "staring out of the window" occurs when the person asked in the script begins to turn around on the chair to stare out of the window.  The person continues until the teacher asks to stop or the next instruction for her/him appears on the screen.</t>
+  </si>
+  <si>
+    <t>on the screen, person A is asked to "stare out of the window". Person A then moves back with the chair, turns around and stares out of the window until the teacher asks to stop or the next instruction for her/him appears on the screen.</t>
+  </si>
+  <si>
+    <t>any questions</t>
+  </si>
+  <si>
+    <t>the teachers asks if there is a question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refusing question </t>
+  </si>
+  <si>
+    <t>the teachers refuses the question a student has asked.</t>
+  </si>
+  <si>
+    <t>person A and person B start chatting with each other. The teacher notices the disturbance and asks if there is a question.</t>
+  </si>
+  <si>
+    <t>person A asks if she/he can go to the toilet. The teacher refuses the question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person A asks if she/he can go to the toilet. The teacher refuses the question. The teacher allows the student to go. </t>
+  </si>
+  <si>
+    <t>100-199</t>
+  </si>
+  <si>
+    <t>disturbing person is addressed directly with name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103; nonverbal: gesture to stop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the teacher addresses the disturbing person directly by name. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">allowing an action/ answering a question </t>
+  </si>
+  <si>
+    <t>involving the disturbung person in lesson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the teacher notices a disturbances. Her/his reaction is to involve the disturbing person in the lesson. </t>
+  </si>
+  <si>
+    <t>person A puts her/his head on the table. The teacher move towards person A and addresses a question directly to person A. "What do you think, x, is this a good idea?"</t>
+  </si>
+  <si>
+    <t>103; 104</t>
+  </si>
+  <si>
+    <t>nonverbal: gesture; 103; 104</t>
+  </si>
+  <si>
+    <t>nonverbal: gesture; 104</t>
+  </si>
+  <si>
+    <t>nonvberal: moving towards disturbing person, 104</t>
+  </si>
+  <si>
+    <t>nonverbal: moving towards disturbing person; 103</t>
+  </si>
+  <si>
+    <t>nonverbal: moving towards disturbing person; 104</t>
+  </si>
+  <si>
+    <t>the teacher allows an action/ answeres a question.</t>
+  </si>
+  <si>
+    <t>person A starts clicking nervously with the pen. The teacher notices the disturbance and addresses person A directly by name, asking him to stop the disturbance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Wie katergorisiere ich unterschiedliche Reaktionen? Zählt die erste Reaktion oder die gesamte Reaktionszeit? </t>
+  </si>
+  <si>
+    <t>asking to stop the disturbance</t>
+  </si>
+  <si>
+    <t>the teacher notices a disturbances. Her/his reaction is to ask the disturbing person to stop the disturbance.</t>
+  </si>
+  <si>
+    <t>person A is drumming with the hands on the table. The teacher notices the noise and asks person A to stop the drumming.</t>
+  </si>
+  <si>
+    <t>103; 102</t>
+  </si>
+  <si>
+    <t>105; 102</t>
+  </si>
+  <si>
+    <t>nonverbal: moving towards disturbing person; 105</t>
   </si>
 </sst>
 </file>
@@ -600,12 +645,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -619,6 +658,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -728,11 +773,11 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -765,22 +810,16 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,6 +829,42 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1104,441 +1179,663 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A75A8A-F741-4C3F-9138-10D56EF9D568}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="46.5546875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="50.109375" style="38" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="30" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="19" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.5546875" style="30"/>
-    <col min="14" max="14" width="14.5546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.5546875" style="30"/>
+    <col min="1" max="1" width="40.33203125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="50.109375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="19" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11.5546875" style="30"/>
+    <col min="15" max="15" width="14.5546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.5546875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="33"/>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="45">
+        <v>10</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="45">
+        <v>11</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="45">
+        <v>12</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B11" s="46">
+        <v>20</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="46">
+        <v>21</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="29" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="46">
+        <v>22</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="48" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-    </row>
-    <row r="5" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+    <row r="15" spans="1:5" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="46">
+        <v>30</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="46">
+        <v>31</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="46">
+        <v>32</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="46">
+        <v>33</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+    </row>
+    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+    </row>
+    <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="1:4" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="1:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+    </row>
+    <row r="28" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+    </row>
+    <row r="30" spans="1:4" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="29" t="s">
+      <c r="B30" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+    </row>
+    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+    </row>
+    <row r="34" spans="1:4" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="46">
+        <v>100</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="46">
+        <v>101</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="46">
+        <v>102</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="29" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="46">
+        <v>103</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="46">
+        <v>104</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="46">
+        <v>105</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+    </row>
+    <row r="44" spans="1:4" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+    </row>
+    <row r="46" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+    </row>
+    <row r="48" spans="1:4" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+    </row>
+    <row r="50" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="42"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+    </row>
+    <row r="58" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="29" t="s">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="36" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-    </row>
-    <row r="19" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-    </row>
-    <row r="21" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-    </row>
-    <row r="23" spans="1:3" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-    </row>
-    <row r="25" spans="1:3" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-    </row>
-    <row r="27" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-    </row>
-    <row r="29" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-    </row>
-    <row r="31" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-    </row>
-    <row r="33" spans="1:6" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-    </row>
-    <row r="35" spans="1:6" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-    </row>
-    <row r="37" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-    </row>
-    <row r="39" spans="1:6" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-    </row>
-    <row r="41" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="41"/>
-    </row>
-    <row r="49" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="38" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1549,11 +1846,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DD2F59-5577-4BF1-9B09-7232E83E7D11}">
-  <dimension ref="A1:S89"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1561,32 +1858,31 @@
     <col min="1" max="1" width="35" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="54.88671875" style="1" customWidth="1"/>
-    <col min="13" max="14" width="11.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.5546875" style="1"/>
+    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="17.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="55.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -1601,31 +1897,31 @@
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>7</v>
@@ -1633,544 +1929,514 @@
       <c r="R1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8.6805555555555551E-4</v>
       </c>
       <c r="E2" s="5">
-        <v>8.6805555555555551E-4</v>
+        <v>9.6064814814814808E-4</v>
       </c>
       <c r="F2" s="5">
+        <f t="shared" ref="F2:F10" si="0">E2-D2</f>
+        <v>9.2592592592592574E-5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>9.0277777777777784E-4</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2:I10" si="1">H2-D2</f>
+        <v>3.4722222222222337E-5</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="52">
+        <v>100</v>
+      </c>
+      <c r="L2" s="3">
+        <v>9.2592592592592585E-4</v>
+      </c>
+      <c r="M2" s="3">
         <v>9.6064814814814808E-4</v>
       </c>
-      <c r="G2" s="5">
-        <f t="shared" ref="G2:G10" si="0">F2-E2</f>
-        <v>9.2592592592592574E-5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>9.0277777777777784E-4</v>
-      </c>
-      <c r="J2" s="3">
-        <f t="shared" ref="J2:J10" si="1">I2-E2</f>
-        <v>3.4722222222222337E-5</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="3">
-        <v>9.2592592592592585E-4</v>
-      </c>
       <c r="N2" s="3">
-        <v>9.6064814814814808E-4</v>
+        <f t="shared" ref="N2:N10" si="2" xml:space="preserve"> M2-L2</f>
+        <v>3.4722222222222229E-5</v>
       </c>
       <c r="O2" s="3">
-        <f t="shared" ref="O2:O10" si="2" xml:space="preserve"> N2-M2</f>
-        <v>3.4722222222222229E-5</v>
-      </c>
-      <c r="P2" s="3">
-        <f t="shared" ref="P2:P10" si="3">M2-I2</f>
+        <f t="shared" ref="O2:O10" si="3">L2-H2</f>
         <v>2.3148148148148008E-5</v>
       </c>
+      <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="3">
+      <c r="R2" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
+      <c r="C3" s="52">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.6319444444444445E-3</v>
       </c>
       <c r="E3" s="5">
-        <v>1.6319444444444445E-3</v>
+        <v>2.0254629629629629E-3</v>
       </c>
       <c r="F3" s="5">
-        <v>2.0254629629629629E-3</v>
-      </c>
-      <c r="G3" s="5">
         <f t="shared" si="0"/>
         <v>3.9351851851851831E-4</v>
       </c>
-      <c r="H3" s="2">
-        <v>1</v>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.712962962962963E-3</v>
       </c>
       <c r="I3" s="3">
-        <v>1.712962962962963E-3</v>
-      </c>
-      <c r="J3" s="3">
         <f t="shared" si="1"/>
         <v>8.1018518518518462E-5</v>
       </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>44</v>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.7245370370370372E-3</v>
       </c>
       <c r="M3" s="3">
-        <v>1.7245370370370372E-3</v>
+        <v>2.0254629629629629E-3</v>
       </c>
       <c r="N3" s="3">
-        <v>2.0254629629629629E-3</v>
-      </c>
-      <c r="O3" s="3">
         <f t="shared" si="2"/>
         <v>3.0092592592592562E-4</v>
       </c>
-      <c r="P3" s="3">
+      <c r="O3" s="3">
         <f t="shared" si="3"/>
         <v>1.1574074074074221E-5</v>
       </c>
+      <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="3">
+      <c r="R3" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="52">
         <v>30</v>
       </c>
+      <c r="D4" s="11">
+        <v>2.8009259259259259E-3</v>
+      </c>
       <c r="E4" s="11">
-        <v>2.8009259259259259E-3</v>
+        <v>2.8935185185185188E-3</v>
       </c>
       <c r="F4" s="11">
-        <v>2.8935185185185188E-3</v>
-      </c>
-      <c r="G4" s="11">
         <f t="shared" si="0"/>
         <v>9.25925925925929E-5</v>
       </c>
-      <c r="H4" s="10">
-        <v>1</v>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12">
+        <v>2.8472222222222219E-3</v>
       </c>
       <c r="I4" s="12">
-        <v>2.8472222222222219E-3</v>
-      </c>
-      <c r="J4" s="12">
         <f t="shared" si="1"/>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="K4" s="10">
-        <v>1</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>44</v>
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" s="12">
+        <v>2.8587962962962963E-3</v>
       </c>
       <c r="M4" s="12">
-        <v>2.8587962962962963E-3</v>
+        <v>2.9282407407407412E-3</v>
       </c>
       <c r="N4" s="12">
-        <v>2.9282407407407412E-3</v>
-      </c>
-      <c r="O4" s="12">
         <f t="shared" si="2"/>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="P4" s="12">
+      <c r="O4" s="12">
         <f t="shared" si="3"/>
         <v>1.1574074074074438E-5</v>
       </c>
+      <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="12">
+      <c r="R4" s="12">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
+      <c r="C5" s="52">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3.2638888888888891E-3</v>
       </c>
       <c r="E5" s="5">
-        <v>3.2638888888888891E-3</v>
+        <v>4.1203703703703706E-3</v>
       </c>
       <c r="F5" s="5">
-        <v>4.1203703703703706E-3</v>
-      </c>
-      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>8.564814814814815E-4</v>
       </c>
-      <c r="H5" s="2">
-        <v>1</v>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3.3217592592592591E-3</v>
       </c>
       <c r="I5" s="3">
-        <v>3.3217592592592591E-3</v>
-      </c>
-      <c r="J5" s="3">
         <f t="shared" si="1"/>
         <v>5.787037037037002E-5</v>
       </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>44</v>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" s="3">
+        <v>4.108796296296297E-3</v>
       </c>
       <c r="M5" s="3">
-        <v>4.108796296296297E-3</v>
+        <v>4.2129629629629626E-3</v>
       </c>
       <c r="N5" s="3">
-        <v>4.2129629629629626E-3</v>
-      </c>
-      <c r="O5" s="3">
         <f t="shared" si="2"/>
         <v>1.041666666666656E-4</v>
       </c>
-      <c r="P5" s="3">
+      <c r="O5" s="3">
         <f t="shared" si="3"/>
         <v>7.8703703703703791E-4</v>
       </c>
+      <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="3">
+      <c r="R5" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4.0162037037037033E-3</v>
       </c>
       <c r="E6" s="3">
-        <v>4.0162037037037033E-3</v>
-      </c>
-      <c r="F6" s="3">
         <v>4.0393518518518521E-3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>2.3148148148148875E-5</v>
       </c>
-      <c r="H6" s="2">
-        <v>1</v>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4.0162037037037033E-3</v>
       </c>
       <c r="I6" s="3">
-        <v>4.0162037037037033E-3</v>
-      </c>
-      <c r="J6" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>32</v>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="52">
+        <v>102</v>
+      </c>
+      <c r="L6" s="3">
+        <v>4.0277777777777777E-3</v>
       </c>
       <c r="M6" s="3">
-        <v>4.0277777777777777E-3</v>
+        <v>4.0624999999999993E-3</v>
       </c>
       <c r="N6" s="3">
-        <v>4.0624999999999993E-3</v>
-      </c>
-      <c r="O6" s="3">
         <f t="shared" si="2"/>
         <v>3.4722222222221578E-5</v>
       </c>
-      <c r="P6" s="3">
+      <c r="O6" s="3">
         <f t="shared" si="3"/>
         <v>1.1574074074074438E-5</v>
       </c>
+      <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="3">
+      <c r="R6" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
+      <c r="C7" s="52">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.340277777777778E-3</v>
       </c>
       <c r="E7" s="3">
-        <v>4.340277777777778E-3</v>
-      </c>
-      <c r="F7" s="3">
         <v>4.5717592592592589E-3</v>
       </c>
-      <c r="G7" s="5">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>2.3148148148148095E-4</v>
       </c>
-      <c r="H7" s="2">
-        <v>1</v>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4.4675925925925933E-3</v>
       </c>
       <c r="I7" s="3">
-        <v>4.4675925925925933E-3</v>
-      </c>
-      <c r="J7" s="3">
         <f t="shared" si="1"/>
         <v>1.2731481481481535E-4</v>
       </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>45</v>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L7" s="3">
+        <v>4.5138888888888893E-3</v>
       </c>
       <c r="M7" s="3">
-        <v>4.5138888888888893E-3</v>
+        <v>4.5717592592592589E-3</v>
       </c>
       <c r="N7" s="3">
-        <v>4.5717592592592589E-3</v>
-      </c>
-      <c r="O7" s="3">
         <f t="shared" si="2"/>
         <v>5.7870370370369587E-5</v>
       </c>
-      <c r="P7" s="3">
+      <c r="O7" s="3">
         <f t="shared" si="3"/>
         <v>4.6296296296296016E-5</v>
       </c>
+      <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3">
+      <c r="R7" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
+      <c r="C8" s="52">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5.0231481481481481E-3</v>
       </c>
       <c r="E8" s="3">
-        <v>5.0231481481481481E-3</v>
-      </c>
-      <c r="F8" s="3">
         <v>5.3009259259259251E-3</v>
       </c>
-      <c r="G8" s="5">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>2.7777777777777696E-4</v>
       </c>
-      <c r="H8" s="2">
-        <v>1</v>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5.0462962962962961E-3</v>
       </c>
       <c r="I8" s="3">
-        <v>5.0462962962962961E-3</v>
-      </c>
-      <c r="J8" s="3">
         <f t="shared" si="1"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="3">
         <v>5.2430555555555555E-3</v>
       </c>
-      <c r="N8" s="6">
+      <c r="M8" s="6">
         <v>5.3009259259259251E-3</v>
       </c>
-      <c r="O8" s="3">
+      <c r="N8" s="3">
         <f t="shared" si="2"/>
         <v>5.7870370370369587E-5</v>
       </c>
-      <c r="P8" s="3">
+      <c r="O8" s="3">
         <f t="shared" si="3"/>
         <v>1.9675925925925937E-4</v>
       </c>
+      <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3">
+      <c r="R8" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
+      <c r="C9" s="52">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.7175925925925927E-3</v>
       </c>
       <c r="E9" s="3">
-        <v>5.7175925925925927E-3</v>
-      </c>
-      <c r="F9" s="3">
         <v>6.1342592592592594E-3</v>
       </c>
-      <c r="G9" s="5">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>4.1666666666666675E-4</v>
       </c>
-      <c r="H9" s="2">
-        <v>1</v>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5.7175925925925927E-3</v>
       </c>
       <c r="I9" s="3">
-        <v>5.7175925925925927E-3</v>
-      </c>
-      <c r="J9" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
       <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
+      </c>
+      <c r="L9" s="3">
+        <v>6.1111111111111114E-3</v>
       </c>
       <c r="M9" s="3">
-        <v>6.1111111111111114E-3</v>
+        <v>6.1342592592592594E-3</v>
       </c>
       <c r="N9" s="3">
-        <v>6.1342592592592594E-3</v>
-      </c>
-      <c r="O9" s="3">
         <f t="shared" si="2"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="P9" s="3">
+      <c r="O9" s="3">
         <f t="shared" si="3"/>
         <v>3.9351851851851874E-4</v>
       </c>
+      <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3">
+      <c r="R9" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="2">
         <v>12</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
+      <c r="D10" s="3">
+        <v>6.7476851851851856E-3</v>
       </c>
       <c r="E10" s="3">
-        <v>6.7476851851851856E-3</v>
-      </c>
-      <c r="F10" s="3">
         <v>6.828703703703704E-3</v>
       </c>
-      <c r="G10" s="5">
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>8.1018518518518462E-5</v>
       </c>
-      <c r="H10" s="2">
-        <v>1</v>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6.7708333333333336E-3</v>
       </c>
       <c r="I10" s="3">
-        <v>6.7708333333333336E-3</v>
-      </c>
-      <c r="J10" s="3">
         <f t="shared" si="1"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>47</v>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L10" s="3">
+        <v>6.7708333333333336E-3</v>
       </c>
       <c r="M10" s="3">
-        <v>6.7708333333333336E-3</v>
+        <v>6.851851851851852E-3</v>
       </c>
       <c r="N10" s="3">
-        <v>6.851851851851852E-3</v>
-      </c>
-      <c r="O10" s="3">
         <f t="shared" si="2"/>
         <v>8.1018518518518462E-5</v>
       </c>
-      <c r="P10" s="3">
+      <c r="O10" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3">
+      <c r="R10" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B11" s="18">
         <f>SUM(B2:B10)</f>
@@ -2179,570 +2445,542 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="21">
+      <c r="F11" s="21">
+        <f>SUM(F2:F10)</f>
+        <v>2.4652777777777772E-3</v>
+      </c>
+      <c r="G11" s="19">
         <f>SUM(G2:G10)</f>
-        <v>2.4652777777777772E-3</v>
-      </c>
-      <c r="H11" s="19">
-        <f>SUM(H2:H10)</f>
         <v>9</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20">
+      <c r="H11" s="19"/>
+      <c r="I11" s="20">
+        <f>SUM(I2:I10)</f>
+        <v>3.935185185185182E-4</v>
+      </c>
+      <c r="J11" s="19">
         <f>SUM(J2:J10)</f>
-        <v>3.935185185185182E-4</v>
-      </c>
-      <c r="K11" s="19">
-        <f>SUM(K2:K10)</f>
         <v>9</v>
       </c>
+      <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
+      <c r="N11" s="20">
+        <f>SUM(N12:N20)</f>
+        <v>6.9444444444444631E-4</v>
+      </c>
       <c r="O11" s="20">
         <f>SUM(O12:O20)</f>
-        <v>6.9444444444444631E-4</v>
-      </c>
-      <c r="P11" s="20">
-        <f>SUM(P12:P20)</f>
         <v>3.8194444444444137E-4</v>
       </c>
+      <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="52">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5">
+        <v>8.9120370370370362E-4</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1.1574074074074073E-3</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F20" si="4">E12-D12</f>
+        <v>2.6620370370370372E-4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>9.0277777777777784E-4</v>
+      </c>
+      <c r="I12" s="3">
+        <f>H12-D12</f>
+        <v>1.1574074074074221E-5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>103</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.0300925925925926E-3</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1.1226851851851851E-3</v>
+      </c>
+      <c r="N12" s="3">
+        <f xml:space="preserve"> M12-L12</f>
+        <v>9.2592592592592466E-5</v>
+      </c>
+      <c r="O12" s="3">
+        <f>L12-H12</f>
+        <v>1.273148148148148E-4</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="3">
+        <v>7.6620370370370366E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
         <v>11</v>
       </c>
-      <c r="E12" s="5">
-        <v>8.9120370370370362E-4</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1.1574074074074073E-3</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" ref="G12:G20" si="4">F12-E12</f>
-        <v>2.6620370370370372E-4</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
-        <v>9.0277777777777784E-4</v>
-      </c>
-      <c r="J12" s="3">
-        <f>I12-E12</f>
-        <v>1.1574074074074221E-5</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1.0300925925925926E-3</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1.1226851851851851E-3</v>
-      </c>
-      <c r="O12" s="3">
-        <f xml:space="preserve"> N12-M12</f>
-        <v>9.2592592592592466E-5</v>
-      </c>
-      <c r="P12" s="3">
-        <f>M12-I12</f>
-        <v>1.273148148148148E-4</v>
-      </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3">
-        <v>7.6620370370370366E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
+      <c r="D13" s="5">
+        <v>1.5624999999999999E-3</v>
       </c>
       <c r="E13" s="5">
-        <v>1.5624999999999999E-3</v>
+        <v>1.6550925925925926E-3</v>
       </c>
       <c r="F13" s="5">
-        <v>1.6550925925925926E-3</v>
-      </c>
-      <c r="G13" s="5">
         <f t="shared" si="4"/>
         <v>9.2592592592592683E-5</v>
       </c>
-      <c r="H13" s="2">
-        <v>1</v>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.5740740740740741E-3</v>
       </c>
       <c r="I13" s="3">
-        <v>1.5740740740740741E-3</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" ref="J13:J20" si="5">I13-E13</f>
+        <f t="shared" ref="I13:I20" si="5">H13-D13</f>
         <v>1.1574074074074221E-5</v>
       </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.5856481481481479E-3</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.6666666666666668E-3</v>
+      </c>
+      <c r="N13" s="3">
+        <f xml:space="preserve"> M13-L13</f>
+        <v>8.1018518518518896E-5</v>
+      </c>
+      <c r="O13" s="3">
+        <f>L13-H13</f>
+        <v>1.1574074074073787E-5</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="3">
+        <v>7.6620370370370366E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2.3263888888888887E-3</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="3">
-        <v>1.5856481481481479E-3</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1.6666666666666668E-3</v>
-      </c>
-      <c r="O13" s="3">
-        <f xml:space="preserve"> N13-M13</f>
-        <v>8.1018518518518896E-5</v>
-      </c>
-      <c r="P13" s="3">
-        <f>M13-I13</f>
-        <v>1.1574074074073787E-5</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3">
-        <v>7.6620370370370366E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="5">
-        <v>2.3263888888888887E-3</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="5">
         <f t="shared" si="4"/>
         <v>3.1249999999999984E-4</v>
       </c>
-      <c r="H14" s="2">
-        <v>1</v>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2.4768518518518516E-3</v>
       </c>
       <c r="I14" s="3">
-        <v>2.4768518518518516E-3</v>
-      </c>
-      <c r="J14" s="3">
         <f t="shared" si="5"/>
         <v>1.5046296296296292E-4</v>
       </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
       <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>39</v>
+        <v>104</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2.3958333333333336E-3</v>
       </c>
       <c r="M14" s="3">
-        <v>2.3958333333333336E-3</v>
+        <v>2.5231481481481481E-3</v>
       </c>
       <c r="N14" s="3">
-        <v>2.5231481481481481E-3</v>
+        <f xml:space="preserve"> M14-L14</f>
+        <v>1.2731481481481448E-4</v>
       </c>
       <c r="O14" s="3">
-        <f xml:space="preserve"> N14-M14</f>
-        <v>1.2731481481481448E-4</v>
-      </c>
-      <c r="P14" s="3">
-        <f>I14-M14</f>
+        <f>H14-L14</f>
         <v>8.1018518518518028E-5</v>
       </c>
+      <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3">
+      <c r="R14" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
+      <c r="C15" s="2">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3.0092592592592588E-3</v>
       </c>
       <c r="E15" s="5">
-        <v>3.0092592592592588E-3</v>
+        <v>3.6111111111111114E-3</v>
       </c>
       <c r="F15" s="5">
-        <v>3.6111111111111114E-3</v>
-      </c>
-      <c r="G15" s="5">
         <f t="shared" si="4"/>
         <v>6.0185185185185255E-4</v>
       </c>
-      <c r="H15" s="2">
+      <c r="G15" s="2">
         <v>0</v>
       </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="3">
+        <v>7.6620370370370366E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="52">
         <v>20</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3">
-        <v>7.6620370370370366E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
+      <c r="D16" s="3">
+        <v>3.5879629629629629E-3</v>
       </c>
       <c r="E16" s="3">
-        <v>3.5879629629629629E-3</v>
-      </c>
-      <c r="F16" s="3">
         <v>3.7268518518518514E-3</v>
       </c>
-      <c r="G16" s="5">
+      <c r="F16" s="5">
         <f t="shared" si="4"/>
         <v>1.3888888888888848E-4</v>
       </c>
-      <c r="H16" s="2">
-        <v>1</v>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3.6226851851851854E-3</v>
       </c>
       <c r="I16" s="3">
-        <v>3.6226851851851854E-3</v>
-      </c>
-      <c r="J16" s="3">
         <f t="shared" si="5"/>
         <v>3.4722222222222446E-5</v>
       </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
       <c r="K16" s="2">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
+      </c>
+      <c r="L16" s="3">
+        <v>3.6342592592592594E-3</v>
       </c>
       <c r="M16" s="3">
-        <v>3.6342592592592594E-3</v>
+        <v>3.7268518518518514E-3</v>
       </c>
       <c r="N16" s="3">
-        <v>3.7268518518518514E-3</v>
+        <f xml:space="preserve"> M16-L16</f>
+        <v>9.2592592592592032E-5</v>
       </c>
       <c r="O16" s="3">
-        <f xml:space="preserve"> N16-M16</f>
-        <v>9.2592592592592032E-5</v>
-      </c>
-      <c r="P16" s="3">
-        <f>M16-I16</f>
+        <f>L16-H16</f>
         <v>1.1574074074074004E-5</v>
       </c>
+      <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3">
+      <c r="R16" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="2">
         <v>12</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
+      <c r="D17" s="3">
+        <v>4.2824074074074075E-3</v>
       </c>
       <c r="E17" s="3">
-        <v>4.2824074074074075E-3</v>
-      </c>
-      <c r="F17" s="3">
         <v>4.386574074074074E-3</v>
       </c>
-      <c r="G17" s="5">
+      <c r="F17" s="5">
         <f t="shared" si="4"/>
         <v>1.0416666666666647E-4</v>
       </c>
-      <c r="H17" s="2">
-        <v>1</v>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4.3055555555555555E-3</v>
       </c>
       <c r="I17" s="3">
-        <v>4.3055555555555555E-3</v>
-      </c>
-      <c r="J17" s="3">
         <f t="shared" si="5"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>34</v>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="52">
+        <v>101</v>
+      </c>
+      <c r="L17" s="3">
+        <v>4.3287037037037035E-3</v>
       </c>
       <c r="M17" s="3">
-        <v>4.3287037037037035E-3</v>
+        <v>4.363425925925926E-3</v>
       </c>
       <c r="N17" s="3">
-        <v>4.363425925925926E-3</v>
+        <f xml:space="preserve"> M17-L17</f>
+        <v>3.4722222222222446E-5</v>
       </c>
       <c r="O17" s="3">
-        <f xml:space="preserve"> N17-M17</f>
-        <v>3.4722222222222446E-5</v>
-      </c>
-      <c r="P17" s="3">
-        <f>M17-I17</f>
+        <f>L17-H17</f>
         <v>2.3148148148148008E-5</v>
       </c>
+      <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3">
+      <c r="R17" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
         <v>10</v>
       </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>23</v>
+      <c r="D18" s="12">
+        <v>5.3819444444444453E-3</v>
       </c>
       <c r="E18" s="12">
-        <v>5.3819444444444453E-3</v>
-      </c>
-      <c r="F18" s="12">
         <v>5.4050925925925924E-3</v>
       </c>
-      <c r="G18" s="11">
+      <c r="F18" s="11">
         <f t="shared" si="4"/>
         <v>2.3148148148147141E-5</v>
       </c>
-      <c r="H18" s="10">
-        <v>1</v>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12">
+        <v>5.3819444444444453E-3</v>
       </c>
       <c r="I18" s="12">
-        <v>5.3819444444444453E-3</v>
-      </c>
-      <c r="J18" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="J18" s="10">
+        <v>1</v>
+      </c>
       <c r="K18" s="10">
-        <v>1</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>43</v>
+        <v>103</v>
+      </c>
+      <c r="L18" s="12">
+        <v>5.4050925925925924E-3</v>
       </c>
       <c r="M18" s="12">
-        <v>5.4050925925925924E-3</v>
+        <v>5.4745370370370373E-3</v>
       </c>
       <c r="N18" s="12">
-        <v>5.4745370370370373E-3</v>
+        <f xml:space="preserve"> M18-L18</f>
+        <v>6.9444444444444892E-5</v>
       </c>
       <c r="O18" s="12">
-        <f xml:space="preserve"> N18-M18</f>
-        <v>6.9444444444444892E-5</v>
-      </c>
-      <c r="P18" s="12">
-        <f>M18-I18</f>
+        <f>L18-H18</f>
         <v>2.3148148148147141E-5</v>
       </c>
+      <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="12">
+      <c r="R18" s="12">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>25</v>
+      <c r="C19" s="52">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5.7638888888888887E-3</v>
       </c>
       <c r="E19" s="3">
-        <v>5.7638888888888887E-3</v>
-      </c>
-      <c r="F19" s="3">
         <v>6.0069444444444441E-3</v>
       </c>
-      <c r="G19" s="5">
+      <c r="F19" s="5">
         <f t="shared" si="4"/>
         <v>2.4305555555555539E-4</v>
       </c>
-      <c r="H19" s="2">
-        <v>1</v>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5.9027777777777776E-3</v>
       </c>
       <c r="I19" s="3">
-        <v>5.9027777777777776E-3</v>
-      </c>
-      <c r="J19" s="3">
         <f t="shared" si="5"/>
         <v>1.3888888888888892E-4</v>
       </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
       <c r="K19" s="2">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
+      </c>
+      <c r="L19" s="3">
+        <v>5.9490740740740745E-3</v>
       </c>
       <c r="M19" s="3">
-        <v>5.9490740740740745E-3</v>
+        <v>6.0879629629629643E-3</v>
       </c>
       <c r="N19" s="3">
-        <v>6.0879629629629643E-3</v>
+        <f xml:space="preserve"> M19-L19</f>
+        <v>1.3888888888888978E-4</v>
       </c>
       <c r="O19" s="3">
-        <f xml:space="preserve"> N19-M19</f>
-        <v>1.3888888888888978E-4</v>
-      </c>
-      <c r="P19" s="3">
-        <f>M19-I19</f>
+        <f>L19-H19</f>
         <v>4.6296296296296884E-5</v>
       </c>
+      <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="3">
+      <c r="R19" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>26</v>
+      <c r="C20" s="52">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3">
+        <v>6.4120370370370364E-3</v>
       </c>
       <c r="E20" s="3">
-        <v>6.4120370370370364E-3</v>
-      </c>
-      <c r="F20" s="3">
         <v>6.5509259259259262E-3</v>
       </c>
-      <c r="G20" s="5">
+      <c r="F20" s="5">
         <f t="shared" si="4"/>
         <v>1.3888888888888978E-4</v>
       </c>
-      <c r="H20" s="2">
-        <v>1</v>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6.4351851851851861E-3</v>
       </c>
       <c r="I20" s="3">
-        <v>6.4351851851851861E-3</v>
-      </c>
-      <c r="J20" s="3">
         <f t="shared" si="5"/>
         <v>2.3148148148149743E-5</v>
       </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
       <c r="K20" s="2">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
+      </c>
+      <c r="L20" s="3">
+        <v>6.4930555555555549E-3</v>
       </c>
       <c r="M20" s="3">
-        <v>6.4930555555555549E-3</v>
+        <v>6.5509259259259262E-3</v>
       </c>
       <c r="N20" s="3">
-        <v>6.5509259259259262E-3</v>
+        <f xml:space="preserve"> M20-L20</f>
+        <v>5.7870370370371321E-5</v>
       </c>
       <c r="O20" s="3">
-        <f xml:space="preserve"> N20-M20</f>
-        <v>5.7870370370371321E-5</v>
-      </c>
-      <c r="P20" s="3">
-        <f>M20-I20</f>
+        <f>L20-H20</f>
         <v>5.7870370370368719E-5</v>
       </c>
+      <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="3">
+      <c r="R20" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B21" s="19">
         <f>SUM(B12:B20)</f>
@@ -2751,573 +2989,545 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="21">
+      <c r="F21" s="21">
+        <f>SUM(F12:F20)</f>
+        <v>1.9212962962962959E-3</v>
+      </c>
+      <c r="G21" s="19">
         <f>SUM(G12:G20)</f>
-        <v>1.9212962962962959E-3</v>
-      </c>
-      <c r="H21" s="19">
-        <f>SUM(H12:H20)</f>
         <v>8</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20">
+      <c r="H21" s="19"/>
+      <c r="I21" s="20">
+        <f>SUM(I12:I20)</f>
+        <v>3.9351851851852047E-4</v>
+      </c>
+      <c r="J21" s="19">
         <f>SUM(J12:J20)</f>
-        <v>3.9351851851852047E-4</v>
-      </c>
-      <c r="K21" s="19">
-        <f>SUM(K12:K20)</f>
         <v>8</v>
       </c>
+      <c r="K21" s="19"/>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
+      <c r="N21" s="20">
+        <f>SUM(N12:N20)</f>
+        <v>6.9444444444444631E-4</v>
+      </c>
       <c r="O21" s="20">
         <f>SUM(O12:O20)</f>
-        <v>6.9444444444444631E-4</v>
-      </c>
-      <c r="P21" s="20">
-        <f>SUM(P12:P20)</f>
         <v>3.8194444444444137E-4</v>
       </c>
+      <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>26</v>
+      <c r="C22" s="52">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1.25E-3</v>
       </c>
       <c r="E22" s="5">
-        <v>1.25E-3</v>
+        <v>1.6087962962962963E-3</v>
       </c>
       <c r="F22" s="5">
-        <v>1.6087962962962963E-3</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" ref="G22:G30" si="6">F22-E22</f>
+        <f t="shared" ref="F22:F30" si="6">E22-D22</f>
         <v>3.5879629629629629E-4</v>
       </c>
-      <c r="H22" s="1">
-        <v>1</v>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1.2731481481481483E-3</v>
       </c>
       <c r="I22" s="3">
-        <v>1.2731481481481483E-3</v>
-      </c>
-      <c r="J22" s="3">
-        <f t="shared" ref="J22:J30" si="7">I22-E22</f>
+        <f t="shared" ref="I22:I30" si="7">H22-D22</f>
         <v>2.3148148148148225E-5</v>
       </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>40</v>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1.4814814814814814E-3</v>
       </c>
       <c r="M22" s="3">
-        <v>1.4814814814814814E-3</v>
+        <v>1.5624999999999999E-3</v>
       </c>
       <c r="N22" s="3">
-        <v>1.5624999999999999E-3</v>
+        <f t="shared" ref="N22:N30" si="8" xml:space="preserve"> M22-L22</f>
+        <v>8.1018518518518462E-5</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" ref="O22:O30" si="8" xml:space="preserve"> N22-M22</f>
-        <v>8.1018518518518462E-5</v>
-      </c>
-      <c r="P22" s="3">
-        <f t="shared" ref="P22:P30" si="9">M22-I22</f>
+        <f t="shared" ref="O22:O30" si="9">L22-H22</f>
         <v>2.0833333333333316E-4</v>
       </c>
+      <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="3">
+      <c r="R22" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>17</v>
+      <c r="C23" s="2">
+        <v>32</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1.5509259259259261E-3</v>
       </c>
       <c r="E23" s="5">
-        <v>1.5509259259259261E-3</v>
+        <v>3.0902777777777782E-3</v>
       </c>
       <c r="F23" s="5">
-        <v>3.0902777777777782E-3</v>
-      </c>
-      <c r="G23" s="5">
         <f t="shared" si="6"/>
         <v>1.5393518518518521E-3</v>
       </c>
-      <c r="H23" s="2">
-        <v>1</v>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1.9907407407407408E-3</v>
       </c>
       <c r="I23" s="3">
-        <v>1.9907407407407408E-3</v>
-      </c>
-      <c r="J23" s="3">
         <f t="shared" si="7"/>
         <v>4.3981481481481476E-4</v>
       </c>
-      <c r="K23" s="2">
-        <v>1</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>40</v>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L23" s="3">
+        <v>2.0023148148148148E-3</v>
       </c>
       <c r="M23" s="3">
-        <v>2.0023148148148148E-3</v>
+        <v>2.0601851851851853E-3</v>
       </c>
       <c r="N23" s="3">
-        <v>2.0601851851851853E-3</v>
-      </c>
-      <c r="O23" s="3">
         <f t="shared" si="8"/>
         <v>5.7870370370370454E-5</v>
       </c>
-      <c r="P23" s="3">
+      <c r="O23" s="3">
         <f t="shared" si="9"/>
         <v>1.1574074074074004E-5</v>
       </c>
+      <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="3">
+      <c r="R23" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>22</v>
+      <c r="C24" s="1">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2.1527777777777778E-3</v>
       </c>
       <c r="E24" s="5">
-        <v>2.1527777777777778E-3</v>
+        <v>2.3148148148148151E-3</v>
       </c>
       <c r="F24" s="5">
-        <v>2.3148148148148151E-3</v>
-      </c>
-      <c r="G24" s="5">
         <f t="shared" si="6"/>
         <v>1.6203703703703736E-4</v>
       </c>
-      <c r="H24" s="2">
-        <v>1</v>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2.2222222222222222E-3</v>
       </c>
       <c r="I24" s="3">
-        <v>2.2222222222222222E-3</v>
-      </c>
-      <c r="J24" s="3">
         <f t="shared" si="7"/>
         <v>6.9444444444444458E-5</v>
       </c>
-      <c r="K24" s="2">
-        <v>1</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>35</v>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="52">
+        <v>102</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2.2337962962962967E-3</v>
       </c>
       <c r="M24" s="3">
-        <v>2.2337962962962967E-3</v>
+        <v>2.3148148148148151E-3</v>
       </c>
       <c r="N24" s="3">
-        <v>2.3148148148148151E-3</v>
-      </c>
-      <c r="O24" s="3">
         <f t="shared" si="8"/>
         <v>8.1018518518518462E-5</v>
       </c>
-      <c r="P24" s="3">
+      <c r="O24" s="3">
         <f t="shared" si="9"/>
         <v>1.1574074074074438E-5</v>
       </c>
+      <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="3">
+      <c r="R24" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="2">
         <v>12</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>29</v>
+      <c r="D25" s="5">
+        <v>2.9745370370370373E-3</v>
       </c>
       <c r="E25" s="5">
-        <v>2.9745370370370373E-3</v>
+        <v>3.1481481481481482E-3</v>
       </c>
       <c r="F25" s="5">
-        <v>3.1481481481481482E-3</v>
-      </c>
-      <c r="G25" s="5">
         <f t="shared" si="6"/>
         <v>1.7361111111111093E-4</v>
       </c>
-      <c r="H25" s="2">
-        <v>1</v>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3.0324074074074073E-3</v>
       </c>
       <c r="I25" s="3">
-        <v>3.0324074074074073E-3</v>
-      </c>
-      <c r="J25" s="3">
         <f t="shared" si="7"/>
         <v>5.787037037037002E-5</v>
       </c>
-      <c r="K25" s="2">
-        <v>1</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>37</v>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="3">
+        <v>3.0439814814814821E-3</v>
       </c>
       <c r="M25" s="3">
-        <v>3.0439814814814821E-3</v>
+        <v>3.0902777777777782E-3</v>
       </c>
       <c r="N25" s="3">
-        <v>3.0902777777777782E-3</v>
-      </c>
-      <c r="O25" s="3">
         <f t="shared" si="8"/>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="P25" s="3">
+      <c r="O25" s="3">
         <f t="shared" si="9"/>
         <v>1.1574074074074871E-5</v>
       </c>
+      <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="3">
+      <c r="R25" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>11</v>
+      <c r="C26" s="52">
+        <v>22</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3.7268518518518514E-3</v>
       </c>
       <c r="E26" s="3">
-        <v>3.7268518518518514E-3</v>
-      </c>
-      <c r="F26" s="3">
         <v>3.9004629629629632E-3</v>
       </c>
-      <c r="G26" s="5">
+      <c r="F26" s="5">
         <f t="shared" si="6"/>
         <v>1.736111111111118E-4</v>
       </c>
-      <c r="H26" s="2">
-        <v>1</v>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3.8425925925925923E-3</v>
       </c>
       <c r="I26" s="3">
-        <v>3.8425925925925923E-3</v>
-      </c>
-      <c r="J26" s="3">
         <f t="shared" si="7"/>
         <v>1.1574074074074091E-4</v>
       </c>
-      <c r="K26" s="2">
-        <v>1</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>38</v>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="3">
+        <v>3.8425925925925923E-3</v>
       </c>
       <c r="M26" s="3">
-        <v>3.8425925925925923E-3</v>
+        <v>3.9236111111111112E-3</v>
       </c>
       <c r="N26" s="3">
-        <v>3.9236111111111112E-3</v>
-      </c>
-      <c r="O26" s="3">
         <f t="shared" si="8"/>
         <v>8.1018518518518896E-5</v>
       </c>
-      <c r="P26" s="3">
+      <c r="O26" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="3">
+      <c r="R26" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>25</v>
+      <c r="C27" s="52">
+        <v>31</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4.2361111111111106E-3</v>
       </c>
       <c r="E27" s="3">
-        <v>4.2361111111111106E-3</v>
-      </c>
-      <c r="F27" s="3">
         <v>4.6874999999999998E-3</v>
       </c>
-      <c r="G27" s="5">
+      <c r="F27" s="5">
         <f t="shared" si="6"/>
         <v>4.5138888888888919E-4</v>
       </c>
-      <c r="H27" s="2">
-        <v>1</v>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>4.2939814814814811E-3</v>
       </c>
       <c r="I27" s="3">
-        <v>4.2939814814814811E-3</v>
-      </c>
-      <c r="J27" s="3">
         <f t="shared" si="7"/>
         <v>5.7870370370370454E-5</v>
       </c>
-      <c r="K27" s="2">
-        <v>1</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>41</v>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L27" s="3">
+        <v>4.5717592592592589E-3</v>
       </c>
       <c r="M27" s="3">
-        <v>4.5717592592592589E-3</v>
+        <v>4.7453703703703703E-3</v>
       </c>
       <c r="N27" s="3">
-        <v>4.7453703703703703E-3</v>
-      </c>
-      <c r="O27" s="3">
         <f t="shared" si="8"/>
         <v>1.7361111111111136E-4</v>
       </c>
-      <c r="P27" s="3">
+      <c r="O27" s="3">
         <f t="shared" si="9"/>
         <v>2.7777777777777783E-4</v>
       </c>
+      <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="3">
+      <c r="R27" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="2">
         <v>30</v>
       </c>
+      <c r="D28" s="3">
+        <v>5.208333333333333E-3</v>
+      </c>
       <c r="E28" s="3">
-        <v>5.208333333333333E-3</v>
-      </c>
-      <c r="F28" s="3">
         <v>5.6944444444444438E-3</v>
       </c>
-      <c r="G28" s="5">
+      <c r="F28" s="5">
         <f t="shared" si="6"/>
         <v>4.8611111111111077E-4</v>
       </c>
-      <c r="H28" s="2">
-        <v>1</v>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>5.2546296296296299E-3</v>
       </c>
       <c r="I28" s="3">
-        <v>5.2546296296296299E-3</v>
-      </c>
-      <c r="J28" s="3">
         <f t="shared" si="7"/>
         <v>4.6296296296296884E-5</v>
       </c>
-      <c r="K28" s="2">
-        <v>1</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>42</v>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="3">
+        <v>5.2777777777777771E-3</v>
       </c>
       <c r="M28" s="3">
-        <v>5.2777777777777771E-3</v>
+        <v>5.4166666666666669E-3</v>
       </c>
       <c r="N28" s="3">
-        <v>5.4166666666666669E-3</v>
-      </c>
-      <c r="O28" s="3">
         <f t="shared" si="8"/>
         <v>1.3888888888888978E-4</v>
       </c>
-      <c r="P28" s="3">
+      <c r="O28" s="3">
         <f t="shared" si="9"/>
         <v>2.3148148148147141E-5</v>
       </c>
+      <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="3">
+      <c r="R28" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>23</v>
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5.9375000000000009E-3</v>
       </c>
       <c r="E29" s="3">
-        <v>5.9375000000000009E-3</v>
-      </c>
-      <c r="F29" s="3">
         <v>6.1111111111111114E-3</v>
       </c>
-      <c r="G29" s="5">
+      <c r="F29" s="5">
         <f t="shared" si="6"/>
         <v>1.7361111111111049E-4</v>
       </c>
-      <c r="H29" s="2">
-        <v>1</v>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>5.9837962962962961E-3</v>
       </c>
       <c r="I29" s="3">
-        <v>5.9837962962962961E-3</v>
-      </c>
-      <c r="J29" s="3">
         <f t="shared" si="7"/>
         <v>4.6296296296295149E-5</v>
       </c>
-      <c r="K29" s="2">
-        <v>1</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>31</v>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="52">
+        <v>100</v>
+      </c>
+      <c r="L29" s="3">
+        <v>6.053240740740741E-3</v>
       </c>
       <c r="M29" s="3">
-        <v>6.053240740740741E-3</v>
+        <v>6.2268518518518515E-3</v>
       </c>
       <c r="N29" s="3">
-        <v>6.2268518518518515E-3</v>
-      </c>
-      <c r="O29" s="3">
         <f t="shared" si="8"/>
         <v>1.7361111111111049E-4</v>
       </c>
-      <c r="P29" s="3">
+      <c r="O29" s="3">
         <f t="shared" si="9"/>
         <v>6.9444444444444892E-5</v>
       </c>
+      <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="3">
+      <c r="R29" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>28</v>
+      <c r="C30" s="52">
+        <v>20</v>
+      </c>
+      <c r="D30" s="3">
+        <v>6.3310185185185197E-3</v>
       </c>
       <c r="E30" s="3">
-        <v>6.3310185185185197E-3</v>
-      </c>
-      <c r="F30" s="3">
         <v>6.7245370370370367E-3</v>
       </c>
-      <c r="G30" s="5">
+      <c r="F30" s="5">
         <f t="shared" si="6"/>
         <v>3.93518518518517E-4</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>6.3888888888888884E-3</v>
       </c>
       <c r="I30" s="3">
-        <v>6.3888888888888884E-3</v>
-      </c>
-      <c r="J30" s="3">
         <f t="shared" si="7"/>
         <v>5.7870370370368719E-5</v>
       </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
       <c r="K30" s="2">
-        <v>1</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
+      </c>
+      <c r="L30" s="3">
+        <v>6.4930555555555549E-3</v>
       </c>
       <c r="M30" s="3">
-        <v>6.4930555555555549E-3</v>
+        <v>6.6550925925925935E-3</v>
       </c>
       <c r="N30" s="3">
-        <v>6.6550925925925935E-3</v>
-      </c>
-      <c r="O30" s="3">
         <f t="shared" si="8"/>
         <v>1.6203703703703866E-4</v>
       </c>
-      <c r="P30" s="3">
+      <c r="O30" s="3">
         <f t="shared" si="9"/>
         <v>1.0416666666666647E-4</v>
       </c>
+      <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="3">
+      <c r="R30" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B31" s="19">
         <f>SUM(B22:B30)</f>
@@ -3326,573 +3536,545 @@
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="21">
+      <c r="F31" s="21">
+        <f>SUM(F22:F30)</f>
+        <v>3.9120370370370359E-3</v>
+      </c>
+      <c r="G31" s="19">
         <f>SUM(G22:G30)</f>
-        <v>3.9120370370370359E-3</v>
-      </c>
-      <c r="H31" s="19">
-        <f>SUM(H22:H30)</f>
         <v>9</v>
       </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20">
+      <c r="H31" s="19"/>
+      <c r="I31" s="20">
+        <f>SUM(I22:I30)</f>
+        <v>9.1435185185184957E-4</v>
+      </c>
+      <c r="J31" s="19">
         <f>SUM(J22:J30)</f>
-        <v>9.1435185185184957E-4</v>
-      </c>
-      <c r="K31" s="19">
-        <f>SUM(K22:K30)</f>
         <v>9</v>
       </c>
+      <c r="K31" s="19"/>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
+      <c r="N31" s="20">
+        <f>SUM(N22:N30)</f>
+        <v>9.9537037037037259E-4</v>
+      </c>
       <c r="O31" s="20">
         <f>SUM(O22:O30)</f>
-        <v>9.9537037037037259E-4</v>
-      </c>
-      <c r="P31" s="20">
-        <f>SUM(P22:P30)</f>
         <v>7.175925925925928E-4</v>
       </c>
+      <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-    </row>
-    <row r="32" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>22</v>
+      <c r="C32" s="1">
+        <v>11</v>
+      </c>
+      <c r="D32" s="5">
+        <v>7.175925925925927E-4</v>
       </c>
       <c r="E32" s="5">
-        <v>7.175925925925927E-4</v>
+        <v>8.6805555555555551E-4</v>
       </c>
       <c r="F32" s="5">
-        <v>8.6805555555555551E-4</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="shared" ref="G32:G40" si="10">F32-E32</f>
+        <f t="shared" ref="F32:F40" si="10">E32-D32</f>
         <v>1.5046296296296281E-4</v>
       </c>
-      <c r="H32" s="1">
-        <v>1</v>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
+        <v>7.291666666666667E-4</v>
       </c>
       <c r="I32" s="3">
-        <v>7.291666666666667E-4</v>
-      </c>
-      <c r="J32" s="3">
-        <f t="shared" ref="J32:J40" si="11">I32-E32</f>
+        <f t="shared" ref="I32:I40" si="11">H32-D32</f>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="K32" s="2">
-        <v>1</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>49</v>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="52">
+        <v>101</v>
+      </c>
+      <c r="L32" s="3">
+        <v>7.407407407407407E-4</v>
       </c>
       <c r="M32" s="3">
-        <v>7.407407407407407E-4</v>
+        <v>8.9120370370370362E-4</v>
       </c>
       <c r="N32" s="3">
-        <v>8.9120370370370362E-4</v>
+        <f xml:space="preserve"> M32-L32</f>
+        <v>1.5046296296296292E-4</v>
       </c>
       <c r="O32" s="3">
-        <f xml:space="preserve"> N32-M32</f>
-        <v>1.5046296296296292E-4</v>
-      </c>
-      <c r="P32" s="3">
-        <f>M32-I32</f>
+        <f>L32-H32</f>
         <v>1.1574074074074004E-5</v>
       </c>
+      <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="3">
+      <c r="R32" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>26</v>
+      <c r="C33" s="52">
+        <v>21</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1.7476851851851852E-3</v>
       </c>
       <c r="E33" s="5">
-        <v>1.7476851851851852E-3</v>
+        <v>1.9097222222222222E-3</v>
       </c>
       <c r="F33" s="5">
-        <v>1.9097222222222222E-3</v>
-      </c>
-      <c r="G33" s="5">
         <f t="shared" si="10"/>
         <v>1.6203703703703692E-4</v>
       </c>
-      <c r="H33" s="2">
-        <v>1</v>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1.8634259259259261E-3</v>
       </c>
       <c r="I33" s="3">
-        <v>1.8634259259259261E-3</v>
-      </c>
-      <c r="J33" s="3">
         <f t="shared" si="11"/>
         <v>1.1574074074074091E-4</v>
       </c>
-      <c r="K33" s="2">
-        <v>1</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>50</v>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1.8750000000000001E-3</v>
       </c>
       <c r="M33" s="3">
-        <v>1.8750000000000001E-3</v>
+        <v>1.9097222222222222E-3</v>
       </c>
       <c r="N33" s="3">
-        <v>1.9097222222222222E-3</v>
+        <f xml:space="preserve"> M33-L33</f>
+        <v>3.4722222222222012E-5</v>
       </c>
       <c r="O33" s="3">
-        <f xml:space="preserve"> N33-M33</f>
-        <v>3.4722222222222012E-5</v>
-      </c>
-      <c r="P33" s="3">
-        <f>M33-I33</f>
+        <f>L33-H33</f>
         <v>1.1574074074074004E-5</v>
       </c>
+      <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="3">
+      <c r="R33" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>17</v>
+      <c r="C34" s="2">
+        <v>32</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2.1874999999999998E-3</v>
       </c>
       <c r="E34" s="5">
-        <v>2.1874999999999998E-3</v>
+        <v>2.673611111111111E-3</v>
       </c>
       <c r="F34" s="5">
-        <v>2.673611111111111E-3</v>
-      </c>
-      <c r="G34" s="5">
         <f t="shared" si="10"/>
         <v>4.8611111111111121E-4</v>
       </c>
-      <c r="H34" s="2">
-        <v>1</v>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>2.1990740740740742E-3</v>
       </c>
       <c r="I34" s="3">
-        <v>2.1990740740740742E-3</v>
-      </c>
-      <c r="J34" s="3">
         <f t="shared" si="11"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="K34" s="2">
-        <v>1</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>51</v>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L34" s="3">
+        <v>2.627314814814815E-3</v>
       </c>
       <c r="M34" s="3">
-        <v>2.627314814814815E-3</v>
+        <v>2.673611111111111E-3</v>
       </c>
       <c r="N34" s="3">
-        <v>2.673611111111111E-3</v>
+        <f xml:space="preserve"> M34-L34</f>
+        <v>4.6296296296296016E-5</v>
       </c>
       <c r="O34" s="3">
-        <f xml:space="preserve"> N34-M34</f>
-        <v>4.6296296296296016E-5</v>
-      </c>
-      <c r="P34" s="3">
-        <f>M34-I34</f>
+        <f>L34-H34</f>
         <v>4.2824074074074075E-4</v>
       </c>
+      <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="3">
+      <c r="R34" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>25</v>
+      <c r="C35" s="52">
+        <v>31</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2.9050925925925928E-3</v>
       </c>
       <c r="E35" s="5">
-        <v>2.9050925925925928E-3</v>
+        <v>4.4791666666666669E-3</v>
       </c>
       <c r="F35" s="5">
-        <v>4.4791666666666669E-3</v>
-      </c>
-      <c r="G35" s="5">
         <f t="shared" si="10"/>
         <v>1.5740740740740741E-3</v>
       </c>
-      <c r="H35" s="2">
-        <v>1</v>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3">
+        <v>4.3981481481481484E-3</v>
       </c>
       <c r="I35" s="3">
-        <v>4.3981481481481484E-3</v>
-      </c>
-      <c r="J35" s="3">
         <f t="shared" si="11"/>
         <v>1.4930555555555556E-3</v>
       </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
       <c r="K35" s="2">
-        <v>1</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
+      </c>
+      <c r="L35" s="3">
+        <v>4.4212962962962956E-3</v>
       </c>
       <c r="M35" s="3">
-        <v>4.4212962962962956E-3</v>
+        <v>4.4791666666666669E-3</v>
       </c>
       <c r="N35" s="3">
-        <v>4.4791666666666669E-3</v>
+        <f xml:space="preserve"> M34-L34</f>
+        <v>4.6296296296296016E-5</v>
       </c>
       <c r="O35" s="3">
-        <f xml:space="preserve"> N34-M34</f>
-        <v>4.6296296296296016E-5</v>
-      </c>
-      <c r="P35" s="3">
-        <f>M35-I35</f>
+        <f>L35-H35</f>
         <v>2.3148148148147141E-5</v>
       </c>
+      <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="3">
+      <c r="R35" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="2">
         <v>12</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>29</v>
+      <c r="D36" s="3">
+        <v>3.5648148148148154E-3</v>
       </c>
       <c r="E36" s="3">
-        <v>3.5648148148148154E-3</v>
-      </c>
-      <c r="F36" s="3">
         <v>3.6226851851851854E-3</v>
       </c>
-      <c r="G36" s="5">
+      <c r="F36" s="5">
         <f t="shared" si="10"/>
         <v>5.787037037037002E-5</v>
       </c>
-      <c r="H36" s="2">
-        <v>1</v>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3">
+        <v>3.5648148148148154E-3</v>
       </c>
       <c r="I36" s="3">
-        <v>3.5648148148148154E-3</v>
-      </c>
-      <c r="J36" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
       <c r="K36" s="2">
-        <v>1</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
+      </c>
+      <c r="L36" s="3">
+        <v>3.5879629629629629E-3</v>
       </c>
       <c r="M36" s="3">
-        <v>3.5879629629629629E-3</v>
+        <v>3.6226851851851854E-3</v>
       </c>
       <c r="N36" s="3">
-        <v>3.6226851851851854E-3</v>
+        <f xml:space="preserve"> M35-L35</f>
+        <v>5.7870370370371321E-5</v>
       </c>
       <c r="O36" s="3">
-        <f xml:space="preserve"> N35-M35</f>
-        <v>5.7870370370371321E-5</v>
-      </c>
-      <c r="P36" s="3">
-        <f>M35-I36</f>
+        <f>L35-H36</f>
         <v>8.564814814814802E-4</v>
       </c>
+      <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="3">
+      <c r="R36" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>11</v>
+      <c r="C37" s="52">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4.1782407407407402E-3</v>
       </c>
       <c r="E37" s="3">
-        <v>4.1782407407407402E-3</v>
-      </c>
-      <c r="F37" s="3">
         <v>4.6643518518518518E-3</v>
       </c>
-      <c r="G37" s="5">
+      <c r="F37" s="5">
         <f t="shared" si="10"/>
         <v>4.8611111111111164E-4</v>
       </c>
-      <c r="H37" s="2">
-        <v>1</v>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3">
+        <v>4.5949074074074078E-3</v>
       </c>
       <c r="I37" s="3">
-        <v>4.5949074074074078E-3</v>
-      </c>
-      <c r="J37" s="3">
         <f t="shared" si="11"/>
         <v>4.1666666666666761E-4</v>
       </c>
-      <c r="K37" s="2">
-        <v>1</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>52</v>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" s="3">
+        <v>4.6180555555555558E-3</v>
       </c>
       <c r="M37" s="3">
-        <v>4.6180555555555558E-3</v>
+        <v>4.6643518518518518E-3</v>
       </c>
       <c r="N37" s="3">
-        <v>4.6643518518518518E-3</v>
+        <f xml:space="preserve"> M37-L37</f>
+        <v>4.6296296296296016E-5</v>
       </c>
       <c r="O37" s="3">
-        <f xml:space="preserve"> N37-M37</f>
-        <v>4.6296296296296016E-5</v>
-      </c>
-      <c r="P37" s="3">
-        <f>M37-I37</f>
+        <f>L37-H37</f>
         <v>2.3148148148148008E-5</v>
       </c>
+      <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="3">
+      <c r="R37" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>28</v>
+      <c r="C38" s="52">
+        <v>20</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4.9074074074074072E-3</v>
       </c>
       <c r="E38" s="3">
-        <v>4.9074074074074072E-3</v>
-      </c>
-      <c r="F38" s="3">
         <v>5.1504629629629635E-3</v>
       </c>
-      <c r="G38" s="5">
+      <c r="F38" s="5">
         <f t="shared" si="10"/>
         <v>2.4305555555555625E-4</v>
       </c>
-      <c r="H38" s="2">
-        <v>1</v>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3">
+        <v>4.9421296296296288E-3</v>
       </c>
       <c r="I38" s="3">
-        <v>4.9421296296296288E-3</v>
-      </c>
-      <c r="J38" s="3">
         <f t="shared" si="11"/>
         <v>3.4722222222221578E-5</v>
       </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
       <c r="K38" s="2">
-        <v>1</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
+      </c>
+      <c r="L38" s="3">
+        <v>4.9537037037037041E-3</v>
       </c>
       <c r="M38" s="3">
-        <v>4.9537037037037041E-3</v>
+        <v>5.0694444444444441E-3</v>
       </c>
       <c r="N38" s="3">
-        <v>5.0694444444444441E-3</v>
+        <f xml:space="preserve"> M38-L38</f>
+        <v>1.1574074074074004E-4</v>
       </c>
       <c r="O38" s="3">
-        <f xml:space="preserve"> N38-M38</f>
-        <v>1.1574074074074004E-4</v>
-      </c>
-      <c r="P38" s="3">
-        <f>M38-I38</f>
+        <f>L38-H38</f>
         <v>1.1574074074075305E-5</v>
       </c>
+      <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="3">
+      <c r="R38" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="C39" s="2">
         <v>30</v>
       </c>
+      <c r="D39" s="3">
+        <v>5.6134259259259271E-3</v>
+      </c>
       <c r="E39" s="3">
-        <v>5.6134259259259271E-3</v>
-      </c>
-      <c r="F39" s="3">
         <v>5.9606481481481489E-3</v>
       </c>
-      <c r="G39" s="5">
+      <c r="F39" s="5">
         <f t="shared" si="10"/>
         <v>3.4722222222222186E-4</v>
       </c>
-      <c r="H39" s="2">
-        <v>1</v>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3">
+        <v>5.7175925925925927E-3</v>
       </c>
       <c r="I39" s="3">
-        <v>5.7175925925925927E-3</v>
-      </c>
-      <c r="J39" s="3">
         <f t="shared" si="11"/>
         <v>1.041666666666656E-4</v>
       </c>
-      <c r="K39" s="2">
-        <v>1</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>51</v>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L39" s="3">
+        <v>5.9027777777777776E-3</v>
       </c>
       <c r="M39" s="3">
-        <v>5.9027777777777776E-3</v>
+        <v>5.9722222222222225E-3</v>
       </c>
       <c r="N39" s="3">
-        <v>5.9722222222222225E-3</v>
+        <f xml:space="preserve"> M39-L39</f>
+        <v>6.9444444444444892E-5</v>
       </c>
       <c r="O39" s="3">
-        <f xml:space="preserve"> N39-M39</f>
-        <v>6.9444444444444892E-5</v>
-      </c>
-      <c r="P39" s="3">
-        <f>M39-I39</f>
+        <f>L39-H39</f>
         <v>1.8518518518518493E-4</v>
       </c>
+      <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="3">
+      <c r="R39" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>23</v>
+      <c r="C40" s="1">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3">
+        <v>6.2037037037037043E-3</v>
       </c>
       <c r="E40" s="3">
-        <v>6.2037037037037043E-3</v>
-      </c>
-      <c r="F40" s="3">
         <v>6.3194444444444444E-3</v>
       </c>
-      <c r="G40" s="5">
+      <c r="F40" s="5">
         <f t="shared" si="10"/>
         <v>1.1574074074074004E-4</v>
       </c>
-      <c r="H40" s="2">
-        <v>1</v>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3">
+        <v>6.2268518518518515E-3</v>
       </c>
       <c r="I40" s="3">
-        <v>6.2268518518518515E-3</v>
-      </c>
-      <c r="J40" s="3">
         <f t="shared" si="11"/>
         <v>2.3148148148147141E-5</v>
       </c>
-      <c r="K40" s="2">
-        <v>1</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>51</v>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L40" s="3">
+        <v>6.2731481481481484E-3</v>
       </c>
       <c r="M40" s="3">
-        <v>6.2731481481481484E-3</v>
+        <v>6.3078703703703708E-3</v>
       </c>
       <c r="N40" s="3">
-        <v>6.3078703703703708E-3</v>
+        <f xml:space="preserve"> M40-L40</f>
+        <v>3.4722222222222446E-5</v>
       </c>
       <c r="O40" s="3">
-        <f xml:space="preserve"> N40-M40</f>
-        <v>3.4722222222222446E-5</v>
-      </c>
-      <c r="P40" s="3">
-        <f>M40-I40</f>
+        <f>L40-H40</f>
         <v>4.6296296296296884E-5</v>
       </c>
+      <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="3">
+      <c r="R40" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B41" s="19">
         <f>SUM(B32:B40)</f>
@@ -3901,573 +4083,545 @@
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="21">
+      <c r="F41" s="21">
+        <f>SUM(F32:F40)</f>
+        <v>3.6226851851851849E-3</v>
+      </c>
+      <c r="G41" s="19">
         <f>SUM(G32:G40)</f>
-        <v>3.6226851851851849E-3</v>
-      </c>
-      <c r="H41" s="19">
-        <f>SUM(H32:H40)</f>
         <v>9</v>
       </c>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20">
+      <c r="H41" s="19"/>
+      <c r="I41" s="20">
+        <f>SUM(I32:I40)</f>
+        <v>2.2106481481481469E-3</v>
+      </c>
+      <c r="J41" s="19">
         <f>SUM(J32:J40)</f>
-        <v>2.2106481481481469E-3</v>
-      </c>
-      <c r="K41" s="19">
-        <f>SUM(K32:K40)</f>
         <v>9</v>
       </c>
+      <c r="K41" s="19"/>
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
+      <c r="N41" s="20">
+        <f>SUM(N32:N40)</f>
+        <v>6.0185185185185168E-4</v>
+      </c>
       <c r="O41" s="20">
         <f>SUM(O32:O40)</f>
-        <v>6.0185185185185168E-4</v>
-      </c>
-      <c r="P41" s="20">
-        <f>SUM(P32:P40)</f>
         <v>1.5972222222222212E-3</v>
       </c>
+      <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>11</v>
+      <c r="C42" s="52">
+        <v>22</v>
+      </c>
+      <c r="D42" s="5">
+        <v>9.8379629629629642E-4</v>
       </c>
       <c r="E42" s="5">
-        <v>9.8379629629629642E-4</v>
+        <v>1.712962962962963E-3</v>
       </c>
       <c r="F42" s="5">
+        <f t="shared" ref="F42:F49" si="12">E42-D42</f>
+        <v>7.2916666666666659E-4</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1.0185185185185186E-3</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" ref="I42:I50" si="13">H42-D42</f>
+        <v>3.4722222222222229E-5</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>103</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1.6782407407407406E-3</v>
+      </c>
+      <c r="M42" s="3">
         <v>1.712962962962963E-3</v>
       </c>
-      <c r="G42" s="5">
-        <f t="shared" ref="G42:G49" si="12">F42-E42</f>
-        <v>7.2916666666666659E-4</v>
-      </c>
-      <c r="H42" s="1">
-        <v>1</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1.0185185185185186E-3</v>
-      </c>
-      <c r="J42" s="3">
-        <f t="shared" ref="J42:J50" si="13">I42-E42</f>
-        <v>3.4722222222222229E-5</v>
-      </c>
-      <c r="K42" s="1">
-        <v>1</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M42" s="3">
-        <v>1.6782407407407406E-3</v>
-      </c>
       <c r="N42" s="3">
-        <v>1.712962962962963E-3</v>
+        <f t="shared" ref="N42" si="14" xml:space="preserve"> M42-L42</f>
+        <v>3.4722222222222446E-5</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" ref="O42" si="14" xml:space="preserve"> N42-M42</f>
-        <v>3.4722222222222446E-5</v>
-      </c>
-      <c r="P42" s="3">
-        <f t="shared" ref="P42" si="15">M42-I42</f>
+        <f t="shared" ref="O42" si="15">L42-H42</f>
         <v>6.5972222222222192E-4</v>
       </c>
+      <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="3">
+      <c r="R42" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="C43" s="2">
         <v>30</v>
       </c>
+      <c r="D43" s="5">
+        <v>1.5277777777777779E-3</v>
+      </c>
       <c r="E43" s="5">
-        <v>1.5277777777777779E-3</v>
+        <v>2.1527777777777778E-3</v>
       </c>
       <c r="F43" s="5">
-        <v>2.1527777777777778E-3</v>
-      </c>
-      <c r="G43" s="5">
         <f t="shared" si="12"/>
         <v>6.249999999999999E-4</v>
       </c>
-      <c r="H43" s="2">
-        <v>1</v>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1.5393518518518519E-3</v>
       </c>
       <c r="I43" s="3">
-        <v>1.5393518518518519E-3</v>
-      </c>
-      <c r="J43" s="3">
         <f t="shared" si="13"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="K43" s="2">
-        <v>1</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>51</v>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="M43" s="3">
-        <v>2.0833333333333333E-3</v>
+        <v>2.1296296296296298E-3</v>
       </c>
       <c r="N43" s="3">
-        <v>2.1296296296296298E-3</v>
+        <f t="shared" ref="N43:N50" si="16" xml:space="preserve"> M43-L43</f>
+        <v>4.629629629629645E-5</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" ref="O43:O50" si="16" xml:space="preserve"> N43-M43</f>
-        <v>4.629629629629645E-5</v>
-      </c>
-      <c r="P43" s="3">
-        <f t="shared" ref="P43:P50" si="17">M43-I43</f>
+        <f t="shared" ref="O43:O50" si="17">L43-H43</f>
         <v>5.4398148148148144E-4</v>
       </c>
+      <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="3">
+      <c r="R43" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>22</v>
+      <c r="C44" s="1">
+        <v>11</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2.2337962962962967E-3</v>
       </c>
       <c r="E44" s="5">
-        <v>2.2337962962962967E-3</v>
+        <v>2.3495370370370371E-3</v>
       </c>
       <c r="F44" s="5">
-        <v>2.3495370370370371E-3</v>
-      </c>
-      <c r="G44" s="5">
         <f t="shared" si="12"/>
         <v>1.1574074074074047E-4</v>
       </c>
-      <c r="H44" s="2">
-        <v>1</v>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2.2453703703703702E-3</v>
       </c>
       <c r="I44" s="3">
-        <v>2.2453703703703702E-3</v>
-      </c>
-      <c r="J44" s="3">
         <f t="shared" si="13"/>
         <v>1.157407407407357E-5</v>
       </c>
-      <c r="K44" s="2">
-        <v>1</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>54</v>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="52">
+        <v>102</v>
+      </c>
+      <c r="L44" s="3">
+        <v>2.2800925925925927E-3</v>
       </c>
       <c r="M44" s="3">
-        <v>2.2800925925925927E-3</v>
+        <v>2.3726851851851851E-3</v>
       </c>
       <c r="N44" s="3">
-        <v>2.3726851851851851E-3</v>
-      </c>
-      <c r="O44" s="3">
         <f t="shared" si="16"/>
         <v>9.2592592592592466E-5</v>
       </c>
-      <c r="P44" s="3">
+      <c r="O44" s="3">
         <f t="shared" si="17"/>
         <v>3.4722222222222446E-5</v>
       </c>
+      <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="3">
+      <c r="R44" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>17</v>
+      <c r="C45" s="2">
+        <v>32</v>
+      </c>
+      <c r="D45" s="5">
+        <v>3.2407407407407406E-3</v>
       </c>
       <c r="E45" s="5">
-        <v>3.2407407407407406E-3</v>
+        <v>3.7847222222222223E-3</v>
       </c>
       <c r="F45" s="5">
-        <v>3.7847222222222223E-3</v>
-      </c>
-      <c r="G45" s="5">
         <f t="shared" si="12"/>
         <v>5.4398148148148166E-4</v>
       </c>
-      <c r="H45" s="2">
-        <v>1</v>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3.2986111111111111E-3</v>
       </c>
       <c r="I45" s="3">
-        <v>3.2986111111111111E-3</v>
-      </c>
-      <c r="J45" s="3">
         <f t="shared" si="13"/>
         <v>5.7870370370370454E-5</v>
       </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
       <c r="K45" s="2">
-        <v>1</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
+      </c>
+      <c r="L45" s="3">
+        <v>3.7152777777777774E-3</v>
       </c>
       <c r="M45" s="3">
-        <v>3.7152777777777774E-3</v>
+        <v>3.7615740740740739E-3</v>
       </c>
       <c r="N45" s="3">
-        <v>3.7615740740740739E-3</v>
-      </c>
-      <c r="O45" s="3">
         <f t="shared" si="16"/>
         <v>4.629629629629645E-5</v>
       </c>
-      <c r="P45" s="3">
+      <c r="O45" s="3">
         <f t="shared" si="17"/>
         <v>4.1666666666666631E-4</v>
       </c>
+      <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="3">
+      <c r="R45" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>55</v>
+      <c r="C46" s="2">
+        <v>33</v>
+      </c>
+      <c r="D46" s="3">
+        <v>3.7268518518518514E-3</v>
       </c>
       <c r="E46" s="3">
-        <v>3.7268518518518514E-3</v>
-      </c>
-      <c r="F46" s="3">
         <v>4.0277777777777777E-3</v>
       </c>
-      <c r="G46" s="5">
+      <c r="F46" s="5">
         <f t="shared" si="12"/>
         <v>3.0092592592592627E-4</v>
       </c>
-      <c r="H46" s="2">
-        <v>1</v>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3">
+        <v>3.8310185185185183E-3</v>
       </c>
       <c r="I46" s="3">
-        <v>3.8310185185185183E-3</v>
-      </c>
-      <c r="J46" s="3">
         <f t="shared" si="13"/>
         <v>1.041666666666669E-4</v>
       </c>
-      <c r="K46" s="2">
-        <v>1</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>56</v>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L46" s="3">
+        <v>3.8425925925925923E-3</v>
       </c>
       <c r="M46" s="3">
-        <v>3.8425925925925923E-3</v>
+        <v>4.0046296296296297E-3</v>
       </c>
       <c r="N46" s="3">
-        <v>4.0046296296296297E-3</v>
-      </c>
-      <c r="O46" s="3">
         <f t="shared" si="16"/>
         <v>1.6203703703703736E-4</v>
       </c>
-      <c r="P46" s="3">
+      <c r="O46" s="3">
         <f t="shared" si="17"/>
         <v>1.1574074074074004E-5</v>
       </c>
+      <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="3">
+      <c r="R46" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="2">
         <v>12</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>29</v>
+      <c r="D47" s="3">
+        <v>4.8148148148148152E-3</v>
       </c>
       <c r="E47" s="3">
-        <v>4.8148148148148152E-3</v>
-      </c>
-      <c r="F47" s="3">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="G47" s="5">
+      <c r="F47" s="5">
         <f t="shared" si="12"/>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="H47" s="2">
-        <v>1</v>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3">
+        <v>4.8379629629629632E-3</v>
       </c>
       <c r="I47" s="3">
-        <v>4.8379629629629632E-3</v>
-      </c>
-      <c r="J47" s="3">
-        <f>I47-E47</f>
+        <f>H47-D47</f>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="K47" s="2">
-        <v>1</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>49</v>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="52">
+        <v>101</v>
+      </c>
+      <c r="L47" s="3">
+        <v>4.8611111111111112E-3</v>
       </c>
       <c r="M47" s="3">
-        <v>4.8611111111111112E-3</v>
+        <v>4.8842592592592592E-3</v>
       </c>
       <c r="N47" s="3">
-        <v>4.8842592592592592E-3</v>
-      </c>
-      <c r="O47" s="3">
         <f t="shared" si="16"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="P47" s="3">
-        <f>M47-I47</f>
+      <c r="O47" s="3">
+        <f>L47-H47</f>
         <v>2.3148148148148008E-5</v>
       </c>
+      <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="3">
+      <c r="R47" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>23</v>
+      <c r="C48" s="1">
+        <v>10</v>
+      </c>
+      <c r="D48" s="3">
+        <v>5.1041666666666666E-3</v>
       </c>
       <c r="E48" s="3">
-        <v>5.1041666666666666E-3</v>
-      </c>
-      <c r="F48" s="3">
         <v>5.185185185185185E-3</v>
       </c>
-      <c r="G48" s="5">
+      <c r="F48" s="5">
         <f t="shared" si="12"/>
         <v>8.1018518518518462E-5</v>
       </c>
-      <c r="H48" s="2">
-        <v>1</v>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5.1273148148148146E-3</v>
       </c>
       <c r="I48" s="3">
-        <v>5.1273148148148146E-3</v>
-      </c>
-      <c r="J48" s="3">
         <f t="shared" si="13"/>
         <v>2.3148148148148008E-5</v>
       </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
       <c r="K48" s="2">
-        <v>1</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>57</v>
+        <v>105</v>
+      </c>
+      <c r="L48" s="3">
+        <v>5.138888888888889E-3</v>
       </c>
       <c r="M48" s="3">
-        <v>5.138888888888889E-3</v>
+        <v>5.1736111111111115E-3</v>
       </c>
       <c r="N48" s="3">
-        <v>5.1736111111111115E-3</v>
-      </c>
-      <c r="O48" s="3">
         <f t="shared" si="16"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="P48" s="3">
-        <f>M48-I48</f>
+      <c r="O48" s="3">
+        <f>L48-H48</f>
         <v>1.1574074074074438E-5</v>
       </c>
+      <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="3">
+      <c r="R48" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>25</v>
+      <c r="C49" s="52">
+        <v>31</v>
+      </c>
+      <c r="D49" s="3">
+        <v>5.8217592592592592E-3</v>
       </c>
       <c r="E49" s="3">
-        <v>5.8217592592592592E-3</v>
-      </c>
-      <c r="F49" s="3">
         <v>6.1111111111111114E-3</v>
       </c>
-      <c r="G49" s="5">
+      <c r="F49" s="5">
         <f t="shared" si="12"/>
         <v>2.8935185185185227E-4</v>
       </c>
-      <c r="H49" s="2">
-        <v>1</v>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3">
+        <v>6.0648148148148145E-3</v>
       </c>
       <c r="I49" s="3">
-        <v>6.0648148148148145E-3</v>
-      </c>
-      <c r="J49" s="3">
         <f t="shared" si="13"/>
         <v>2.4305555555555539E-4</v>
       </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
       <c r="K49" s="2">
-        <v>1</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
+      </c>
+      <c r="L49" s="3">
+        <v>6.076388888888889E-3</v>
       </c>
       <c r="M49" s="3">
-        <v>6.076388888888889E-3</v>
+        <v>6.0995370370370361E-3</v>
       </c>
       <c r="N49" s="3">
-        <v>6.0995370370370361E-3</v>
-      </c>
-      <c r="O49" s="3">
         <f t="shared" si="16"/>
         <v>2.3148148148147141E-5</v>
       </c>
-      <c r="P49" s="3">
+      <c r="O49" s="3">
         <f t="shared" si="17"/>
         <v>1.1574074074074438E-5</v>
       </c>
+      <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="3">
+      <c r="R49" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>26</v>
+      <c r="C50" s="52">
+        <v>21</v>
+      </c>
+      <c r="D50" s="3">
+        <v>6.4814814814814813E-3</v>
       </c>
       <c r="E50" s="3">
-        <v>6.4814814814814813E-3</v>
-      </c>
-      <c r="F50" s="3">
         <v>6.6898148148148142E-3</v>
       </c>
-      <c r="G50" s="5">
-        <f>F50-E50</f>
+      <c r="F50" s="5">
+        <f>E50-D50</f>
         <v>2.0833333333333294E-4</v>
       </c>
-      <c r="H50" s="2">
-        <v>1</v>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3">
+        <v>6.5393518518518517E-3</v>
       </c>
       <c r="I50" s="3">
-        <v>6.5393518518518517E-3</v>
-      </c>
-      <c r="J50" s="3">
         <f t="shared" si="13"/>
         <v>5.7870370370370454E-5</v>
       </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
       <c r="K50" s="2">
-        <v>1</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>57</v>
+        <v>105</v>
+      </c>
+      <c r="L50" s="3">
+        <v>6.6550925925925935E-3</v>
       </c>
       <c r="M50" s="3">
-        <v>6.6550925925925935E-3</v>
+        <v>6.6898148148148142E-3</v>
       </c>
       <c r="N50" s="3">
-        <v>6.6898148148148142E-3</v>
-      </c>
-      <c r="O50" s="3">
         <f t="shared" si="16"/>
         <v>3.4722222222220711E-5</v>
       </c>
-      <c r="P50" s="3">
+      <c r="O50" s="3">
         <f t="shared" si="17"/>
         <v>1.1574074074074178E-4</v>
       </c>
+      <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="3">
+      <c r="R50" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B51" s="19">
         <f>SUM(B42:B50)</f>
@@ -4476,570 +4630,542 @@
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="21">
+      <c r="F51" s="21">
+        <f>SUM(F42:F50)</f>
+        <v>2.9398148148148148E-3</v>
+      </c>
+      <c r="G51" s="19">
         <f>SUM(G42:G50)</f>
-        <v>2.9398148148148148E-3</v>
-      </c>
-      <c r="H51" s="19">
-        <f>SUM(H42:H50)</f>
         <v>9</v>
       </c>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20">
+      <c r="H51" s="19"/>
+      <c r="I51" s="20">
+        <f>SUM(I42:I50)</f>
+        <v>5.6712962962962902E-4</v>
+      </c>
+      <c r="J51" s="19">
         <f>SUM(J42:J50)</f>
-        <v>5.6712962962962902E-4</v>
-      </c>
-      <c r="K51" s="19">
-        <f>SUM(K42:K50)</f>
         <v>9</v>
       </c>
+      <c r="K51" s="19"/>
       <c r="L51" s="19"/>
       <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
+      <c r="N51" s="20">
+        <f>SUM(N42:N50)</f>
+        <v>4.9768518518518347E-4</v>
+      </c>
       <c r="O51" s="20">
         <f>SUM(O42:O50)</f>
-        <v>4.9768518518518347E-4</v>
-      </c>
-      <c r="P51" s="20">
-        <f>SUM(P42:P50)</f>
         <v>1.8287037037037048E-3</v>
       </c>
+      <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
       <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B52" s="2">
         <v>1</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>26</v>
+      <c r="C52" s="52">
+        <v>21</v>
+      </c>
+      <c r="D52" s="5">
+        <v>9.8379629629629642E-4</v>
       </c>
       <c r="E52" s="5">
-        <v>9.8379629629629642E-4</v>
+        <v>1.2731481481481483E-3</v>
       </c>
       <c r="F52" s="5">
+        <f>E52-D52</f>
+        <v>2.8935185185185184E-4</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1.1921296296296296E-3</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" ref="I52:I72" si="18">H52-D52</f>
+        <v>2.0833333333333316E-4</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2">
+        <v>105</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1.2268518518518518E-3</v>
+      </c>
+      <c r="M52" s="3">
         <v>1.2731481481481483E-3</v>
       </c>
-      <c r="G52" s="5">
-        <f>F52-E52</f>
-        <v>2.8935185185185184E-4</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1.1921296296296296E-3</v>
-      </c>
-      <c r="J52" s="3">
-        <f t="shared" ref="J52:J72" si="18">I52-E52</f>
-        <v>2.0833333333333316E-4</v>
-      </c>
-      <c r="K52" s="1">
-        <v>1</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1.2268518518518518E-3</v>
-      </c>
       <c r="N52" s="3">
-        <v>1.2731481481481483E-3</v>
+        <f t="shared" ref="N52:N70" si="19" xml:space="preserve"> M52-L52</f>
+        <v>4.629629629629645E-5</v>
       </c>
       <c r="O52" s="3">
-        <f t="shared" ref="O52:O70" si="19" xml:space="preserve"> N52-M52</f>
-        <v>4.629629629629645E-5</v>
-      </c>
-      <c r="P52" s="3">
-        <f t="shared" ref="P52:P80" si="20">M52-I52</f>
+        <f t="shared" ref="O52:O80" si="20">L52-H52</f>
         <v>3.4722222222222229E-5</v>
       </c>
+      <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="3">
+      <c r="R52" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="2">
+        <v>32</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1.7708333333333332E-3</v>
+      </c>
+      <c r="E53" s="5">
+        <v>3.1134259259259257E-3</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" ref="F53:F72" si="21">E53-D53</f>
+        <v>1.3425925925925925E-3</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="5">
-        <v>1.7708333333333332E-3</v>
-      </c>
-      <c r="F53" s="5">
-        <v>3.1134259259259257E-3</v>
-      </c>
-      <c r="G53" s="5">
-        <f t="shared" ref="G53:G72" si="21">F53-E53</f>
-        <v>1.3425925925925925E-3</v>
-      </c>
-      <c r="H53" s="2">
+      <c r="I53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="2">
         <v>0</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K53" s="2">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>20</v>
+      <c r="K53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P53" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="3">
+      <c r="R53" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>22</v>
+      <c r="C54" s="1">
+        <v>11</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2.5231481481481481E-3</v>
       </c>
       <c r="E54" s="5">
-        <v>2.5231481481481481E-3</v>
+        <v>2.615740740740741E-3</v>
       </c>
       <c r="F54" s="5">
-        <v>2.615740740740741E-3</v>
-      </c>
-      <c r="G54" s="5">
         <f t="shared" si="21"/>
         <v>9.25925925925929E-5</v>
       </c>
-      <c r="H54" s="2">
-        <v>1</v>
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3">
+        <v>2.5347222222222221E-3</v>
       </c>
       <c r="I54" s="3">
-        <v>2.5347222222222221E-3</v>
-      </c>
-      <c r="J54" s="3">
         <f t="shared" si="18"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="K54" s="2">
-        <v>1</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>59</v>
+      <c r="J54" s="2">
+        <v>1</v>
+      </c>
+      <c r="K54" s="52">
+        <v>102</v>
+      </c>
+      <c r="L54" s="3">
+        <v>2.5462962962962961E-3</v>
       </c>
       <c r="M54" s="3">
-        <v>2.5462962962962961E-3</v>
+        <v>2.615740740740741E-3</v>
       </c>
       <c r="N54" s="3">
-        <v>2.615740740740741E-3</v>
-      </c>
-      <c r="O54" s="3">
         <f t="shared" si="19"/>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="P54" s="3">
+      <c r="O54" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
+      <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="3">
+      <c r="R54" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="2">
         <v>12</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>29</v>
+      <c r="D55" s="3">
+        <v>3.1712962962962958E-3</v>
       </c>
       <c r="E55" s="3">
-        <v>3.1712962962962958E-3</v>
-      </c>
-      <c r="F55" s="3">
         <v>3.2407407407407406E-3</v>
       </c>
-      <c r="G55" s="5">
+      <c r="F55" s="5">
         <f t="shared" si="21"/>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="H55" s="2">
-        <v>1</v>
+      <c r="G55" s="2">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3">
+        <v>3.1828703703703702E-3</v>
       </c>
       <c r="I55" s="3">
-        <v>3.1828703703703702E-3</v>
-      </c>
-      <c r="J55" s="3">
         <f t="shared" si="18"/>
         <v>1.1574074074074438E-5</v>
       </c>
+      <c r="J55" s="2">
+        <v>1</v>
+      </c>
       <c r="K55" s="2">
-        <v>1</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>36</v>
+        <v>102</v>
+      </c>
+      <c r="L55" s="3">
+        <v>3.1944444444444442E-3</v>
       </c>
       <c r="M55" s="3">
-        <v>3.1944444444444442E-3</v>
+        <v>3.2523148148148151E-3</v>
       </c>
       <c r="N55" s="3">
-        <v>3.2523148148148151E-3</v>
-      </c>
-      <c r="O55" s="3">
         <f t="shared" si="19"/>
         <v>5.7870370370370888E-5</v>
       </c>
-      <c r="P55" s="3">
+      <c r="O55" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
+      <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="3">
+      <c r="R55" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>11</v>
+      <c r="C56" s="52">
+        <v>22</v>
+      </c>
+      <c r="D56" s="3">
+        <v>3.7268518518518514E-3</v>
       </c>
       <c r="E56" s="3">
-        <v>3.7268518518518514E-3</v>
-      </c>
-      <c r="F56" s="3">
         <v>4.0277777777777777E-3</v>
       </c>
-      <c r="G56" s="5">
+      <c r="F56" s="5">
         <f t="shared" si="21"/>
         <v>3.0092592592592627E-4</v>
       </c>
-      <c r="H56" s="2">
-        <v>1</v>
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
+      <c r="H56" s="3">
+        <v>3.9814814814814817E-3</v>
       </c>
       <c r="I56" s="3">
-        <v>3.9814814814814817E-3</v>
-      </c>
-      <c r="J56" s="3">
         <f t="shared" si="18"/>
         <v>2.5462962962963026E-4</v>
       </c>
+      <c r="J56" s="2">
+        <v>1</v>
+      </c>
       <c r="K56" s="2">
-        <v>1</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>57</v>
+        <v>105</v>
+      </c>
+      <c r="L56" s="3">
+        <v>4.0046296296296297E-3</v>
       </c>
       <c r="M56" s="3">
-        <v>4.0046296296296297E-3</v>
+        <v>4.0277777777777777E-3</v>
       </c>
       <c r="N56" s="3">
-        <v>4.0277777777777777E-3</v>
-      </c>
-      <c r="O56" s="3">
         <f t="shared" si="19"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="P56" s="3">
+      <c r="O56" s="3">
         <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
+      <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="3">
+      <c r="R56" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B57" s="2">
         <v>1</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>25</v>
+      <c r="C57" s="2">
+        <v>31</v>
+      </c>
+      <c r="D57" s="3">
+        <v>4.5486111111111109E-3</v>
       </c>
       <c r="E57" s="3">
-        <v>4.5486111111111109E-3</v>
-      </c>
-      <c r="F57" s="3">
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="G57" s="5">
+      <c r="F57" s="5">
         <f t="shared" si="21"/>
         <v>1.7361111111111136E-4</v>
       </c>
-      <c r="H57" s="2">
-        <v>1</v>
+      <c r="G57" s="2">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3">
+        <v>4.6874999999999998E-3</v>
       </c>
       <c r="I57" s="3">
-        <v>4.6874999999999998E-3</v>
-      </c>
-      <c r="J57" s="3">
         <f t="shared" si="18"/>
         <v>1.3888888888888892E-4</v>
       </c>
-      <c r="K57" s="2">
-        <v>1</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>60</v>
+      <c r="J57" s="2">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L57" s="3">
+        <v>4.7106481481481478E-3</v>
       </c>
       <c r="M57" s="3">
-        <v>4.7106481481481478E-3</v>
+        <v>4.7222222222222223E-3</v>
       </c>
       <c r="N57" s="3">
-        <v>4.7222222222222223E-3</v>
-      </c>
-      <c r="O57" s="3">
         <f t="shared" si="19"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="P57" s="3">
+      <c r="O57" s="3">
         <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
+      <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="3">
+      <c r="R57" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="C58" s="2">
         <v>30</v>
       </c>
+      <c r="D58" s="3">
+        <v>5.3935185185185188E-3</v>
+      </c>
       <c r="E58" s="3">
-        <v>5.3935185185185188E-3</v>
-      </c>
-      <c r="F58" s="3">
         <v>5.5439814814814822E-3</v>
       </c>
-      <c r="G58" s="5">
+      <c r="F58" s="5">
         <f t="shared" si="21"/>
         <v>1.5046296296296335E-4</v>
       </c>
-      <c r="H58" s="2">
-        <v>1</v>
+      <c r="G58" s="2">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3">
+        <v>5.4050925925925924E-3</v>
       </c>
       <c r="I58" s="3">
-        <v>5.4050925925925924E-3</v>
-      </c>
-      <c r="J58" s="3">
         <f t="shared" si="18"/>
         <v>1.157407407407357E-5</v>
       </c>
-      <c r="K58" s="2">
-        <v>1</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>62</v>
+      <c r="J58" s="2">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L58" s="3">
+        <v>5.4166666666666669E-3</v>
       </c>
       <c r="M58" s="3">
-        <v>5.4166666666666669E-3</v>
+        <v>5.5439814814814822E-3</v>
       </c>
       <c r="N58" s="3">
-        <v>5.5439814814814822E-3</v>
-      </c>
-      <c r="O58" s="3">
         <f t="shared" si="19"/>
         <v>1.2731481481481535E-4</v>
       </c>
-      <c r="P58" s="3">
+      <c r="O58" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074438E-5</v>
       </c>
+      <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="3">
+      <c r="R58" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B59" s="2">
         <v>1</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>23</v>
+      <c r="C59" s="1">
+        <v>10</v>
+      </c>
+      <c r="D59" s="3">
+        <v>5.7986111111111112E-3</v>
       </c>
       <c r="E59" s="3">
-        <v>5.7986111111111112E-3</v>
-      </c>
-      <c r="F59" s="3">
         <v>5.9606481481481489E-3</v>
       </c>
-      <c r="G59" s="5">
+      <c r="F59" s="5">
         <f t="shared" si="21"/>
         <v>1.6203703703703779E-4</v>
       </c>
-      <c r="H59" s="2">
-        <v>1</v>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="3">
+        <v>5.8680555555555543E-3</v>
       </c>
       <c r="I59" s="3">
-        <v>5.8680555555555543E-3</v>
-      </c>
-      <c r="J59" s="3">
         <f t="shared" si="18"/>
         <v>6.9444444444443157E-5</v>
       </c>
-      <c r="K59" s="2">
-        <v>1</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>63</v>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L59" s="3">
+        <v>5.9027777777777776E-3</v>
       </c>
       <c r="M59" s="3">
-        <v>5.9027777777777776E-3</v>
+        <v>5.9375000000000009E-3</v>
       </c>
       <c r="N59" s="3">
-        <v>5.9375000000000009E-3</v>
-      </c>
-      <c r="O59" s="3">
         <f t="shared" si="19"/>
         <v>3.4722222222223313E-5</v>
       </c>
-      <c r="P59" s="3">
+      <c r="O59" s="3">
         <f t="shared" si="20"/>
         <v>3.4722222222223313E-5</v>
       </c>
+      <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="3">
+      <c r="R59" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>55</v>
+      <c r="C60" s="2">
+        <v>33</v>
+      </c>
+      <c r="D60" s="3">
+        <v>6.5162037037037037E-3</v>
       </c>
       <c r="E60" s="3">
-        <v>6.5162037037037037E-3</v>
-      </c>
-      <c r="F60" s="3">
         <v>6.6782407407407415E-3</v>
       </c>
-      <c r="G60" s="5">
+      <c r="F60" s="5">
         <f t="shared" si="21"/>
         <v>1.6203703703703779E-4</v>
       </c>
-      <c r="H60" s="2">
-        <v>1</v>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3">
+        <v>6.6319444444444446E-3</v>
       </c>
       <c r="I60" s="3">
-        <v>6.6319444444444446E-3</v>
-      </c>
-      <c r="J60" s="3">
         <f t="shared" si="18"/>
         <v>1.1574074074074091E-4</v>
       </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
       <c r="K60" s="2">
-        <v>1</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>57</v>
+        <v>105</v>
+      </c>
+      <c r="L60" s="3">
+        <v>6.6550925925925935E-3</v>
       </c>
       <c r="M60" s="3">
-        <v>6.6550925925925935E-3</v>
+        <v>6.7129629629629622E-3</v>
       </c>
       <c r="N60" s="3">
-        <v>6.7129629629629622E-3</v>
-      </c>
-      <c r="O60" s="3">
         <f t="shared" si="19"/>
         <v>5.7870370370368719E-5</v>
       </c>
-      <c r="P60" s="3">
+      <c r="O60" s="3">
         <f t="shared" si="20"/>
         <v>2.3148148148148875E-5</v>
       </c>
+      <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="3">
+      <c r="R60" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B61" s="19">
         <f>SUM(B52:B60)</f>
@@ -5048,570 +5174,542 @@
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="21">
-        <f>SUM(G52:G60)</f>
+      <c r="F61" s="21">
+        <f>SUM(F52:F60)</f>
         <v>2.7430555555555585E-3</v>
       </c>
+      <c r="G61" s="19"/>
       <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20">
+      <c r="I61" s="20">
+        <f>SUM(I52:I60)</f>
+        <v>8.2175925925925841E-4</v>
+      </c>
+      <c r="J61" s="19">
         <f>SUM(J52:J60)</f>
-        <v>8.2175925925925841E-4</v>
-      </c>
-      <c r="K61" s="19">
-        <f>SUM(K52:K60)</f>
         <v>8</v>
       </c>
+      <c r="K61" s="19"/>
       <c r="L61" s="19"/>
       <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
+      <c r="N61" s="20">
+        <f>SUM(N52:N60)</f>
+        <v>4.2824074074074205E-4</v>
+      </c>
       <c r="O61" s="20">
         <f>SUM(O52:O60)</f>
-        <v>4.2824074074074205E-4</v>
-      </c>
-      <c r="P61" s="20">
-        <f>SUM(P52:P60)</f>
         <v>1.7361111111111288E-4</v>
       </c>
+      <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
       <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B62" s="2">
         <v>1</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>22</v>
+      <c r="C62" s="1">
+        <v>11</v>
+      </c>
+      <c r="D62" s="5">
+        <v>9.9537037037037042E-4</v>
       </c>
       <c r="E62" s="5">
-        <v>9.9537037037037042E-4</v>
+        <v>1.1689814814814816E-3</v>
       </c>
       <c r="F62" s="5">
-        <v>1.1689814814814816E-3</v>
-      </c>
-      <c r="G62" s="5">
         <f t="shared" si="21"/>
         <v>1.7361111111111114E-4</v>
       </c>
-      <c r="H62" s="1">
-        <v>1</v>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1.0069444444444444E-3</v>
       </c>
       <c r="I62" s="3">
-        <v>1.0069444444444444E-3</v>
-      </c>
-      <c r="J62" s="3">
         <f t="shared" si="18"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="K62" s="1">
-        <v>1</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>59</v>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="52">
+        <v>102</v>
+      </c>
+      <c r="L62" s="3">
+        <v>1.0300925925925926E-3</v>
       </c>
       <c r="M62" s="3">
-        <v>1.0300925925925926E-3</v>
+        <v>1.1689814814814816E-3</v>
       </c>
       <c r="N62" s="3">
-        <v>1.1689814814814816E-3</v>
-      </c>
-      <c r="O62" s="3">
         <f t="shared" si="19"/>
         <v>1.3888888888888892E-4</v>
       </c>
-      <c r="P62" s="3">
+      <c r="O62" s="3">
         <f t="shared" si="20"/>
         <v>2.3148148148148225E-5</v>
       </c>
+      <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="3">
+      <c r="R62" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B63" s="2">
         <v>1</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>26</v>
+      <c r="C63" s="52">
+        <v>21</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1.6666666666666668E-3</v>
       </c>
       <c r="E63" s="5">
-        <v>1.6666666666666668E-3</v>
+        <v>1.8865740740740742E-3</v>
       </c>
       <c r="F63" s="5">
-        <v>1.8865740740740742E-3</v>
-      </c>
-      <c r="G63" s="5">
         <f t="shared" si="21"/>
         <v>2.1990740740740738E-4</v>
       </c>
-      <c r="H63" s="2">
-        <v>1</v>
+      <c r="G63" s="2">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1.8402777777777777E-3</v>
       </c>
       <c r="I63" s="3">
-        <v>1.8402777777777777E-3</v>
-      </c>
-      <c r="J63" s="3">
         <f t="shared" si="18"/>
         <v>1.7361111111111093E-4</v>
       </c>
-      <c r="K63" s="2">
-        <v>1</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>51</v>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L63" s="3">
+        <v>1.8518518518518517E-3</v>
       </c>
       <c r="M63" s="3">
-        <v>1.8518518518518517E-3</v>
+        <v>1.8865740740740742E-3</v>
       </c>
       <c r="N63" s="3">
-        <v>1.8865740740740742E-3</v>
-      </c>
-      <c r="O63" s="3">
         <f t="shared" si="19"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="P63" s="3">
+      <c r="O63" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
+      <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="3">
+      <c r="R63" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>17</v>
+      <c r="C64" s="2">
+        <v>32</v>
+      </c>
+      <c r="D64" s="5">
+        <v>2.2453703703703702E-3</v>
       </c>
       <c r="E64" s="5">
-        <v>2.2453703703703702E-3</v>
+        <v>2.5810185185185185E-3</v>
       </c>
       <c r="F64" s="5">
-        <v>2.5810185185185185E-3</v>
-      </c>
-      <c r="G64" s="5">
         <f t="shared" si="21"/>
         <v>3.3564814814814829E-4</v>
       </c>
-      <c r="H64" s="2">
-        <v>1</v>
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3">
+        <v>2.2916666666666667E-3</v>
       </c>
       <c r="I64" s="3">
-        <v>2.2916666666666667E-3</v>
-      </c>
-      <c r="J64" s="3">
         <f t="shared" si="18"/>
         <v>4.629629629629645E-5</v>
       </c>
-      <c r="K64" s="2">
-        <v>1</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>51</v>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L64" s="3">
+        <v>2.4537037037037036E-3</v>
       </c>
       <c r="M64" s="3">
-        <v>2.4537037037037036E-3</v>
+        <v>2.6388888888888885E-3</v>
       </c>
       <c r="N64" s="3">
-        <v>2.6388888888888885E-3</v>
-      </c>
-      <c r="O64" s="3">
         <f t="shared" si="19"/>
         <v>1.8518518518518493E-4</v>
       </c>
-      <c r="P64" s="3">
+      <c r="O64" s="3">
         <f t="shared" si="20"/>
         <v>1.6203703703703692E-4</v>
       </c>
+      <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="3">
+      <c r="R64" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B65" s="2">
         <v>1</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>25</v>
+      <c r="C65" s="2">
+        <v>31</v>
+      </c>
+      <c r="D65" s="3">
+        <v>3.1249999999999997E-3</v>
       </c>
       <c r="E65" s="3">
-        <v>3.1249999999999997E-3</v>
-      </c>
-      <c r="F65" s="3">
         <v>3.5532407407407405E-3</v>
       </c>
-      <c r="G65" s="5">
+      <c r="F65" s="5">
         <f t="shared" si="21"/>
         <v>4.2824074074074075E-4</v>
       </c>
-      <c r="H65" s="2">
-        <v>1</v>
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+      <c r="H65" s="3">
+        <v>3.3912037037037036E-3</v>
       </c>
       <c r="I65" s="3">
-        <v>3.3912037037037036E-3</v>
-      </c>
-      <c r="J65" s="3">
         <f t="shared" si="18"/>
         <v>2.6620370370370383E-4</v>
       </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
       <c r="K65" s="2">
-        <v>1</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
+      </c>
+      <c r="L65" s="3">
+        <v>3.4027777777777784E-3</v>
       </c>
       <c r="M65" s="3">
-        <v>3.4027777777777784E-3</v>
+        <v>3.5532407407407405E-3</v>
       </c>
       <c r="N65" s="3">
-        <v>3.5532407407407405E-3</v>
-      </c>
-      <c r="O65" s="3">
         <f t="shared" si="19"/>
         <v>1.5046296296296205E-4</v>
       </c>
-      <c r="P65" s="3">
+      <c r="O65" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074871E-5</v>
       </c>
+      <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="3">
+      <c r="R65" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B66" s="2">
         <v>1</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="2">
         <v>12</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>29</v>
+      <c r="D66" s="3">
+        <v>3.7731481481481483E-3</v>
       </c>
       <c r="E66" s="3">
-        <v>3.7731481481481483E-3</v>
-      </c>
-      <c r="F66" s="3">
         <v>3.8541666666666668E-3</v>
       </c>
-      <c r="G66" s="5">
+      <c r="F66" s="5">
         <f t="shared" si="21"/>
         <v>8.1018518518518462E-5</v>
       </c>
-      <c r="H66" s="2">
-        <v>1</v>
+      <c r="G66" s="2">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3.7731481481481483E-3</v>
       </c>
       <c r="I66" s="3">
-        <v>3.7731481481481483E-3</v>
-      </c>
-      <c r="J66" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
       <c r="K66" s="2">
-        <v>1</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>36</v>
+        <v>102</v>
+      </c>
+      <c r="L66" s="3">
+        <v>3.7962962962962963E-3</v>
       </c>
       <c r="M66" s="3">
-        <v>3.7962962962962963E-3</v>
+        <v>3.8541666666666668E-3</v>
       </c>
       <c r="N66" s="3">
-        <v>3.8541666666666668E-3</v>
-      </c>
-      <c r="O66" s="3">
         <f t="shared" si="19"/>
         <v>5.7870370370370454E-5</v>
       </c>
-      <c r="P66" s="3">
+      <c r="O66" s="3">
         <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
+      <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="3">
+      <c r="R66" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B67" s="2">
         <v>1</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>11</v>
+      <c r="C67" s="52">
+        <v>22</v>
+      </c>
+      <c r="D67" s="3">
+        <v>4.340277777777778E-3</v>
       </c>
       <c r="E67" s="3">
-        <v>4.340277777777778E-3</v>
-      </c>
-      <c r="F67" s="3">
         <v>4.5833333333333334E-3</v>
       </c>
-      <c r="G67" s="5">
+      <c r="F67" s="5">
         <f t="shared" si="21"/>
         <v>2.4305555555555539E-4</v>
       </c>
-      <c r="H67" s="2">
-        <v>1</v>
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3">
+        <v>4.5254629629629629E-3</v>
       </c>
       <c r="I67" s="3">
-        <v>4.5254629629629629E-3</v>
-      </c>
-      <c r="J67" s="3">
         <f t="shared" si="18"/>
         <v>1.8518518518518493E-4</v>
       </c>
-      <c r="K67" s="2">
-        <v>1</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>31</v>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="52">
+        <v>100</v>
+      </c>
+      <c r="L67" s="3">
+        <v>4.5486111111111109E-3</v>
       </c>
       <c r="M67" s="3">
-        <v>4.5486111111111109E-3</v>
+        <v>4.5833333333333334E-3</v>
       </c>
       <c r="N67" s="3">
-        <v>4.5833333333333334E-3</v>
-      </c>
-      <c r="O67" s="3">
         <f t="shared" si="19"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="P67" s="3">
+      <c r="O67" s="3">
         <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
+      <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="3">
+      <c r="R67" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>55</v>
+      <c r="C68" s="2">
+        <v>33</v>
+      </c>
+      <c r="D68" s="3">
+        <v>5.7060185185185191E-3</v>
       </c>
       <c r="E68" s="3">
-        <v>5.7060185185185191E-3</v>
-      </c>
-      <c r="F68" s="3">
         <v>6.3541666666666668E-3</v>
       </c>
-      <c r="G68" s="5">
+      <c r="F68" s="5">
         <f t="shared" si="21"/>
         <v>6.481481481481477E-4</v>
       </c>
-      <c r="H68" s="2">
-        <v>1</v>
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+      <c r="H68" s="3">
+        <v>5.9837962962962961E-3</v>
       </c>
       <c r="I68" s="3">
-        <v>5.9837962962962961E-3</v>
-      </c>
-      <c r="J68" s="3">
-        <f>I68-E68</f>
+        <f>H68-D68</f>
         <v>2.7777777777777696E-4</v>
       </c>
-      <c r="K68" s="2">
-        <v>1</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>70</v>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L68" s="3">
+        <v>6.053240740740741E-3</v>
       </c>
       <c r="M68" s="3">
-        <v>6.053240740740741E-3</v>
+        <v>6.3657407407407404E-3</v>
       </c>
       <c r="N68" s="3">
-        <v>6.3657407407407404E-3</v>
-      </c>
-      <c r="O68" s="3">
         <f t="shared" si="19"/>
         <v>3.1249999999999941E-4</v>
       </c>
-      <c r="P68" s="3">
+      <c r="O68" s="3">
         <f t="shared" si="20"/>
         <v>6.9444444444444892E-5</v>
       </c>
+      <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="3">
+      <c r="R68" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B69" s="2">
         <v>1</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="C69" s="2">
         <v>30</v>
       </c>
+      <c r="D69" s="3">
+        <v>6.2731481481481484E-3</v>
+      </c>
       <c r="E69" s="3">
-        <v>6.2731481481481484E-3</v>
-      </c>
-      <c r="F69" s="3">
         <v>7.0023148148148154E-3</v>
       </c>
-      <c r="G69" s="5">
+      <c r="F69" s="5">
         <f t="shared" si="21"/>
         <v>7.2916666666666703E-4</v>
       </c>
-      <c r="H69" s="2">
-        <v>1</v>
+      <c r="G69" s="2">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3">
+        <v>6.3425925925925915E-3</v>
       </c>
       <c r="I69" s="3">
-        <v>6.3425925925925915E-3</v>
-      </c>
-      <c r="J69" s="3">
         <f t="shared" si="18"/>
         <v>6.9444444444443157E-5</v>
       </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
       <c r="K69" s="2">
-        <v>1</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>71</v>
+        <v>103</v>
+      </c>
+      <c r="L69" s="3">
+        <v>6.9212962962962969E-3</v>
       </c>
       <c r="M69" s="3">
-        <v>6.9212962962962969E-3</v>
+        <v>7.106481481481481E-3</v>
       </c>
       <c r="N69" s="3">
-        <v>7.106481481481481E-3</v>
-      </c>
-      <c r="O69" s="3">
         <f t="shared" si="19"/>
         <v>1.8518518518518406E-4</v>
       </c>
-      <c r="P69" s="3">
+      <c r="O69" s="3">
         <f t="shared" si="20"/>
         <v>5.7870370370370541E-4</v>
       </c>
+      <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="3">
+      <c r="R69" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B70" s="2">
         <v>1</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>23</v>
+      <c r="C70" s="1">
+        <v>10</v>
+      </c>
+      <c r="D70" s="3">
+        <v>6.5740740740740733E-3</v>
       </c>
       <c r="E70" s="3">
-        <v>6.5740740740740733E-3</v>
-      </c>
-      <c r="F70" s="3">
         <v>6.7245370370370367E-3</v>
       </c>
-      <c r="G70" s="5">
+      <c r="F70" s="5">
         <f t="shared" si="21"/>
         <v>1.5046296296296335E-4</v>
       </c>
-      <c r="H70" s="2">
-        <v>1</v>
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3">
+        <v>6.5972222222222222E-3</v>
       </c>
       <c r="I70" s="3">
-        <v>6.5972222222222222E-3</v>
-      </c>
-      <c r="J70" s="3">
         <f t="shared" si="18"/>
         <v>2.3148148148148875E-5</v>
       </c>
-      <c r="K70" s="2">
-        <v>1</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>12</v>
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70" s="3">
+        <v>6.6782407407407415E-3</v>
       </c>
       <c r="M70" s="3">
-        <v>6.6782407407407415E-3</v>
+        <v>6.7245370370370367E-3</v>
       </c>
       <c r="N70" s="3">
-        <v>6.7245370370370367E-3</v>
-      </c>
-      <c r="O70" s="3">
         <f t="shared" si="19"/>
         <v>4.6296296296295149E-5</v>
       </c>
-      <c r="P70" s="3">
+      <c r="O70" s="3">
         <f t="shared" si="20"/>
         <v>8.1018518518519329E-5</v>
       </c>
+      <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="3">
+      <c r="R70" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B71" s="19">
         <f>SUM(B62:B70)</f>
@@ -5620,568 +5718,540 @@
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="21">
-        <f>SUM(G62:G70)</f>
+      <c r="F71" s="21">
+        <f>SUM(F62:F70)</f>
         <v>3.0092592592592593E-3</v>
       </c>
+      <c r="G71" s="19"/>
       <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20">
+      <c r="I71" s="20">
+        <f>SUM(I62:I70)</f>
+        <v>1.0532407407407391E-3</v>
+      </c>
+      <c r="J71" s="19">
         <f>SUM(J62:J70)</f>
-        <v>1.0532407407407391E-3</v>
-      </c>
-      <c r="K71" s="19">
-        <f>SUM(K62:K70)</f>
         <v>9</v>
       </c>
+      <c r="K71" s="19"/>
       <c r="L71" s="19"/>
       <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
+      <c r="N71" s="20">
+        <f>SUM(N62:N70)</f>
+        <v>1.1458333333333299E-3</v>
+      </c>
       <c r="O71" s="20">
         <f>SUM(O62:O70)</f>
-        <v>1.1458333333333299E-3</v>
-      </c>
-      <c r="P71" s="20">
-        <f>SUM(P62:P70)</f>
         <v>9.8379629629629967E-4</v>
       </c>
+      <c r="P71" s="19"/>
       <c r="Q71" s="19"/>
       <c r="R71" s="19"/>
-      <c r="S71" s="19"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>23</v>
+      <c r="C72" s="1">
+        <v>10</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1.9560185185185184E-3</v>
       </c>
       <c r="E72" s="3">
-        <v>1.9560185185185184E-3</v>
-      </c>
-      <c r="F72" s="3">
         <v>2.1064814814814813E-3</v>
       </c>
-      <c r="G72" s="5">
+      <c r="F72" s="5">
         <f t="shared" si="21"/>
         <v>1.5046296296296292E-4</v>
       </c>
-      <c r="H72" s="2">
-        <v>1</v>
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1.9907407407407408E-3</v>
       </c>
       <c r="I72" s="3">
-        <v>1.9907407407407408E-3</v>
-      </c>
-      <c r="J72" s="3">
         <f t="shared" si="18"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="K72" s="2">
-        <v>1</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>31</v>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="52">
+        <v>100</v>
+      </c>
+      <c r="L72" s="3">
+        <v>1.9907407407407408E-3</v>
       </c>
       <c r="M72" s="3">
-        <v>1.9907407407407408E-3</v>
+        <v>2.1064814814814813E-3</v>
       </c>
       <c r="N72" s="3">
-        <v>2.1064814814814813E-3</v>
+        <f t="shared" ref="N72:N77" si="22" xml:space="preserve"> M72-L72</f>
+        <v>1.1574074074074047E-4</v>
       </c>
       <c r="O72" s="3">
-        <f t="shared" ref="O72:O77" si="22" xml:space="preserve"> N72-M72</f>
-        <v>1.1574074074074047E-4</v>
-      </c>
-      <c r="P72" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
+      <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="3">
+      <c r="R72" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B73" s="2">
         <v>1</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>55</v>
+      <c r="C73" s="2">
+        <v>32</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1.689814814814815E-3</v>
       </c>
       <c r="E73" s="3">
-        <v>1.689814814814815E-3</v>
-      </c>
-      <c r="F73" s="3">
         <v>2.0023148148148148E-3</v>
       </c>
-      <c r="G73" s="5">
-        <f t="shared" ref="G73:G80" si="23">F73-E73</f>
+      <c r="F73" s="5">
+        <f t="shared" ref="F73:F80" si="23">E73-D73</f>
         <v>3.1249999999999984E-4</v>
       </c>
-      <c r="H73" s="2">
-        <v>1</v>
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1.8981481481481482E-3</v>
       </c>
       <c r="I73" s="3">
-        <v>1.8981481481481482E-3</v>
-      </c>
-      <c r="J73" s="3">
-        <f t="shared" ref="J73:J80" si="24">I73-E73</f>
+        <f t="shared" ref="I73:I80" si="24">H73-D73</f>
         <v>2.0833333333333316E-4</v>
       </c>
+      <c r="J73" s="2">
+        <v>1</v>
+      </c>
       <c r="K73" s="2">
-        <v>1</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>39</v>
+        <v>104</v>
+      </c>
+      <c r="L73" s="3">
+        <v>1.9097222222222222E-3</v>
       </c>
       <c r="M73" s="3">
-        <v>1.9097222222222222E-3</v>
+        <v>2.0023148148148148E-3</v>
       </c>
       <c r="N73" s="3">
-        <v>2.0023148148148148E-3</v>
-      </c>
-      <c r="O73" s="3">
         <f t="shared" si="22"/>
         <v>9.2592592592592683E-5</v>
       </c>
-      <c r="P73" s="3">
+      <c r="O73" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
+      <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="3">
+      <c r="R73" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="C74" s="2">
         <v>30</v>
       </c>
+      <c r="D74" s="3">
+        <v>2.3842592592592591E-3</v>
+      </c>
       <c r="E74" s="3">
-        <v>2.3842592592592591E-3</v>
-      </c>
-      <c r="F74" s="3">
         <v>3.0671296296296297E-3</v>
       </c>
-      <c r="G74" s="5">
+      <c r="F74" s="5">
         <f t="shared" si="23"/>
         <v>6.8287037037037058E-4</v>
       </c>
-      <c r="H74" s="2">
-        <v>1</v>
+      <c r="G74" s="2">
+        <v>1</v>
+      </c>
+      <c r="H74" s="3">
+        <v>2.5115740740740741E-3</v>
       </c>
       <c r="I74" s="3">
-        <v>2.5115740740740741E-3</v>
-      </c>
-      <c r="J74" s="3">
         <f t="shared" si="24"/>
         <v>1.2731481481481491E-4</v>
       </c>
-      <c r="K74" s="2">
+      <c r="J74" s="2">
         <v>0</v>
       </c>
+      <c r="K74" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="L74" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P74" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="3">
+      <c r="R74" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B75" s="2">
         <v>1</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>17</v>
+      <c r="C75" s="2">
+        <v>33</v>
+      </c>
+      <c r="D75" s="3">
+        <v>3.2060185185185191E-3</v>
       </c>
       <c r="E75" s="3">
-        <v>3.2060185185185191E-3</v>
-      </c>
-      <c r="F75" s="3">
         <v>3.5995370370370369E-3</v>
       </c>
-      <c r="G75" s="5">
+      <c r="F75" s="5">
         <f t="shared" si="23"/>
         <v>3.9351851851851787E-4</v>
       </c>
-      <c r="H75" s="2">
-        <v>1</v>
+      <c r="G75" s="2">
+        <v>1</v>
+      </c>
+      <c r="H75" s="3">
+        <v>3.2986111111111111E-3</v>
       </c>
       <c r="I75" s="3">
-        <v>3.2986111111111111E-3</v>
-      </c>
-      <c r="J75" s="3">
         <f t="shared" si="24"/>
         <v>9.2592592592592032E-5</v>
       </c>
+      <c r="J75" s="2">
+        <v>1</v>
+      </c>
       <c r="K75" s="2">
-        <v>1</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>71</v>
+        <v>103</v>
+      </c>
+      <c r="L75" s="3">
+        <v>3.3101851851851851E-3</v>
       </c>
       <c r="M75" s="3">
-        <v>3.3101851851851851E-3</v>
+        <v>3.5995370370370369E-3</v>
       </c>
       <c r="N75" s="3">
-        <v>3.5995370370370369E-3</v>
-      </c>
-      <c r="O75" s="3">
         <f t="shared" si="22"/>
         <v>2.8935185185185184E-4</v>
       </c>
-      <c r="P75" s="3">
+      <c r="O75" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
+      <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="3">
+      <c r="R75" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B76" s="2">
         <v>1</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>22</v>
+      <c r="C76" s="1">
+        <v>11</v>
+      </c>
+      <c r="D76" s="3">
+        <v>3.6805555555555554E-3</v>
       </c>
       <c r="E76" s="3">
-        <v>3.6805555555555554E-3</v>
-      </c>
-      <c r="F76" s="3">
         <v>3.9351851851851857E-3</v>
       </c>
-      <c r="G76" s="5">
+      <c r="F76" s="5">
         <f t="shared" si="23"/>
         <v>2.5462962962963026E-4</v>
       </c>
-      <c r="H76" s="2">
-        <v>1</v>
+      <c r="G76" s="2">
+        <v>1</v>
+      </c>
+      <c r="H76" s="3">
+        <v>3.6921296296296298E-3</v>
       </c>
       <c r="I76" s="3">
-        <v>3.6921296296296298E-3</v>
-      </c>
-      <c r="J76" s="3">
         <f t="shared" si="24"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="K76" s="2">
-        <v>1</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>72</v>
+      <c r="J76" s="2">
+        <v>1</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L76" s="3">
+        <v>3.7037037037037034E-3</v>
       </c>
       <c r="M76" s="3">
-        <v>3.7037037037037034E-3</v>
+        <v>3.9004629629629632E-3</v>
       </c>
       <c r="N76" s="3">
-        <v>3.9004629629629632E-3</v>
-      </c>
-      <c r="O76" s="3">
         <f t="shared" si="22"/>
         <v>1.967592592592598E-4</v>
       </c>
-      <c r="P76" s="3">
+      <c r="O76" s="3">
         <f t="shared" si="20"/>
         <v>1.157407407407357E-5</v>
       </c>
+      <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="3">
+      <c r="R76" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B77" s="2">
         <v>1</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>26</v>
+      <c r="C77" s="52">
+        <v>21</v>
+      </c>
+      <c r="D77" s="3">
+        <v>4.386574074074074E-3</v>
       </c>
       <c r="E77" s="3">
-        <v>4.386574074074074E-3</v>
-      </c>
-      <c r="F77" s="3">
         <v>4.6759259259259263E-3</v>
       </c>
-      <c r="G77" s="5">
+      <c r="F77" s="5">
         <f t="shared" si="23"/>
         <v>2.8935185185185227E-4</v>
       </c>
-      <c r="H77" s="2">
-        <v>1</v>
+      <c r="G77" s="2">
+        <v>1</v>
+      </c>
+      <c r="H77" s="3">
+        <v>4.5833333333333334E-3</v>
       </c>
       <c r="I77" s="3">
-        <v>4.5833333333333334E-3</v>
-      </c>
-      <c r="J77" s="3">
         <f t="shared" si="24"/>
         <v>1.9675925925925937E-4</v>
       </c>
+      <c r="J77" s="2">
+        <v>1</v>
+      </c>
       <c r="K77" s="2">
-        <v>1</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>57</v>
+        <v>105</v>
+      </c>
+      <c r="L77" s="3">
+        <v>4.6412037037037038E-3</v>
       </c>
       <c r="M77" s="3">
-        <v>4.6412037037037038E-3</v>
+        <v>4.6759259259259263E-3</v>
       </c>
       <c r="N77" s="3">
-        <v>4.6759259259259263E-3</v>
-      </c>
-      <c r="O77" s="3">
         <f t="shared" si="22"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="P77" s="3">
+      <c r="O77" s="3">
         <f t="shared" si="20"/>
         <v>5.7870370370370454E-5</v>
       </c>
+      <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="3">
+      <c r="R77" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B78" s="2">
         <v>1</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>11</v>
+      <c r="C78" s="52">
+        <v>22</v>
+      </c>
+      <c r="D78" s="3">
+        <v>5.8333333333333336E-3</v>
       </c>
       <c r="E78" s="3">
-        <v>5.8333333333333336E-3</v>
-      </c>
-      <c r="F78" s="3">
         <v>6.076388888888889E-3</v>
       </c>
-      <c r="G78" s="5">
+      <c r="F78" s="5">
         <f t="shared" si="23"/>
         <v>2.4305555555555539E-4</v>
       </c>
-      <c r="H78" s="2">
-        <v>1</v>
+      <c r="G78" s="2">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3">
+        <v>5.8564814814814825E-3</v>
       </c>
       <c r="I78" s="3">
-        <v>5.8564814814814825E-3</v>
-      </c>
-      <c r="J78" s="3">
         <f t="shared" si="24"/>
         <v>2.3148148148148875E-5</v>
       </c>
+      <c r="J78" s="2">
+        <v>1</v>
+      </c>
       <c r="K78" s="2">
-        <v>1</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
+      </c>
+      <c r="L78" s="3">
+        <v>5.8564814814814825E-3</v>
       </c>
       <c r="M78" s="3">
-        <v>5.8564814814814825E-3</v>
+        <v>6.076388888888889E-3</v>
       </c>
       <c r="N78" s="3">
-        <v>6.076388888888889E-3</v>
+        <f xml:space="preserve"> M78-L78</f>
+        <v>2.1990740740740651E-4</v>
       </c>
       <c r="O78" s="3">
-        <f xml:space="preserve"> N78-M78</f>
-        <v>2.1990740740740651E-4</v>
-      </c>
-      <c r="P78" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
+      <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="3">
+      <c r="R78" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B79" s="2">
         <v>1</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>25</v>
+      <c r="C79" s="2">
+        <v>31</v>
+      </c>
+      <c r="D79" s="3">
+        <v>5.7986111111111112E-3</v>
       </c>
       <c r="E79" s="3">
-        <v>5.7986111111111112E-3</v>
-      </c>
-      <c r="F79" s="3">
         <v>6.2037037037037043E-3</v>
       </c>
-      <c r="G79" s="5">
+      <c r="F79" s="5">
         <f t="shared" si="23"/>
         <v>4.0509259259259318E-4</v>
       </c>
-      <c r="H79" s="2">
-        <v>1</v>
+      <c r="G79" s="2">
+        <v>1</v>
+      </c>
+      <c r="H79" s="3">
+        <v>6.145833333333333E-3</v>
       </c>
       <c r="I79" s="3">
-        <v>6.145833333333333E-3</v>
-      </c>
-      <c r="J79" s="3">
         <f t="shared" si="24"/>
         <v>3.4722222222222186E-4</v>
       </c>
+      <c r="J79" s="2">
+        <v>1</v>
+      </c>
       <c r="K79" s="2">
-        <v>1</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>57</v>
+        <v>105</v>
+      </c>
+      <c r="L79" s="3">
+        <v>6.1574074074074074E-3</v>
       </c>
       <c r="M79" s="3">
-        <v>6.1574074074074074E-3</v>
+        <v>6.2037037037037043E-3</v>
       </c>
       <c r="N79" s="3">
-        <v>6.2037037037037043E-3</v>
+        <f xml:space="preserve"> M79-L79</f>
+        <v>4.6296296296296884E-5</v>
       </c>
       <c r="O79" s="3">
-        <f xml:space="preserve"> N79-M79</f>
-        <v>4.6296296296296884E-5</v>
-      </c>
-      <c r="P79" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074438E-5</v>
       </c>
+      <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="3">
+      <c r="R79" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B80" s="2">
         <v>1</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="2">
         <v>12</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>29</v>
+      <c r="D80" s="3">
+        <v>7.1412037037037043E-3</v>
       </c>
       <c r="E80" s="3">
-        <v>7.1412037037037043E-3</v>
-      </c>
-      <c r="F80" s="3">
         <v>7.2453703703703708E-3</v>
       </c>
-      <c r="G80" s="5">
+      <c r="F80" s="5">
         <f t="shared" si="23"/>
         <v>1.0416666666666647E-4</v>
       </c>
-      <c r="H80" s="2">
-        <v>1</v>
+      <c r="G80" s="2">
+        <v>1</v>
+      </c>
+      <c r="H80" s="3">
+        <v>7.1643518518518514E-3</v>
       </c>
       <c r="I80" s="3">
-        <v>7.1643518518518514E-3</v>
-      </c>
-      <c r="J80" s="3">
         <f t="shared" si="24"/>
         <v>2.3148148148147141E-5</v>
       </c>
-      <c r="K80" s="2">
-        <v>1</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>61</v>
+      <c r="J80" s="2">
+        <v>1</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L80" s="3">
+        <v>7.1990740740740739E-3</v>
       </c>
       <c r="M80" s="3">
-        <v>7.1990740740740739E-3</v>
+        <v>7.2453703703703708E-3</v>
       </c>
       <c r="N80" s="3">
-        <v>7.2453703703703708E-3</v>
+        <f xml:space="preserve"> M80-L80</f>
+        <v>4.6296296296296884E-5</v>
       </c>
       <c r="O80" s="3">
-        <f xml:space="preserve"> N80-M80</f>
-        <v>4.6296296296296884E-5</v>
-      </c>
-      <c r="P80" s="3">
         <f t="shared" si="20"/>
         <v>3.4722222222222446E-5</v>
       </c>
+      <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="3">
+      <c r="R80" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B81" s="19">
         <f>SUM(B72:B80)</f>
@@ -6190,42 +6260,41 @@
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="21">
-        <f>SUM(G72:G80)</f>
+      <c r="F81" s="21">
+        <f>SUM(F72:F80)</f>
         <v>2.8356481481481488E-3</v>
       </c>
+      <c r="G81" s="19"/>
       <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20">
+      <c r="I81" s="20">
+        <f>SUM(I72:I80)</f>
+        <v>1.0648148148148142E-3</v>
+      </c>
+      <c r="J81" s="19">
         <f>SUM(J72:J80)</f>
-        <v>1.0648148148148142E-3</v>
-      </c>
-      <c r="K81" s="19">
-        <f>SUM(K72:K80)</f>
         <v>8</v>
       </c>
+      <c r="K81" s="19"/>
       <c r="L81" s="19"/>
       <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
+      <c r="N81" s="20">
+        <f>SUM(N72:N80)</f>
+        <v>1.0416666666666675E-3</v>
+      </c>
       <c r="O81" s="20">
         <f>SUM(O72:O80)</f>
-        <v>1.0416666666666675E-3</v>
-      </c>
-      <c r="P81" s="20">
-        <f>SUM(P72:P80)</f>
         <v>1.3888888888888892E-4</v>
       </c>
+      <c r="P81" s="19"/>
       <c r="Q81" s="19"/>
       <c r="R81" s="19"/>
-      <c r="S81" s="19"/>
-    </row>
-    <row r="83" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6237,45 +6306,50 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
+      <c r="B5" s="36"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="38"/>
+      <c r="B6" s="36"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
-        <v>143</v>
+      <c r="A7" s="41" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
-        <v>109</v>
+      <c r="A8" s="36" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
-        <v>108</v>
+      <c r="A9" s="36" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
+++ b/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\studies\2020_Aperol_Git\Coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\studies\2020_Aperol_Git\Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{6C27473C-0A03-4718-875F-030B1CCE21BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5ABE49BA-997E-43DB-8883-4CC8CD2B4AC4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088F14E8-B09D-47D5-B25E-717C82E3F1AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" activeTab="1" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" activeTab="2" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
   </bookViews>
   <sheets>
     <sheet name="coding scheme" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="181">
   <si>
     <t>onset</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>reaction</t>
-  </si>
-  <si>
-    <t>reaction (0/1)</t>
   </si>
   <si>
     <t>number of fixation in AOI</t>
@@ -555,6 +552,39 @@
   </si>
   <si>
     <t>nonverbal: moving towards disturbing person; 105</t>
+  </si>
+  <si>
+    <t>4. AOI Störung "chitchatting with neighbour": nur schwatzende Person oder auch Nachbar:in als AOI?</t>
+  </si>
+  <si>
+    <t>reacted (0/1)</t>
+  </si>
+  <si>
+    <t>reaction02</t>
+  </si>
+  <si>
+    <t>reaction01</t>
+  </si>
+  <si>
+    <t>reaction03</t>
+  </si>
+  <si>
+    <t>reaction04</t>
+  </si>
+  <si>
+    <t>total reaction onset</t>
+  </si>
+  <si>
+    <t>total reaction offset</t>
+  </si>
+  <si>
+    <t>reaction01 onset</t>
+  </si>
+  <si>
+    <t>reaction01 offset</t>
+  </si>
+  <si>
+    <t>5. Was tun bei Unterrichtsstörungen, die unterbrochen werden? Z.B. PersonA malt, Person B fragt PersonA nach Handy, PersonA unterbricht malen, nimmt es dann wieder auf. AOI bleibt die ganze Zeit bestehen?</t>
   </si>
 </sst>
 </file>
@@ -1181,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A75A8A-F741-4C3F-9138-10D56EF9D568}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1206,16 +1236,16 @@
   <sheetData>
     <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1226,16 +1256,16 @@
     </row>
     <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1246,197 +1276,197 @@
     </row>
     <row r="5" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="48" t="s">
         <v>65</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="45">
         <v>10</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="45">
         <v>11</v>
       </c>
       <c r="C8" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>74</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="45">
         <v>12</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="46">
         <v>20</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="46">
         <v>21</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="46">
         <v>22</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="46">
         <v>30</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="46">
         <v>31</v>
       </c>
       <c r="C16" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="46">
         <v>32</v>
       </c>
       <c r="C17" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>91</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="46">
         <v>33</v>
       </c>
       <c r="C18" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>139</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1447,16 +1477,16 @@
     </row>
     <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1467,16 +1497,16 @@
     </row>
     <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="29" t="s">
         <v>55</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1490,13 +1520,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1507,16 +1537,16 @@
     </row>
     <row r="26" spans="1:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1527,16 +1557,16 @@
     </row>
     <row r="28" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1547,16 +1577,16 @@
     </row>
     <row r="30" spans="1:4" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1570,13 +1600,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1587,126 +1617,126 @@
     </row>
     <row r="34" spans="1:4" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B34" s="44"/>
       <c r="C34" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B36" s="46">
         <v>100</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B37" s="46">
         <v>101</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B38" s="46">
         <v>102</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B39" s="46">
         <v>103</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B40" s="46">
         <v>104</v>
       </c>
       <c r="C40" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="40" t="s">
         <v>154</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B41" s="46">
         <v>105</v>
       </c>
       <c r="C41" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="40" t="s">
         <v>166</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1717,16 +1747,16 @@
     </row>
     <row r="44" spans="1:4" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1737,16 +1767,16 @@
     </row>
     <row r="46" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C46" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="29" t="s">
         <v>103</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1757,16 +1787,16 @@
     </row>
     <row r="48" spans="1:4" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="29" t="s">
         <v>105</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1777,21 +1807,21 @@
     </row>
     <row r="50" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="37"/>
       <c r="C52" s="37"/>
@@ -1802,7 +1832,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" s="42"/>
     </row>
@@ -1812,7 +1842,7 @@
     </row>
     <row r="58" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B58" s="37"/>
       <c r="C58" s="37"/>
@@ -1820,22 +1850,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1846,11 +1876,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DD2F59-5577-4BF1-9B09-7232E83E7D11}">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:W89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1861,28 +1891,33 @@
     <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" style="1" customWidth="1"/>
     <col min="6" max="7" width="17.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.44140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="55.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.5546875" style="1"/>
+    <col min="11" max="11" width="17.44140625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="1" customWidth="1"/>
+    <col min="20" max="20" width="21.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.88671875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -1897,42 +1932,57 @@
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1941,14 +1991,14 @@
         <v>10</v>
       </c>
       <c r="D2" s="5">
-        <v>8.6805555555555551E-4</v>
+        <v>8.7962962962962962E-4</v>
       </c>
       <c r="E2" s="5">
         <v>9.6064814814814808E-4</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2:F10" si="0">E2-D2</f>
-        <v>9.2592592592592574E-5</v>
+        <v>8.1018518518518462E-5</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -1957,8 +2007,8 @@
         <v>9.0277777777777784E-4</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" ref="I2:I10" si="1">H2-D2</f>
-        <v>3.4722222222222337E-5</v>
+        <f>H2-D2</f>
+        <v>2.3148148148148225E-5</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -1966,29 +2016,34 @@
       <c r="K2" s="52">
         <v>100</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="3">
         <v>9.2592592592592585E-4</v>
       </c>
-      <c r="M2" s="3">
+      <c r="R2" s="3">
         <v>9.6064814814814808E-4</v>
       </c>
-      <c r="N2" s="3">
-        <f t="shared" ref="N2:N10" si="2" xml:space="preserve"> M2-L2</f>
+      <c r="S2" s="3">
+        <f t="shared" ref="S2:S10" si="1" xml:space="preserve"> R2-Q2</f>
         <v>3.4722222222222229E-5</v>
       </c>
-      <c r="O2" s="3">
-        <f t="shared" ref="O2:O10" si="3">L2-H2</f>
+      <c r="T2" s="3">
+        <f>Q2-H2</f>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="3">
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
@@ -2013,38 +2068,43 @@
         <v>1.712962962962963E-3</v>
       </c>
       <c r="I3" s="3">
+        <f t="shared" ref="I3:I10" si="2">H3-D3</f>
+        <v>8.1018518518518462E-5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="3">
+        <v>1.7245370370370372E-3</v>
+      </c>
+      <c r="R3" s="3">
+        <v>2.0254629629629629E-3</v>
+      </c>
+      <c r="S3" s="3">
         <f t="shared" si="1"/>
-        <v>8.1018518518518462E-5</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1.7245370370370372E-3</v>
-      </c>
-      <c r="M3" s="3">
-        <v>2.0254629629629629E-3</v>
-      </c>
-      <c r="N3" s="3">
-        <f t="shared" si="2"/>
         <v>3.0092592592592562E-4</v>
       </c>
-      <c r="O3" s="3">
-        <f t="shared" si="3"/>
+      <c r="T3" s="3">
+        <f t="shared" ref="T2:T10" si="3">Q3-H3</f>
         <v>1.1574074074074221E-5</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="3">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -2069,38 +2129,43 @@
         <v>2.8472222222222219E-3</v>
       </c>
       <c r="I4" s="12">
+        <f t="shared" si="2"/>
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="12">
+        <v>2.8587962962962963E-3</v>
+      </c>
+      <c r="R4" s="12">
+        <v>2.9282407407407412E-3</v>
+      </c>
+      <c r="S4" s="12">
         <f t="shared" si="1"/>
-        <v>4.6296296296296016E-5</v>
-      </c>
-      <c r="J4" s="10">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" s="12">
-        <v>2.8587962962962963E-3</v>
-      </c>
-      <c r="M4" s="12">
-        <v>2.9282407407407412E-3</v>
-      </c>
-      <c r="N4" s="12">
-        <f t="shared" si="2"/>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="O4" s="12">
+      <c r="T4" s="12">
         <f t="shared" si="3"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="12">
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="12">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
@@ -2125,38 +2190,43 @@
         <v>3.3217592592592591E-3</v>
       </c>
       <c r="I5" s="3">
+        <f t="shared" si="2"/>
+        <v>5.787037037037002E-5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="3">
+        <v>4.108796296296297E-3</v>
+      </c>
+      <c r="R5" s="3">
+        <v>4.2129629629629626E-3</v>
+      </c>
+      <c r="S5" s="3">
         <f t="shared" si="1"/>
-        <v>5.787037037037002E-5</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L5" s="3">
-        <v>4.108796296296297E-3</v>
-      </c>
-      <c r="M5" s="3">
-        <v>4.2129629629629626E-3</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" si="2"/>
         <v>1.041666666666656E-4</v>
       </c>
-      <c r="O5" s="3">
+      <c r="T5" s="3">
         <f t="shared" si="3"/>
         <v>7.8703703703703791E-4</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="3">
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
@@ -2181,7 +2251,7 @@
         <v>4.0162037037037033E-3</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" s="2">
@@ -2190,29 +2260,34 @@
       <c r="K6" s="52">
         <v>102</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="3">
         <v>4.0277777777777777E-3</v>
       </c>
-      <c r="M6" s="3">
+      <c r="R6" s="3">
         <v>4.0624999999999993E-3</v>
       </c>
-      <c r="N6" s="3">
-        <f t="shared" si="2"/>
+      <c r="S6" s="3">
+        <f t="shared" si="1"/>
         <v>3.4722222222221578E-5</v>
       </c>
-      <c r="O6" s="3">
+      <c r="T6" s="3">
         <f t="shared" si="3"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="3">
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -2237,38 +2312,43 @@
         <v>4.4675925925925933E-3</v>
       </c>
       <c r="I7" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2731481481481535E-4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="3">
+        <v>4.5138888888888893E-3</v>
+      </c>
+      <c r="R7" s="3">
+        <v>4.5717592592592589E-3</v>
+      </c>
+      <c r="S7" s="3">
         <f t="shared" si="1"/>
-        <v>1.2731481481481535E-4</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="L7" s="3">
-        <v>4.5138888888888893E-3</v>
-      </c>
-      <c r="M7" s="3">
-        <v>4.5717592592592589E-3</v>
-      </c>
-      <c r="N7" s="3">
-        <f t="shared" si="2"/>
         <v>5.7870370370369587E-5</v>
       </c>
-      <c r="O7" s="3">
+      <c r="T7" s="3">
         <f t="shared" si="3"/>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="3">
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -2293,38 +2373,43 @@
         <v>5.0462962962962961E-3</v>
       </c>
       <c r="I8" s="3">
+        <f t="shared" si="2"/>
+        <v>2.3148148148148008E-5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3">
+        <v>5.2430555555555555E-3</v>
+      </c>
+      <c r="R8" s="6">
+        <v>5.3009259259259251E-3</v>
+      </c>
+      <c r="S8" s="3">
         <f t="shared" si="1"/>
-        <v>2.3148148148148008E-5</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="L8" s="3">
-        <v>5.2430555555555555E-3</v>
-      </c>
-      <c r="M8" s="6">
-        <v>5.3009259259259251E-3</v>
-      </c>
-      <c r="N8" s="3">
-        <f t="shared" si="2"/>
         <v>5.7870370370369587E-5</v>
       </c>
-      <c r="O8" s="3">
+      <c r="T8" s="3">
         <f t="shared" si="3"/>
         <v>1.9675925925925937E-4</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="3">
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -2349,7 +2434,7 @@
         <v>5.7175925925925927E-3</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J9" s="2">
@@ -2358,29 +2443,34 @@
       <c r="K9" s="2">
         <v>103</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="3">
         <v>6.1111111111111114E-3</v>
       </c>
-      <c r="M9" s="3">
+      <c r="R9" s="3">
         <v>6.1342592592592594E-3</v>
       </c>
-      <c r="N9" s="3">
-        <f t="shared" si="2"/>
+      <c r="S9" s="3">
+        <f t="shared" si="1"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="O9" s="3">
+      <c r="T9" s="3">
         <f t="shared" si="3"/>
         <v>3.9351851851851874E-4</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="3">
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2405,38 +2495,43 @@
         <v>6.7708333333333336E-3</v>
       </c>
       <c r="I10" s="3">
+        <f t="shared" si="2"/>
+        <v>2.3148148148148008E-5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="3">
+        <v>6.7708333333333336E-3</v>
+      </c>
+      <c r="R10" s="3">
+        <v>6.851851851851852E-3</v>
+      </c>
+      <c r="S10" s="3">
         <f t="shared" si="1"/>
-        <v>2.3148148148148008E-5</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="L10" s="3">
-        <v>6.7708333333333336E-3</v>
-      </c>
-      <c r="M10" s="3">
-        <v>6.851851851851852E-3</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" si="2"/>
         <v>8.1018518518518462E-5</v>
       </c>
-      <c r="O10" s="3">
+      <c r="T10" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="3">
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="18">
         <f>SUM(B2:B10)</f>
@@ -2447,7 +2542,7 @@
       <c r="E11" s="19"/>
       <c r="F11" s="21">
         <f>SUM(F2:F10)</f>
-        <v>2.4652777777777772E-3</v>
+        <v>2.4537037037037032E-3</v>
       </c>
       <c r="G11" s="19">
         <f>SUM(G2:G10)</f>
@@ -2456,7 +2551,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="20">
         <f>SUM(I2:I10)</f>
-        <v>3.935185185185182E-4</v>
+        <v>3.8194444444444408E-4</v>
       </c>
       <c r="J11" s="19">
         <f>SUM(J2:J10)</f>
@@ -2465,21 +2560,26 @@
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
-      <c r="N11" s="20">
-        <f>SUM(N12:N20)</f>
-        <v>6.9444444444444631E-4</v>
-      </c>
-      <c r="O11" s="20">
-        <f>SUM(O12:O20)</f>
-        <v>3.8194444444444137E-4</v>
-      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11" s="20">
+        <f>SUM(S12:S20)</f>
+        <v>6.9444444444444631E-4</v>
+      </c>
+      <c r="T11" s="20">
+        <f>SUM(T12:T20)</f>
+        <v>3.8194444444444137E-4</v>
+      </c>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -2513,29 +2613,34 @@
       <c r="K12" s="2">
         <v>103</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="3">
         <v>1.0300925925925926E-3</v>
       </c>
-      <c r="M12" s="3">
+      <c r="R12" s="3">
         <v>1.1226851851851851E-3</v>
       </c>
-      <c r="N12" s="3">
-        <f xml:space="preserve"> M12-L12</f>
+      <c r="S12" s="3">
+        <f xml:space="preserve"> R12-Q12</f>
         <v>9.2592592592592466E-5</v>
       </c>
-      <c r="O12" s="3">
-        <f>L12-H12</f>
+      <c r="T12" s="3">
+        <f>Q12-H12</f>
         <v>1.273148148148148E-4</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="3">
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -2567,31 +2672,36 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="3">
+        <v>10</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3">
         <v>1.5856481481481479E-3</v>
       </c>
-      <c r="M13" s="3">
+      <c r="R13" s="3">
         <v>1.6666666666666668E-3</v>
       </c>
-      <c r="N13" s="3">
-        <f xml:space="preserve"> M13-L13</f>
+      <c r="S13" s="3">
+        <f xml:space="preserve"> R13-Q13</f>
         <v>8.1018518518518896E-5</v>
       </c>
-      <c r="O13" s="3">
-        <f>L13-H13</f>
+      <c r="T13" s="3">
+        <f>Q13-H13</f>
         <v>1.1574074074073787E-5</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="3">
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -2603,7 +2713,7 @@
         <v>2.3263888888888887E-3</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="4"/>
@@ -2625,29 +2735,34 @@
       <c r="K14" s="2">
         <v>104</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="3">
         <v>2.3958333333333336E-3</v>
       </c>
-      <c r="M14" s="3">
+      <c r="R14" s="3">
         <v>2.5231481481481481E-3</v>
       </c>
-      <c r="N14" s="3">
-        <f xml:space="preserve"> M14-L14</f>
+      <c r="S14" s="3">
+        <f xml:space="preserve"> R14-Q14</f>
         <v>1.2731481481481448E-4</v>
       </c>
-      <c r="O14" s="3">
-        <f>H14-L14</f>
+      <c r="T14" s="3">
+        <f>H14-Q14</f>
         <v>8.1018518518518028E-5</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="3">
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -2669,38 +2784,43 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="3">
+      <c r="Q15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -2734,29 +2854,34 @@
       <c r="K16" s="2">
         <v>103</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="3">
         <v>3.6342592592592594E-3</v>
       </c>
-      <c r="M16" s="3">
+      <c r="R16" s="3">
         <v>3.7268518518518514E-3</v>
       </c>
-      <c r="N16" s="3">
-        <f xml:space="preserve"> M16-L16</f>
+      <c r="S16" s="3">
+        <f xml:space="preserve"> R16-Q16</f>
         <v>9.2592592592592032E-5</v>
       </c>
-      <c r="O16" s="3">
-        <f>L16-H16</f>
+      <c r="T16" s="3">
+        <f>Q16-H16</f>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="3">
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -2790,29 +2915,34 @@
       <c r="K17" s="52">
         <v>101</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="3">
         <v>4.3287037037037035E-3</v>
       </c>
-      <c r="M17" s="3">
+      <c r="R17" s="3">
         <v>4.363425925925926E-3</v>
       </c>
-      <c r="N17" s="3">
-        <f xml:space="preserve"> M17-L17</f>
+      <c r="S17" s="3">
+        <f xml:space="preserve"> R17-Q17</f>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="O17" s="3">
-        <f>L17-H17</f>
+      <c r="T17" s="3">
+        <f>Q17-H17</f>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="3">
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="10">
         <v>1</v>
@@ -2846,29 +2976,34 @@
       <c r="K18" s="10">
         <v>103</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="12">
         <v>5.4050925925925924E-3</v>
       </c>
-      <c r="M18" s="12">
+      <c r="R18" s="12">
         <v>5.4745370370370373E-3</v>
       </c>
-      <c r="N18" s="12">
-        <f xml:space="preserve"> M18-L18</f>
+      <c r="S18" s="12">
+        <f xml:space="preserve"> R18-Q18</f>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="O18" s="12">
-        <f>L18-H18</f>
+      <c r="T18" s="12">
+        <f>Q18-H18</f>
         <v>2.3148148148147141E-5</v>
       </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="12">
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="12">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -2902,29 +3037,34 @@
       <c r="K19" s="2">
         <v>103</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="3">
         <v>5.9490740740740745E-3</v>
       </c>
-      <c r="M19" s="3">
+      <c r="R19" s="3">
         <v>6.0879629629629643E-3</v>
       </c>
-      <c r="N19" s="3">
-        <f xml:space="preserve"> M19-L19</f>
+      <c r="S19" s="3">
+        <f xml:space="preserve"> R19-Q19</f>
         <v>1.3888888888888978E-4</v>
       </c>
-      <c r="O19" s="3">
-        <f>L19-H19</f>
+      <c r="T19" s="3">
+        <f>Q19-H19</f>
         <v>4.6296296296296884E-5</v>
       </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="3">
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -2958,29 +3098,34 @@
       <c r="K20" s="2">
         <v>103</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="3">
         <v>6.4930555555555549E-3</v>
       </c>
-      <c r="M20" s="3">
+      <c r="R20" s="3">
         <v>6.5509259259259262E-3</v>
       </c>
-      <c r="N20" s="3">
-        <f xml:space="preserve"> M20-L20</f>
+      <c r="S20" s="3">
+        <f xml:space="preserve"> R20-Q20</f>
         <v>5.7870370370371321E-5</v>
       </c>
-      <c r="O20" s="3">
-        <f>L20-H20</f>
+      <c r="T20" s="3">
+        <f>Q20-H20</f>
         <v>5.7870370370368719E-5</v>
       </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="3">
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="19">
         <f>SUM(B12:B20)</f>
@@ -3009,21 +3154,26 @@
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
-      <c r="N21" s="20">
-        <f>SUM(N12:N20)</f>
-        <v>6.9444444444444631E-4</v>
-      </c>
-      <c r="O21" s="20">
-        <f>SUM(O12:O20)</f>
-        <v>3.8194444444444137E-4</v>
-      </c>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21" s="20">
+        <f>SUM(S12:S20)</f>
+        <v>6.9444444444444631E-4</v>
+      </c>
+      <c r="T21" s="20">
+        <f>SUM(T12:T20)</f>
+        <v>3.8194444444444137E-4</v>
+      </c>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -3055,31 +3205,36 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="L22" s="3">
+        <v>157</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="3">
         <v>1.4814814814814814E-3</v>
       </c>
-      <c r="M22" s="3">
+      <c r="R22" s="3">
         <v>1.5624999999999999E-3</v>
       </c>
-      <c r="N22" s="3">
-        <f t="shared" ref="N22:N30" si="8" xml:space="preserve"> M22-L22</f>
+      <c r="S22" s="3">
+        <f t="shared" ref="S22:S30" si="8" xml:space="preserve"> R22-Q22</f>
         <v>8.1018518518518462E-5</v>
       </c>
-      <c r="O22" s="3">
-        <f t="shared" ref="O22:O30" si="9">L22-H22</f>
+      <c r="T22" s="3">
+        <f t="shared" ref="T22:T30" si="9">Q22-H22</f>
         <v>2.0833333333333316E-4</v>
       </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="3">
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -3111,31 +3266,36 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="L23" s="3">
+        <v>157</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="3">
         <v>2.0023148148148148E-3</v>
       </c>
-      <c r="M23" s="3">
+      <c r="R23" s="3">
         <v>2.0601851851851853E-3</v>
       </c>
-      <c r="N23" s="3">
+      <c r="S23" s="3">
         <f t="shared" si="8"/>
         <v>5.7870370370370454E-5</v>
       </c>
-      <c r="O23" s="3">
+      <c r="T23" s="3">
         <f t="shared" si="9"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="3">
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -3169,29 +3329,34 @@
       <c r="K24" s="52">
         <v>102</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="3">
         <v>2.2337962962962967E-3</v>
       </c>
-      <c r="M24" s="3">
+      <c r="R24" s="3">
         <v>2.3148148148148151E-3</v>
       </c>
-      <c r="N24" s="3">
+      <c r="S24" s="3">
         <f t="shared" si="8"/>
         <v>8.1018518518518462E-5</v>
       </c>
-      <c r="O24" s="3">
+      <c r="T24" s="3">
         <f t="shared" si="9"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="3">
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -3223,31 +3388,36 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="L25" s="3">
+        <v>168</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="3">
         <v>3.0439814814814821E-3</v>
       </c>
-      <c r="M25" s="3">
+      <c r="R25" s="3">
         <v>3.0902777777777782E-3</v>
       </c>
-      <c r="N25" s="3">
+      <c r="S25" s="3">
         <f t="shared" si="8"/>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="O25" s="3">
+      <c r="T25" s="3">
         <f t="shared" si="9"/>
         <v>1.1574074074074871E-5</v>
       </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="3">
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -3279,31 +3449,36 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="3">
+        <v>23</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="3">
         <v>3.8425925925925923E-3</v>
       </c>
-      <c r="M26" s="3">
+      <c r="R26" s="3">
         <v>3.9236111111111112E-3</v>
       </c>
-      <c r="N26" s="3">
+      <c r="S26" s="3">
         <f t="shared" si="8"/>
         <v>8.1018518518518896E-5</v>
       </c>
-      <c r="O26" s="3">
+      <c r="T26" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="3">
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -3335,31 +3510,36 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L27" s="3">
+        <v>158</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="3">
         <v>4.5717592592592589E-3</v>
       </c>
-      <c r="M27" s="3">
+      <c r="R27" s="3">
         <v>4.7453703703703703E-3</v>
       </c>
-      <c r="N27" s="3">
+      <c r="S27" s="3">
         <f t="shared" si="8"/>
         <v>1.7361111111111136E-4</v>
       </c>
-      <c r="O27" s="3">
+      <c r="T27" s="3">
         <f t="shared" si="9"/>
         <v>2.7777777777777783E-4</v>
       </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="3">
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -3391,31 +3571,36 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="3">
+        <v>24</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="3">
         <v>5.2777777777777771E-3</v>
       </c>
-      <c r="M28" s="3">
+      <c r="R28" s="3">
         <v>5.4166666666666669E-3</v>
       </c>
-      <c r="N28" s="3">
+      <c r="S28" s="3">
         <f t="shared" si="8"/>
         <v>1.3888888888888978E-4</v>
       </c>
-      <c r="O28" s="3">
+      <c r="T28" s="3">
         <f t="shared" si="9"/>
         <v>2.3148148148147141E-5</v>
       </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="3">
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -3449,29 +3634,34 @@
       <c r="K29" s="52">
         <v>100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="3">
         <v>6.053240740740741E-3</v>
       </c>
-      <c r="M29" s="3">
+      <c r="R29" s="3">
         <v>6.2268518518518515E-3</v>
       </c>
-      <c r="N29" s="3">
+      <c r="S29" s="3">
         <f t="shared" si="8"/>
         <v>1.7361111111111049E-4</v>
       </c>
-      <c r="O29" s="3">
+      <c r="T29" s="3">
         <f t="shared" si="9"/>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="3">
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -3505,29 +3695,34 @@
       <c r="K30" s="2">
         <v>103</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="3">
         <v>6.4930555555555549E-3</v>
       </c>
-      <c r="M30" s="3">
+      <c r="R30" s="3">
         <v>6.6550925925925935E-3</v>
       </c>
-      <c r="N30" s="3">
+      <c r="S30" s="3">
         <f t="shared" si="8"/>
         <v>1.6203703703703866E-4</v>
       </c>
-      <c r="O30" s="3">
+      <c r="T30" s="3">
         <f t="shared" si="9"/>
         <v>1.0416666666666647E-4</v>
       </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="3">
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="19">
         <f>SUM(B22:B30)</f>
@@ -3556,21 +3751,26 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
-      <c r="N31" s="20">
-        <f>SUM(N22:N30)</f>
-        <v>9.9537037037037259E-4</v>
-      </c>
-      <c r="O31" s="20">
-        <f>SUM(O22:O30)</f>
-        <v>7.175925925925928E-4</v>
-      </c>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
-    </row>
-    <row r="32" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S31" s="20">
+        <f>SUM(S22:S30)</f>
+        <v>9.9537037037037259E-4</v>
+      </c>
+      <c r="T31" s="20">
+        <f>SUM(T22:T30)</f>
+        <v>7.175925925925928E-4</v>
+      </c>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+    </row>
+    <row r="32" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -3604,29 +3804,34 @@
       <c r="K32" s="52">
         <v>101</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="3">
         <v>7.407407407407407E-4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="R32" s="3">
         <v>8.9120370370370362E-4</v>
       </c>
-      <c r="N32" s="3">
-        <f xml:space="preserve"> M32-L32</f>
+      <c r="S32" s="3">
+        <f xml:space="preserve"> R32-Q32</f>
         <v>1.5046296296296292E-4</v>
       </c>
-      <c r="O32" s="3">
-        <f>L32-H32</f>
+      <c r="T32" s="3">
+        <f>Q32-H32</f>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="3">
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -3658,31 +3863,36 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="3">
+        <v>26</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="3">
         <v>1.8750000000000001E-3</v>
       </c>
-      <c r="M33" s="3">
+      <c r="R33" s="3">
         <v>1.9097222222222222E-3</v>
       </c>
-      <c r="N33" s="3">
-        <f xml:space="preserve"> M33-L33</f>
+      <c r="S33" s="3">
+        <f xml:space="preserve"> R33-Q33</f>
         <v>3.4722222222222012E-5</v>
       </c>
-      <c r="O33" s="3">
-        <f>L33-H33</f>
+      <c r="T33" s="3">
+        <f>Q33-H33</f>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="3">
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -3714,31 +3924,36 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="L34" s="3">
+        <v>159</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="3">
         <v>2.627314814814815E-3</v>
       </c>
-      <c r="M34" s="3">
+      <c r="R34" s="3">
         <v>2.673611111111111E-3</v>
       </c>
-      <c r="N34" s="3">
-        <f xml:space="preserve"> M34-L34</f>
+      <c r="S34" s="3">
+        <f xml:space="preserve"> R34-Q34</f>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="O34" s="3">
-        <f>L34-H34</f>
+      <c r="T34" s="3">
+        <f>Q34-H34</f>
         <v>4.2824074074074075E-4</v>
       </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="3">
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -3772,29 +3987,34 @@
       <c r="K35" s="2">
         <v>103</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="3">
         <v>4.4212962962962956E-3</v>
       </c>
-      <c r="M35" s="3">
+      <c r="R35" s="3">
         <v>4.4791666666666669E-3</v>
       </c>
-      <c r="N35" s="3">
-        <f xml:space="preserve"> M34-L34</f>
+      <c r="S35" s="3">
+        <f xml:space="preserve"> R34-Q34</f>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="O35" s="3">
-        <f>L35-H35</f>
+      <c r="T35" s="3">
+        <f>Q35-H35</f>
         <v>2.3148148148147141E-5</v>
       </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="3">
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -3828,29 +4048,34 @@
       <c r="K36" s="2">
         <v>103</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="3">
         <v>3.5879629629629629E-3</v>
       </c>
-      <c r="M36" s="3">
+      <c r="R36" s="3">
         <v>3.6226851851851854E-3</v>
       </c>
-      <c r="N36" s="3">
-        <f xml:space="preserve"> M35-L35</f>
+      <c r="S36" s="3">
+        <f xml:space="preserve"> R35-Q35</f>
         <v>5.7870370370371321E-5</v>
       </c>
-      <c r="O36" s="3">
-        <f>L35-H36</f>
+      <c r="T36" s="3">
+        <f>Q35-H36</f>
         <v>8.564814814814802E-4</v>
       </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="3">
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
@@ -3882,31 +4107,36 @@
         <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L37" s="3">
+        <v>27</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="3">
         <v>4.6180555555555558E-3</v>
       </c>
-      <c r="M37" s="3">
+      <c r="R37" s="3">
         <v>4.6643518518518518E-3</v>
       </c>
-      <c r="N37" s="3">
-        <f xml:space="preserve"> M37-L37</f>
+      <c r="S37" s="3">
+        <f xml:space="preserve"> R37-Q37</f>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="O37" s="3">
-        <f>L37-H37</f>
+      <c r="T37" s="3">
+        <f>Q37-H37</f>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="3">
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -3940,29 +4170,34 @@
       <c r="K38" s="2">
         <v>103</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="3">
         <v>4.9537037037037041E-3</v>
       </c>
-      <c r="M38" s="3">
+      <c r="R38" s="3">
         <v>5.0694444444444441E-3</v>
       </c>
-      <c r="N38" s="3">
-        <f xml:space="preserve"> M38-L38</f>
+      <c r="S38" s="3">
+        <f xml:space="preserve"> R38-Q38</f>
         <v>1.1574074074074004E-4</v>
       </c>
-      <c r="O38" s="3">
-        <f>L38-H38</f>
+      <c r="T38" s="3">
+        <f>Q38-H38</f>
         <v>1.1574074074075305E-5</v>
       </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="3">
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
@@ -3994,31 +4229,36 @@
         <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="L39" s="3">
+        <v>159</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="3">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="M39" s="3">
+      <c r="R39" s="3">
         <v>5.9722222222222225E-3</v>
       </c>
-      <c r="N39" s="3">
-        <f xml:space="preserve"> M39-L39</f>
+      <c r="S39" s="3">
+        <f xml:space="preserve"> R39-Q39</f>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="O39" s="3">
-        <f>L39-H39</f>
+      <c r="T39" s="3">
+        <f>Q39-H39</f>
         <v>1.8518518518518493E-4</v>
       </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="3">
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
@@ -4050,31 +4290,36 @@
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="L40" s="3">
+        <v>159</v>
+      </c>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="3">
         <v>6.2731481481481484E-3</v>
       </c>
-      <c r="M40" s="3">
+      <c r="R40" s="3">
         <v>6.3078703703703708E-3</v>
       </c>
-      <c r="N40" s="3">
-        <f xml:space="preserve"> M40-L40</f>
+      <c r="S40" s="3">
+        <f xml:space="preserve"> R40-Q40</f>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="O40" s="3">
-        <f>L40-H40</f>
+      <c r="T40" s="3">
+        <f>Q40-H40</f>
         <v>4.6296296296296884E-5</v>
       </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="3">
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="19">
         <f>SUM(B32:B40)</f>
@@ -4103,21 +4348,26 @@
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
-      <c r="N41" s="20">
-        <f>SUM(N32:N40)</f>
-        <v>6.0185185185185168E-4</v>
-      </c>
-      <c r="O41" s="20">
-        <f>SUM(O32:O40)</f>
-        <v>1.5972222222222212E-3</v>
-      </c>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S41" s="20">
+        <f>SUM(S32:S40)</f>
+        <v>6.0185185185185168E-4</v>
+      </c>
+      <c r="T41" s="20">
+        <f>SUM(T32:T40)</f>
+        <v>1.5972222222222212E-3</v>
+      </c>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -4151,29 +4401,34 @@
       <c r="K42" s="2">
         <v>103</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="3">
         <v>1.6782407407407406E-3</v>
       </c>
-      <c r="M42" s="3">
+      <c r="R42" s="3">
         <v>1.712962962962963E-3</v>
       </c>
-      <c r="N42" s="3">
-        <f t="shared" ref="N42" si="14" xml:space="preserve"> M42-L42</f>
+      <c r="S42" s="3">
+        <f t="shared" ref="S42" si="14" xml:space="preserve"> R42-Q42</f>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="O42" s="3">
-        <f t="shared" ref="O42" si="15">L42-H42</f>
+      <c r="T42" s="3">
+        <f t="shared" ref="T42" si="15">Q42-H42</f>
         <v>6.5972222222222192E-4</v>
       </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="3">
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
@@ -4205,31 +4460,36 @@
         <v>1</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="L43" s="3">
+        <v>159</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="3">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="M43" s="3">
+      <c r="R43" s="3">
         <v>2.1296296296296298E-3</v>
       </c>
-      <c r="N43" s="3">
-        <f t="shared" ref="N43:N50" si="16" xml:space="preserve"> M43-L43</f>
+      <c r="S43" s="3">
+        <f t="shared" ref="S43:S50" si="16" xml:space="preserve"> R43-Q43</f>
         <v>4.629629629629645E-5</v>
       </c>
-      <c r="O43" s="3">
-        <f t="shared" ref="O43:O50" si="17">L43-H43</f>
+      <c r="T43" s="3">
+        <f t="shared" ref="T43:T50" si="17">Q43-H43</f>
         <v>5.4398148148148144E-4</v>
       </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="3">
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -4263,29 +4523,34 @@
       <c r="K44" s="52">
         <v>102</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="3">
         <v>2.2800925925925927E-3</v>
       </c>
-      <c r="M44" s="3">
+      <c r="R44" s="3">
         <v>2.3726851851851851E-3</v>
       </c>
-      <c r="N44" s="3">
+      <c r="S44" s="3">
         <f t="shared" si="16"/>
         <v>9.2592592592592466E-5</v>
       </c>
-      <c r="O44" s="3">
+      <c r="T44" s="3">
         <f t="shared" si="17"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="3">
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
@@ -4319,29 +4584,34 @@
       <c r="K45" s="2">
         <v>103</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="3">
         <v>3.7152777777777774E-3</v>
       </c>
-      <c r="M45" s="3">
+      <c r="R45" s="3">
         <v>3.7615740740740739E-3</v>
       </c>
-      <c r="N45" s="3">
+      <c r="S45" s="3">
         <f t="shared" si="16"/>
         <v>4.629629629629645E-5</v>
       </c>
-      <c r="O45" s="3">
+      <c r="T45" s="3">
         <f t="shared" si="17"/>
         <v>4.1666666666666631E-4</v>
       </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="3">
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -4373,31 +4643,36 @@
         <v>1</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L46" s="3">
+        <v>160</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="3">
         <v>3.8425925925925923E-3</v>
       </c>
-      <c r="M46" s="3">
+      <c r="R46" s="3">
         <v>4.0046296296296297E-3</v>
       </c>
-      <c r="N46" s="3">
+      <c r="S46" s="3">
         <f t="shared" si="16"/>
         <v>1.6203703703703736E-4</v>
       </c>
-      <c r="O46" s="3">
+      <c r="T46" s="3">
         <f t="shared" si="17"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="3">
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
@@ -4431,29 +4706,34 @@
       <c r="K47" s="52">
         <v>101</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="3">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="M47" s="3">
+      <c r="R47" s="3">
         <v>4.8842592592592592E-3</v>
       </c>
-      <c r="N47" s="3">
+      <c r="S47" s="3">
         <f t="shared" si="16"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="O47" s="3">
-        <f>L47-H47</f>
+      <c r="T47" s="3">
+        <f>Q47-H47</f>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="3">
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
@@ -4487,29 +4767,34 @@
       <c r="K48" s="2">
         <v>105</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="3">
         <v>5.138888888888889E-3</v>
       </c>
-      <c r="M48" s="3">
+      <c r="R48" s="3">
         <v>5.1736111111111115E-3</v>
       </c>
-      <c r="N48" s="3">
+      <c r="S48" s="3">
         <f t="shared" si="16"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="O48" s="3">
-        <f>L48-H48</f>
+      <c r="T48" s="3">
+        <f>Q48-H48</f>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="3">
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
@@ -4543,29 +4828,34 @@
       <c r="K49" s="2">
         <v>103</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="3">
         <v>6.076388888888889E-3</v>
       </c>
-      <c r="M49" s="3">
+      <c r="R49" s="3">
         <v>6.0995370370370361E-3</v>
       </c>
-      <c r="N49" s="3">
+      <c r="S49" s="3">
         <f t="shared" si="16"/>
         <v>2.3148148148147141E-5</v>
       </c>
-      <c r="O49" s="3">
+      <c r="T49" s="3">
         <f t="shared" si="17"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="3">
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -4599,29 +4889,34 @@
       <c r="K50" s="2">
         <v>105</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="3">
         <v>6.6550925925925935E-3</v>
       </c>
-      <c r="M50" s="3">
+      <c r="R50" s="3">
         <v>6.6898148148148142E-3</v>
       </c>
-      <c r="N50" s="3">
+      <c r="S50" s="3">
         <f t="shared" si="16"/>
         <v>3.4722222222220711E-5</v>
       </c>
-      <c r="O50" s="3">
+      <c r="T50" s="3">
         <f t="shared" si="17"/>
         <v>1.1574074074074178E-4</v>
       </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="3">
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B51" s="19">
         <f>SUM(B42:B50)</f>
@@ -4650,21 +4945,26 @@
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
       <c r="M51" s="19"/>
-      <c r="N51" s="20">
-        <f>SUM(N42:N50)</f>
-        <v>4.9768518518518347E-4</v>
-      </c>
-      <c r="O51" s="20">
-        <f>SUM(O42:O50)</f>
-        <v>1.8287037037037048E-3</v>
-      </c>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
       <c r="R51" s="19"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S51" s="20">
+        <f>SUM(S42:S50)</f>
+        <v>4.9768518518518347E-4</v>
+      </c>
+      <c r="T51" s="20">
+        <f>SUM(T42:T50)</f>
+        <v>1.8287037037037048E-3</v>
+      </c>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" s="2">
         <v>1</v>
@@ -4698,29 +4998,34 @@
       <c r="K52" s="2">
         <v>105</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="3">
         <v>1.2268518518518518E-3</v>
       </c>
-      <c r="M52" s="3">
+      <c r="R52" s="3">
         <v>1.2731481481481483E-3</v>
       </c>
-      <c r="N52" s="3">
-        <f t="shared" ref="N52:N70" si="19" xml:space="preserve"> M52-L52</f>
+      <c r="S52" s="3">
+        <f t="shared" ref="S52:S70" si="19" xml:space="preserve"> R52-Q52</f>
         <v>4.629629629629645E-5</v>
       </c>
-      <c r="O52" s="3">
-        <f t="shared" ref="O52:O80" si="20">L52-H52</f>
+      <c r="T52" s="3">
+        <f t="shared" ref="T52:T80" si="20">Q52-H52</f>
         <v>3.4722222222222229E-5</v>
       </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="3">
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
@@ -4742,38 +5047,43 @@
         <v>0</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J53" s="2">
         <v>0</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="3">
+      <c r="Q53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
@@ -4807,29 +5117,34 @@
       <c r="K54" s="52">
         <v>102</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="3">
         <v>2.5462962962962961E-3</v>
       </c>
-      <c r="M54" s="3">
+      <c r="R54" s="3">
         <v>2.615740740740741E-3</v>
       </c>
-      <c r="N54" s="3">
+      <c r="S54" s="3">
         <f t="shared" si="19"/>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="O54" s="3">
+      <c r="T54" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="3">
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
@@ -4863,29 +5178,34 @@
       <c r="K55" s="2">
         <v>102</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="3">
         <v>3.1944444444444442E-3</v>
       </c>
-      <c r="M55" s="3">
+      <c r="R55" s="3">
         <v>3.2523148148148151E-3</v>
       </c>
-      <c r="N55" s="3">
+      <c r="S55" s="3">
         <f t="shared" si="19"/>
         <v>5.7870370370370888E-5</v>
       </c>
-      <c r="O55" s="3">
+      <c r="T55" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="3">
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -4919,29 +5239,34 @@
       <c r="K56" s="2">
         <v>105</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="3">
         <v>4.0046296296296297E-3</v>
       </c>
-      <c r="M56" s="3">
+      <c r="R56" s="3">
         <v>4.0277777777777777E-3</v>
       </c>
-      <c r="N56" s="3">
+      <c r="S56" s="3">
         <f t="shared" si="19"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="O56" s="3">
+      <c r="T56" s="3">
         <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="3">
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57" s="2">
         <v>1</v>
@@ -4973,31 +5298,36 @@
         <v>1</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="L57" s="3">
+        <v>169</v>
+      </c>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="3">
         <v>4.7106481481481478E-3</v>
       </c>
-      <c r="M57" s="3">
+      <c r="R57" s="3">
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="N57" s="3">
+      <c r="S57" s="3">
         <f t="shared" si="19"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="O57" s="3">
+      <c r="T57" s="3">
         <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="3">
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
@@ -5029,31 +5359,36 @@
         <v>1</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L58" s="3">
+        <v>32</v>
+      </c>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="3">
         <v>5.4166666666666669E-3</v>
       </c>
-      <c r="M58" s="3">
+      <c r="R58" s="3">
         <v>5.5439814814814822E-3</v>
       </c>
-      <c r="N58" s="3">
+      <c r="S58" s="3">
         <f t="shared" si="19"/>
         <v>1.2731481481481535E-4</v>
       </c>
-      <c r="O58" s="3">
+      <c r="T58" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="3">
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B59" s="2">
         <v>1</v>
@@ -5085,31 +5420,36 @@
         <v>1</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L59" s="3">
+        <v>33</v>
+      </c>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="3">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="M59" s="3">
+      <c r="R59" s="3">
         <v>5.9375000000000009E-3</v>
       </c>
-      <c r="N59" s="3">
+      <c r="S59" s="3">
         <f t="shared" si="19"/>
         <v>3.4722222222223313E-5</v>
       </c>
-      <c r="O59" s="3">
+      <c r="T59" s="3">
         <f t="shared" si="20"/>
         <v>3.4722222222223313E-5</v>
       </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="3">
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
@@ -5143,29 +5483,34 @@
       <c r="K60" s="2">
         <v>105</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="3">
         <v>6.6550925925925935E-3</v>
       </c>
-      <c r="M60" s="3">
+      <c r="R60" s="3">
         <v>6.7129629629629622E-3</v>
       </c>
-      <c r="N60" s="3">
+      <c r="S60" s="3">
         <f t="shared" si="19"/>
         <v>5.7870370370368719E-5</v>
       </c>
-      <c r="O60" s="3">
+      <c r="T60" s="3">
         <f t="shared" si="20"/>
         <v>2.3148148148148875E-5</v>
       </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="3">
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61" s="19">
         <f>SUM(B52:B60)</f>
@@ -5191,21 +5536,26 @@
       <c r="K61" s="19"/>
       <c r="L61" s="19"/>
       <c r="M61" s="19"/>
-      <c r="N61" s="20">
-        <f>SUM(N52:N60)</f>
-        <v>4.2824074074074205E-4</v>
-      </c>
-      <c r="O61" s="20">
-        <f>SUM(O52:O60)</f>
-        <v>1.7361111111111288E-4</v>
-      </c>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
       <c r="R61" s="19"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S61" s="20">
+        <f>SUM(S52:S60)</f>
+        <v>4.2824074074074205E-4</v>
+      </c>
+      <c r="T61" s="20">
+        <f>SUM(T52:T60)</f>
+        <v>1.7361111111111288E-4</v>
+      </c>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62" s="2">
         <v>1</v>
@@ -5239,29 +5589,34 @@
       <c r="K62" s="52">
         <v>102</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="3">
         <v>1.0300925925925926E-3</v>
       </c>
-      <c r="M62" s="3">
+      <c r="R62" s="3">
         <v>1.1689814814814816E-3</v>
       </c>
-      <c r="N62" s="3">
+      <c r="S62" s="3">
         <f t="shared" si="19"/>
         <v>1.3888888888888892E-4</v>
       </c>
-      <c r="O62" s="3">
+      <c r="T62" s="3">
         <f t="shared" si="20"/>
         <v>2.3148148148148225E-5</v>
       </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="3">
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B63" s="2">
         <v>1</v>
@@ -5293,31 +5648,36 @@
         <v>1</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="L63" s="3">
+        <v>159</v>
+      </c>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="3">
         <v>1.8518518518518517E-3</v>
       </c>
-      <c r="M63" s="3">
+      <c r="R63" s="3">
         <v>1.8865740740740742E-3</v>
       </c>
-      <c r="N63" s="3">
+      <c r="S63" s="3">
         <f t="shared" si="19"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="O63" s="3">
+      <c r="T63" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="3">
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
@@ -5349,31 +5709,36 @@
         <v>1</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="L64" s="3">
+        <v>159</v>
+      </c>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="3">
         <v>2.4537037037037036E-3</v>
       </c>
-      <c r="M64" s="3">
+      <c r="R64" s="3">
         <v>2.6388888888888885E-3</v>
       </c>
-      <c r="N64" s="3">
+      <c r="S64" s="3">
         <f t="shared" si="19"/>
         <v>1.8518518518518493E-4</v>
       </c>
-      <c r="O64" s="3">
+      <c r="T64" s="3">
         <f t="shared" si="20"/>
         <v>1.6203703703703692E-4</v>
       </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="3">
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B65" s="2">
         <v>1</v>
@@ -5407,29 +5772,34 @@
       <c r="K65" s="2">
         <v>103</v>
       </c>
-      <c r="L65" s="3">
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="3">
         <v>3.4027777777777784E-3</v>
       </c>
-      <c r="M65" s="3">
+      <c r="R65" s="3">
         <v>3.5532407407407405E-3</v>
       </c>
-      <c r="N65" s="3">
+      <c r="S65" s="3">
         <f t="shared" si="19"/>
         <v>1.5046296296296205E-4</v>
       </c>
-      <c r="O65" s="3">
+      <c r="T65" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074871E-5</v>
       </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="3">
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B66" s="2">
         <v>1</v>
@@ -5463,29 +5833,34 @@
       <c r="K66" s="2">
         <v>102</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="3">
         <v>3.7962962962962963E-3</v>
       </c>
-      <c r="M66" s="3">
+      <c r="R66" s="3">
         <v>3.8541666666666668E-3</v>
       </c>
-      <c r="N66" s="3">
+      <c r="S66" s="3">
         <f t="shared" si="19"/>
         <v>5.7870370370370454E-5</v>
       </c>
-      <c r="O66" s="3">
+      <c r="T66" s="3">
         <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="3">
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B67" s="2">
         <v>1</v>
@@ -5519,29 +5894,34 @@
       <c r="K67" s="52">
         <v>100</v>
       </c>
-      <c r="L67" s="3">
+      <c r="L67" s="52"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="52"/>
+      <c r="O67" s="52"/>
+      <c r="P67" s="52"/>
+      <c r="Q67" s="3">
         <v>4.5486111111111109E-3</v>
       </c>
-      <c r="M67" s="3">
+      <c r="R67" s="3">
         <v>4.5833333333333334E-3</v>
       </c>
-      <c r="N67" s="3">
+      <c r="S67" s="3">
         <f t="shared" si="19"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="O67" s="3">
+      <c r="T67" s="3">
         <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="3">
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
@@ -5573,31 +5953,36 @@
         <v>1</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L68" s="3">
+        <v>40</v>
+      </c>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="3">
         <v>6.053240740740741E-3</v>
       </c>
-      <c r="M68" s="3">
+      <c r="R68" s="3">
         <v>6.3657407407407404E-3</v>
       </c>
-      <c r="N68" s="3">
+      <c r="S68" s="3">
         <f t="shared" si="19"/>
         <v>3.1249999999999941E-4</v>
       </c>
-      <c r="O68" s="3">
+      <c r="T68" s="3">
         <f t="shared" si="20"/>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="3">
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B69" s="2">
         <v>1</v>
@@ -5631,29 +6016,34 @@
       <c r="K69" s="2">
         <v>103</v>
       </c>
-      <c r="L69" s="3">
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="3">
         <v>6.9212962962962969E-3</v>
       </c>
-      <c r="M69" s="3">
+      <c r="R69" s="3">
         <v>7.106481481481481E-3</v>
       </c>
-      <c r="N69" s="3">
+      <c r="S69" s="3">
         <f t="shared" si="19"/>
         <v>1.8518518518518406E-4</v>
       </c>
-      <c r="O69" s="3">
+      <c r="T69" s="3">
         <f t="shared" si="20"/>
         <v>5.7870370370370541E-4</v>
       </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="3">
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B70" s="2">
         <v>1</v>
@@ -5685,31 +6075,36 @@
         <v>1</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L70" s="3">
+        <v>10</v>
+      </c>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="3">
         <v>6.6782407407407415E-3</v>
       </c>
-      <c r="M70" s="3">
+      <c r="R70" s="3">
         <v>6.7245370370370367E-3</v>
       </c>
-      <c r="N70" s="3">
+      <c r="S70" s="3">
         <f t="shared" si="19"/>
         <v>4.6296296296295149E-5</v>
       </c>
-      <c r="O70" s="3">
+      <c r="T70" s="3">
         <f t="shared" si="20"/>
         <v>8.1018518518519329E-5</v>
       </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="3">
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B71" s="19">
         <f>SUM(B62:B70)</f>
@@ -5735,21 +6130,26 @@
       <c r="K71" s="19"/>
       <c r="L71" s="19"/>
       <c r="M71" s="19"/>
-      <c r="N71" s="20">
-        <f>SUM(N62:N70)</f>
-        <v>1.1458333333333299E-3</v>
-      </c>
-      <c r="O71" s="20">
-        <f>SUM(O62:O70)</f>
-        <v>9.8379629629629967E-4</v>
-      </c>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
       <c r="P71" s="19"/>
       <c r="Q71" s="19"/>
       <c r="R71" s="19"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S71" s="20">
+        <f>SUM(S62:S70)</f>
+        <v>1.1458333333333299E-3</v>
+      </c>
+      <c r="T71" s="20">
+        <f>SUM(T62:T70)</f>
+        <v>9.8379629629629967E-4</v>
+      </c>
+      <c r="U71" s="19"/>
+      <c r="V71" s="19"/>
+      <c r="W71" s="19"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
@@ -5783,29 +6183,34 @@
       <c r="K72" s="52">
         <v>100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="52"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="52"/>
+      <c r="O72" s="52"/>
+      <c r="P72" s="52"/>
+      <c r="Q72" s="3">
         <v>1.9907407407407408E-3</v>
       </c>
-      <c r="M72" s="3">
+      <c r="R72" s="3">
         <v>2.1064814814814813E-3</v>
       </c>
-      <c r="N72" s="3">
-        <f t="shared" ref="N72:N77" si="22" xml:space="preserve"> M72-L72</f>
+      <c r="S72" s="3">
+        <f t="shared" ref="S72:S77" si="22" xml:space="preserve"> R72-Q72</f>
         <v>1.1574074074074047E-4</v>
       </c>
-      <c r="O72" s="3">
+      <c r="T72" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="3">
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B73" s="2">
         <v>1</v>
@@ -5839,29 +6244,34 @@
       <c r="K73" s="2">
         <v>104</v>
       </c>
-      <c r="L73" s="3">
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="3">
         <v>1.9097222222222222E-3</v>
       </c>
-      <c r="M73" s="3">
+      <c r="R73" s="3">
         <v>2.0023148148148148E-3</v>
       </c>
-      <c r="N73" s="3">
+      <c r="S73" s="3">
         <f t="shared" si="22"/>
         <v>9.2592592592592683E-5</v>
       </c>
-      <c r="O73" s="3">
+      <c r="T73" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="3">
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
@@ -5893,29 +6303,34 @@
         <v>0</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O74" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="3">
+      <c r="Q74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B75" s="2">
         <v>1</v>
@@ -5949,29 +6364,34 @@
       <c r="K75" s="2">
         <v>103</v>
       </c>
-      <c r="L75" s="3">
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="3">
         <v>3.3101851851851851E-3</v>
       </c>
-      <c r="M75" s="3">
+      <c r="R75" s="3">
         <v>3.5995370370370369E-3</v>
       </c>
-      <c r="N75" s="3">
+      <c r="S75" s="3">
         <f t="shared" si="22"/>
         <v>2.8935185185185184E-4</v>
       </c>
-      <c r="O75" s="3">
+      <c r="T75" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="3">
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B76" s="2">
         <v>1</v>
@@ -6003,31 +6423,36 @@
         <v>1</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L76" s="3">
+        <v>41</v>
+      </c>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="3">
         <v>3.7037037037037034E-3</v>
       </c>
-      <c r="M76" s="3">
+      <c r="R76" s="3">
         <v>3.9004629629629632E-3</v>
       </c>
-      <c r="N76" s="3">
+      <c r="S76" s="3">
         <f t="shared" si="22"/>
         <v>1.967592592592598E-4</v>
       </c>
-      <c r="O76" s="3">
+      <c r="T76" s="3">
         <f t="shared" si="20"/>
         <v>1.157407407407357E-5</v>
       </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="3">
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B77" s="2">
         <v>1</v>
@@ -6061,29 +6486,34 @@
       <c r="K77" s="2">
         <v>105</v>
       </c>
-      <c r="L77" s="3">
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="3">
         <v>4.6412037037037038E-3</v>
       </c>
-      <c r="M77" s="3">
+      <c r="R77" s="3">
         <v>4.6759259259259263E-3</v>
       </c>
-      <c r="N77" s="3">
+      <c r="S77" s="3">
         <f t="shared" si="22"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="O77" s="3">
+      <c r="T77" s="3">
         <f t="shared" si="20"/>
         <v>5.7870370370370454E-5</v>
       </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="3">
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B78" s="2">
         <v>1</v>
@@ -6117,29 +6547,34 @@
       <c r="K78" s="2">
         <v>104</v>
       </c>
-      <c r="L78" s="3">
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="3">
         <v>5.8564814814814825E-3</v>
       </c>
-      <c r="M78" s="3">
+      <c r="R78" s="3">
         <v>6.076388888888889E-3</v>
       </c>
-      <c r="N78" s="3">
-        <f xml:space="preserve"> M78-L78</f>
+      <c r="S78" s="3">
+        <f xml:space="preserve"> R78-Q78</f>
         <v>2.1990740740740651E-4</v>
       </c>
-      <c r="O78" s="3">
+      <c r="T78" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="3">
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B79" s="2">
         <v>1</v>
@@ -6173,29 +6608,34 @@
       <c r="K79" s="2">
         <v>105</v>
       </c>
-      <c r="L79" s="3">
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="3">
         <v>6.1574074074074074E-3</v>
       </c>
-      <c r="M79" s="3">
+      <c r="R79" s="3">
         <v>6.2037037037037043E-3</v>
       </c>
-      <c r="N79" s="3">
-        <f xml:space="preserve"> M79-L79</f>
+      <c r="S79" s="3">
+        <f xml:space="preserve"> R79-Q79</f>
         <v>4.6296296296296884E-5</v>
       </c>
-      <c r="O79" s="3">
+      <c r="T79" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="3">
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B80" s="2">
         <v>1</v>
@@ -6227,31 +6667,36 @@
         <v>1</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L80" s="3">
+        <v>31</v>
+      </c>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="3">
         <v>7.1990740740740739E-3</v>
       </c>
-      <c r="M80" s="3">
+      <c r="R80" s="3">
         <v>7.2453703703703708E-3</v>
       </c>
-      <c r="N80" s="3">
-        <f xml:space="preserve"> M80-L80</f>
+      <c r="S80" s="3">
+        <f xml:space="preserve"> R80-Q80</f>
         <v>4.6296296296296884E-5</v>
       </c>
-      <c r="O80" s="3">
+      <c r="T80" s="3">
         <f t="shared" si="20"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="3">
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B81" s="19">
         <f>SUM(B72:B80)</f>
@@ -6277,24 +6722,29 @@
       <c r="K81" s="19"/>
       <c r="L81" s="19"/>
       <c r="M81" s="19"/>
-      <c r="N81" s="20">
-        <f>SUM(N72:N80)</f>
-        <v>1.0416666666666675E-3</v>
-      </c>
-      <c r="O81" s="20">
-        <f>SUM(O72:O80)</f>
-        <v>1.3888888888888892E-4</v>
-      </c>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
       <c r="P81" s="19"/>
       <c r="Q81" s="19"/>
       <c r="R81" s="19"/>
-    </row>
-    <row r="83" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="S81" s="20">
+        <f>SUM(S72:S80)</f>
+        <v>1.0416666666666675E-3</v>
+      </c>
+      <c r="T81" s="20">
+        <f>SUM(T72:T80)</f>
+        <v>1.3888888888888892E-4</v>
+      </c>
+      <c r="U81" s="19"/>
+      <c r="V81" s="19"/>
+      <c r="W81" s="19"/>
+    </row>
+    <row r="83" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6305,51 +6755,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D00FF1-E49A-4AE2-A2F4-707024AC9741}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>170</v>
+      </c>
       <c r="B5" s="36"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
       <c r="B6" s="36"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
+++ b/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\studies\2020_Aperol_Git\Coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\studies\2020_Aperol_Git\Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088F14E8-B09D-47D5-B25E-717C82E3F1AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{088F14E8-B09D-47D5-B25E-717C82E3F1AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{333BEFE7-B641-4C2B-BF3D-87C5B545C2D0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" activeTab="2" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
   </bookViews>
   <sheets>
     <sheet name="coding scheme" sheetId="2" r:id="rId1"/>
@@ -437,9 +437,6 @@
     <t>20-22</t>
   </si>
   <si>
-    <t>30-32</t>
-  </si>
-  <si>
     <t>verbal reactions: the teacher answers a question, the teacher asks the disturbing person to stop the disturbing behavior, the teacher comments on the disturbing behavior.</t>
   </si>
   <si>
@@ -452,9 +449,6 @@
     <t>a non-verbal reaction is a reaction in which the teacher reacts to a disturbance by non-verbal communication. Non-verbal communication includes all gestures, facial expressions, posture and gaze direction.</t>
   </si>
   <si>
-    <t>50-59</t>
-  </si>
-  <si>
     <t>10-12</t>
   </si>
   <si>
@@ -585,6 +579,12 @@
   </si>
   <si>
     <t>5. Was tun bei Unterrichtsstörungen, die unterbrochen werden? Z.B. PersonA malt, Person B fragt PersonA nach Handy, PersonA unterbricht malen, nimmt es dann wieder auf. AOI bleibt die ganze Zeit bestehen?</t>
+  </si>
+  <si>
+    <t>30-33</t>
+  </si>
+  <si>
+    <t>200-299</t>
   </si>
 </sst>
 </file>
@@ -1211,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A75A8A-F741-4C3F-9138-10D56EF9D568}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1292,7 +1292,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>64</v>
@@ -1404,7 +1404,7 @@
         <v>59</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="C14" s="48" t="s">
         <v>70</v>
@@ -1463,10 +1463,10 @@
         <v>33</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1632,97 +1632,97 @@
         <v>127</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B36" s="46">
         <v>100</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="53" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B37" s="46">
         <v>101</v>
       </c>
       <c r="C37" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="40" t="s">
         <v>143</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="53" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B38" s="46">
         <v>102</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="53" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B39" s="46">
         <v>103</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="53" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B40" s="46">
         <v>104</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="53" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B41" s="46">
         <v>105</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1730,13 +1730,13 @@
         <v>128</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1878,16 +1878,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DD2F59-5577-4BF1-9B09-7232E83E7D11}">
   <dimension ref="A1:W89"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6:S6"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" style="1" customWidth="1"/>
     <col min="6" max="7" width="17.33203125" style="1" customWidth="1"/>
@@ -1938,31 +1938,31 @@
         <v>12</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>16</v>
@@ -2075,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -2093,7 +2093,7 @@
         <v>3.0092592592592562E-4</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" ref="T2:T10" si="3">Q3-H3</f>
+        <f t="shared" ref="T3:T10" si="3">Q3-H3</f>
         <v>1.1574074074074221E-5</v>
       </c>
       <c r="U3" s="2"/>
@@ -2136,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2380,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2502,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -3205,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -3510,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -3924,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -4229,7 +4229,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -4290,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -4460,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -4643,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -5298,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -5648,7 +5648,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -5709,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -6755,7 +6755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D00FF1-E49A-4AE2-A2F4-707024AC9741}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6778,18 +6778,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B5" s="36"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B6" s="36"/>
     </row>

--- a/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
+++ b/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\studies\2020_Aperol_Git\Coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empshiwi\Documents\GitHub\Mandy-PhD\studies\2020_Aperol_Git\Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{088F14E8-B09D-47D5-B25E-717C82E3F1AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{333BEFE7-B641-4C2B-BF3D-87C5B545C2D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77064F62-8F9C-4EFD-A0C4-5B8A5897C98A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8775" activeTab="2" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
   </bookViews>
   <sheets>
     <sheet name="coding scheme" sheetId="2" r:id="rId1"/>
     <sheet name="coding" sheetId="1" r:id="rId2"/>
-    <sheet name="notes" sheetId="3" r:id="rId3"/>
+    <sheet name="coding AL" sheetId="4" r:id="rId3"/>
+    <sheet name="notes" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="187">
   <si>
     <t>onset</t>
   </si>
@@ -356,18 +357,6 @@
     <t>Person A is laying with the head on the table. The teacher approaches person A and tells her/him to take the head off the table. The moment person A is getting up and the teacher continues the lesson, the reaction is considered to be "finished".</t>
   </si>
   <si>
-    <t>the duration of a reaction means the time span from the start to the end point of the teacher's reaction. It includes the time at which the teacher starts to react verbally or non-verbally to the disturbance until the time at which the teacher's reaction ends.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The reaction to the disturbance "scribbling on a sheet of paper" performed by person A ranges from the starting point when the teacher moves toward person A, asks her/her to stop drawing until the end point when the teacher continues the lesson. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the duration "onset-seen" means the period of time when the disturbance first occurs to the moment the disturbance is first seen by the teacher. The duration is calculated by subtracting the time at which the disturbance first occurs from the time at which the disturbance is first seen by the teacher. </t>
-  </si>
-  <si>
-    <t>the duration "seen-reaction" means the period of time when the disturbance is first seen by the teacher to the moment the teachers reacts to the disturbance. The duration is calculated by subtracting the time at which the disturbance is first seen by the teacher from the time at which the teachers starts to react to the disturbance.</t>
-  </si>
-  <si>
     <t xml:space="preserve">person A bends over to her/his neighbour. The reation is considered a reaction when the teacher reacts verbally by asking person A if there are any questions concerning the lesson.  </t>
   </si>
   <si>
@@ -395,12 +384,6 @@
     <t>the following instruction appears on the screen for person A: "staring out of the window". Person A begins to turn around on the chair to stare out of the window. The moment the teacher's gaze meets person A for the first time, the timestamp is the starting point for "disturbance seen".</t>
   </si>
   <si>
-    <t xml:space="preserve">the following instruction appears on the screen for person A: " "looking at phone". the duration "onset-seen" for the disturbance means the period of time when the person A takes out her/his phone and starts looking at it to the moment the teachers first sees person A looking at her/his phone. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the following instruction appears on the screen for person A: " "looking at phone". the duration "seen-reaction" for the disturbance means the period of time when the teachers first sees person A looking at her/his phone to the moment the teacher reacts verbally or non-verbally to the disturbance by asking the person to put away the mobile phone. </t>
-  </si>
-  <si>
     <t>disturbance seen timestamp</t>
   </si>
   <si>
@@ -585,6 +568,42 @@
   </si>
   <si>
     <t>200-299</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   00:02:28</t>
+  </si>
+  <si>
+    <t>reaction02 offset</t>
+  </si>
+  <si>
+    <t>reaction03 offset</t>
+  </si>
+  <si>
+    <t>reaction04 offset</t>
+  </si>
+  <si>
+    <t>103, 104</t>
+  </si>
+  <si>
+    <t>102, zubewegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00:05:50</t>
+  </si>
+  <si>
+    <t>104,103, 105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103, gestik </t>
+  </si>
+  <si>
+    <t xml:space="preserve">103, 105 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">103, 102 </t>
   </si>
 </sst>
 </file>
@@ -594,7 +613,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,8 +660,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,6 +735,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -738,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -894,6 +938,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1209,37 +1265,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A75A8A-F741-4C3F-9138-10D56EF9D568}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5546875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="50.109375" style="36" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="30" customWidth="1"/>
     <col min="8" max="8" width="19" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="30" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="11.5546875" style="30"/>
-    <col min="15" max="15" width="14.5546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11.5703125" style="30"/>
+    <col min="15" max="15" width="14.5703125" style="30" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.5546875" style="30"/>
+    <col min="17" max="16384" width="11.5703125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>46</v>
@@ -1248,18 +1304,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>48</v>
@@ -1268,31 +1324,31 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="29" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>64</v>
@@ -1301,7 +1357,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>61</v>
       </c>
@@ -1315,7 +1371,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>62</v>
       </c>
@@ -1329,7 +1385,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>63</v>
       </c>
@@ -1343,12 +1399,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>58</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C10" s="48" t="s">
         <v>68</v>
@@ -1357,7 +1413,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>20</v>
       </c>
@@ -1371,7 +1427,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="118.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>18</v>
       </c>
@@ -1385,7 +1441,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>9</v>
       </c>
@@ -1399,12 +1455,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C14" s="48" t="s">
         <v>70</v>
@@ -1413,7 +1469,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>21</v>
       </c>
@@ -1427,7 +1483,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>17</v>
       </c>
@@ -1441,7 +1497,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>69</v>
       </c>
@@ -1455,7 +1511,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>29</v>
       </c>
@@ -1463,24 +1519,24 @@
         <v>33</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>53</v>
@@ -1489,18 +1545,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>54</v>
@@ -1509,362 +1565,326 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>57</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="46" t="s">
         <v>119</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>125</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>92</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
     </row>
-    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="139.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-    </row>
-    <row r="34" spans="1:4" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="44"/>
+        <v>114</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="46">
+        <v>100</v>
+      </c>
       <c r="C34" s="40" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="46">
+        <v>101</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="46">
+        <v>102</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="B36" s="46">
-        <v>100</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>140</v>
       </c>
       <c r="B37" s="46">
+        <v>103</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="46">
+        <v>104</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="46">
+        <v>105</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="54"/>
+      <c r="B41" s="55">
+        <v>200</v>
+      </c>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+    </row>
+    <row r="42" spans="1:4" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="54"/>
+      <c r="B42" s="55">
+        <v>201</v>
+      </c>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+    </row>
+    <row r="43" spans="1:4" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="54"/>
+      <c r="B43" s="55">
+        <v>202</v>
+      </c>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+    </row>
+    <row r="45" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="B38" s="46">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+    </row>
+    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" s="46">
+      <c r="D47" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="46">
-        <v>104</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41" s="46">
-        <v>105</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-    </row>
-    <row r="44" spans="1:4" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-    </row>
-    <row r="46" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A46" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-    </row>
-    <row r="48" spans="1:4" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-    </row>
-    <row r="50" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="37" t="s">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56" s="42"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-    </row>
-    <row r="58" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="37" t="s">
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="42"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+    </row>
+    <row r="55" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="36" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1878,38 +1898,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DD2F59-5577-4BF1-9B09-7232E83E7D11}">
   <dimension ref="A1:W89"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:N1048576"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="17.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="17.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="1" customWidth="1"/>
-    <col min="20" max="20" width="21.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.88671875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5546875" style="1"/>
+    <col min="20" max="20" width="21.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -1917,7 +1937,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -1932,37 +1952,37 @@
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>16</v>
@@ -1980,7 +2000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -2041,7 +2061,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2058,8 +2078,8 @@
         <v>2.0254629629629629E-3</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" si="0"/>
-        <v>3.9351851851851831E-4</v>
+        <f>E3-F8</f>
+        <v>1.7476851851851859E-3</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -2075,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -2102,7 +2122,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -2136,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -2163,7 +2183,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -2197,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -2224,7 +2244,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2285,7 +2305,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2319,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2346,7 +2366,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2380,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2407,7 +2427,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2468,7 +2488,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -2495,14 +2515,14 @@
         <v>6.7708333333333336E-3</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="2"/>
+        <f>H10-D10</f>
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -2529,7 +2549,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>36</v>
       </c>
@@ -2542,7 +2562,7 @@
       <c r="E11" s="19"/>
       <c r="F11" s="21">
         <f>SUM(F2:F10)</f>
-        <v>2.4537037037037032E-3</v>
+        <v>3.8078703703703707E-3</v>
       </c>
       <c r="G11" s="19">
         <f>SUM(G2:G10)</f>
@@ -2577,7 +2597,7 @@
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -2638,7 +2658,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -2699,7 +2719,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -2760,7 +2780,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -2818,7 +2838,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -2879,7 +2899,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -2940,7 +2960,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
@@ -3001,7 +3021,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -3062,7 +3082,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -3123,7 +3143,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>36</v>
       </c>
@@ -3171,7 +3191,7 @@
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -3205,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -3232,7 +3252,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3266,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -3293,7 +3313,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -3354,7 +3374,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -3388,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -3415,7 +3435,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -3476,7 +3496,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -3510,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -3537,7 +3557,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -3598,7 +3618,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -3659,7 +3679,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -3720,7 +3740,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>36</v>
       </c>
@@ -3768,7 +3788,7 @@
       <c r="V31" s="19"/>
       <c r="W31" s="19"/>
     </row>
-    <row r="32" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -3829,7 +3849,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -3890,7 +3910,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
@@ -3924,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -3951,7 +3971,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>25</v>
       </c>
@@ -4012,7 +4032,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>25</v>
       </c>
@@ -4073,7 +4093,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
@@ -4134,7 +4154,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
@@ -4195,7 +4215,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
@@ -4229,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -4256,7 +4276,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>25</v>
       </c>
@@ -4290,7 +4310,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -4317,7 +4337,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>37</v>
       </c>
@@ -4365,7 +4385,7 @@
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>28</v>
       </c>
@@ -4426,7 +4446,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
@@ -4460,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -4487,7 +4507,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
@@ -4548,7 +4568,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>28</v>
       </c>
@@ -4609,7 +4629,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>28</v>
       </c>
@@ -4643,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -4670,7 +4690,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -4731,7 +4751,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>28</v>
       </c>
@@ -4792,7 +4812,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>28</v>
       </c>
@@ -4853,7 +4873,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>28</v>
       </c>
@@ -4914,7 +4934,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
         <v>36</v>
       </c>
@@ -4962,7 +4982,7 @@
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>30</v>
       </c>
@@ -5023,7 +5043,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>30</v>
       </c>
@@ -5081,7 +5101,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>30</v>
       </c>
@@ -5142,7 +5162,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>30</v>
       </c>
@@ -5203,7 +5223,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>30</v>
       </c>
@@ -5264,7 +5284,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>30</v>
       </c>
@@ -5298,7 +5318,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -5325,7 +5345,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>30</v>
       </c>
@@ -5386,7 +5406,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>30</v>
       </c>
@@ -5447,7 +5467,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
@@ -5508,7 +5528,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="17" t="s">
         <v>37</v>
       </c>
@@ -5553,7 +5573,7 @@
       <c r="V61" s="19"/>
       <c r="W61" s="19"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>34</v>
       </c>
@@ -5614,7 +5634,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>34</v>
       </c>
@@ -5648,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -5675,7 +5695,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>34</v>
       </c>
@@ -5709,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -5736,7 +5756,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>34</v>
       </c>
@@ -5797,7 +5817,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>34</v>
       </c>
@@ -5858,7 +5878,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>34</v>
       </c>
@@ -5919,7 +5939,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>34</v>
       </c>
@@ -5980,7 +6000,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>34</v>
       </c>
@@ -6041,7 +6061,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>34</v>
       </c>
@@ -6102,7 +6122,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
         <v>36</v>
       </c>
@@ -6147,7 +6167,7 @@
       <c r="V71" s="19"/>
       <c r="W71" s="19"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>39</v>
       </c>
@@ -6208,7 +6228,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>39</v>
       </c>
@@ -6269,7 +6289,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>39</v>
       </c>
@@ -6328,7 +6348,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>39</v>
       </c>
@@ -6389,7 +6409,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>39</v>
       </c>
@@ -6450,7 +6470,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>39</v>
       </c>
@@ -6511,7 +6531,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>39</v>
       </c>
@@ -6572,7 +6592,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>39</v>
       </c>
@@ -6633,7 +6653,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>39</v>
       </c>
@@ -6694,7 +6714,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
         <v>36</v>
       </c>
@@ -6739,12 +6759,12 @@
       <c r="V81" s="19"/>
       <c r="W81" s="19"/>
     </row>
-    <row r="83" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6752,58 +6772,5850 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF1EB2F-341F-4B62-8B6D-176AFC8A6257}">
+  <dimension ref="A1:Z103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
+    <col min="23" max="23" width="20.28515625" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" customWidth="1"/>
+    <col min="26" max="26" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8.6805555555555551E-4</v>
+      </c>
+      <c r="E2" s="5">
+        <v>9.4907407407407408E-4</v>
+      </c>
+      <c r="F2" s="5">
+        <f>E2-D2</f>
+        <v>8.101851851851857E-5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>8.9120370370370362E-4</v>
+      </c>
+      <c r="I2" s="3">
+        <f>H2-D2</f>
+        <v>2.3148148148148117E-5</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="52">
+        <v>100</v>
+      </c>
+      <c r="L2" s="57">
+        <v>9.1435185185185185E-4</v>
+      </c>
+      <c r="M2" s="57">
+        <v>9.7222222222222209E-4</v>
+      </c>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="3">
+        <v>9.1435185185185185E-4</v>
+      </c>
+      <c r="U2" s="3">
+        <v>9.7222222222222209E-4</v>
+      </c>
+      <c r="V2" s="3">
+        <f t="shared" ref="V2:V10" si="0" xml:space="preserve"> U2-T2</f>
+        <v>5.7870370370370237E-5</v>
+      </c>
+      <c r="W2" s="3">
+        <f>T2-H2</f>
+        <v>2.3148148148148225E-5</v>
+      </c>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="3">
+        <v>7.1759259259259259E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="52">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.6319444444444445E-3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2.0254629629629629E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <f>E3-D3</f>
+        <v>3.9351851851851831E-4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.712962962962963E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <f>H3-D3</f>
+        <v>8.1018518518518462E-5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1.712962962962963E-3</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1.7245370370370372E-3</v>
+      </c>
+      <c r="O3" s="5">
+        <v>2.0138888888888888E-3</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="3">
+        <v>1.712962962962963E-3</v>
+      </c>
+      <c r="U3" s="3">
+        <v>2.0138888888888888E-3</v>
+      </c>
+      <c r="V3" s="3">
+        <f t="shared" si="0"/>
+        <v>3.0092592592592584E-4</v>
+      </c>
+      <c r="W3" s="3">
+        <f>T3-H3</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="3">
+        <v>7.1759259259259259E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="52">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2.8819444444444444E-3</v>
+      </c>
+      <c r="F4" s="11">
+        <f>E4-D4</f>
+        <v>1.0416666666666647E-4</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12">
+        <v>2.8472222222222219E-3</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" ref="I3:I9" si="1">H4-D4</f>
+        <v>6.9444444444444024E-5</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" s="5">
+        <v>2.8587962962962963E-3</v>
+      </c>
+      <c r="M4" s="5">
+        <v>2.8587962962962963E-3</v>
+      </c>
+      <c r="N4" s="5">
+        <v>2.8587962962962963E-3</v>
+      </c>
+      <c r="O4" s="5">
+        <v>2.9282407407407412E-3</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="12">
+        <v>2.8587962962962963E-3</v>
+      </c>
+      <c r="U4" s="12">
+        <v>2.9282407407407412E-3</v>
+      </c>
+      <c r="V4" s="12">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444892E-5</v>
+      </c>
+      <c r="W4" s="12">
+        <f>T4-H4</f>
+        <v>1.1574074074074438E-5</v>
+      </c>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="12">
+        <v>7.1759259259259259E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="52">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3.2523148148148151E-3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4.1203703703703706E-3</v>
+      </c>
+      <c r="F5" s="5">
+        <f>E5-D5</f>
+        <v>8.6805555555555551E-4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3.3217592592592591E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444024E-5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L5" s="5">
+        <v>4.0972222222222226E-3</v>
+      </c>
+      <c r="M5" s="5">
+        <v>4.108796296296297E-3</v>
+      </c>
+      <c r="N5" s="5">
+        <v>4.108796296296297E-3</v>
+      </c>
+      <c r="O5" s="5">
+        <v>4.2245370370370371E-3</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="3">
+        <v>4.108796296296297E-3</v>
+      </c>
+      <c r="U5" s="3">
+        <v>4.2245370370370371E-3</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1574074074074004E-4</v>
+      </c>
+      <c r="W5" s="3">
+        <f>T5-H5</f>
+        <v>7.8703703703703791E-4</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="3">
+        <v>7.1759259259259259E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4.0277777777777777E-3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.0393518518518521E-3</v>
+      </c>
+      <c r="F6" s="5">
+        <f>E6-D6</f>
+        <v>1.1574074074074438E-5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4.0277777777777777E-3</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="L6" s="57">
+        <v>4.0393518518518521E-3</v>
+      </c>
+      <c r="M6" s="57">
+        <v>4.0509259259259257E-3</v>
+      </c>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="3">
+        <v>4.0393518518518521E-3</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V6" s="3" t="e">
+        <f xml:space="preserve"> U6-T6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W6" s="3">
+        <f>T6-H6</f>
+        <v>1.1574074074074438E-5</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="3">
+        <v>7.1759259259259259E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="52">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.31712962962963E-3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.5717592592592589E-3</v>
+      </c>
+      <c r="F7" s="5">
+        <f>E7-D7</f>
+        <v>2.5462962962962896E-4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4.4675925925925933E-3</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5046296296296335E-4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="5">
+        <v>4.5254629629629629E-3</v>
+      </c>
+      <c r="M7" s="5">
+        <v>4.5370370370370365E-3</v>
+      </c>
+      <c r="N7" s="5">
+        <v>4.5254629629629629E-3</v>
+      </c>
+      <c r="O7" s="5">
+        <v>4.5370370370370365E-3</v>
+      </c>
+      <c r="P7" s="5">
+        <v>4.5486111111111109E-3</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>4.5717592592592589E-3</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="3">
+        <v>4.5254629629629629E-3</v>
+      </c>
+      <c r="U7" s="3">
+        <v>4.5717592592592589E-3</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" si="0"/>
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="W7" s="3">
+        <f>T7-H7</f>
+        <v>5.7870370370369587E-5</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="3">
+        <v>7.1759259259259259E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="52">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5.0115740740740737E-3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5.3009259259259251E-3</v>
+      </c>
+      <c r="F8" s="5">
+        <f>E8-D8</f>
+        <v>2.893518518518514E-4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5.0462962962962961E-3</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>3.4722222222222446E-5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L8" s="5">
+        <v>5.2430555555555555E-3</v>
+      </c>
+      <c r="M8" s="5">
+        <v>5.3009259259259251E-3</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="3">
+        <v>5.2430555555555555E-3</v>
+      </c>
+      <c r="U8" s="5">
+        <v>5.3009259259259251E-3</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" si="0"/>
+        <v>5.7870370370369587E-5</v>
+      </c>
+      <c r="W8" s="3">
+        <f>T8-H8</f>
+        <v>1.9675925925925937E-4</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="3">
+        <v>7.1759259259259259E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="52">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.7291666666666671E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6.1342592592592594E-3</v>
+      </c>
+      <c r="F9" s="5">
+        <f>E9-D9</f>
+        <v>4.0509259259259231E-4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5.7291666666666671E-3</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" s="5">
+        <v>6.0995370370370361E-3</v>
+      </c>
+      <c r="M9" s="5">
+        <v>6.0995370370370361E-3</v>
+      </c>
+      <c r="N9" s="5">
+        <v>6.1111111111111114E-3</v>
+      </c>
+      <c r="O9" s="5">
+        <v>6.1342592592592594E-3</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="3">
+        <v>6.0995370370370361E-3</v>
+      </c>
+      <c r="U9" s="3">
+        <v>6.1342592592592594E-3</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.4722222222223313E-5</v>
+      </c>
+      <c r="W9" s="3">
+        <f>T9-H9</f>
+        <v>3.70370370370369E-4</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="3">
+        <v>7.1759259259259259E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6.7361111111111103E-3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6.828703703703704E-3</v>
+      </c>
+      <c r="F10" s="5">
+        <f>E10-D10</f>
+        <v>9.2592592592593767E-5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6.7708333333333336E-3</v>
+      </c>
+      <c r="I10" s="3">
+        <f>H10-D10</f>
+        <v>3.4722222222223313E-5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L10" s="5">
+        <v>6.7708333333333336E-3</v>
+      </c>
+      <c r="M10" s="5">
+        <v>6.7708333333333336E-3</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="3">
+        <v>6.7708333333333336E-3</v>
+      </c>
+      <c r="U10" s="3">
+        <v>6.7708333333333336E-3</v>
+      </c>
+      <c r="V10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <f>T10-H10</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="3">
+        <v>7.1759259259259259E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="18">
+        <f>SUM(B2:B10)</f>
+        <v>9</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="21">
+        <f>SUM(F2:F10)</f>
+        <v>2.4999999999999996E-3</v>
+      </c>
+      <c r="G11" s="19">
+        <f>SUM(G2:G10)</f>
+        <v>9</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20">
+        <f>SUM(I2:I10)</f>
+        <v>4.6296296296296374E-4</v>
+      </c>
+      <c r="J11" s="19">
+        <f>SUM(J2:J10)</f>
+        <v>9</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="20">
+        <f>SUM(V12:V20)</f>
+        <v>6.9444444444444631E-4</v>
+      </c>
+      <c r="W11" s="20">
+        <f>SUM(W12:W20)</f>
+        <v>3.8194444444444137E-4</v>
+      </c>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="52">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5">
+        <v>8.9120370370370362E-4</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1.1574074074074073E-3</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F20" si="2">E12-D12</f>
+        <v>2.6620370370370372E-4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>9.0277777777777784E-4</v>
+      </c>
+      <c r="I12" s="3">
+        <f>H12-D12</f>
+        <v>1.1574074074074221E-5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>103</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="3">
+        <v>1.0300925925925926E-3</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1.1226851851851851E-3</v>
+      </c>
+      <c r="V12" s="3">
+        <f xml:space="preserve"> U12-T12</f>
+        <v>9.2592592592592466E-5</v>
+      </c>
+      <c r="W12" s="3">
+        <f>T12-H12</f>
+        <v>1.273148148148148E-4</v>
+      </c>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="3">
+        <v>7.6620370370370366E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1.5624999999999999E-3</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1.6550925925925926E-3</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>9.2592592592592683E-5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.5740740740740741E-3</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" ref="I13:I20" si="3">H13-D13</f>
+        <v>1.1574074074074221E-5</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="3">
+        <v>1.5856481481481479E-3</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1.6666666666666668E-3</v>
+      </c>
+      <c r="V13" s="3">
+        <f xml:space="preserve"> U13-T13</f>
+        <v>8.1018518518518896E-5</v>
+      </c>
+      <c r="W13" s="3">
+        <f>T13-H13</f>
+        <v>1.1574074074073787E-5</v>
+      </c>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="3">
+        <v>7.6620370370370366E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2.3263888888888887E-3</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>3.1249999999999984E-4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2.4768518518518516E-3</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5046296296296292E-4</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>104</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="3">
+        <v>2.3958333333333336E-3</v>
+      </c>
+      <c r="U14" s="3">
+        <v>2.5231481481481481E-3</v>
+      </c>
+      <c r="V14" s="3">
+        <f xml:space="preserve"> U14-T14</f>
+        <v>1.2731481481481448E-4</v>
+      </c>
+      <c r="W14" s="3">
+        <f>H14-T14</f>
+        <v>8.1018518518518028E-5</v>
+      </c>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="3">
+        <v>7.6620370370370366E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3.0092592592592588E-3</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3.6111111111111114E-3</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>6.0185185185185255E-4</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="3">
+        <v>7.6620370370370366E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="52">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3.5879629629629629E-3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3.7268518518518514E-3</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3888888888888848E-4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3.6226851851851854E-3</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="3"/>
+        <v>3.4722222222222446E-5</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>103</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="3">
+        <v>3.6342592592592594E-3</v>
+      </c>
+      <c r="U16" s="3">
+        <v>3.7268518518518514E-3</v>
+      </c>
+      <c r="V16" s="3">
+        <f xml:space="preserve"> U16-T16</f>
+        <v>9.2592592592592032E-5</v>
+      </c>
+      <c r="W16" s="3">
+        <f>T16-H16</f>
+        <v>1.1574074074074004E-5</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="3">
+        <v>7.6620370370370366E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4.2824074074074075E-3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4.386574074074074E-3</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0416666666666647E-4</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4.3055555555555555E-3</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="3"/>
+        <v>2.3148148148148008E-5</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="52">
+        <v>101</v>
+      </c>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="3">
+        <v>4.3287037037037035E-3</v>
+      </c>
+      <c r="U17" s="3">
+        <v>4.363425925925926E-3</v>
+      </c>
+      <c r="V17" s="3">
+        <f xml:space="preserve"> U17-T17</f>
+        <v>3.4722222222222446E-5</v>
+      </c>
+      <c r="W17" s="3">
+        <f>T17-H17</f>
+        <v>2.3148148148148008E-5</v>
+      </c>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="3">
+        <v>7.6620370370370366E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10</v>
+      </c>
+      <c r="D18" s="12">
+        <v>5.3819444444444453E-3</v>
+      </c>
+      <c r="E18" s="12">
+        <v>5.4050925925925924E-3</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="2"/>
+        <v>2.3148148148147141E-5</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12">
+        <v>5.3819444444444453E-3</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="10">
+        <v>1</v>
+      </c>
+      <c r="K18" s="10">
+        <v>103</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="12">
+        <v>5.4050925925925924E-3</v>
+      </c>
+      <c r="U18" s="12">
+        <v>5.4745370370370373E-3</v>
+      </c>
+      <c r="V18" s="12">
+        <f xml:space="preserve"> U18-T18</f>
+        <v>6.9444444444444892E-5</v>
+      </c>
+      <c r="W18" s="12">
+        <f>T18-H18</f>
+        <v>2.3148148148147141E-5</v>
+      </c>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="12">
+        <v>7.6620370370370366E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="52">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5.7638888888888887E-3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6.0069444444444441E-3</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>2.4305555555555539E-4</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5.9027777777777776E-3</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3888888888888892E-4</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>103</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="3">
+        <v>5.9490740740740745E-3</v>
+      </c>
+      <c r="U19" s="3">
+        <v>6.0879629629629643E-3</v>
+      </c>
+      <c r="V19" s="3">
+        <f xml:space="preserve"> U19-T19</f>
+        <v>1.3888888888888978E-4</v>
+      </c>
+      <c r="W19" s="3">
+        <f>T19-H19</f>
+        <v>4.6296296296296884E-5</v>
+      </c>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="3">
+        <v>7.6620370370370366E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="52">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3">
+        <v>6.4120370370370364E-3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6.5509259259259262E-3</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3888888888888978E-4</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6.4351851851851861E-3</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="3"/>
+        <v>2.3148148148149743E-5</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>103</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="3">
+        <v>6.4930555555555549E-3</v>
+      </c>
+      <c r="U20" s="3">
+        <v>6.5509259259259262E-3</v>
+      </c>
+      <c r="V20" s="3">
+        <f xml:space="preserve"> U20-T20</f>
+        <v>5.7870370370371321E-5</v>
+      </c>
+      <c r="W20" s="3">
+        <f>T20-H20</f>
+        <v>5.7870370370368719E-5</v>
+      </c>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="3">
+        <v>7.6620370370370366E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="19">
+        <f>SUM(B12:B20)</f>
+        <v>9</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="21">
+        <f>SUM(F12:F20)</f>
+        <v>1.9212962962962959E-3</v>
+      </c>
+      <c r="G21" s="19">
+        <f>SUM(G12:G20)</f>
+        <v>8</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20">
+        <f>SUM(I12:I20)</f>
+        <v>3.9351851851852047E-4</v>
+      </c>
+      <c r="J21" s="19">
+        <f>SUM(J12:J20)</f>
+        <v>8</v>
+      </c>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="20">
+        <f>SUM(V12:V20)</f>
+        <v>6.9444444444444631E-4</v>
+      </c>
+      <c r="W21" s="20">
+        <f>SUM(W12:W20)</f>
+        <v>3.8194444444444137E-4</v>
+      </c>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="52">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1.25E-3</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1.6087962962962963E-3</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F30" si="4">E22-D22</f>
+        <v>3.5879629629629629E-4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1.2731481481481483E-3</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" ref="I22:I30" si="5">H22-D22</f>
+        <v>2.3148148148148225E-5</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="3">
+        <v>1.4814814814814814E-3</v>
+      </c>
+      <c r="U22" s="3">
+        <v>1.5624999999999999E-3</v>
+      </c>
+      <c r="V22" s="3">
+        <f t="shared" ref="V22:V30" si="6" xml:space="preserve"> U22-T22</f>
+        <v>8.1018518518518462E-5</v>
+      </c>
+      <c r="W22" s="3">
+        <f>T22-H22</f>
+        <v>2.0833333333333316E-4</v>
+      </c>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="3">
+        <v>7.719907407407408E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>32</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1.5509259259259261E-3</v>
+      </c>
+      <c r="E23" s="5">
+        <v>3.0902777777777782E-3</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5393518518518521E-3</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1.9907407407407408E-3</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="5"/>
+        <v>4.3981481481481476E-4</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="3">
+        <v>2.0023148148148148E-3</v>
+      </c>
+      <c r="U23" s="3">
+        <v>2.0601851851851853E-3</v>
+      </c>
+      <c r="V23" s="3">
+        <f t="shared" si="6"/>
+        <v>5.7870370370370454E-5</v>
+      </c>
+      <c r="W23" s="3">
+        <f>T23-H23</f>
+        <v>1.1574074074074004E-5</v>
+      </c>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="3">
+        <v>7.719907407407408E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2.1527777777777778E-3</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2.3148148148148151E-3</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6203703703703736E-4</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2.2222222222222222E-3</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="5"/>
+        <v>6.9444444444444458E-5</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="52">
+        <v>102</v>
+      </c>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="3">
+        <v>2.2337962962962967E-3</v>
+      </c>
+      <c r="U24" s="3">
+        <v>2.3148148148148151E-3</v>
+      </c>
+      <c r="V24" s="3">
+        <f t="shared" si="6"/>
+        <v>8.1018518518518462E-5</v>
+      </c>
+      <c r="W24" s="3">
+        <f>T24-H24</f>
+        <v>1.1574074074074438E-5</v>
+      </c>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="3">
+        <v>7.719907407407408E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2.9745370370370373E-3</v>
+      </c>
+      <c r="E25" s="5">
+        <v>3.1481481481481482E-3</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7361111111111093E-4</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3.0324074074074073E-3</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="5"/>
+        <v>5.787037037037002E-5</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="3">
+        <v>3.0439814814814821E-3</v>
+      </c>
+      <c r="U25" s="3">
+        <v>3.0902777777777782E-3</v>
+      </c>
+      <c r="V25" s="3">
+        <f t="shared" si="6"/>
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="W25" s="3">
+        <f>T25-H25</f>
+        <v>1.1574074074074871E-5</v>
+      </c>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="3">
+        <v>7.719907407407408E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="52">
+        <v>22</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3.7268518518518514E-3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3.9004629629629632E-3</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="4"/>
+        <v>1.736111111111118E-4</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3.8425925925925923E-3</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1574074074074091E-4</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="3">
+        <v>3.8425925925925923E-3</v>
+      </c>
+      <c r="U26" s="3">
+        <v>3.9236111111111112E-3</v>
+      </c>
+      <c r="V26" s="3">
+        <f t="shared" si="6"/>
+        <v>8.1018518518518896E-5</v>
+      </c>
+      <c r="W26" s="3">
+        <f>T26-H26</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="3">
+        <v>7.719907407407408E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="52">
+        <v>31</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4.2361111111111106E-3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4.6874999999999998E-3</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="4"/>
+        <v>4.5138888888888919E-4</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>4.2939814814814811E-3</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="5"/>
+        <v>5.7870370370370454E-5</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="3">
+        <v>4.5717592592592589E-3</v>
+      </c>
+      <c r="U27" s="3">
+        <v>4.7453703703703703E-3</v>
+      </c>
+      <c r="V27" s="3">
+        <f t="shared" si="6"/>
+        <v>1.7361111111111136E-4</v>
+      </c>
+      <c r="W27" s="3">
+        <f>T27-H27</f>
+        <v>2.7777777777777783E-4</v>
+      </c>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="3">
+        <v>7.719907407407408E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>30</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5.208333333333333E-3</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5.6944444444444438E-3</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="4"/>
+        <v>4.8611111111111077E-4</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>5.2546296296296299E-3</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="5"/>
+        <v>4.6296296296296884E-5</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="3">
+        <v>5.2777777777777771E-3</v>
+      </c>
+      <c r="U28" s="3">
+        <v>5.4166666666666669E-3</v>
+      </c>
+      <c r="V28" s="3">
+        <f t="shared" si="6"/>
+        <v>1.3888888888888978E-4</v>
+      </c>
+      <c r="W28" s="3">
+        <f>T28-H28</f>
+        <v>2.3148148148147141E-5</v>
+      </c>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="3">
+        <v>7.719907407407408E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5.9375000000000009E-3</v>
+      </c>
+      <c r="E29" s="3">
+        <v>6.1111111111111114E-3</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7361111111111049E-4</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>5.9837962962962961E-3</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="5"/>
+        <v>4.6296296296295149E-5</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="52">
+        <v>100</v>
+      </c>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="3">
+        <v>6.053240740740741E-3</v>
+      </c>
+      <c r="U29" s="3">
+        <v>6.2268518518518515E-3</v>
+      </c>
+      <c r="V29" s="3">
+        <f t="shared" si="6"/>
+        <v>1.7361111111111049E-4</v>
+      </c>
+      <c r="W29" s="3">
+        <f>T29-H29</f>
+        <v>6.9444444444444892E-5</v>
+      </c>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="3">
+        <v>7.719907407407408E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="52">
+        <v>20</v>
+      </c>
+      <c r="D30" s="3">
+        <v>6.3310185185185197E-3</v>
+      </c>
+      <c r="E30" s="3">
+        <v>6.7245370370370367E-3</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="4"/>
+        <v>3.93518518518517E-4</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>6.3888888888888884E-3</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="5"/>
+        <v>5.7870370370368719E-5</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>103</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="3">
+        <v>6.4930555555555549E-3</v>
+      </c>
+      <c r="U30" s="3">
+        <v>6.6550925925925935E-3</v>
+      </c>
+      <c r="V30" s="3">
+        <f t="shared" si="6"/>
+        <v>1.6203703703703866E-4</v>
+      </c>
+      <c r="W30" s="3">
+        <f>T30-H30</f>
+        <v>1.0416666666666647E-4</v>
+      </c>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="3">
+        <v>7.719907407407408E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="19">
+        <f>SUM(B22:B30)</f>
+        <v>9</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="21">
+        <f>SUM(F22:F30)</f>
+        <v>3.9120370370370359E-3</v>
+      </c>
+      <c r="G31" s="19">
+        <f>SUM(G22:G30)</f>
+        <v>9</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20">
+        <f>SUM(I22:I30)</f>
+        <v>9.1435185185184957E-4</v>
+      </c>
+      <c r="J31" s="19">
+        <f>SUM(J22:J30)</f>
+        <v>9</v>
+      </c>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="20">
+        <f>SUM(V22:V30)</f>
+        <v>9.9537037037037259E-4</v>
+      </c>
+      <c r="W31" s="20">
+        <f>SUM(W22:W30)</f>
+        <v>7.175925925925928E-4</v>
+      </c>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>11</v>
+      </c>
+      <c r="D32" s="5">
+        <v>7.175925925925927E-4</v>
+      </c>
+      <c r="E32" s="5">
+        <v>8.6805555555555551E-4</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" ref="F32:F40" si="7">E32-D32</f>
+        <v>1.5046296296296281E-4</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
+        <v>7.291666666666667E-4</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" ref="I32:I40" si="8">H32-D32</f>
+        <v>1.1574074074074004E-5</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="52">
+        <v>101</v>
+      </c>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="3">
+        <v>7.407407407407407E-4</v>
+      </c>
+      <c r="U32" s="3">
+        <v>8.9120370370370362E-4</v>
+      </c>
+      <c r="V32" s="3">
+        <f xml:space="preserve"> U32-T32</f>
+        <v>1.5046296296296292E-4</v>
+      </c>
+      <c r="W32" s="3">
+        <f>T32-H32</f>
+        <v>1.1574074074074004E-5</v>
+      </c>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="3">
+        <v>7.1412037037037043E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="52">
+        <v>21</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1.7476851851851852E-3</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1.9097222222222222E-3</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="7"/>
+        <v>1.6203703703703692E-4</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1.8634259259259261E-3</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="8"/>
+        <v>1.1574074074074091E-4</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="3">
+        <v>1.8750000000000001E-3</v>
+      </c>
+      <c r="U33" s="3">
+        <v>1.9097222222222222E-3</v>
+      </c>
+      <c r="V33" s="3">
+        <f xml:space="preserve"> U33-T33</f>
+        <v>3.4722222222222012E-5</v>
+      </c>
+      <c r="W33" s="3">
+        <f>T33-H33</f>
+        <v>1.1574074074074004E-5</v>
+      </c>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="3">
+        <v>7.1412037037037043E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>32</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2.1874999999999998E-3</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2.673611111111111E-3</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="7"/>
+        <v>4.8611111111111121E-4</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>2.1990740740740742E-3</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="8"/>
+        <v>1.1574074074074438E-5</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="3">
+        <v>2.627314814814815E-3</v>
+      </c>
+      <c r="U34" s="3">
+        <v>2.673611111111111E-3</v>
+      </c>
+      <c r="V34" s="3">
+        <f xml:space="preserve"> U34-T34</f>
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="W34" s="3">
+        <f>T34-H34</f>
+        <v>4.2824074074074075E-4</v>
+      </c>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="3">
+        <v>7.1412037037037043E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="52">
+        <v>31</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2.9050925925925928E-3</v>
+      </c>
+      <c r="E35" s="5">
+        <v>4.4791666666666669E-3</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="7"/>
+        <v>1.5740740740740741E-3</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3">
+        <v>4.3981481481481484E-3</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="8"/>
+        <v>1.4930555555555556E-3</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2">
+        <v>103</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="3">
+        <v>4.4212962962962956E-3</v>
+      </c>
+      <c r="U35" s="3">
+        <v>4.4791666666666669E-3</v>
+      </c>
+      <c r="V35" s="3">
+        <f xml:space="preserve"> U34-T34</f>
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="W35" s="3">
+        <f>T35-H35</f>
+        <v>2.3148148148147141E-5</v>
+      </c>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="3">
+        <v>7.1412037037037043E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>12</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3.5648148148148154E-3</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3.6226851851851854E-3</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="7"/>
+        <v>5.787037037037002E-5</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3">
+        <v>3.5648148148148154E-3</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>103</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="3">
+        <v>3.5879629629629629E-3</v>
+      </c>
+      <c r="U36" s="3">
+        <v>3.6226851851851854E-3</v>
+      </c>
+      <c r="V36" s="3">
+        <f xml:space="preserve"> U35-T35</f>
+        <v>5.7870370370371321E-5</v>
+      </c>
+      <c r="W36" s="3">
+        <f>T35-H36</f>
+        <v>8.564814814814802E-4</v>
+      </c>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="3">
+        <v>7.1412037037037043E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="52">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4.1782407407407402E-3</v>
+      </c>
+      <c r="E37" s="3">
+        <v>4.6643518518518518E-3</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="7"/>
+        <v>4.8611111111111164E-4</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3">
+        <v>4.5949074074074078E-3</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666761E-4</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="3">
+        <v>4.6180555555555558E-3</v>
+      </c>
+      <c r="U37" s="3">
+        <v>4.6643518518518518E-3</v>
+      </c>
+      <c r="V37" s="3">
+        <f xml:space="preserve"> U37-T37</f>
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="W37" s="3">
+        <f>T37-H37</f>
+        <v>2.3148148148148008E-5</v>
+      </c>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="3">
+        <v>7.1412037037037043E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="52">
+        <v>20</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4.9074074074074072E-3</v>
+      </c>
+      <c r="E38" s="3">
+        <v>5.1504629629629635E-3</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="7"/>
+        <v>2.4305555555555625E-4</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3">
+        <v>4.9421296296296288E-3</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="8"/>
+        <v>3.4722222222221578E-5</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>103</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="3">
+        <v>4.9537037037037041E-3</v>
+      </c>
+      <c r="U38" s="3">
+        <v>5.0694444444444441E-3</v>
+      </c>
+      <c r="V38" s="3">
+        <f xml:space="preserve"> U38-T38</f>
+        <v>1.1574074074074004E-4</v>
+      </c>
+      <c r="W38" s="3">
+        <f>T38-H38</f>
+        <v>1.1574074074075305E-5</v>
+      </c>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="3">
+        <v>7.1412037037037043E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>30</v>
+      </c>
+      <c r="D39" s="3">
+        <v>5.6134259259259271E-3</v>
+      </c>
+      <c r="E39" s="3">
+        <v>5.9606481481481489E-3</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="7"/>
+        <v>3.4722222222222186E-4</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3">
+        <v>5.7175925925925927E-3</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="8"/>
+        <v>1.041666666666656E-4</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="3">
+        <v>5.9027777777777776E-3</v>
+      </c>
+      <c r="U39" s="3">
+        <v>5.9722222222222225E-3</v>
+      </c>
+      <c r="V39" s="3">
+        <f xml:space="preserve"> U39-T39</f>
+        <v>6.9444444444444892E-5</v>
+      </c>
+      <c r="W39" s="3">
+        <f>T39-H39</f>
+        <v>1.8518518518518493E-4</v>
+      </c>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="3">
+        <v>7.1412037037037043E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3">
+        <v>6.2037037037037043E-3</v>
+      </c>
+      <c r="E40" s="3">
+        <v>6.3194444444444444E-3</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="7"/>
+        <v>1.1574074074074004E-4</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3">
+        <v>6.2268518518518515E-3</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="8"/>
+        <v>2.3148148148147141E-5</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="3">
+        <v>6.2731481481481484E-3</v>
+      </c>
+      <c r="U40" s="3">
+        <v>6.3078703703703708E-3</v>
+      </c>
+      <c r="V40" s="3">
+        <f xml:space="preserve"> U40-T40</f>
+        <v>3.4722222222222446E-5</v>
+      </c>
+      <c r="W40" s="3">
+        <f>T40-H40</f>
+        <v>4.6296296296296884E-5</v>
+      </c>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="3">
+        <v>7.1412037037037043E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="19">
+        <f>SUM(B32:B40)</f>
+        <v>9</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="21">
+        <f>SUM(F32:F40)</f>
+        <v>3.6226851851851849E-3</v>
+      </c>
+      <c r="G41" s="19">
+        <f>SUM(G32:G40)</f>
+        <v>9</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="20">
+        <f>SUM(I32:I40)</f>
+        <v>2.2106481481481469E-3</v>
+      </c>
+      <c r="J41" s="19">
+        <f>SUM(J32:J40)</f>
+        <v>9</v>
+      </c>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="20">
+        <f>SUM(V32:V40)</f>
+        <v>6.0185185185185168E-4</v>
+      </c>
+      <c r="W41" s="20">
+        <f>SUM(W32:W40)</f>
+        <v>1.5972222222222212E-3</v>
+      </c>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="52">
+        <v>22</v>
+      </c>
+      <c r="D42" s="5">
+        <v>9.8379629629629642E-4</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1.712962962962963E-3</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" ref="F42:F49" si="9">E42-D42</f>
+        <v>7.2916666666666659E-4</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1.0185185185185186E-3</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" ref="I42:I50" si="10">H42-D42</f>
+        <v>3.4722222222222229E-5</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>103</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="3">
+        <v>1.6782407407407406E-3</v>
+      </c>
+      <c r="U42" s="3">
+        <v>1.712962962962963E-3</v>
+      </c>
+      <c r="V42" s="3">
+        <f t="shared" ref="V42:V50" si="11" xml:space="preserve"> U42-T42</f>
+        <v>3.4722222222222446E-5</v>
+      </c>
+      <c r="W42" s="3">
+        <f>T42-H42</f>
+        <v>6.5972222222222192E-4</v>
+      </c>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="3">
+        <v>7.2337962962962963E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>30</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1.5277777777777779E-3</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2.1527777777777778E-3</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="9"/>
+        <v>6.249999999999999E-4</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1.5393518518518519E-3</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="10"/>
+        <v>1.1574074074074004E-5</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="3">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="U43" s="3">
+        <v>2.1296296296296298E-3</v>
+      </c>
+      <c r="V43" s="3">
+        <f t="shared" si="11"/>
+        <v>4.629629629629645E-5</v>
+      </c>
+      <c r="W43" s="3">
+        <f>T43-H43</f>
+        <v>5.4398148148148144E-4</v>
+      </c>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="3">
+        <v>7.2337962962962963E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>11</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2.2337962962962967E-3</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2.3495370370370371E-3</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="9"/>
+        <v>1.1574074074074047E-4</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2.2453703703703702E-3</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="10"/>
+        <v>1.157407407407357E-5</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="52">
+        <v>102</v>
+      </c>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="52"/>
+      <c r="T44" s="3">
+        <v>2.2800925925925927E-3</v>
+      </c>
+      <c r="U44" s="3">
+        <v>2.3726851851851851E-3</v>
+      </c>
+      <c r="V44" s="3">
+        <f t="shared" si="11"/>
+        <v>9.2592592592592466E-5</v>
+      </c>
+      <c r="W44" s="3">
+        <f>T44-H44</f>
+        <v>3.4722222222222446E-5</v>
+      </c>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="3">
+        <v>7.2337962962962963E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>32</v>
+      </c>
+      <c r="D45" s="5">
+        <v>3.2407407407407406E-3</v>
+      </c>
+      <c r="E45" s="5">
+        <v>3.7847222222222223E-3</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="9"/>
+        <v>5.4398148148148166E-4</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3.2986111111111111E-3</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="10"/>
+        <v>5.7870370370370454E-5</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2">
+        <v>103</v>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="3">
+        <v>3.7152777777777774E-3</v>
+      </c>
+      <c r="U45" s="3">
+        <v>3.7615740740740739E-3</v>
+      </c>
+      <c r="V45" s="3">
+        <f t="shared" si="11"/>
+        <v>4.629629629629645E-5</v>
+      </c>
+      <c r="W45" s="3">
+        <f>T45-H45</f>
+        <v>4.1666666666666631E-4</v>
+      </c>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="3">
+        <v>7.2337962962962963E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>33</v>
+      </c>
+      <c r="D46" s="3">
+        <v>3.7268518518518514E-3</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4.0277777777777777E-3</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="9"/>
+        <v>3.0092592592592627E-4</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3">
+        <v>3.8310185185185183E-3</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="10"/>
+        <v>1.041666666666669E-4</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="3">
+        <v>3.8425925925925923E-3</v>
+      </c>
+      <c r="U46" s="3">
+        <v>4.0046296296296297E-3</v>
+      </c>
+      <c r="V46" s="3">
+        <f t="shared" si="11"/>
+        <v>1.6203703703703736E-4</v>
+      </c>
+      <c r="W46" s="3">
+        <f>T46-H46</f>
+        <v>1.1574074074074004E-5</v>
+      </c>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="3">
+        <v>7.2337962962962963E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>12</v>
+      </c>
+      <c r="D47" s="3">
+        <v>4.8148148148148152E-3</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="9"/>
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3">
+        <v>4.8379629629629632E-3</v>
+      </c>
+      <c r="I47" s="3">
+        <f>H47-D47</f>
+        <v>2.3148148148148008E-5</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="52">
+        <v>101</v>
+      </c>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="3">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="U47" s="3">
+        <v>4.8842592592592592E-3</v>
+      </c>
+      <c r="V47" s="3">
+        <f t="shared" si="11"/>
+        <v>2.3148148148148008E-5</v>
+      </c>
+      <c r="W47" s="3">
+        <f>T47-H47</f>
+        <v>2.3148148148148008E-5</v>
+      </c>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="3">
+        <v>7.2337962962962963E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>10</v>
+      </c>
+      <c r="D48" s="3">
+        <v>5.1041666666666666E-3</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5.185185185185185E-3</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="9"/>
+        <v>8.1018518518518462E-5</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5.1273148148148146E-3</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="10"/>
+        <v>2.3148148148148008E-5</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2">
+        <v>105</v>
+      </c>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="3">
+        <v>5.138888888888889E-3</v>
+      </c>
+      <c r="U48" s="3">
+        <v>5.1736111111111115E-3</v>
+      </c>
+      <c r="V48" s="3">
+        <f t="shared" si="11"/>
+        <v>3.4722222222222446E-5</v>
+      </c>
+      <c r="W48" s="3">
+        <f>T48-H48</f>
+        <v>1.1574074074074438E-5</v>
+      </c>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="3">
+        <v>7.2337962962962963E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="52">
+        <v>31</v>
+      </c>
+      <c r="D49" s="3">
+        <v>5.8217592592592592E-3</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6.1111111111111114E-3</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="9"/>
+        <v>2.8935185185185227E-4</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3">
+        <v>6.0648148148148145E-3</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="10"/>
+        <v>2.4305555555555539E-4</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>103</v>
+      </c>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="3">
+        <v>6.076388888888889E-3</v>
+      </c>
+      <c r="U49" s="3">
+        <v>6.0995370370370361E-3</v>
+      </c>
+      <c r="V49" s="3">
+        <f t="shared" si="11"/>
+        <v>2.3148148148147141E-5</v>
+      </c>
+      <c r="W49" s="3">
+        <f>T49-H49</f>
+        <v>1.1574074074074438E-5</v>
+      </c>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="3">
+        <v>7.2337962962962963E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="52">
+        <v>21</v>
+      </c>
+      <c r="D50" s="3">
+        <v>6.4814814814814813E-3</v>
+      </c>
+      <c r="E50" s="3">
+        <v>6.6898148148148142E-3</v>
+      </c>
+      <c r="F50" s="5">
+        <f>E50-D50</f>
+        <v>2.0833333333333294E-4</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3">
+        <v>6.5393518518518517E-3</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="10"/>
+        <v>5.7870370370370454E-5</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>105</v>
+      </c>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="3">
+        <v>6.6550925925925935E-3</v>
+      </c>
+      <c r="U50" s="3">
+        <v>6.6898148148148142E-3</v>
+      </c>
+      <c r="V50" s="3">
+        <f t="shared" si="11"/>
+        <v>3.4722222222220711E-5</v>
+      </c>
+      <c r="W50" s="3">
+        <f>T50-H50</f>
+        <v>1.1574074074074178E-4</v>
+      </c>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="3">
+        <v>7.2337962962962963E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="19">
+        <f>SUM(B42:B50)</f>
+        <v>9</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="21">
+        <f>SUM(F42:F50)</f>
+        <v>2.9398148148148148E-3</v>
+      </c>
+      <c r="G51" s="19">
+        <f>SUM(G42:G50)</f>
+        <v>9</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="20">
+        <f>SUM(I42:I50)</f>
+        <v>5.6712962962962902E-4</v>
+      </c>
+      <c r="J51" s="19">
+        <f>SUM(J42:J50)</f>
+        <v>9</v>
+      </c>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="20">
+        <f>SUM(V42:V50)</f>
+        <v>4.9768518518518347E-4</v>
+      </c>
+      <c r="W51" s="20">
+        <f>SUM(W42:W50)</f>
+        <v>1.8287037037037048E-3</v>
+      </c>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="52">
+        <v>21</v>
+      </c>
+      <c r="D52" s="5">
+        <v>9.8379629629629642E-4</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1.2731481481481483E-3</v>
+      </c>
+      <c r="F52" s="5">
+        <f>E52-D52</f>
+        <v>2.8935185185185184E-4</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1.1921296296296296E-3</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" ref="I52:I80" si="12">H52-D52</f>
+        <v>2.0833333333333316E-4</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2">
+        <v>105</v>
+      </c>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="3">
+        <v>1.2268518518518518E-3</v>
+      </c>
+      <c r="U52" s="3">
+        <v>1.2731481481481483E-3</v>
+      </c>
+      <c r="V52" s="3">
+        <f t="shared" ref="V52:V70" si="13" xml:space="preserve"> U52-T52</f>
+        <v>4.629629629629645E-5</v>
+      </c>
+      <c r="W52" s="3">
+        <f>T52-H52</f>
+        <v>3.4722222222222229E-5</v>
+      </c>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="3">
+        <v>7.5231481481481477E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>32</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1.7708333333333332E-3</v>
+      </c>
+      <c r="E53" s="5">
+        <v>3.1134259259259257E-3</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" ref="F53:F80" si="14">E53-D53</f>
+        <v>1.3425925925925925E-3</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="3">
+        <v>7.5231481481481477E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>11</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2.5231481481481481E-3</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2.615740740740741E-3</v>
+      </c>
+      <c r="F54" s="5">
+        <f t="shared" si="14"/>
+        <v>9.25925925925929E-5</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3">
+        <v>2.5347222222222221E-3</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="12"/>
+        <v>1.1574074074074004E-5</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1</v>
+      </c>
+      <c r="K54" s="52">
+        <v>102</v>
+      </c>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="3">
+        <v>2.5462962962962961E-3</v>
+      </c>
+      <c r="U54" s="3">
+        <v>2.615740740740741E-3</v>
+      </c>
+      <c r="V54" s="3">
+        <f t="shared" si="13"/>
+        <v>6.9444444444444892E-5</v>
+      </c>
+      <c r="W54" s="3">
+        <f>T54-H54</f>
+        <v>1.1574074074074004E-5</v>
+      </c>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="3">
+        <v>7.5231481481481477E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <v>12</v>
+      </c>
+      <c r="D55" s="3">
+        <v>3.1712962962962958E-3</v>
+      </c>
+      <c r="E55" s="3">
+        <v>3.2407407407407406E-3</v>
+      </c>
+      <c r="F55" s="5">
+        <f t="shared" si="14"/>
+        <v>6.9444444444444892E-5</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3">
+        <v>3.1828703703703702E-3</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="12"/>
+        <v>1.1574074074074438E-5</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1</v>
+      </c>
+      <c r="K55" s="2">
+        <v>102</v>
+      </c>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="3">
+        <v>3.1944444444444442E-3</v>
+      </c>
+      <c r="U55" s="3">
+        <v>3.2523148148148151E-3</v>
+      </c>
+      <c r="V55" s="3">
+        <f t="shared" si="13"/>
+        <v>5.7870370370370888E-5</v>
+      </c>
+      <c r="W55" s="3">
+        <f>T55-H55</f>
+        <v>1.1574074074074004E-5</v>
+      </c>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="3">
+        <v>7.5231481481481477E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="52">
+        <v>22</v>
+      </c>
+      <c r="D56" s="3">
+        <v>3.7268518518518514E-3</v>
+      </c>
+      <c r="E56" s="3">
+        <v>4.0277777777777777E-3</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="14"/>
+        <v>3.0092592592592627E-4</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
+      <c r="H56" s="3">
+        <v>3.9814814814814817E-3</v>
+      </c>
+      <c r="I56" s="3">
+        <f t="shared" si="12"/>
+        <v>2.5462962962963026E-4</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2">
+        <v>105</v>
+      </c>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="3">
+        <v>4.0046296296296297E-3</v>
+      </c>
+      <c r="U56" s="3">
+        <v>4.0277777777777777E-3</v>
+      </c>
+      <c r="V56" s="3">
+        <f t="shared" si="13"/>
+        <v>2.3148148148148008E-5</v>
+      </c>
+      <c r="W56" s="3">
+        <f>T56-H56</f>
+        <v>2.3148148148148008E-5</v>
+      </c>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="3">
+        <v>7.5231481481481477E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
+        <v>31</v>
+      </c>
+      <c r="D57" s="3">
+        <v>4.5486111111111109E-3</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4.7222222222222223E-3</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" si="14"/>
+        <v>1.7361111111111136E-4</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3">
+        <v>4.6874999999999998E-3</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="12"/>
+        <v>1.3888888888888892E-4</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="3">
+        <v>4.7106481481481478E-3</v>
+      </c>
+      <c r="U57" s="3">
+        <v>4.7222222222222223E-3</v>
+      </c>
+      <c r="V57" s="3">
+        <f t="shared" si="13"/>
+        <v>1.1574074074074438E-5</v>
+      </c>
+      <c r="W57" s="3">
+        <f>T57-H57</f>
+        <v>2.3148148148148008E-5</v>
+      </c>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="3">
+        <v>7.5231481481481477E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
+        <v>30</v>
+      </c>
+      <c r="D58" s="3">
+        <v>5.3935185185185188E-3</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5.5439814814814822E-3</v>
+      </c>
+      <c r="F58" s="5">
+        <f t="shared" si="14"/>
+        <v>1.5046296296296335E-4</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3">
+        <v>5.4050925925925924E-3</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="12"/>
+        <v>1.157407407407357E-5</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="3">
+        <v>5.4166666666666669E-3</v>
+      </c>
+      <c r="U58" s="3">
+        <v>5.5439814814814822E-3</v>
+      </c>
+      <c r="V58" s="3">
+        <f t="shared" si="13"/>
+        <v>1.2731481481481535E-4</v>
+      </c>
+      <c r="W58" s="3">
+        <f>T58-H58</f>
+        <v>1.1574074074074438E-5</v>
+      </c>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="3">
+        <v>7.5231481481481477E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>10</v>
+      </c>
+      <c r="D59" s="3">
+        <v>5.7986111111111112E-3</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5.9606481481481489E-3</v>
+      </c>
+      <c r="F59" s="5">
+        <f t="shared" si="14"/>
+        <v>1.6203703703703779E-4</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="3">
+        <v>5.8680555555555543E-3</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="12"/>
+        <v>6.9444444444443157E-5</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="3">
+        <v>5.9027777777777776E-3</v>
+      </c>
+      <c r="U59" s="3">
+        <v>5.9375000000000009E-3</v>
+      </c>
+      <c r="V59" s="3">
+        <f t="shared" si="13"/>
+        <v>3.4722222222223313E-5</v>
+      </c>
+      <c r="W59" s="3">
+        <f>T59-H59</f>
+        <v>3.4722222222223313E-5</v>
+      </c>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="3">
+        <v>7.5231481481481477E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2">
+        <v>33</v>
+      </c>
+      <c r="D60" s="3">
+        <v>6.5162037037037037E-3</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6.6782407407407415E-3</v>
+      </c>
+      <c r="F60" s="5">
+        <f t="shared" si="14"/>
+        <v>1.6203703703703779E-4</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3">
+        <v>6.6319444444444446E-3</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="12"/>
+        <v>1.1574074074074091E-4</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2">
+        <v>105</v>
+      </c>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="3">
+        <v>6.6550925925925935E-3</v>
+      </c>
+      <c r="U60" s="3">
+        <v>6.7129629629629622E-3</v>
+      </c>
+      <c r="V60" s="3">
+        <f t="shared" si="13"/>
+        <v>5.7870370370368719E-5</v>
+      </c>
+      <c r="W60" s="3">
+        <f>T60-H60</f>
+        <v>2.3148148148148875E-5</v>
+      </c>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="3">
+        <v>7.5231481481481477E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="19">
+        <f>SUM(B52:B60)</f>
+        <v>9</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="21">
+        <f>SUM(F52:F60)</f>
+        <v>2.7430555555555585E-3</v>
+      </c>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="20">
+        <f>SUM(I52:I60)</f>
+        <v>8.2175925925925841E-4</v>
+      </c>
+      <c r="J61" s="19">
+        <f>SUM(J52:J60)</f>
+        <v>8</v>
+      </c>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="20">
+        <f>SUM(V52:V60)</f>
+        <v>4.2824074074074205E-4</v>
+      </c>
+      <c r="W61" s="20">
+        <f>SUM(W52:W60)</f>
+        <v>1.7361111111111288E-4</v>
+      </c>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="19"/>
+      <c r="Z61" s="19"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>11</v>
+      </c>
+      <c r="D62" s="5">
+        <v>9.9537037037037042E-4</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1.1689814814814816E-3</v>
+      </c>
+      <c r="F62" s="5">
+        <f t="shared" si="14"/>
+        <v>1.7361111111111114E-4</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1.0069444444444444E-3</v>
+      </c>
+      <c r="I62" s="3">
+        <f t="shared" si="12"/>
+        <v>1.1574074074074004E-5</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="52">
+        <v>102</v>
+      </c>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="52"/>
+      <c r="R62" s="52"/>
+      <c r="S62" s="52"/>
+      <c r="T62" s="3">
+        <v>1.0300925925925926E-3</v>
+      </c>
+      <c r="U62" s="3">
+        <v>1.1689814814814816E-3</v>
+      </c>
+      <c r="V62" s="3">
+        <f t="shared" si="13"/>
+        <v>1.3888888888888892E-4</v>
+      </c>
+      <c r="W62" s="3">
+        <f>T62-H62</f>
+        <v>2.3148148148148225E-5</v>
+      </c>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="3">
+        <v>7.3263888888888892E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="52">
+        <v>21</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1.6666666666666668E-3</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1.8865740740740742E-3</v>
+      </c>
+      <c r="F63" s="5">
+        <f t="shared" si="14"/>
+        <v>2.1990740740740738E-4</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1.8402777777777777E-3</v>
+      </c>
+      <c r="I63" s="3">
+        <f t="shared" si="12"/>
+        <v>1.7361111111111093E-4</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="3">
+        <v>1.8518518518518517E-3</v>
+      </c>
+      <c r="U63" s="3">
+        <v>1.8865740740740742E-3</v>
+      </c>
+      <c r="V63" s="3">
+        <f t="shared" si="13"/>
+        <v>3.4722222222222446E-5</v>
+      </c>
+      <c r="W63" s="3">
+        <f>T63-H63</f>
+        <v>1.1574074074074004E-5</v>
+      </c>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="3">
+        <v>7.3263888888888892E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2">
+        <v>32</v>
+      </c>
+      <c r="D64" s="5">
+        <v>2.2453703703703702E-3</v>
+      </c>
+      <c r="E64" s="5">
+        <v>2.5810185185185185E-3</v>
+      </c>
+      <c r="F64" s="5">
+        <f t="shared" si="14"/>
+        <v>3.3564814814814829E-4</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3">
+        <v>2.2916666666666667E-3</v>
+      </c>
+      <c r="I64" s="3">
+        <f t="shared" si="12"/>
+        <v>4.629629629629645E-5</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="3">
+        <v>2.4537037037037036E-3</v>
+      </c>
+      <c r="U64" s="3">
+        <v>2.6388888888888885E-3</v>
+      </c>
+      <c r="V64" s="3">
+        <f t="shared" si="13"/>
+        <v>1.8518518518518493E-4</v>
+      </c>
+      <c r="W64" s="3">
+        <f>T64-H64</f>
+        <v>1.6203703703703692E-4</v>
+      </c>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="3">
+        <v>7.3263888888888892E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
+        <v>31</v>
+      </c>
+      <c r="D65" s="3">
+        <v>3.1249999999999997E-3</v>
+      </c>
+      <c r="E65" s="3">
+        <v>3.5532407407407405E-3</v>
+      </c>
+      <c r="F65" s="5">
+        <f t="shared" si="14"/>
+        <v>4.2824074074074075E-4</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+      <c r="H65" s="3">
+        <v>3.3912037037037036E-3</v>
+      </c>
+      <c r="I65" s="3">
+        <f t="shared" si="12"/>
+        <v>2.6620370370370383E-4</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2">
+        <v>103</v>
+      </c>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="3">
+        <v>3.4027777777777784E-3</v>
+      </c>
+      <c r="U65" s="3">
+        <v>3.5532407407407405E-3</v>
+      </c>
+      <c r="V65" s="3">
+        <f t="shared" si="13"/>
+        <v>1.5046296296296205E-4</v>
+      </c>
+      <c r="W65" s="3">
+        <f>T65-H65</f>
+        <v>1.1574074074074871E-5</v>
+      </c>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="3">
+        <v>7.3263888888888892E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2">
+        <v>12</v>
+      </c>
+      <c r="D66" s="3">
+        <v>3.7731481481481483E-3</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3.8541666666666668E-3</v>
+      </c>
+      <c r="F66" s="5">
+        <f t="shared" si="14"/>
+        <v>8.1018518518518462E-5</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3.7731481481481483E-3</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2">
+        <v>102</v>
+      </c>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="3">
+        <v>3.7962962962962963E-3</v>
+      </c>
+      <c r="U66" s="3">
+        <v>3.8541666666666668E-3</v>
+      </c>
+      <c r="V66" s="3">
+        <f t="shared" si="13"/>
+        <v>5.7870370370370454E-5</v>
+      </c>
+      <c r="W66" s="3">
+        <f>T66-H66</f>
+        <v>2.3148148148148008E-5</v>
+      </c>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="3">
+        <v>7.3263888888888892E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="52">
+        <v>22</v>
+      </c>
+      <c r="D67" s="3">
+        <v>4.340277777777778E-3</v>
+      </c>
+      <c r="E67" s="3">
+        <v>4.5833333333333334E-3</v>
+      </c>
+      <c r="F67" s="5">
+        <f t="shared" si="14"/>
+        <v>2.4305555555555539E-4</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3">
+        <v>4.5254629629629629E-3</v>
+      </c>
+      <c r="I67" s="3">
+        <f t="shared" si="12"/>
+        <v>1.8518518518518493E-4</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="52">
+        <v>100</v>
+      </c>
+      <c r="L67" s="52"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="52"/>
+      <c r="O67" s="52"/>
+      <c r="P67" s="52"/>
+      <c r="Q67" s="52"/>
+      <c r="R67" s="52"/>
+      <c r="S67" s="52"/>
+      <c r="T67" s="3">
+        <v>4.5486111111111109E-3</v>
+      </c>
+      <c r="U67" s="3">
+        <v>4.5833333333333334E-3</v>
+      </c>
+      <c r="V67" s="3">
+        <f t="shared" si="13"/>
+        <v>3.4722222222222446E-5</v>
+      </c>
+      <c r="W67" s="3">
+        <f>T67-H67</f>
+        <v>2.3148148148148008E-5</v>
+      </c>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="3">
+        <v>7.3263888888888892E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
+        <v>33</v>
+      </c>
+      <c r="D68" s="3">
+        <v>5.7060185185185191E-3</v>
+      </c>
+      <c r="E68" s="3">
+        <v>6.3541666666666668E-3</v>
+      </c>
+      <c r="F68" s="5">
+        <f t="shared" si="14"/>
+        <v>6.481481481481477E-4</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+      <c r="H68" s="3">
+        <v>5.9837962962962961E-3</v>
+      </c>
+      <c r="I68" s="3">
+        <f>H68-D68</f>
+        <v>2.7777777777777696E-4</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="3">
+        <v>6.053240740740741E-3</v>
+      </c>
+      <c r="U68" s="3">
+        <v>6.3657407407407404E-3</v>
+      </c>
+      <c r="V68" s="3">
+        <f t="shared" si="13"/>
+        <v>3.1249999999999941E-4</v>
+      </c>
+      <c r="W68" s="3">
+        <f>T68-H68</f>
+        <v>6.9444444444444892E-5</v>
+      </c>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="3">
+        <v>7.3263888888888892E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2">
+        <v>30</v>
+      </c>
+      <c r="D69" s="3">
+        <v>6.2731481481481484E-3</v>
+      </c>
+      <c r="E69" s="3">
+        <v>7.0023148148148154E-3</v>
+      </c>
+      <c r="F69" s="5">
+        <f t="shared" si="14"/>
+        <v>7.2916666666666703E-4</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3">
+        <v>6.3425925925925915E-3</v>
+      </c>
+      <c r="I69" s="3">
+        <f t="shared" si="12"/>
+        <v>6.9444444444443157E-5</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" s="2">
+        <v>103</v>
+      </c>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="3">
+        <v>6.9212962962962969E-3</v>
+      </c>
+      <c r="U69" s="3">
+        <v>7.106481481481481E-3</v>
+      </c>
+      <c r="V69" s="3">
+        <f t="shared" si="13"/>
+        <v>1.8518518518518406E-4</v>
+      </c>
+      <c r="W69" s="3">
+        <f>T69-H69</f>
+        <v>5.7870370370370541E-4</v>
+      </c>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="3">
+        <v>7.3263888888888892E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>10</v>
+      </c>
+      <c r="D70" s="3">
+        <v>6.5740740740740733E-3</v>
+      </c>
+      <c r="E70" s="3">
+        <v>6.7245370370370367E-3</v>
+      </c>
+      <c r="F70" s="5">
+        <f t="shared" si="14"/>
+        <v>1.5046296296296335E-4</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3">
+        <v>6.5972222222222222E-3</v>
+      </c>
+      <c r="I70" s="3">
+        <f t="shared" si="12"/>
+        <v>2.3148148148148875E-5</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="3">
+        <v>6.6782407407407415E-3</v>
+      </c>
+      <c r="U70" s="3">
+        <v>6.7245370370370367E-3</v>
+      </c>
+      <c r="V70" s="3">
+        <f t="shared" si="13"/>
+        <v>4.6296296296295149E-5</v>
+      </c>
+      <c r="W70" s="3">
+        <f>T70-H70</f>
+        <v>8.1018518518519329E-5</v>
+      </c>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="3">
+        <v>7.3263888888888892E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="19">
+        <f>SUM(B62:B70)</f>
+        <v>9</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="21">
+        <f>SUM(F62:F70)</f>
+        <v>3.0092592592592593E-3</v>
+      </c>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="20">
+        <f>SUM(I62:I70)</f>
+        <v>1.0532407407407391E-3</v>
+      </c>
+      <c r="J71" s="19">
+        <f>SUM(J62:J70)</f>
+        <v>9</v>
+      </c>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="19"/>
+      <c r="V71" s="20">
+        <f>SUM(V62:V70)</f>
+        <v>1.1458333333333299E-3</v>
+      </c>
+      <c r="W71" s="20">
+        <f>SUM(W62:W70)</f>
+        <v>9.8379629629629967E-4</v>
+      </c>
+      <c r="X71" s="19"/>
+      <c r="Y71" s="19"/>
+      <c r="Z71" s="19"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>10</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1.9560185185185184E-3</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2.1064814814814813E-3</v>
+      </c>
+      <c r="F72" s="5">
+        <f t="shared" si="14"/>
+        <v>1.5046296296296292E-4</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1.9907407407407408E-3</v>
+      </c>
+      <c r="I72" s="3">
+        <f t="shared" si="12"/>
+        <v>3.4722222222222446E-5</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="52">
+        <v>100</v>
+      </c>
+      <c r="L72" s="52"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="52"/>
+      <c r="O72" s="52"/>
+      <c r="P72" s="52"/>
+      <c r="Q72" s="52"/>
+      <c r="R72" s="52"/>
+      <c r="S72" s="52"/>
+      <c r="T72" s="3">
+        <v>1.9907407407407408E-3</v>
+      </c>
+      <c r="U72" s="3">
+        <v>2.1064814814814813E-3</v>
+      </c>
+      <c r="V72" s="3">
+        <f t="shared" ref="V72:V77" si="15" xml:space="preserve"> U72-T72</f>
+        <v>1.1574074074074047E-4</v>
+      </c>
+      <c r="W72" s="3">
+        <f>T72-H72</f>
+        <v>0</v>
+      </c>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="3">
+        <v>7.5578703703703702E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>32</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1.689814814814815E-3</v>
+      </c>
+      <c r="E73" s="3">
+        <v>2.0023148148148148E-3</v>
+      </c>
+      <c r="F73" s="5">
+        <f t="shared" si="14"/>
+        <v>3.1249999999999984E-4</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1.8981481481481482E-3</v>
+      </c>
+      <c r="I73" s="3">
+        <f t="shared" si="12"/>
+        <v>2.0833333333333316E-4</v>
+      </c>
+      <c r="J73" s="2">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2">
+        <v>104</v>
+      </c>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="3">
+        <v>1.9097222222222222E-3</v>
+      </c>
+      <c r="U73" s="3">
+        <v>2.0023148148148148E-3</v>
+      </c>
+      <c r="V73" s="3">
+        <f t="shared" si="15"/>
+        <v>9.2592592592592683E-5</v>
+      </c>
+      <c r="W73" s="3">
+        <f>T73-H73</f>
+        <v>1.1574074074074004E-5</v>
+      </c>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="3">
+        <v>7.5578703703703702E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
+        <v>30</v>
+      </c>
+      <c r="D74" s="3">
+        <v>2.3842592592592591E-3</v>
+      </c>
+      <c r="E74" s="3">
+        <v>3.0671296296296297E-3</v>
+      </c>
+      <c r="F74" s="5">
+        <f t="shared" si="14"/>
+        <v>6.8287037037037058E-4</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1</v>
+      </c>
+      <c r="H74" s="3">
+        <v>2.5115740740740741E-3</v>
+      </c>
+      <c r="I74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.2731481481481491E-4</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="3">
+        <v>7.5578703703703702E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2">
+        <v>33</v>
+      </c>
+      <c r="D75" s="3">
+        <v>3.2060185185185191E-3</v>
+      </c>
+      <c r="E75" s="3">
+        <v>3.5995370370370369E-3</v>
+      </c>
+      <c r="F75" s="5">
+        <f t="shared" si="14"/>
+        <v>3.9351851851851787E-4</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1</v>
+      </c>
+      <c r="H75" s="3">
+        <v>3.2986111111111111E-3</v>
+      </c>
+      <c r="I75" s="3">
+        <f t="shared" si="12"/>
+        <v>9.2592592592592032E-5</v>
+      </c>
+      <c r="J75" s="2">
+        <v>1</v>
+      </c>
+      <c r="K75" s="2">
+        <v>103</v>
+      </c>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="3">
+        <v>3.3101851851851851E-3</v>
+      </c>
+      <c r="U75" s="3">
+        <v>3.5995370370370369E-3</v>
+      </c>
+      <c r="V75" s="3">
+        <f t="shared" si="15"/>
+        <v>2.8935185185185184E-4</v>
+      </c>
+      <c r="W75" s="3">
+        <f>T75-H75</f>
+        <v>1.1574074074074004E-5</v>
+      </c>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="3">
+        <v>7.5578703703703702E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>11</v>
+      </c>
+      <c r="D76" s="3">
+        <v>3.6805555555555554E-3</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3.9351851851851857E-3</v>
+      </c>
+      <c r="F76" s="5">
+        <f t="shared" si="14"/>
+        <v>2.5462962962963026E-4</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1</v>
+      </c>
+      <c r="H76" s="3">
+        <v>3.6921296296296298E-3</v>
+      </c>
+      <c r="I76" s="3">
+        <f t="shared" si="12"/>
+        <v>1.1574074074074438E-5</v>
+      </c>
+      <c r="J76" s="2">
+        <v>1</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="3">
+        <v>3.7037037037037034E-3</v>
+      </c>
+      <c r="U76" s="3">
+        <v>3.9004629629629632E-3</v>
+      </c>
+      <c r="V76" s="3">
+        <f t="shared" si="15"/>
+        <v>1.967592592592598E-4</v>
+      </c>
+      <c r="W76" s="3">
+        <f>T76-H76</f>
+        <v>1.157407407407357E-5</v>
+      </c>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="3">
+        <v>7.5578703703703702E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="C77" s="52">
+        <v>21</v>
+      </c>
+      <c r="D77" s="3">
+        <v>4.386574074074074E-3</v>
+      </c>
+      <c r="E77" s="3">
+        <v>4.6759259259259263E-3</v>
+      </c>
+      <c r="F77" s="5">
+        <f t="shared" si="14"/>
+        <v>2.8935185185185227E-4</v>
+      </c>
+      <c r="G77" s="2">
+        <v>1</v>
+      </c>
+      <c r="H77" s="3">
+        <v>4.5833333333333334E-3</v>
+      </c>
+      <c r="I77" s="3">
+        <f t="shared" si="12"/>
+        <v>1.9675925925925937E-4</v>
+      </c>
+      <c r="J77" s="2">
+        <v>1</v>
+      </c>
+      <c r="K77" s="2">
+        <v>105</v>
+      </c>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="3">
+        <v>4.6412037037037038E-3</v>
+      </c>
+      <c r="U77" s="3">
+        <v>4.6759259259259263E-3</v>
+      </c>
+      <c r="V77" s="3">
+        <f t="shared" si="15"/>
+        <v>3.4722222222222446E-5</v>
+      </c>
+      <c r="W77" s="3">
+        <f>T77-H77</f>
+        <v>5.7870370370370454E-5</v>
+      </c>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="3">
+        <v>7.5578703703703702E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="C78" s="52">
+        <v>22</v>
+      </c>
+      <c r="D78" s="3">
+        <v>5.8333333333333336E-3</v>
+      </c>
+      <c r="E78" s="3">
+        <v>6.076388888888889E-3</v>
+      </c>
+      <c r="F78" s="5">
+        <f t="shared" si="14"/>
+        <v>2.4305555555555539E-4</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3">
+        <v>5.8564814814814825E-3</v>
+      </c>
+      <c r="I78" s="3">
+        <f t="shared" si="12"/>
+        <v>2.3148148148148875E-5</v>
+      </c>
+      <c r="J78" s="2">
+        <v>1</v>
+      </c>
+      <c r="K78" s="2">
+        <v>104</v>
+      </c>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="3">
+        <v>5.8564814814814825E-3</v>
+      </c>
+      <c r="U78" s="3">
+        <v>6.076388888888889E-3</v>
+      </c>
+      <c r="V78" s="3">
+        <f xml:space="preserve"> U78-T78</f>
+        <v>2.1990740740740651E-4</v>
+      </c>
+      <c r="W78" s="3">
+        <f>T78-H78</f>
+        <v>0</v>
+      </c>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="3">
+        <v>7.5578703703703702E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <v>31</v>
+      </c>
+      <c r="D79" s="3">
+        <v>5.7986111111111112E-3</v>
+      </c>
+      <c r="E79" s="3">
+        <v>6.2037037037037043E-3</v>
+      </c>
+      <c r="F79" s="5">
+        <f t="shared" si="14"/>
+        <v>4.0509259259259318E-4</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1</v>
+      </c>
+      <c r="H79" s="3">
+        <v>6.145833333333333E-3</v>
+      </c>
+      <c r="I79" s="3">
+        <f t="shared" si="12"/>
+        <v>3.4722222222222186E-4</v>
+      </c>
+      <c r="J79" s="2">
+        <v>1</v>
+      </c>
+      <c r="K79" s="2">
+        <v>105</v>
+      </c>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="3">
+        <v>6.1574074074074074E-3</v>
+      </c>
+      <c r="U79" s="3">
+        <v>6.2037037037037043E-3</v>
+      </c>
+      <c r="V79" s="3">
+        <f xml:space="preserve"> U79-T79</f>
+        <v>4.6296296296296884E-5</v>
+      </c>
+      <c r="W79" s="3">
+        <f>T79-H79</f>
+        <v>1.1574074074074438E-5</v>
+      </c>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="3">
+        <v>7.5578703703703702E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2">
+        <v>12</v>
+      </c>
+      <c r="D80" s="3">
+        <v>7.1412037037037043E-3</v>
+      </c>
+      <c r="E80" s="3">
+        <v>7.2453703703703708E-3</v>
+      </c>
+      <c r="F80" s="5">
+        <f t="shared" si="14"/>
+        <v>1.0416666666666647E-4</v>
+      </c>
+      <c r="G80" s="2">
+        <v>1</v>
+      </c>
+      <c r="H80" s="3">
+        <v>7.1643518518518514E-3</v>
+      </c>
+      <c r="I80" s="3">
+        <f t="shared" si="12"/>
+        <v>2.3148148148147141E-5</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="3">
+        <v>7.1990740740740739E-3</v>
+      </c>
+      <c r="U80" s="3">
+        <v>7.2453703703703708E-3</v>
+      </c>
+      <c r="V80" s="3">
+        <f xml:space="preserve"> U80-T80</f>
+        <v>4.6296296296296884E-5</v>
+      </c>
+      <c r="W80" s="3">
+        <f>T80-H80</f>
+        <v>3.4722222222222446E-5</v>
+      </c>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="3">
+        <v>7.5578703703703702E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" s="19">
+        <f>SUM(B72:B80)</f>
+        <v>9</v>
+      </c>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="21">
+        <f>SUM(F72:F80)</f>
+        <v>2.8356481481481488E-3</v>
+      </c>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="20">
+        <f>SUM(I72:I80)</f>
+        <v>1.0648148148148142E-3</v>
+      </c>
+      <c r="J81" s="19">
+        <f>SUM(J72:J80)</f>
+        <v>8</v>
+      </c>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
+      <c r="S81" s="19"/>
+      <c r="T81" s="19"/>
+      <c r="U81" s="19"/>
+      <c r="V81" s="20">
+        <f>SUM(V72:V80)</f>
+        <v>1.0416666666666675E-3</v>
+      </c>
+      <c r="W81" s="20">
+        <f>SUM(W72:W80)</f>
+        <v>1.3888888888888892E-4</v>
+      </c>
+      <c r="X81" s="19"/>
+      <c r="Y81" s="19"/>
+      <c r="Z81" s="19"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+    </row>
+    <row r="83" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15"/>
+      <c r="S89" s="15"/>
+      <c r="T89" s="15"/>
+      <c r="U89" s="15"/>
+      <c r="V89" s="15"/>
+      <c r="W89" s="15"/>
+      <c r="X89" s="15"/>
+      <c r="Y89" s="15"/>
+      <c r="Z89" s="15"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D00FF1-E49A-4AE2-A2F4-707024AC9741}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B5" s="36"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B6" s="36"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>75</v>
       </c>

--- a/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
+++ b/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empshiwi\Documents\GitHub\Mandy-PhD\studies\2020_Aperol_Git\Coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\studies\2020_Aperol_Git\Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77064F62-8F9C-4EFD-A0C4-5B8A5897C98A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BEAB99-C192-4C81-97B9-9D6657961261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8775" activeTab="2" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" activeTab="1" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
   </bookViews>
   <sheets>
     <sheet name="coding scheme" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="191">
   <si>
     <t>onset</t>
   </si>
@@ -585,9 +585,6 @@
     <t>reaction04 offset</t>
   </si>
   <si>
-    <t>103, 104</t>
-  </si>
-  <si>
     <t>102, zubewegen</t>
   </si>
   <si>
@@ -604,6 +601,21 @@
   </si>
   <si>
     <t xml:space="preserve">103, 102 </t>
+  </si>
+  <si>
+    <t>reaction02 onset</t>
+  </si>
+  <si>
+    <t>gesture</t>
+  </si>
+  <si>
+    <t>gaze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moving towards disturbing person </t>
+  </si>
+  <si>
+    <t>the reaction "gaze" is considered as "gaze" when the tracher interrupts the lesson and focuses on the disturbing person</t>
   </si>
 </sst>
 </file>
@@ -782,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -951,6 +963,28 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1267,30 +1301,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A75A8A-F741-4C3F-9138-10D56EF9D568}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="50.109375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
     <col min="8" max="8" width="19" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="30" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="11.5703125" style="30"/>
-    <col min="15" max="15" width="14.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11.5546875" style="30"/>
+    <col min="15" max="15" width="14.5546875" style="30" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.5703125" style="30"/>
+    <col min="17" max="16384" width="11.5546875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>49</v>
       </c>
@@ -1304,13 +1338,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>15</v>
       </c>
@@ -1324,13 +1358,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:5" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>123</v>
       </c>
@@ -1343,7 +1377,7 @@
       </c>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>60</v>
       </c>
@@ -1357,7 +1391,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>61</v>
       </c>
@@ -1371,7 +1405,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>62</v>
       </c>
@@ -1385,7 +1419,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>63</v>
       </c>
@@ -1399,7 +1433,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="73.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>58</v>
       </c>
@@ -1413,7 +1447,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>20</v>
       </c>
@@ -1427,7 +1461,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="118.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>18</v>
       </c>
@@ -1441,7 +1475,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>9</v>
       </c>
@@ -1455,7 +1489,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>59</v>
       </c>
@@ -1469,7 +1503,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>21</v>
       </c>
@@ -1483,7 +1517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>17</v>
       </c>
@@ -1497,7 +1531,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>69</v>
       </c>
@@ -1511,7 +1545,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>29</v>
       </c>
@@ -1525,13 +1559,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>47</v>
       </c>
@@ -1545,13 +1579,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>43</v>
       </c>
@@ -1565,13 +1599,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>2</v>
       </c>
@@ -1585,13 +1619,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>120</v>
       </c>
@@ -1605,13 +1639,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>113</v>
       </c>
@@ -1625,13 +1659,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>4</v>
       </c>
@@ -1645,13 +1679,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
     </row>
-    <row r="32" spans="1:4" ht="139.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="139.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>114</v>
       </c>
@@ -1663,7 +1697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="51" t="s">
         <v>121</v>
       </c>
@@ -1677,7 +1711,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="53" t="s">
         <v>132</v>
       </c>
@@ -1691,7 +1725,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="53" t="s">
         <v>134</v>
       </c>
@@ -1705,7 +1739,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="53" t="s">
         <v>143</v>
       </c>
@@ -1719,7 +1753,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="53" t="s">
         <v>140</v>
       </c>
@@ -1733,7 +1767,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="53" t="s">
         <v>144</v>
       </c>
@@ -1747,7 +1781,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="53" t="s">
         <v>156</v>
       </c>
@@ -1761,7 +1795,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="51" t="s">
         <v>122</v>
       </c>
@@ -1775,37 +1809,45 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
+    <row r="41" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="54" t="s">
+        <v>187</v>
+      </c>
       <c r="B41" s="55">
         <v>200</v>
       </c>
       <c r="C41" s="56"/>
       <c r="D41" s="56"/>
     </row>
-    <row r="42" spans="1:4" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
+    <row r="42" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="54" t="s">
+        <v>188</v>
+      </c>
       <c r="B42" s="55">
         <v>201</v>
       </c>
-      <c r="C42" s="56"/>
+      <c r="C42" s="56" t="s">
+        <v>190</v>
+      </c>
       <c r="D42" s="56"/>
     </row>
-    <row r="43" spans="1:4" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
+    <row r="43" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="54" t="s">
+        <v>189</v>
+      </c>
       <c r="B43" s="55">
         <v>202</v>
       </c>
       <c r="C43" s="56"/>
       <c r="D43" s="56"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
       <c r="C44" s="32"/>
       <c r="D44" s="32"/>
     </row>
-    <row r="45" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>44</v>
       </c>
@@ -1819,13 +1861,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="31"/>
       <c r="B46" s="31"/>
       <c r="C46" s="32"/>
       <c r="D46" s="32"/>
     </row>
-    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
         <v>45</v>
       </c>
@@ -1839,7 +1881,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
         <v>67</v>
       </c>
@@ -1850,17 +1892,17 @@
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
         <v>115</v>
       </c>
       <c r="B53" s="42"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
     </row>
-    <row r="55" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="37" t="s">
         <v>98</v>
       </c>
@@ -1868,22 +1910,22 @@
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="36" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="36" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="36" t="s">
         <v>97</v>
       </c>
@@ -1898,38 +1940,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DD2F59-5577-4BF1-9B09-7232E83E7D11}">
   <dimension ref="A1:W89"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="17.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="17.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="1" customWidth="1"/>
-    <col min="20" max="20" width="21.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5703125" style="1"/>
+    <col min="20" max="20" width="21.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.88671875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -2000,7 +2042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -2061,7 +2103,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2088,7 +2130,7 @@
         <v>1.712962962962963E-3</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I10" si="2">H3-D3</f>
+        <f t="shared" ref="I3:I9" si="2">H3-D3</f>
         <v>8.1018518518518462E-5</v>
       </c>
       <c r="J3" s="2">
@@ -2122,7 +2164,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -2183,7 +2225,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -2244,7 +2286,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2305,7 +2347,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2366,7 +2408,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2427,7 +2469,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2488,7 +2530,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -2549,7 +2591,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>36</v>
       </c>
@@ -2597,7 +2639,7 @@
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -2658,7 +2700,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -2719,7 +2761,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -2780,7 +2822,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -2838,7 +2880,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -2899,7 +2941,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -2960,7 +3002,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
@@ -3021,7 +3063,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -3082,7 +3124,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -3143,7 +3185,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>36</v>
       </c>
@@ -3191,7 +3233,7 @@
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -3252,7 +3294,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3313,7 +3355,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -3374,7 +3416,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -3435,7 +3477,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -3496,7 +3538,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -3557,7 +3599,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -3618,7 +3660,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -3679,7 +3721,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -3740,7 +3782,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>36</v>
       </c>
@@ -3788,7 +3830,7 @@
       <c r="V31" s="19"/>
       <c r="W31" s="19"/>
     </row>
-    <row r="32" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -3849,7 +3891,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -3910,7 +3952,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
@@ -3971,7 +4013,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>25</v>
       </c>
@@ -4032,7 +4074,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>25</v>
       </c>
@@ -4093,7 +4135,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
@@ -4154,7 +4196,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
@@ -4215,7 +4257,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
@@ -4276,7 +4318,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>25</v>
       </c>
@@ -4337,7 +4379,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>37</v>
       </c>
@@ -4385,7 +4427,7 @@
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>28</v>
       </c>
@@ -4446,7 +4488,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
@@ -4507,7 +4549,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
@@ -4568,7 +4610,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>28</v>
       </c>
@@ -4629,7 +4671,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>28</v>
       </c>
@@ -4690,7 +4732,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -4751,7 +4793,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>28</v>
       </c>
@@ -4812,7 +4854,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>28</v>
       </c>
@@ -4873,7 +4915,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>28</v>
       </c>
@@ -4934,7 +4976,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>36</v>
       </c>
@@ -4982,7 +5024,7 @@
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>30</v>
       </c>
@@ -5043,7 +5085,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>30</v>
       </c>
@@ -5101,7 +5143,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>30</v>
       </c>
@@ -5162,7 +5204,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>30</v>
       </c>
@@ -5223,7 +5265,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>30</v>
       </c>
@@ -5284,7 +5326,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>30</v>
       </c>
@@ -5345,7 +5387,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>30</v>
       </c>
@@ -5406,7 +5448,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>30</v>
       </c>
@@ -5467,7 +5509,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
@@ -5528,7 +5570,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>37</v>
       </c>
@@ -5573,7 +5615,7 @@
       <c r="V61" s="19"/>
       <c r="W61" s="19"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>34</v>
       </c>
@@ -5634,7 +5676,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>34</v>
       </c>
@@ -5695,7 +5737,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>34</v>
       </c>
@@ -5756,7 +5798,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>34</v>
       </c>
@@ -5817,7 +5859,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>34</v>
       </c>
@@ -5878,7 +5920,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>34</v>
       </c>
@@ -5939,7 +5981,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>34</v>
       </c>
@@ -6000,7 +6042,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>34</v>
       </c>
@@ -6061,7 +6103,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>34</v>
       </c>
@@ -6122,7 +6164,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
         <v>36</v>
       </c>
@@ -6167,7 +6209,7 @@
       <c r="V71" s="19"/>
       <c r="W71" s="19"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>39</v>
       </c>
@@ -6228,7 +6270,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>39</v>
       </c>
@@ -6289,7 +6331,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>39</v>
       </c>
@@ -6348,7 +6390,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>39</v>
       </c>
@@ -6409,7 +6451,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>39</v>
       </c>
@@ -6470,7 +6512,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>39</v>
       </c>
@@ -6531,7 +6573,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>39</v>
       </c>
@@ -6592,7 +6634,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>39</v>
       </c>
@@ -6653,7 +6695,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>39</v>
       </c>
@@ -6714,7 +6756,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
         <v>36</v>
       </c>
@@ -6759,12 +6801,12 @@
       <c r="V81" s="19"/>
       <c r="W81" s="19"/>
     </row>
-    <row r="83" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6773,31 +6815,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF1EB2F-341F-4B62-8B6D-176AFC8A6257}">
-  <dimension ref="A1:Z103"/>
+  <dimension ref="A1:AA103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" customWidth="1"/>
-    <col min="22" max="22" width="17" customWidth="1"/>
-    <col min="23" max="23" width="20.28515625" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" customWidth="1"/>
-    <col min="26" max="26" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16" style="65" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.33203125" customWidth="1"/>
+    <col min="22" max="22" width="18.109375" customWidth="1"/>
+    <col min="23" max="23" width="17" customWidth="1"/>
+    <col min="24" max="24" width="20.33203125" customWidth="1"/>
+    <col min="25" max="25" width="16.6640625" customWidth="1"/>
+    <col min="27" max="27" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -6837,47 +6882,50 @@
       <c r="M1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="59" t="s">
         <v>164</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -6894,7 +6942,7 @@
         <v>9.4907407407407408E-4</v>
       </c>
       <c r="F2" s="5">
-        <f>E2-D2</f>
+        <f t="shared" ref="F2:F10" si="0">E2-D2</f>
         <v>8.101851851851857E-5</v>
       </c>
       <c r="G2" s="2">
@@ -6919,33 +6967,34 @@
       <c r="M2" s="57">
         <v>9.7222222222222209E-4</v>
       </c>
-      <c r="N2" s="57"/>
+      <c r="N2" s="60"/>
       <c r="O2" s="57"/>
       <c r="P2" s="57"/>
       <c r="Q2" s="57"/>
       <c r="R2" s="57"/>
       <c r="S2" s="57"/>
-      <c r="T2" s="3">
+      <c r="T2" s="57"/>
+      <c r="U2" s="3">
         <v>9.1435185185185185E-4</v>
       </c>
-      <c r="U2" s="3">
+      <c r="V2" s="3">
         <v>9.7222222222222209E-4</v>
       </c>
-      <c r="V2" s="3">
-        <f t="shared" ref="V2:V10" si="0" xml:space="preserve"> U2-T2</f>
+      <c r="W2" s="3">
+        <f t="shared" ref="W2:W10" si="1" xml:space="preserve"> V2-U2</f>
         <v>5.7870370370370237E-5</v>
       </c>
-      <c r="W2" s="3">
-        <f>T2-H2</f>
+      <c r="X2" s="3">
+        <f t="shared" ref="X2:X10" si="2">U2-H2</f>
         <v>2.3148148148148225E-5</v>
       </c>
-      <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="3">
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -6962,7 +7011,7 @@
         <v>2.0254629629629629E-3</v>
       </c>
       <c r="F3" s="5">
-        <f>E3-D3</f>
+        <f t="shared" si="0"/>
         <v>3.9351851851851831E-4</v>
       </c>
       <c r="G3" s="2">
@@ -6978,8 +7027,8 @@
       <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>180</v>
+      <c r="K3" s="2">
+        <v>103</v>
       </c>
       <c r="L3" s="5">
         <v>1.712962962962963E-3</v>
@@ -6987,37 +7036,40 @@
       <c r="M3" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="58">
+        <v>104</v>
+      </c>
+      <c r="O3" s="5">
         <v>1.7245370370370372E-3</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>2.0138888888888888E-3</v>
       </c>
-      <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
-      <c r="T3" s="3">
+      <c r="T3" s="5"/>
+      <c r="U3" s="3">
         <v>1.712962962962963E-3</v>
       </c>
-      <c r="U3" s="3">
+      <c r="V3" s="3">
         <v>2.0138888888888888E-3</v>
       </c>
-      <c r="V3" s="3">
-        <f t="shared" si="0"/>
+      <c r="W3" s="3">
+        <f t="shared" si="1"/>
         <v>3.0092592592592584E-4</v>
       </c>
-      <c r="W3" s="3">
-        <f>T3-H3</f>
+      <c r="X3" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="3">
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -7034,7 +7086,7 @@
         <v>2.8819444444444444E-3</v>
       </c>
       <c r="F4" s="11">
-        <f>E4-D4</f>
+        <f t="shared" si="0"/>
         <v>1.0416666666666647E-4</v>
       </c>
       <c r="G4" s="10">
@@ -7044,14 +7096,14 @@
         <v>2.8472222222222219E-3</v>
       </c>
       <c r="I4" s="12">
-        <f t="shared" ref="I3:I9" si="1">H4-D4</f>
+        <f t="shared" ref="I4:I9" si="3">H4-D4</f>
         <v>6.9444444444444024E-5</v>
       </c>
       <c r="J4" s="10">
         <v>1</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>147</v>
+      <c r="K4" s="2">
+        <v>103</v>
       </c>
       <c r="L4" s="5">
         <v>2.8587962962962963E-3</v>
@@ -7059,37 +7111,40 @@
       <c r="M4" s="5">
         <v>2.8587962962962963E-3</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="58">
+        <v>104</v>
+      </c>
+      <c r="O4" s="5">
         <v>2.8587962962962963E-3</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>2.9282407407407412E-3</v>
       </c>
-      <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="12">
+      <c r="T4" s="5"/>
+      <c r="U4" s="12">
         <v>2.8587962962962963E-3</v>
       </c>
-      <c r="U4" s="12">
+      <c r="V4" s="12">
         <v>2.9282407407407412E-3</v>
       </c>
-      <c r="V4" s="12">
-        <f t="shared" si="0"/>
+      <c r="W4" s="12">
+        <f t="shared" si="1"/>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="W4" s="12">
-        <f>T4-H4</f>
+      <c r="X4" s="12">
+        <f t="shared" si="2"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
-      <c r="Z4" s="12">
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="12">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -7106,7 +7161,7 @@
         <v>4.1203703703703706E-3</v>
       </c>
       <c r="F5" s="5">
-        <f>E5-D5</f>
+        <f t="shared" si="0"/>
         <v>8.6805555555555551E-4</v>
       </c>
       <c r="G5" s="2">
@@ -7116,7 +7171,7 @@
         <v>3.3217592592592591E-3</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.9444444444444024E-5</v>
       </c>
       <c r="J5" s="2">
@@ -7131,39 +7186,42 @@
       <c r="M5" s="5">
         <v>4.108796296296297E-3</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="58">
+        <v>104</v>
+      </c>
+      <c r="O5" s="5">
         <v>4.108796296296297E-3</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>4.2245370370370371E-3</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="3">
+      <c r="T5" s="5"/>
+      <c r="U5" s="3">
         <v>4.108796296296297E-3</v>
       </c>
-      <c r="U5" s="3">
+      <c r="V5" s="3">
         <v>4.2245370370370371E-3</v>
       </c>
-      <c r="V5" s="3">
-        <f t="shared" si="0"/>
+      <c r="W5" s="3">
+        <f t="shared" si="1"/>
         <v>1.1574074074074004E-4</v>
       </c>
-      <c r="W5" s="3">
-        <f>T5-H5</f>
+      <c r="X5" s="3">
+        <f t="shared" si="2"/>
         <v>7.8703703703703791E-4</v>
       </c>
-      <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="3">
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -7180,7 +7238,7 @@
         <v>4.0393518518518521E-3</v>
       </c>
       <c r="F6" s="5">
-        <f>E6-D6</f>
+        <f t="shared" si="0"/>
         <v>1.1574074074074438E-5</v>
       </c>
       <c r="G6" s="2">
@@ -7190,14 +7248,14 @@
         <v>4.0277777777777777E-3</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" s="52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L6" s="57">
         <v>4.0393518518518521E-3</v>
@@ -7205,33 +7263,34 @@
       <c r="M6" s="57">
         <v>4.0509259259259257E-3</v>
       </c>
-      <c r="N6" s="57"/>
+      <c r="N6" s="60"/>
       <c r="O6" s="57"/>
       <c r="P6" s="57"/>
       <c r="Q6" s="57"/>
       <c r="R6" s="57"/>
       <c r="S6" s="57"/>
-      <c r="T6" s="3">
+      <c r="T6" s="57"/>
+      <c r="U6" s="3">
         <v>4.0393518518518521E-3</v>
       </c>
-      <c r="U6" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="V6" s="3" t="e">
-        <f xml:space="preserve"> U6-T6</f>
+      <c r="V6" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="W6" s="3" t="e">
+        <f xml:space="preserve"> V6-U6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W6" s="3">
-        <f>T6-H6</f>
+      <c r="X6" s="3">
+        <f t="shared" si="2"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="3">
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -7248,7 +7307,7 @@
         <v>4.5717592592592589E-3</v>
       </c>
       <c r="F7" s="5">
-        <f>E7-D7</f>
+        <f t="shared" si="0"/>
         <v>2.5462962962962896E-4</v>
       </c>
       <c r="G7" s="2">
@@ -7258,14 +7317,14 @@
         <v>4.4675925925925933E-3</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5046296296296335E-4</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L7" s="5">
         <v>4.5254629629629629E-3</v>
@@ -7273,41 +7332,42 @@
       <c r="M7" s="5">
         <v>4.5370370370370365E-3</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="58"/>
+      <c r="O7" s="5">
         <v>4.5254629629629629E-3</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>4.5370370370370365E-3</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <v>4.5486111111111109E-3</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="5">
         <v>4.5717592592592589E-3</v>
       </c>
-      <c r="R7" s="5"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="3">
+      <c r="T7" s="5"/>
+      <c r="U7" s="3">
         <v>4.5254629629629629E-3</v>
       </c>
-      <c r="U7" s="3">
+      <c r="V7" s="3">
         <v>4.5717592592592589E-3</v>
       </c>
-      <c r="V7" s="3">
-        <f t="shared" si="0"/>
+      <c r="W7" s="3">
+        <f t="shared" si="1"/>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="W7" s="3">
-        <f>T7-H7</f>
+      <c r="X7" s="3">
+        <f t="shared" si="2"/>
         <v>5.7870370370369587E-5</v>
       </c>
-      <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="3">
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -7324,7 +7384,7 @@
         <v>5.3009259259259251E-3</v>
       </c>
       <c r="F8" s="5">
-        <f>E8-D8</f>
+        <f t="shared" si="0"/>
         <v>2.893518518518514E-4</v>
       </c>
       <c r="G8" s="2">
@@ -7334,14 +7394,14 @@
         <v>5.0462962962962961E-3</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.4722222222222446E-5</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L8" s="5">
         <v>5.2430555555555555E-3</v>
@@ -7349,33 +7409,34 @@
       <c r="M8" s="5">
         <v>5.3009259259259251E-3</v>
       </c>
-      <c r="N8" s="5"/>
+      <c r="N8" s="58"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="3">
+      <c r="T8" s="5"/>
+      <c r="U8" s="3">
         <v>5.2430555555555555E-3</v>
       </c>
-      <c r="U8" s="5">
+      <c r="V8" s="5">
         <v>5.3009259259259251E-3</v>
       </c>
-      <c r="V8" s="3">
-        <f t="shared" si="0"/>
+      <c r="W8" s="3">
+        <f t="shared" si="1"/>
         <v>5.7870370370369587E-5</v>
       </c>
-      <c r="W8" s="3">
-        <f>T8-H8</f>
+      <c r="X8" s="3">
+        <f t="shared" si="2"/>
         <v>1.9675925925925937E-4</v>
       </c>
-      <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="3">
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -7392,7 +7453,7 @@
         <v>6.1342592592592594E-3</v>
       </c>
       <c r="F9" s="5">
-        <f>E9-D9</f>
+        <f t="shared" si="0"/>
         <v>4.0509259259259231E-4</v>
       </c>
       <c r="G9" s="2">
@@ -7402,14 +7463,14 @@
         <v>5.7291666666666671E-3</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L9" s="5">
         <v>6.0995370370370361E-3</v>
@@ -7417,37 +7478,38 @@
       <c r="M9" s="5">
         <v>6.0995370370370361E-3</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="58"/>
+      <c r="O9" s="5">
         <v>6.1111111111111114E-3</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>6.1342592592592594E-3</v>
       </c>
-      <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="3">
+      <c r="T9" s="5"/>
+      <c r="U9" s="3">
         <v>6.0995370370370361E-3</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6.1342592592592594E-3</v>
       </c>
-      <c r="V9" s="3">
-        <f t="shared" si="0"/>
+      <c r="W9" s="3">
+        <f t="shared" si="1"/>
         <v>3.4722222222223313E-5</v>
       </c>
-      <c r="W9" s="3">
-        <f>T9-H9</f>
+      <c r="X9" s="3">
+        <f t="shared" si="2"/>
         <v>3.70370370370369E-4</v>
       </c>
-      <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="3">
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -7464,7 +7526,7 @@
         <v>6.828703703703704E-3</v>
       </c>
       <c r="F10" s="5">
-        <f>E10-D10</f>
+        <f t="shared" si="0"/>
         <v>9.2592592592593767E-5</v>
       </c>
       <c r="G10" s="2">
@@ -7481,7 +7543,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L10" s="5">
         <v>6.7708333333333336E-3</v>
@@ -7489,33 +7551,34 @@
       <c r="M10" s="5">
         <v>6.7708333333333336E-3</v>
       </c>
-      <c r="N10" s="5"/>
+      <c r="N10" s="58"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="3">
-        <v>6.7708333333333336E-3</v>
-      </c>
+      <c r="T10" s="5"/>
       <c r="U10" s="3">
         <v>6.7708333333333336E-3</v>
       </c>
       <c r="V10" s="3">
-        <f t="shared" si="0"/>
+        <v>6.7708333333333336E-3</v>
+      </c>
+      <c r="W10" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W10" s="3">
-        <f>T10-H10</f>
+      <c r="X10" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-      <c r="Z10" s="3">
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>36</v>
       </c>
@@ -7548,7 +7611,7 @@
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
+      <c r="N11" s="61"/>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
@@ -7556,19 +7619,20 @@
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
-      <c r="V11" s="20">
-        <f>SUM(V12:V20)</f>
-        <v>6.9444444444444631E-4</v>
-      </c>
+      <c r="V11" s="19"/>
       <c r="W11" s="20">
         <f>SUM(W12:W20)</f>
+        <v>6.9444444444444631E-4</v>
+      </c>
+      <c r="X11" s="20">
+        <f>SUM(X12:X20)</f>
         <v>3.8194444444444137E-4</v>
       </c>
-      <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA11" s="19"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -7585,7 +7649,7 @@
         <v>1.1574074074074073E-3</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" ref="F12:F20" si="2">E12-D12</f>
+        <f t="shared" ref="F12:F20" si="4">E12-D12</f>
         <v>2.6620370370370372E-4</v>
       </c>
       <c r="G12" s="2">
@@ -7606,33 +7670,34 @@
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="N12" s="58"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="3">
+      <c r="T12" s="2"/>
+      <c r="U12" s="3">
         <v>1.0300925925925926E-3</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1.1226851851851851E-3</v>
       </c>
-      <c r="V12" s="3">
-        <f xml:space="preserve"> U12-T12</f>
+      <c r="W12" s="3">
+        <f xml:space="preserve"> V12-U12</f>
         <v>9.2592592592592466E-5</v>
       </c>
-      <c r="W12" s="3">
-        <f>T12-H12</f>
+      <c r="X12" s="3">
+        <f>U12-H12</f>
         <v>1.273148148148148E-4</v>
       </c>
-      <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
-      <c r="Z12" s="3">
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -7649,7 +7714,7 @@
         <v>1.6550925925925926E-3</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.2592592592592683E-5</v>
       </c>
       <c r="G13" s="2">
@@ -7659,7 +7724,7 @@
         <v>1.5740740740740741E-3</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" ref="I13:I20" si="3">H13-D13</f>
+        <f t="shared" ref="I13:I20" si="5">H13-D13</f>
         <v>1.1574074074074221E-5</v>
       </c>
       <c r="J13" s="2">
@@ -7670,33 +7735,34 @@
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="58"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="3">
+      <c r="T13" s="2"/>
+      <c r="U13" s="3">
         <v>1.5856481481481479E-3</v>
       </c>
-      <c r="U13" s="3">
+      <c r="V13" s="3">
         <v>1.6666666666666668E-3</v>
       </c>
-      <c r="V13" s="3">
-        <f xml:space="preserve"> U13-T13</f>
+      <c r="W13" s="3">
+        <f xml:space="preserve"> V13-U13</f>
         <v>8.1018518518518896E-5</v>
       </c>
-      <c r="W13" s="3">
-        <f>T13-H13</f>
+      <c r="X13" s="3">
+        <f>U13-H13</f>
         <v>1.1574074074073787E-5</v>
       </c>
-      <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="3">
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -7713,7 +7779,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.1249999999999984E-4</v>
       </c>
       <c r="G14" s="2">
@@ -7723,7 +7789,7 @@
         <v>2.4768518518518516E-3</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5046296296296292E-4</v>
       </c>
       <c r="J14" s="2">
@@ -7734,33 +7800,34 @@
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="N14" s="58"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="3">
+      <c r="T14" s="2"/>
+      <c r="U14" s="3">
         <v>2.3958333333333336E-3</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2.5231481481481481E-3</v>
       </c>
-      <c r="V14" s="3">
-        <f xml:space="preserve"> U14-T14</f>
+      <c r="W14" s="3">
+        <f xml:space="preserve"> V14-U14</f>
         <v>1.2731481481481448E-4</v>
       </c>
-      <c r="W14" s="3">
-        <f>H14-T14</f>
+      <c r="X14" s="3">
+        <f>H14-U14</f>
         <v>8.1018518518518028E-5</v>
       </c>
-      <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="3">
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -7777,7 +7844,7 @@
         <v>3.6111111111111114E-3</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.0185185185185255E-4</v>
       </c>
       <c r="G15" s="2">
@@ -7797,31 +7864,32 @@
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="N15" s="58"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="T15" s="2"/>
       <c r="U15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="V15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X15" s="2"/>
+      <c r="X15" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="3">
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -7838,7 +7906,7 @@
         <v>3.7268518518518514E-3</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3888888888888848E-4</v>
       </c>
       <c r="G16" s="2">
@@ -7848,7 +7916,7 @@
         <v>3.6226851851851854E-3</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.4722222222222446E-5</v>
       </c>
       <c r="J16" s="2">
@@ -7859,33 +7927,34 @@
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="N16" s="58"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="3">
+      <c r="T16" s="2"/>
+      <c r="U16" s="3">
         <v>3.6342592592592594E-3</v>
       </c>
-      <c r="U16" s="3">
+      <c r="V16" s="3">
         <v>3.7268518518518514E-3</v>
       </c>
-      <c r="V16" s="3">
-        <f xml:space="preserve"> U16-T16</f>
+      <c r="W16" s="3">
+        <f xml:space="preserve"> V16-U16</f>
         <v>9.2592592592592032E-5</v>
       </c>
-      <c r="W16" s="3">
-        <f>T16-H16</f>
+      <c r="X16" s="3">
+        <f>U16-H16</f>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="3">
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -7902,7 +7971,7 @@
         <v>4.386574074074074E-3</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0416666666666647E-4</v>
       </c>
       <c r="G17" s="2">
@@ -7912,7 +7981,7 @@
         <v>4.3055555555555555E-3</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="J17" s="2">
@@ -7923,33 +7992,34 @@
       </c>
       <c r="L17" s="52"/>
       <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="52"/>
       <c r="P17" s="52"/>
       <c r="Q17" s="52"/>
       <c r="R17" s="52"/>
       <c r="S17" s="52"/>
-      <c r="T17" s="3">
+      <c r="T17" s="52"/>
+      <c r="U17" s="3">
         <v>4.3287037037037035E-3</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4.363425925925926E-3</v>
       </c>
-      <c r="V17" s="3">
-        <f xml:space="preserve"> U17-T17</f>
+      <c r="W17" s="3">
+        <f xml:space="preserve"> V17-U17</f>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="W17" s="3">
-        <f>T17-H17</f>
+      <c r="X17" s="3">
+        <f>U17-H17</f>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="3">
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
@@ -7966,7 +8036,7 @@
         <v>5.4050925925925924E-3</v>
       </c>
       <c r="F18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="G18" s="10">
@@ -7976,7 +8046,7 @@
         <v>5.3819444444444453E-3</v>
       </c>
       <c r="I18" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J18" s="10">
@@ -7987,33 +8057,34 @@
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="N18" s="62"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
-      <c r="T18" s="12">
+      <c r="T18" s="10"/>
+      <c r="U18" s="12">
         <v>5.4050925925925924E-3</v>
       </c>
-      <c r="U18" s="12">
+      <c r="V18" s="12">
         <v>5.4745370370370373E-3</v>
       </c>
-      <c r="V18" s="12">
-        <f xml:space="preserve"> U18-T18</f>
+      <c r="W18" s="12">
+        <f xml:space="preserve"> V18-U18</f>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="W18" s="12">
-        <f>T18-H18</f>
+      <c r="X18" s="12">
+        <f>U18-H18</f>
         <v>2.3148148148147141E-5</v>
       </c>
-      <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
-      <c r="Z18" s="12">
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="12">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -8030,7 +8101,7 @@
         <v>6.0069444444444441E-3</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.4305555555555539E-4</v>
       </c>
       <c r="G19" s="2">
@@ -8040,7 +8111,7 @@
         <v>5.9027777777777776E-3</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.3888888888888892E-4</v>
       </c>
       <c r="J19" s="2">
@@ -8051,33 +8122,34 @@
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" s="58"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="3">
+      <c r="T19" s="2"/>
+      <c r="U19" s="3">
         <v>5.9490740740740745E-3</v>
       </c>
-      <c r="U19" s="3">
+      <c r="V19" s="3">
         <v>6.0879629629629643E-3</v>
       </c>
-      <c r="V19" s="3">
-        <f xml:space="preserve"> U19-T19</f>
+      <c r="W19" s="3">
+        <f xml:space="preserve"> V19-U19</f>
         <v>1.3888888888888978E-4</v>
       </c>
-      <c r="W19" s="3">
-        <f>T19-H19</f>
+      <c r="X19" s="3">
+        <f>U19-H19</f>
         <v>4.6296296296296884E-5</v>
       </c>
-      <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="3">
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -8094,7 +8166,7 @@
         <v>6.5509259259259262E-3</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3888888888888978E-4</v>
       </c>
       <c r="G20" s="2">
@@ -8104,7 +8176,7 @@
         <v>6.4351851851851861E-3</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.3148148148149743E-5</v>
       </c>
       <c r="J20" s="2">
@@ -8115,33 +8187,34 @@
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="N20" s="58"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="3">
+      <c r="T20" s="2"/>
+      <c r="U20" s="3">
         <v>6.4930555555555549E-3</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>6.5509259259259262E-3</v>
       </c>
-      <c r="V20" s="3">
-        <f xml:space="preserve"> U20-T20</f>
+      <c r="W20" s="3">
+        <f xml:space="preserve"> V20-U20</f>
         <v>5.7870370370371321E-5</v>
       </c>
-      <c r="W20" s="3">
-        <f>T20-H20</f>
+      <c r="X20" s="3">
+        <f>U20-H20</f>
         <v>5.7870370370368719E-5</v>
       </c>
-      <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="3">
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>36</v>
       </c>
@@ -8172,7 +8245,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
+      <c r="N21" s="61"/>
       <c r="O21" s="19"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
@@ -8180,19 +8253,20 @@
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
       <c r="U21" s="19"/>
-      <c r="V21" s="20">
-        <f>SUM(V12:V20)</f>
-        <v>6.9444444444444631E-4</v>
-      </c>
+      <c r="V21" s="19"/>
       <c r="W21" s="20">
         <f>SUM(W12:W20)</f>
+        <v>6.9444444444444631E-4</v>
+      </c>
+      <c r="X21" s="20">
+        <f>SUM(X12:X20)</f>
         <v>3.8194444444444137E-4</v>
       </c>
-      <c r="X21" s="19"/>
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA21" s="19"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -8209,7 +8283,7 @@
         <v>1.6087962962962963E-3</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" ref="F22:F30" si="4">E22-D22</f>
+        <f t="shared" ref="F22:F30" si="6">E22-D22</f>
         <v>3.5879629629629629E-4</v>
       </c>
       <c r="G22" s="1">
@@ -8219,7 +8293,7 @@
         <v>1.2731481481481483E-3</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" ref="I22:I30" si="5">H22-D22</f>
+        <f t="shared" ref="I22:I30" si="7">H22-D22</f>
         <v>2.3148148148148225E-5</v>
       </c>
       <c r="J22" s="2">
@@ -8230,33 +8304,34 @@
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" s="58"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="3">
+      <c r="T22" s="2"/>
+      <c r="U22" s="3">
         <v>1.4814814814814814E-3</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1.5624999999999999E-3</v>
       </c>
-      <c r="V22" s="3">
-        <f t="shared" ref="V22:V30" si="6" xml:space="preserve"> U22-T22</f>
+      <c r="W22" s="3">
+        <f t="shared" ref="W22:W30" si="8" xml:space="preserve"> V22-U22</f>
         <v>8.1018518518518462E-5</v>
       </c>
-      <c r="W22" s="3">
-        <f>T22-H22</f>
+      <c r="X22" s="3">
+        <f t="shared" ref="X22:X30" si="9">U22-H22</f>
         <v>2.0833333333333316E-4</v>
       </c>
-      <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="3">
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -8273,7 +8348,7 @@
         <v>3.0902777777777782E-3</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5393518518518521E-3</v>
       </c>
       <c r="G23" s="2">
@@ -8283,7 +8358,7 @@
         <v>1.9907407407407408E-3</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.3981481481481476E-4</v>
       </c>
       <c r="J23" s="2">
@@ -8294,33 +8369,34 @@
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" s="58"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="3">
+      <c r="T23" s="2"/>
+      <c r="U23" s="3">
         <v>2.0023148148148148E-3</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2.0601851851851853E-3</v>
       </c>
-      <c r="V23" s="3">
-        <f t="shared" si="6"/>
+      <c r="W23" s="3">
+        <f t="shared" si="8"/>
         <v>5.7870370370370454E-5</v>
       </c>
-      <c r="W23" s="3">
-        <f>T23-H23</f>
+      <c r="X23" s="3">
+        <f t="shared" si="9"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="3">
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -8337,7 +8413,7 @@
         <v>2.3148148148148151E-3</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.6203703703703736E-4</v>
       </c>
       <c r="G24" s="2">
@@ -8347,7 +8423,7 @@
         <v>2.2222222222222222E-3</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.9444444444444458E-5</v>
       </c>
       <c r="J24" s="2">
@@ -8358,33 +8434,34 @@
       </c>
       <c r="L24" s="52"/>
       <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
+      <c r="N24" s="60"/>
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="52"/>
       <c r="R24" s="52"/>
       <c r="S24" s="52"/>
-      <c r="T24" s="3">
+      <c r="T24" s="52"/>
+      <c r="U24" s="3">
         <v>2.2337962962962967E-3</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2.3148148148148151E-3</v>
       </c>
-      <c r="V24" s="3">
-        <f t="shared" si="6"/>
+      <c r="W24" s="3">
+        <f t="shared" si="8"/>
         <v>8.1018518518518462E-5</v>
       </c>
-      <c r="W24" s="3">
-        <f>T24-H24</f>
+      <c r="X24" s="3">
+        <f t="shared" si="9"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="3">
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -8401,7 +8478,7 @@
         <v>3.1481481481481482E-3</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.7361111111111093E-4</v>
       </c>
       <c r="G25" s="2">
@@ -8411,7 +8488,7 @@
         <v>3.0324074074074073E-3</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.787037037037002E-5</v>
       </c>
       <c r="J25" s="2">
@@ -8422,33 +8499,34 @@
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="N25" s="58"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="3">
+      <c r="T25" s="2"/>
+      <c r="U25" s="3">
         <v>3.0439814814814821E-3</v>
       </c>
-      <c r="U25" s="3">
+      <c r="V25" s="3">
         <v>3.0902777777777782E-3</v>
       </c>
-      <c r="V25" s="3">
-        <f t="shared" si="6"/>
+      <c r="W25" s="3">
+        <f t="shared" si="8"/>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="W25" s="3">
-        <f>T25-H25</f>
+      <c r="X25" s="3">
+        <f t="shared" si="9"/>
         <v>1.1574074074074871E-5</v>
       </c>
-      <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="3">
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -8465,7 +8543,7 @@
         <v>3.9004629629629632E-3</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.736111111111118E-4</v>
       </c>
       <c r="G26" s="2">
@@ -8475,7 +8553,7 @@
         <v>3.8425925925925923E-3</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1574074074074091E-4</v>
       </c>
       <c r="J26" s="2">
@@ -8486,33 +8564,34 @@
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="N26" s="58"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="3">
+      <c r="T26" s="2"/>
+      <c r="U26" s="3">
         <v>3.8425925925925923E-3</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3.9236111111111112E-3</v>
       </c>
-      <c r="V26" s="3">
-        <f t="shared" si="6"/>
+      <c r="W26" s="3">
+        <f t="shared" si="8"/>
         <v>8.1018518518518896E-5</v>
       </c>
-      <c r="W26" s="3">
-        <f>T26-H26</f>
+      <c r="X26" s="3">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="3">
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -8529,7 +8608,7 @@
         <v>4.6874999999999998E-3</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.5138888888888919E-4</v>
       </c>
       <c r="G27" s="2">
@@ -8539,7 +8618,7 @@
         <v>4.2939814814814811E-3</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.7870370370370454E-5</v>
       </c>
       <c r="J27" s="2">
@@ -8550,33 +8629,34 @@
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" s="58"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
-      <c r="T27" s="3">
+      <c r="T27" s="2"/>
+      <c r="U27" s="3">
         <v>4.5717592592592589E-3</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4.7453703703703703E-3</v>
       </c>
-      <c r="V27" s="3">
-        <f t="shared" si="6"/>
+      <c r="W27" s="3">
+        <f t="shared" si="8"/>
         <v>1.7361111111111136E-4</v>
       </c>
-      <c r="W27" s="3">
-        <f>T27-H27</f>
+      <c r="X27" s="3">
+        <f t="shared" si="9"/>
         <v>2.7777777777777783E-4</v>
       </c>
-      <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="3">
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -8593,7 +8673,7 @@
         <v>5.6944444444444438E-3</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.8611111111111077E-4</v>
       </c>
       <c r="G28" s="2">
@@ -8603,7 +8683,7 @@
         <v>5.2546296296296299E-3</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.6296296296296884E-5</v>
       </c>
       <c r="J28" s="2">
@@ -8614,33 +8694,34 @@
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="N28" s="58"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="3">
+      <c r="T28" s="2"/>
+      <c r="U28" s="3">
         <v>5.2777777777777771E-3</v>
       </c>
-      <c r="U28" s="3">
+      <c r="V28" s="3">
         <v>5.4166666666666669E-3</v>
       </c>
-      <c r="V28" s="3">
-        <f t="shared" si="6"/>
+      <c r="W28" s="3">
+        <f t="shared" si="8"/>
         <v>1.3888888888888978E-4</v>
       </c>
-      <c r="W28" s="3">
-        <f>T28-H28</f>
+      <c r="X28" s="3">
+        <f t="shared" si="9"/>
         <v>2.3148148148147141E-5</v>
       </c>
-      <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="3">
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -8657,7 +8738,7 @@
         <v>6.1111111111111114E-3</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.7361111111111049E-4</v>
       </c>
       <c r="G29" s="2">
@@ -8667,7 +8748,7 @@
         <v>5.9837962962962961E-3</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.6296296296295149E-5</v>
       </c>
       <c r="J29" s="2">
@@ -8678,33 +8759,34 @@
       </c>
       <c r="L29" s="52"/>
       <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
+      <c r="N29" s="60"/>
       <c r="O29" s="52"/>
       <c r="P29" s="52"/>
       <c r="Q29" s="52"/>
       <c r="R29" s="52"/>
       <c r="S29" s="52"/>
-      <c r="T29" s="3">
+      <c r="T29" s="52"/>
+      <c r="U29" s="3">
         <v>6.053240740740741E-3</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>6.2268518518518515E-3</v>
       </c>
-      <c r="V29" s="3">
-        <f t="shared" si="6"/>
+      <c r="W29" s="3">
+        <f t="shared" si="8"/>
         <v>1.7361111111111049E-4</v>
       </c>
-      <c r="W29" s="3">
-        <f>T29-H29</f>
+      <c r="X29" s="3">
+        <f t="shared" si="9"/>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="3">
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -8721,7 +8803,7 @@
         <v>6.7245370370370367E-3</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.93518518518517E-4</v>
       </c>
       <c r="G30" s="2">
@@ -8731,7 +8813,7 @@
         <v>6.3888888888888884E-3</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.7870370370368719E-5</v>
       </c>
       <c r="J30" s="2">
@@ -8742,33 +8824,34 @@
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="N30" s="58"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
-      <c r="T30" s="3">
+      <c r="T30" s="2"/>
+      <c r="U30" s="3">
         <v>6.4930555555555549E-3</v>
       </c>
-      <c r="U30" s="3">
+      <c r="V30" s="3">
         <v>6.6550925925925935E-3</v>
       </c>
-      <c r="V30" s="3">
-        <f t="shared" si="6"/>
+      <c r="W30" s="3">
+        <f t="shared" si="8"/>
         <v>1.6203703703703866E-4</v>
       </c>
-      <c r="W30" s="3">
-        <f>T30-H30</f>
+      <c r="X30" s="3">
+        <f t="shared" si="9"/>
         <v>1.0416666666666647E-4</v>
       </c>
-      <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="3">
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>36</v>
       </c>
@@ -8799,7 +8882,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
+      <c r="N31" s="61"/>
       <c r="O31" s="19"/>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
@@ -8807,19 +8890,20 @@
       <c r="S31" s="19"/>
       <c r="T31" s="19"/>
       <c r="U31" s="19"/>
-      <c r="V31" s="20">
-        <f>SUM(V22:V30)</f>
-        <v>9.9537037037037259E-4</v>
-      </c>
+      <c r="V31" s="19"/>
       <c r="W31" s="20">
         <f>SUM(W22:W30)</f>
+        <v>9.9537037037037259E-4</v>
+      </c>
+      <c r="X31" s="20">
+        <f>SUM(X22:X30)</f>
         <v>7.175925925925928E-4</v>
       </c>
-      <c r="X31" s="19"/>
       <c r="Y31" s="19"/>
       <c r="Z31" s="19"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA31" s="19"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -8836,7 +8920,7 @@
         <v>8.6805555555555551E-4</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" ref="F32:F40" si="7">E32-D32</f>
+        <f t="shared" ref="F32:F40" si="10">E32-D32</f>
         <v>1.5046296296296281E-4</v>
       </c>
       <c r="G32" s="1">
@@ -8846,7 +8930,7 @@
         <v>7.291666666666667E-4</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" ref="I32:I40" si="8">H32-D32</f>
+        <f t="shared" ref="I32:I40" si="11">H32-D32</f>
         <v>1.1574074074074004E-5</v>
       </c>
       <c r="J32" s="2">
@@ -8857,33 +8941,34 @@
       </c>
       <c r="L32" s="52"/>
       <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
+      <c r="N32" s="60"/>
       <c r="O32" s="52"/>
       <c r="P32" s="52"/>
       <c r="Q32" s="52"/>
       <c r="R32" s="52"/>
       <c r="S32" s="52"/>
-      <c r="T32" s="3">
+      <c r="T32" s="52"/>
+      <c r="U32" s="3">
         <v>7.407407407407407E-4</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>8.9120370370370362E-4</v>
       </c>
-      <c r="V32" s="3">
-        <f xml:space="preserve"> U32-T32</f>
+      <c r="W32" s="3">
+        <f xml:space="preserve"> V32-U32</f>
         <v>1.5046296296296292E-4</v>
       </c>
-      <c r="W32" s="3">
-        <f>T32-H32</f>
+      <c r="X32" s="3">
+        <f>U32-H32</f>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="3">
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -8900,7 +8985,7 @@
         <v>1.9097222222222222E-3</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6203703703703692E-4</v>
       </c>
       <c r="G33" s="2">
@@ -8910,7 +8995,7 @@
         <v>1.8634259259259261E-3</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1574074074074091E-4</v>
       </c>
       <c r="J33" s="2">
@@ -8921,33 +9006,34 @@
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="N33" s="58"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-      <c r="T33" s="3">
+      <c r="T33" s="2"/>
+      <c r="U33" s="3">
         <v>1.8750000000000001E-3</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1.9097222222222222E-3</v>
       </c>
-      <c r="V33" s="3">
-        <f xml:space="preserve"> U33-T33</f>
+      <c r="W33" s="3">
+        <f xml:space="preserve"> V33-U33</f>
         <v>3.4722222222222012E-5</v>
       </c>
-      <c r="W33" s="3">
-        <f>T33-H33</f>
+      <c r="X33" s="3">
+        <f>U33-H33</f>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
-      <c r="Z33" s="3">
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
@@ -8964,7 +9050,7 @@
         <v>2.673611111111111E-3</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.8611111111111121E-4</v>
       </c>
       <c r="G34" s="2">
@@ -8974,7 +9060,7 @@
         <v>2.1990740740740742E-3</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1574074074074438E-5</v>
       </c>
       <c r="J34" s="2">
@@ -8985,33 +9071,34 @@
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="N34" s="58"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-      <c r="T34" s="3">
+      <c r="T34" s="2"/>
+      <c r="U34" s="3">
         <v>2.627314814814815E-3</v>
       </c>
-      <c r="U34" s="3">
+      <c r="V34" s="3">
         <v>2.673611111111111E-3</v>
       </c>
-      <c r="V34" s="3">
-        <f xml:space="preserve"> U34-T34</f>
+      <c r="W34" s="3">
+        <f xml:space="preserve"> V34-U34</f>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="W34" s="3">
-        <f>T34-H34</f>
+      <c r="X34" s="3">
+        <f>U34-H34</f>
         <v>4.2824074074074075E-4</v>
       </c>
-      <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
-      <c r="Z34" s="3">
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>25</v>
       </c>
@@ -9028,7 +9115,7 @@
         <v>4.4791666666666669E-3</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5740740740740741E-3</v>
       </c>
       <c r="G35" s="2">
@@ -9038,7 +9125,7 @@
         <v>4.3981481481481484E-3</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4930555555555556E-3</v>
       </c>
       <c r="J35" s="2">
@@ -9049,33 +9136,34 @@
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="N35" s="58"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="3">
+      <c r="T35" s="2"/>
+      <c r="U35" s="3">
         <v>4.4212962962962956E-3</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4.4791666666666669E-3</v>
       </c>
-      <c r="V35" s="3">
-        <f xml:space="preserve"> U34-T34</f>
+      <c r="W35" s="3">
+        <f xml:space="preserve"> V34-U34</f>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="W35" s="3">
-        <f>T35-H35</f>
+      <c r="X35" s="3">
+        <f>U35-H35</f>
         <v>2.3148148148147141E-5</v>
       </c>
-      <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
-      <c r="Z35" s="3">
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>25</v>
       </c>
@@ -9092,7 +9180,7 @@
         <v>3.6226851851851854E-3</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.787037037037002E-5</v>
       </c>
       <c r="G36" s="2">
@@ -9102,7 +9190,7 @@
         <v>3.5648148148148154E-3</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J36" s="2">
@@ -9113,33 +9201,34 @@
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="N36" s="58"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-      <c r="T36" s="3">
+      <c r="T36" s="2"/>
+      <c r="U36" s="3">
         <v>3.5879629629629629E-3</v>
       </c>
-      <c r="U36" s="3">
+      <c r="V36" s="3">
         <v>3.6226851851851854E-3</v>
       </c>
-      <c r="V36" s="3">
-        <f xml:space="preserve"> U35-T35</f>
+      <c r="W36" s="3">
+        <f xml:space="preserve"> V35-U35</f>
         <v>5.7870370370371321E-5</v>
       </c>
-      <c r="W36" s="3">
-        <f>T35-H36</f>
+      <c r="X36" s="3">
+        <f>U35-H36</f>
         <v>8.564814814814802E-4</v>
       </c>
-      <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
-      <c r="Z36" s="3">
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
@@ -9156,7 +9245,7 @@
         <v>4.6643518518518518E-3</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.8611111111111164E-4</v>
       </c>
       <c r="G37" s="2">
@@ -9166,7 +9255,7 @@
         <v>4.5949074074074078E-3</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.1666666666666761E-4</v>
       </c>
       <c r="J37" s="2">
@@ -9177,33 +9266,34 @@
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="N37" s="58"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-      <c r="T37" s="3">
+      <c r="T37" s="2"/>
+      <c r="U37" s="3">
         <v>4.6180555555555558E-3</v>
       </c>
-      <c r="U37" s="3">
+      <c r="V37" s="3">
         <v>4.6643518518518518E-3</v>
       </c>
-      <c r="V37" s="3">
-        <f xml:space="preserve"> U37-T37</f>
+      <c r="W37" s="3">
+        <f xml:space="preserve"> V37-U37</f>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="W37" s="3">
-        <f>T37-H37</f>
+      <c r="X37" s="3">
+        <f>U37-H37</f>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
-      <c r="Z37" s="3">
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
@@ -9220,7 +9310,7 @@
         <v>5.1504629629629635E-3</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.4305555555555625E-4</v>
       </c>
       <c r="G38" s="2">
@@ -9230,7 +9320,7 @@
         <v>4.9421296296296288E-3</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.4722222222221578E-5</v>
       </c>
       <c r="J38" s="2">
@@ -9241,33 +9331,34 @@
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="N38" s="58"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
-      <c r="T38" s="3">
+      <c r="T38" s="2"/>
+      <c r="U38" s="3">
         <v>4.9537037037037041E-3</v>
       </c>
-      <c r="U38" s="3">
+      <c r="V38" s="3">
         <v>5.0694444444444441E-3</v>
       </c>
-      <c r="V38" s="3">
-        <f xml:space="preserve"> U38-T38</f>
+      <c r="W38" s="3">
+        <f xml:space="preserve"> V38-U38</f>
         <v>1.1574074074074004E-4</v>
       </c>
-      <c r="W38" s="3">
-        <f>T38-H38</f>
+      <c r="X38" s="3">
+        <f>U38-H38</f>
         <v>1.1574074074075305E-5</v>
       </c>
-      <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="3">
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
@@ -9284,7 +9375,7 @@
         <v>5.9606481481481489E-3</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.4722222222222186E-4</v>
       </c>
       <c r="G39" s="2">
@@ -9294,7 +9385,7 @@
         <v>5.7175925925925927E-3</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.041666666666656E-4</v>
       </c>
       <c r="J39" s="2">
@@ -9305,33 +9396,34 @@
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="N39" s="58"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-      <c r="T39" s="3">
+      <c r="T39" s="2"/>
+      <c r="U39" s="3">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="U39" s="3">
+      <c r="V39" s="3">
         <v>5.9722222222222225E-3</v>
       </c>
-      <c r="V39" s="3">
-        <f xml:space="preserve"> U39-T39</f>
+      <c r="W39" s="3">
+        <f xml:space="preserve"> V39-U39</f>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="W39" s="3">
-        <f>T39-H39</f>
+      <c r="X39" s="3">
+        <f>U39-H39</f>
         <v>1.8518518518518493E-4</v>
       </c>
-      <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="3">
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>25</v>
       </c>
@@ -9348,7 +9440,7 @@
         <v>6.3194444444444444E-3</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1574074074074004E-4</v>
       </c>
       <c r="G40" s="2">
@@ -9358,7 +9450,7 @@
         <v>6.2268518518518515E-3</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="J40" s="2">
@@ -9369,33 +9461,34 @@
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" s="58"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
-      <c r="T40" s="3">
+      <c r="T40" s="2"/>
+      <c r="U40" s="3">
         <v>6.2731481481481484E-3</v>
       </c>
-      <c r="U40" s="3">
+      <c r="V40" s="3">
         <v>6.3078703703703708E-3</v>
       </c>
-      <c r="V40" s="3">
-        <f xml:space="preserve"> U40-T40</f>
+      <c r="W40" s="3">
+        <f xml:space="preserve"> V40-U40</f>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="W40" s="3">
-        <f>T40-H40</f>
+      <c r="X40" s="3">
+        <f>U40-H40</f>
         <v>4.6296296296296884E-5</v>
       </c>
-      <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
-      <c r="Z40" s="3">
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>37</v>
       </c>
@@ -9426,7 +9519,7 @@
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
+      <c r="N41" s="61"/>
       <c r="O41" s="19"/>
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
@@ -9434,19 +9527,20 @@
       <c r="S41" s="19"/>
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
-      <c r="V41" s="20">
-        <f>SUM(V32:V40)</f>
-        <v>6.0185185185185168E-4</v>
-      </c>
+      <c r="V41" s="19"/>
       <c r="W41" s="20">
         <f>SUM(W32:W40)</f>
+        <v>6.0185185185185168E-4</v>
+      </c>
+      <c r="X41" s="20">
+        <f>SUM(X32:X40)</f>
         <v>1.5972222222222212E-3</v>
       </c>
-      <c r="X41" s="19"/>
       <c r="Y41" s="19"/>
       <c r="Z41" s="19"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA41" s="19"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>28</v>
       </c>
@@ -9463,7 +9557,7 @@
         <v>1.712962962962963E-3</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" ref="F42:F49" si="9">E42-D42</f>
+        <f t="shared" ref="F42:F49" si="12">E42-D42</f>
         <v>7.2916666666666659E-4</v>
       </c>
       <c r="G42" s="1">
@@ -9473,7 +9567,7 @@
         <v>1.0185185185185186E-3</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" ref="I42:I50" si="10">H42-D42</f>
+        <f t="shared" ref="I42:I50" si="13">H42-D42</f>
         <v>3.4722222222222229E-5</v>
       </c>
       <c r="J42" s="1">
@@ -9484,33 +9578,34 @@
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="N42" s="58"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
-      <c r="T42" s="3">
+      <c r="T42" s="2"/>
+      <c r="U42" s="3">
         <v>1.6782407407407406E-3</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1.712962962962963E-3</v>
       </c>
-      <c r="V42" s="3">
-        <f t="shared" ref="V42:V50" si="11" xml:space="preserve"> U42-T42</f>
+      <c r="W42" s="3">
+        <f t="shared" ref="W42:W50" si="14" xml:space="preserve"> V42-U42</f>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="W42" s="3">
-        <f>T42-H42</f>
+      <c r="X42" s="3">
+        <f t="shared" ref="X42:X50" si="15">U42-H42</f>
         <v>6.5972222222222192E-4</v>
       </c>
-      <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
-      <c r="Z42" s="3">
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
@@ -9527,7 +9622,7 @@
         <v>2.1527777777777778E-3</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6.249999999999999E-4</v>
       </c>
       <c r="G43" s="2">
@@ -9537,7 +9632,7 @@
         <v>1.5393518518518519E-3</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1574074074074004E-5</v>
       </c>
       <c r="J43" s="2">
@@ -9548,33 +9643,34 @@
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43" s="58"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
-      <c r="T43" s="3">
+      <c r="T43" s="2"/>
+      <c r="U43" s="3">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2.1296296296296298E-3</v>
       </c>
-      <c r="V43" s="3">
-        <f t="shared" si="11"/>
+      <c r="W43" s="3">
+        <f t="shared" si="14"/>
         <v>4.629629629629645E-5</v>
       </c>
-      <c r="W43" s="3">
-        <f>T43-H43</f>
+      <c r="X43" s="3">
+        <f t="shared" si="15"/>
         <v>5.4398148148148144E-4</v>
       </c>
-      <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
-      <c r="Z43" s="3">
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
@@ -9591,7 +9687,7 @@
         <v>2.3495370370370371E-3</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1574074074074047E-4</v>
       </c>
       <c r="G44" s="2">
@@ -9601,7 +9697,7 @@
         <v>2.2453703703703702E-3</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.157407407407357E-5</v>
       </c>
       <c r="J44" s="2">
@@ -9612,33 +9708,34 @@
       </c>
       <c r="L44" s="52"/>
       <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
+      <c r="N44" s="60"/>
       <c r="O44" s="52"/>
       <c r="P44" s="52"/>
       <c r="Q44" s="52"/>
       <c r="R44" s="52"/>
       <c r="S44" s="52"/>
-      <c r="T44" s="3">
+      <c r="T44" s="52"/>
+      <c r="U44" s="3">
         <v>2.2800925925925927E-3</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2.3726851851851851E-3</v>
       </c>
-      <c r="V44" s="3">
-        <f t="shared" si="11"/>
+      <c r="W44" s="3">
+        <f t="shared" si="14"/>
         <v>9.2592592592592466E-5</v>
       </c>
-      <c r="W44" s="3">
-        <f>T44-H44</f>
+      <c r="X44" s="3">
+        <f t="shared" si="15"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
-      <c r="Z44" s="3">
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>28</v>
       </c>
@@ -9655,7 +9752,7 @@
         <v>3.7847222222222223E-3</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.4398148148148166E-4</v>
       </c>
       <c r="G45" s="2">
@@ -9665,7 +9762,7 @@
         <v>3.2986111111111111E-3</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.7870370370370454E-5</v>
       </c>
       <c r="J45" s="2">
@@ -9676,33 +9773,34 @@
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" s="58"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
-      <c r="T45" s="3">
+      <c r="T45" s="2"/>
+      <c r="U45" s="3">
         <v>3.7152777777777774E-3</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3.7615740740740739E-3</v>
       </c>
-      <c r="V45" s="3">
-        <f t="shared" si="11"/>
+      <c r="W45" s="3">
+        <f t="shared" si="14"/>
         <v>4.629629629629645E-5</v>
       </c>
-      <c r="W45" s="3">
-        <f>T45-H45</f>
+      <c r="X45" s="3">
+        <f t="shared" si="15"/>
         <v>4.1666666666666631E-4</v>
       </c>
-      <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
-      <c r="Z45" s="3">
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>28</v>
       </c>
@@ -9719,7 +9817,7 @@
         <v>4.0277777777777777E-3</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3.0092592592592627E-4</v>
       </c>
       <c r="G46" s="2">
@@ -9729,7 +9827,7 @@
         <v>3.8310185185185183E-3</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.041666666666669E-4</v>
       </c>
       <c r="J46" s="2">
@@ -9740,33 +9838,34 @@
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="N46" s="58"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
-      <c r="T46" s="3">
+      <c r="T46" s="2"/>
+      <c r="U46" s="3">
         <v>3.8425925925925923E-3</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4.0046296296296297E-3</v>
       </c>
-      <c r="V46" s="3">
-        <f t="shared" si="11"/>
+      <c r="W46" s="3">
+        <f t="shared" si="14"/>
         <v>1.6203703703703736E-4</v>
       </c>
-      <c r="W46" s="3">
-        <f>T46-H46</f>
+      <c r="X46" s="3">
+        <f t="shared" si="15"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
-      <c r="Z46" s="3">
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -9783,7 +9882,7 @@
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4.6296296296296016E-5</v>
       </c>
       <c r="G47" s="2">
@@ -9804,33 +9903,34 @@
       </c>
       <c r="L47" s="52"/>
       <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
+      <c r="N47" s="60"/>
       <c r="O47" s="52"/>
       <c r="P47" s="52"/>
       <c r="Q47" s="52"/>
       <c r="R47" s="52"/>
       <c r="S47" s="52"/>
-      <c r="T47" s="3">
+      <c r="T47" s="52"/>
+      <c r="U47" s="3">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4.8842592592592592E-3</v>
       </c>
-      <c r="V47" s="3">
-        <f t="shared" si="11"/>
+      <c r="W47" s="3">
+        <f t="shared" si="14"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="W47" s="3">
-        <f>T47-H47</f>
+      <c r="X47" s="3">
+        <f t="shared" si="15"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
-      <c r="Z47" s="3">
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>28</v>
       </c>
@@ -9847,7 +9947,7 @@
         <v>5.185185185185185E-3</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.1018518518518462E-5</v>
       </c>
       <c r="G48" s="2">
@@ -9857,7 +9957,7 @@
         <v>5.1273148148148146E-3</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="J48" s="2">
@@ -9868,33 +9968,34 @@
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" s="58"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
-      <c r="T48" s="3">
+      <c r="T48" s="2"/>
+      <c r="U48" s="3">
         <v>5.138888888888889E-3</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5.1736111111111115E-3</v>
       </c>
-      <c r="V48" s="3">
-        <f t="shared" si="11"/>
+      <c r="W48" s="3">
+        <f t="shared" si="14"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="W48" s="3">
-        <f>T48-H48</f>
+      <c r="X48" s="3">
+        <f t="shared" si="15"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
-      <c r="Z48" s="3">
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>28</v>
       </c>
@@ -9911,7 +10012,7 @@
         <v>6.1111111111111114E-3</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.8935185185185227E-4</v>
       </c>
       <c r="G49" s="2">
@@ -9921,7 +10022,7 @@
         <v>6.0648148148148145E-3</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.4305555555555539E-4</v>
       </c>
       <c r="J49" s="2">
@@ -9932,33 +10033,34 @@
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" s="58"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
-      <c r="T49" s="3">
+      <c r="T49" s="2"/>
+      <c r="U49" s="3">
         <v>6.076388888888889E-3</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6.0995370370370361E-3</v>
       </c>
-      <c r="V49" s="3">
-        <f t="shared" si="11"/>
+      <c r="W49" s="3">
+        <f t="shared" si="14"/>
         <v>2.3148148148147141E-5</v>
       </c>
-      <c r="W49" s="3">
-        <f>T49-H49</f>
+      <c r="X49" s="3">
+        <f t="shared" si="15"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
-      <c r="Z49" s="3">
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>28</v>
       </c>
@@ -9985,7 +10087,7 @@
         <v>6.5393518518518517E-3</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.7870370370370454E-5</v>
       </c>
       <c r="J50" s="2">
@@ -9996,33 +10098,34 @@
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" s="58"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
-      <c r="T50" s="3">
+      <c r="T50" s="2"/>
+      <c r="U50" s="3">
         <v>6.6550925925925935E-3</v>
       </c>
-      <c r="U50" s="3">
+      <c r="V50" s="3">
         <v>6.6898148148148142E-3</v>
       </c>
-      <c r="V50" s="3">
-        <f t="shared" si="11"/>
+      <c r="W50" s="3">
+        <f t="shared" si="14"/>
         <v>3.4722222222220711E-5</v>
       </c>
-      <c r="W50" s="3">
-        <f>T50-H50</f>
+      <c r="X50" s="3">
+        <f t="shared" si="15"/>
         <v>1.1574074074074178E-4</v>
       </c>
-      <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
-      <c r="Z50" s="3">
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>36</v>
       </c>
@@ -10053,7 +10156,7 @@
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
       <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
+      <c r="N51" s="61"/>
       <c r="O51" s="19"/>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
@@ -10061,19 +10164,20 @@
       <c r="S51" s="19"/>
       <c r="T51" s="19"/>
       <c r="U51" s="19"/>
-      <c r="V51" s="20">
-        <f>SUM(V42:V50)</f>
-        <v>4.9768518518518347E-4</v>
-      </c>
+      <c r="V51" s="19"/>
       <c r="W51" s="20">
         <f>SUM(W42:W50)</f>
+        <v>4.9768518518518347E-4</v>
+      </c>
+      <c r="X51" s="20">
+        <f>SUM(X42:X50)</f>
         <v>1.8287037037037048E-3</v>
       </c>
-      <c r="X51" s="19"/>
       <c r="Y51" s="19"/>
       <c r="Z51" s="19"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA51" s="19"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>30</v>
       </c>
@@ -10100,7 +10204,7 @@
         <v>1.1921296296296296E-3</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" ref="I52:I80" si="12">H52-D52</f>
+        <f t="shared" ref="I52:I80" si="16">H52-D52</f>
         <v>2.0833333333333316E-4</v>
       </c>
       <c r="J52" s="1">
@@ -10111,33 +10215,34 @@
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="N52" s="58"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
-      <c r="T52" s="3">
+      <c r="T52" s="2"/>
+      <c r="U52" s="3">
         <v>1.2268518518518518E-3</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1.2731481481481483E-3</v>
       </c>
-      <c r="V52" s="3">
-        <f t="shared" ref="V52:V70" si="13" xml:space="preserve"> U52-T52</f>
+      <c r="W52" s="3">
+        <f t="shared" ref="W52:W70" si="17" xml:space="preserve"> V52-U52</f>
         <v>4.629629629629645E-5</v>
       </c>
-      <c r="W52" s="3">
-        <f>T52-H52</f>
+      <c r="X52" s="3">
+        <f>U52-H52</f>
         <v>3.4722222222222229E-5</v>
       </c>
-      <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
-      <c r="Z52" s="3">
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>30</v>
       </c>
@@ -10154,7 +10259,7 @@
         <v>3.1134259259259257E-3</v>
       </c>
       <c r="F53" s="5">
-        <f t="shared" ref="F53:F80" si="14">E53-D53</f>
+        <f t="shared" ref="F53:F80" si="18">E53-D53</f>
         <v>1.3425925925925925E-3</v>
       </c>
       <c r="G53" s="2">
@@ -10174,15 +10279,13 @@
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="N53" s="58"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
-      <c r="T53" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="T53" s="2"/>
       <c r="U53" s="3" t="s">
         <v>14</v>
       </c>
@@ -10192,13 +10295,16 @@
       <c r="W53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X53" s="2"/>
+      <c r="X53" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="Y53" s="2"/>
-      <c r="Z53" s="3">
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>30</v>
       </c>
@@ -10215,7 +10321,7 @@
         <v>2.615740740740741E-3</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.25925925925929E-5</v>
       </c>
       <c r="G54" s="2">
@@ -10225,7 +10331,7 @@
         <v>2.5347222222222221E-3</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.1574074074074004E-5</v>
       </c>
       <c r="J54" s="2">
@@ -10236,33 +10342,34 @@
       </c>
       <c r="L54" s="52"/>
       <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
+      <c r="N54" s="60"/>
       <c r="O54" s="52"/>
       <c r="P54" s="52"/>
       <c r="Q54" s="52"/>
       <c r="R54" s="52"/>
       <c r="S54" s="52"/>
-      <c r="T54" s="3">
+      <c r="T54" s="52"/>
+      <c r="U54" s="3">
         <v>2.5462962962962961E-3</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2.615740740740741E-3</v>
       </c>
-      <c r="V54" s="3">
-        <f t="shared" si="13"/>
+      <c r="W54" s="3">
+        <f t="shared" si="17"/>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="W54" s="3">
-        <f>T54-H54</f>
+      <c r="X54" s="3">
+        <f t="shared" ref="X54:X60" si="19">U54-H54</f>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
-      <c r="Z54" s="3">
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>30</v>
       </c>
@@ -10279,7 +10386,7 @@
         <v>3.2407407407407406E-3</v>
       </c>
       <c r="F55" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.9444444444444892E-5</v>
       </c>
       <c r="G55" s="2">
@@ -10289,7 +10396,7 @@
         <v>3.1828703703703702E-3</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.1574074074074438E-5</v>
       </c>
       <c r="J55" s="2">
@@ -10300,33 +10407,34 @@
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="N55" s="58"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
-      <c r="T55" s="3">
+      <c r="T55" s="2"/>
+      <c r="U55" s="3">
         <v>3.1944444444444442E-3</v>
       </c>
-      <c r="U55" s="3">
+      <c r="V55" s="3">
         <v>3.2523148148148151E-3</v>
       </c>
-      <c r="V55" s="3">
-        <f t="shared" si="13"/>
+      <c r="W55" s="3">
+        <f t="shared" si="17"/>
         <v>5.7870370370370888E-5</v>
       </c>
-      <c r="W55" s="3">
-        <f>T55-H55</f>
+      <c r="X55" s="3">
+        <f t="shared" si="19"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
-      <c r="Z55" s="3">
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>30</v>
       </c>
@@ -10343,7 +10451,7 @@
         <v>4.0277777777777777E-3</v>
       </c>
       <c r="F56" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.0092592592592627E-4</v>
       </c>
       <c r="G56" s="2">
@@ -10353,7 +10461,7 @@
         <v>3.9814814814814817E-3</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.5462962962963026E-4</v>
       </c>
       <c r="J56" s="2">
@@ -10364,33 +10472,34 @@
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="N56" s="58"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
-      <c r="T56" s="3">
+      <c r="T56" s="2"/>
+      <c r="U56" s="3">
         <v>4.0046296296296297E-3</v>
       </c>
-      <c r="U56" s="3">
+      <c r="V56" s="3">
         <v>4.0277777777777777E-3</v>
       </c>
-      <c r="V56" s="3">
-        <f t="shared" si="13"/>
+      <c r="W56" s="3">
+        <f t="shared" si="17"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="W56" s="3">
-        <f>T56-H56</f>
+      <c r="X56" s="3">
+        <f t="shared" si="19"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
-      <c r="Z56" s="3">
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>30</v>
       </c>
@@ -10407,7 +10516,7 @@
         <v>4.7222222222222223E-3</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.7361111111111136E-4</v>
       </c>
       <c r="G57" s="2">
@@ -10417,7 +10526,7 @@
         <v>4.6874999999999998E-3</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.3888888888888892E-4</v>
       </c>
       <c r="J57" s="2">
@@ -10428,33 +10537,34 @@
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" s="58"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
-      <c r="T57" s="3">
+      <c r="T57" s="2"/>
+      <c r="U57" s="3">
         <v>4.7106481481481478E-3</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="V57" s="3">
-        <f t="shared" si="13"/>
+      <c r="W57" s="3">
+        <f t="shared" si="17"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="W57" s="3">
-        <f>T57-H57</f>
+      <c r="X57" s="3">
+        <f t="shared" si="19"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
-      <c r="Z57" s="3">
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>30</v>
       </c>
@@ -10471,7 +10581,7 @@
         <v>5.5439814814814822E-3</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.5046296296296335E-4</v>
       </c>
       <c r="G58" s="2">
@@ -10481,7 +10591,7 @@
         <v>5.4050925925925924E-3</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.157407407407357E-5</v>
       </c>
       <c r="J58" s="2">
@@ -10492,33 +10602,34 @@
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="N58" s="58"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
-      <c r="T58" s="3">
+      <c r="T58" s="2"/>
+      <c r="U58" s="3">
         <v>5.4166666666666669E-3</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5.5439814814814822E-3</v>
       </c>
-      <c r="V58" s="3">
-        <f t="shared" si="13"/>
+      <c r="W58" s="3">
+        <f t="shared" si="17"/>
         <v>1.2731481481481535E-4</v>
       </c>
-      <c r="W58" s="3">
-        <f>T58-H58</f>
+      <c r="X58" s="3">
+        <f t="shared" si="19"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
-      <c r="Z58" s="3">
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>30</v>
       </c>
@@ -10535,7 +10646,7 @@
         <v>5.9606481481481489E-3</v>
       </c>
       <c r="F59" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.6203703703703779E-4</v>
       </c>
       <c r="G59" s="2">
@@ -10545,7 +10656,7 @@
         <v>5.8680555555555543E-3</v>
       </c>
       <c r="I59" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.9444444444443157E-5</v>
       </c>
       <c r="J59" s="2">
@@ -10556,33 +10667,34 @@
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="N59" s="58"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
-      <c r="T59" s="3">
+      <c r="T59" s="2"/>
+      <c r="U59" s="3">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5.9375000000000009E-3</v>
       </c>
-      <c r="V59" s="3">
-        <f t="shared" si="13"/>
+      <c r="W59" s="3">
+        <f t="shared" si="17"/>
         <v>3.4722222222223313E-5</v>
       </c>
-      <c r="W59" s="3">
-        <f>T59-H59</f>
+      <c r="X59" s="3">
+        <f t="shared" si="19"/>
         <v>3.4722222222223313E-5</v>
       </c>
-      <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
-      <c r="Z59" s="3">
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
@@ -10599,7 +10711,7 @@
         <v>6.6782407407407415E-3</v>
       </c>
       <c r="F60" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.6203703703703779E-4</v>
       </c>
       <c r="G60" s="2">
@@ -10609,7 +10721,7 @@
         <v>6.6319444444444446E-3</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.1574074074074091E-4</v>
       </c>
       <c r="J60" s="2">
@@ -10620,33 +10732,34 @@
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" s="58"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
-      <c r="T60" s="3">
+      <c r="T60" s="2"/>
+      <c r="U60" s="3">
         <v>6.6550925925925935E-3</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6.7129629629629622E-3</v>
       </c>
-      <c r="V60" s="3">
-        <f t="shared" si="13"/>
+      <c r="W60" s="3">
+        <f t="shared" si="17"/>
         <v>5.7870370370368719E-5</v>
       </c>
-      <c r="W60" s="3">
-        <f>T60-H60</f>
+      <c r="X60" s="3">
+        <f t="shared" si="19"/>
         <v>2.3148148148148875E-5</v>
       </c>
-      <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
-      <c r="Z60" s="3">
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>37</v>
       </c>
@@ -10674,7 +10787,7 @@
       <c r="K61" s="19"/>
       <c r="L61" s="19"/>
       <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
+      <c r="N61" s="61"/>
       <c r="O61" s="19"/>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
@@ -10682,19 +10795,20 @@
       <c r="S61" s="19"/>
       <c r="T61" s="19"/>
       <c r="U61" s="19"/>
-      <c r="V61" s="20">
-        <f>SUM(V52:V60)</f>
-        <v>4.2824074074074205E-4</v>
-      </c>
+      <c r="V61" s="19"/>
       <c r="W61" s="20">
         <f>SUM(W52:W60)</f>
+        <v>4.2824074074074205E-4</v>
+      </c>
+      <c r="X61" s="20">
+        <f>SUM(X52:X60)</f>
         <v>1.7361111111111288E-4</v>
       </c>
-      <c r="X61" s="19"/>
       <c r="Y61" s="19"/>
       <c r="Z61" s="19"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA61" s="19"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>34</v>
       </c>
@@ -10711,7 +10825,7 @@
         <v>1.1689814814814816E-3</v>
       </c>
       <c r="F62" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.7361111111111114E-4</v>
       </c>
       <c r="G62" s="1">
@@ -10721,7 +10835,7 @@
         <v>1.0069444444444444E-3</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.1574074074074004E-5</v>
       </c>
       <c r="J62" s="1">
@@ -10732,33 +10846,34 @@
       </c>
       <c r="L62" s="52"/>
       <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
+      <c r="N62" s="60"/>
       <c r="O62" s="52"/>
       <c r="P62" s="52"/>
       <c r="Q62" s="52"/>
       <c r="R62" s="52"/>
       <c r="S62" s="52"/>
-      <c r="T62" s="3">
+      <c r="T62" s="52"/>
+      <c r="U62" s="3">
         <v>1.0300925925925926E-3</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1.1689814814814816E-3</v>
       </c>
-      <c r="V62" s="3">
-        <f t="shared" si="13"/>
+      <c r="W62" s="3">
+        <f t="shared" si="17"/>
         <v>1.3888888888888892E-4</v>
       </c>
-      <c r="W62" s="3">
-        <f>T62-H62</f>
+      <c r="X62" s="3">
+        <f t="shared" ref="X62:X70" si="20">U62-H62</f>
         <v>2.3148148148148225E-5</v>
       </c>
-      <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
-      <c r="Z62" s="3">
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>34</v>
       </c>
@@ -10775,7 +10890,7 @@
         <v>1.8865740740740742E-3</v>
       </c>
       <c r="F63" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.1990740740740738E-4</v>
       </c>
       <c r="G63" s="2">
@@ -10785,7 +10900,7 @@
         <v>1.8402777777777777E-3</v>
       </c>
       <c r="I63" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.7361111111111093E-4</v>
       </c>
       <c r="J63" s="2">
@@ -10796,33 +10911,34 @@
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+      <c r="N63" s="58"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
-      <c r="T63" s="3">
+      <c r="T63" s="2"/>
+      <c r="U63" s="3">
         <v>1.8518518518518517E-3</v>
       </c>
-      <c r="U63" s="3">
+      <c r="V63" s="3">
         <v>1.8865740740740742E-3</v>
       </c>
-      <c r="V63" s="3">
-        <f t="shared" si="13"/>
+      <c r="W63" s="3">
+        <f t="shared" si="17"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="W63" s="3">
-        <f>T63-H63</f>
+      <c r="X63" s="3">
+        <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
-      <c r="Z63" s="3">
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>34</v>
       </c>
@@ -10839,7 +10955,7 @@
         <v>2.5810185185185185E-3</v>
       </c>
       <c r="F64" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.3564814814814829E-4</v>
       </c>
       <c r="G64" s="2">
@@ -10849,7 +10965,7 @@
         <v>2.2916666666666667E-3</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4.629629629629645E-5</v>
       </c>
       <c r="J64" s="2">
@@ -10860,33 +10976,34 @@
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="N64" s="58"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
-      <c r="T64" s="3">
+      <c r="T64" s="2"/>
+      <c r="U64" s="3">
         <v>2.4537037037037036E-3</v>
       </c>
-      <c r="U64" s="3">
+      <c r="V64" s="3">
         <v>2.6388888888888885E-3</v>
       </c>
-      <c r="V64" s="3">
-        <f t="shared" si="13"/>
+      <c r="W64" s="3">
+        <f t="shared" si="17"/>
         <v>1.8518518518518493E-4</v>
       </c>
-      <c r="W64" s="3">
-        <f>T64-H64</f>
+      <c r="X64" s="3">
+        <f t="shared" si="20"/>
         <v>1.6203703703703692E-4</v>
       </c>
-      <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
-      <c r="Z64" s="3">
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>34</v>
       </c>
@@ -10903,7 +11020,7 @@
         <v>3.5532407407407405E-3</v>
       </c>
       <c r="F65" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.2824074074074075E-4</v>
       </c>
       <c r="G65" s="2">
@@ -10913,7 +11030,7 @@
         <v>3.3912037037037036E-3</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.6620370370370383E-4</v>
       </c>
       <c r="J65" s="2">
@@ -10924,33 +11041,34 @@
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="N65" s="58"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
-      <c r="T65" s="3">
+      <c r="T65" s="2"/>
+      <c r="U65" s="3">
         <v>3.4027777777777784E-3</v>
       </c>
-      <c r="U65" s="3">
+      <c r="V65" s="3">
         <v>3.5532407407407405E-3</v>
       </c>
-      <c r="V65" s="3">
-        <f t="shared" si="13"/>
+      <c r="W65" s="3">
+        <f t="shared" si="17"/>
         <v>1.5046296296296205E-4</v>
       </c>
-      <c r="W65" s="3">
-        <f>T65-H65</f>
+      <c r="X65" s="3">
+        <f t="shared" si="20"/>
         <v>1.1574074074074871E-5</v>
       </c>
-      <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
-      <c r="Z65" s="3">
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>34</v>
       </c>
@@ -10967,7 +11085,7 @@
         <v>3.8541666666666668E-3</v>
       </c>
       <c r="F66" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.1018518518518462E-5</v>
       </c>
       <c r="G66" s="2">
@@ -10977,7 +11095,7 @@
         <v>3.7731481481481483E-3</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J66" s="2">
@@ -10988,33 +11106,34 @@
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+      <c r="N66" s="58"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
-      <c r="T66" s="3">
+      <c r="T66" s="2"/>
+      <c r="U66" s="3">
         <v>3.7962962962962963E-3</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3.8541666666666668E-3</v>
       </c>
-      <c r="V66" s="3">
-        <f t="shared" si="13"/>
+      <c r="W66" s="3">
+        <f t="shared" si="17"/>
         <v>5.7870370370370454E-5</v>
       </c>
-      <c r="W66" s="3">
-        <f>T66-H66</f>
+      <c r="X66" s="3">
+        <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
-      <c r="Z66" s="3">
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>34</v>
       </c>
@@ -11031,7 +11150,7 @@
         <v>4.5833333333333334E-3</v>
       </c>
       <c r="F67" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.4305555555555539E-4</v>
       </c>
       <c r="G67" s="2">
@@ -11041,7 +11160,7 @@
         <v>4.5254629629629629E-3</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.8518518518518493E-4</v>
       </c>
       <c r="J67" s="2">
@@ -11052,33 +11171,34 @@
       </c>
       <c r="L67" s="52"/>
       <c r="M67" s="52"/>
-      <c r="N67" s="52"/>
+      <c r="N67" s="60"/>
       <c r="O67" s="52"/>
       <c r="P67" s="52"/>
       <c r="Q67" s="52"/>
       <c r="R67" s="52"/>
       <c r="S67" s="52"/>
-      <c r="T67" s="3">
+      <c r="T67" s="52"/>
+      <c r="U67" s="3">
         <v>4.5486111111111109E-3</v>
       </c>
-      <c r="U67" s="3">
+      <c r="V67" s="3">
         <v>4.5833333333333334E-3</v>
       </c>
-      <c r="V67" s="3">
-        <f t="shared" si="13"/>
+      <c r="W67" s="3">
+        <f t="shared" si="17"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="W67" s="3">
-        <f>T67-H67</f>
+      <c r="X67" s="3">
+        <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
-      <c r="Z67" s="3">
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>34</v>
       </c>
@@ -11095,7 +11215,7 @@
         <v>6.3541666666666668E-3</v>
       </c>
       <c r="F68" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.481481481481477E-4</v>
       </c>
       <c r="G68" s="2">
@@ -11116,33 +11236,34 @@
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" s="58"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
-      <c r="T68" s="3">
+      <c r="T68" s="2"/>
+      <c r="U68" s="3">
         <v>6.053240740740741E-3</v>
       </c>
-      <c r="U68" s="3">
+      <c r="V68" s="3">
         <v>6.3657407407407404E-3</v>
       </c>
-      <c r="V68" s="3">
-        <f t="shared" si="13"/>
+      <c r="W68" s="3">
+        <f t="shared" si="17"/>
         <v>3.1249999999999941E-4</v>
       </c>
-      <c r="W68" s="3">
-        <f>T68-H68</f>
+      <c r="X68" s="3">
+        <f t="shared" si="20"/>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
-      <c r="Z68" s="3">
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>34</v>
       </c>
@@ -11159,7 +11280,7 @@
         <v>7.0023148148148154E-3</v>
       </c>
       <c r="F69" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>7.2916666666666703E-4</v>
       </c>
       <c r="G69" s="2">
@@ -11169,7 +11290,7 @@
         <v>6.3425925925925915E-3</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.9444444444443157E-5</v>
       </c>
       <c r="J69" s="2">
@@ -11180,33 +11301,34 @@
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+      <c r="N69" s="58"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
-      <c r="T69" s="3">
+      <c r="T69" s="2"/>
+      <c r="U69" s="3">
         <v>6.9212962962962969E-3</v>
       </c>
-      <c r="U69" s="3">
+      <c r="V69" s="3">
         <v>7.106481481481481E-3</v>
       </c>
-      <c r="V69" s="3">
-        <f t="shared" si="13"/>
+      <c r="W69" s="3">
+        <f t="shared" si="17"/>
         <v>1.8518518518518406E-4</v>
       </c>
-      <c r="W69" s="3">
-        <f>T69-H69</f>
+      <c r="X69" s="3">
+        <f t="shared" si="20"/>
         <v>5.7870370370370541E-4</v>
       </c>
-      <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
-      <c r="Z69" s="3">
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>34</v>
       </c>
@@ -11223,7 +11345,7 @@
         <v>6.7245370370370367E-3</v>
       </c>
       <c r="F70" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.5046296296296335E-4</v>
       </c>
       <c r="G70" s="2">
@@ -11233,7 +11355,7 @@
         <v>6.5972222222222222E-3</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="J70" s="2">
@@ -11244,33 +11366,34 @@
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" s="58"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
-      <c r="T70" s="3">
+      <c r="T70" s="2"/>
+      <c r="U70" s="3">
         <v>6.6782407407407415E-3</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>6.7245370370370367E-3</v>
       </c>
-      <c r="V70" s="3">
-        <f t="shared" si="13"/>
+      <c r="W70" s="3">
+        <f t="shared" si="17"/>
         <v>4.6296296296295149E-5</v>
       </c>
-      <c r="W70" s="3">
-        <f>T70-H70</f>
+      <c r="X70" s="3">
+        <f t="shared" si="20"/>
         <v>8.1018518518519329E-5</v>
       </c>
-      <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
-      <c r="Z70" s="3">
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
         <v>36</v>
       </c>
@@ -11298,7 +11421,7 @@
       <c r="K71" s="19"/>
       <c r="L71" s="19"/>
       <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
+      <c r="N71" s="61"/>
       <c r="O71" s="19"/>
       <c r="P71" s="19"/>
       <c r="Q71" s="19"/>
@@ -11306,19 +11429,20 @@
       <c r="S71" s="19"/>
       <c r="T71" s="19"/>
       <c r="U71" s="19"/>
-      <c r="V71" s="20">
-        <f>SUM(V62:V70)</f>
-        <v>1.1458333333333299E-3</v>
-      </c>
+      <c r="V71" s="19"/>
       <c r="W71" s="20">
         <f>SUM(W62:W70)</f>
+        <v>1.1458333333333299E-3</v>
+      </c>
+      <c r="X71" s="20">
+        <f>SUM(X62:X70)</f>
         <v>9.8379629629629967E-4</v>
       </c>
-      <c r="X71" s="19"/>
       <c r="Y71" s="19"/>
       <c r="Z71" s="19"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA71" s="19"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>39</v>
       </c>
@@ -11335,7 +11459,7 @@
         <v>2.1064814814814813E-3</v>
       </c>
       <c r="F72" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.5046296296296292E-4</v>
       </c>
       <c r="G72" s="2">
@@ -11345,7 +11469,7 @@
         <v>1.9907407407407408E-3</v>
       </c>
       <c r="I72" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.4722222222222446E-5</v>
       </c>
       <c r="J72" s="2">
@@ -11356,33 +11480,34 @@
       </c>
       <c r="L72" s="52"/>
       <c r="M72" s="52"/>
-      <c r="N72" s="52"/>
+      <c r="N72" s="60"/>
       <c r="O72" s="52"/>
       <c r="P72" s="52"/>
       <c r="Q72" s="52"/>
       <c r="R72" s="52"/>
       <c r="S72" s="52"/>
-      <c r="T72" s="3">
+      <c r="T72" s="52"/>
+      <c r="U72" s="3">
         <v>1.9907407407407408E-3</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2.1064814814814813E-3</v>
       </c>
-      <c r="V72" s="3">
-        <f t="shared" ref="V72:V77" si="15" xml:space="preserve"> U72-T72</f>
+      <c r="W72" s="3">
+        <f t="shared" ref="W72:W77" si="21" xml:space="preserve"> V72-U72</f>
         <v>1.1574074074074047E-4</v>
       </c>
-      <c r="W72" s="3">
-        <f>T72-H72</f>
+      <c r="X72" s="3">
+        <f>U72-H72</f>
         <v>0</v>
       </c>
-      <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
-      <c r="Z72" s="3">
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>39</v>
       </c>
@@ -11399,7 +11524,7 @@
         <v>2.0023148148148148E-3</v>
       </c>
       <c r="F73" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.1249999999999984E-4</v>
       </c>
       <c r="G73" s="2">
@@ -11409,7 +11534,7 @@
         <v>1.8981481481481482E-3</v>
       </c>
       <c r="I73" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.0833333333333316E-4</v>
       </c>
       <c r="J73" s="2">
@@ -11420,33 +11545,34 @@
       </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+      <c r="N73" s="58"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
-      <c r="T73" s="3">
+      <c r="T73" s="2"/>
+      <c r="U73" s="3">
         <v>1.9097222222222222E-3</v>
       </c>
-      <c r="U73" s="3">
+      <c r="V73" s="3">
         <v>2.0023148148148148E-3</v>
       </c>
-      <c r="V73" s="3">
-        <f t="shared" si="15"/>
+      <c r="W73" s="3">
+        <f t="shared" si="21"/>
         <v>9.2592592592592683E-5</v>
       </c>
-      <c r="W73" s="3">
-        <f>T73-H73</f>
+      <c r="X73" s="3">
+        <f>U73-H73</f>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
-      <c r="Z73" s="3">
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>39</v>
       </c>
@@ -11463,7 +11589,7 @@
         <v>3.0671296296296297E-3</v>
       </c>
       <c r="F74" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.8287037037037058E-4</v>
       </c>
       <c r="G74" s="2">
@@ -11473,7 +11599,7 @@
         <v>2.5115740740740741E-3</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.2731481481481491E-4</v>
       </c>
       <c r="J74" s="2">
@@ -11484,31 +11610,32 @@
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="N74" s="58"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
-      <c r="T74" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="T74" s="2"/>
       <c r="U74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="V74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="W74" s="3" t="s">
+      <c r="W74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="X74" s="2"/>
+      <c r="X74" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="Y74" s="2"/>
-      <c r="Z74" s="3">
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>39</v>
       </c>
@@ -11525,7 +11652,7 @@
         <v>3.5995370370370369E-3</v>
       </c>
       <c r="F75" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.9351851851851787E-4</v>
       </c>
       <c r="G75" s="2">
@@ -11535,7 +11662,7 @@
         <v>3.2986111111111111E-3</v>
       </c>
       <c r="I75" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.2592592592592032E-5</v>
       </c>
       <c r="J75" s="2">
@@ -11546,33 +11673,34 @@
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75" s="58"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
-      <c r="T75" s="3">
+      <c r="T75" s="2"/>
+      <c r="U75" s="3">
         <v>3.3101851851851851E-3</v>
       </c>
-      <c r="U75" s="3">
+      <c r="V75" s="3">
         <v>3.5995370370370369E-3</v>
       </c>
-      <c r="V75" s="3">
-        <f t="shared" si="15"/>
+      <c r="W75" s="3">
+        <f t="shared" si="21"/>
         <v>2.8935185185185184E-4</v>
       </c>
-      <c r="W75" s="3">
-        <f>T75-H75</f>
+      <c r="X75" s="3">
+        <f t="shared" ref="X75:X80" si="22">U75-H75</f>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
-      <c r="Z75" s="3">
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>39</v>
       </c>
@@ -11589,7 +11717,7 @@
         <v>3.9351851851851857E-3</v>
       </c>
       <c r="F76" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.5462962962963026E-4</v>
       </c>
       <c r="G76" s="2">
@@ -11599,7 +11727,7 @@
         <v>3.6921296296296298E-3</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.1574074074074438E-5</v>
       </c>
       <c r="J76" s="2">
@@ -11610,33 +11738,34 @@
       </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="N76" s="58"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
-      <c r="T76" s="3">
+      <c r="T76" s="2"/>
+      <c r="U76" s="3">
         <v>3.7037037037037034E-3</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3.9004629629629632E-3</v>
       </c>
-      <c r="V76" s="3">
-        <f t="shared" si="15"/>
+      <c r="W76" s="3">
+        <f t="shared" si="21"/>
         <v>1.967592592592598E-4</v>
       </c>
-      <c r="W76" s="3">
-        <f>T76-H76</f>
+      <c r="X76" s="3">
+        <f t="shared" si="22"/>
         <v>1.157407407407357E-5</v>
       </c>
-      <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
-      <c r="Z76" s="3">
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>39</v>
       </c>
@@ -11653,7 +11782,7 @@
         <v>4.6759259259259263E-3</v>
       </c>
       <c r="F77" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.8935185185185227E-4</v>
       </c>
       <c r="G77" s="2">
@@ -11663,7 +11792,7 @@
         <v>4.5833333333333334E-3</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.9675925925925937E-4</v>
       </c>
       <c r="J77" s="2">
@@ -11674,33 +11803,34 @@
       </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="N77" s="58"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
-      <c r="T77" s="3">
+      <c r="T77" s="2"/>
+      <c r="U77" s="3">
         <v>4.6412037037037038E-3</v>
       </c>
-      <c r="U77" s="3">
+      <c r="V77" s="3">
         <v>4.6759259259259263E-3</v>
       </c>
-      <c r="V77" s="3">
-        <f t="shared" si="15"/>
+      <c r="W77" s="3">
+        <f t="shared" si="21"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="W77" s="3">
-        <f>T77-H77</f>
+      <c r="X77" s="3">
+        <f t="shared" si="22"/>
         <v>5.7870370370370454E-5</v>
       </c>
-      <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
-      <c r="Z77" s="3">
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>39</v>
       </c>
@@ -11717,7 +11847,7 @@
         <v>6.076388888888889E-3</v>
       </c>
       <c r="F78" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.4305555555555539E-4</v>
       </c>
       <c r="G78" s="2">
@@ -11727,7 +11857,7 @@
         <v>5.8564814814814825E-3</v>
       </c>
       <c r="I78" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="J78" s="2">
@@ -11738,33 +11868,34 @@
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+      <c r="N78" s="58"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
-      <c r="T78" s="3">
+      <c r="T78" s="2"/>
+      <c r="U78" s="3">
         <v>5.8564814814814825E-3</v>
       </c>
-      <c r="U78" s="3">
+      <c r="V78" s="3">
         <v>6.076388888888889E-3</v>
       </c>
-      <c r="V78" s="3">
-        <f xml:space="preserve"> U78-T78</f>
+      <c r="W78" s="3">
+        <f xml:space="preserve"> V78-U78</f>
         <v>2.1990740740740651E-4</v>
       </c>
-      <c r="W78" s="3">
-        <f>T78-H78</f>
+      <c r="X78" s="3">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
-      <c r="Z78" s="3">
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>39</v>
       </c>
@@ -11781,7 +11912,7 @@
         <v>6.2037037037037043E-3</v>
       </c>
       <c r="F79" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.0509259259259318E-4</v>
       </c>
       <c r="G79" s="2">
@@ -11791,7 +11922,7 @@
         <v>6.145833333333333E-3</v>
       </c>
       <c r="I79" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.4722222222222186E-4</v>
       </c>
       <c r="J79" s="2">
@@ -11802,33 +11933,34 @@
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="N79" s="58"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
-      <c r="T79" s="3">
+      <c r="T79" s="2"/>
+      <c r="U79" s="3">
         <v>6.1574074074074074E-3</v>
       </c>
-      <c r="U79" s="3">
+      <c r="V79" s="3">
         <v>6.2037037037037043E-3</v>
       </c>
-      <c r="V79" s="3">
-        <f xml:space="preserve"> U79-T79</f>
+      <c r="W79" s="3">
+        <f xml:space="preserve"> V79-U79</f>
         <v>4.6296296296296884E-5</v>
       </c>
-      <c r="W79" s="3">
-        <f>T79-H79</f>
+      <c r="X79" s="3">
+        <f t="shared" si="22"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
-      <c r="Z79" s="3">
+      <c r="Z79" s="2"/>
+      <c r="AA79" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>39</v>
       </c>
@@ -11845,7 +11977,7 @@
         <v>7.2453703703703708E-3</v>
       </c>
       <c r="F80" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.0416666666666647E-4</v>
       </c>
       <c r="G80" s="2">
@@ -11855,7 +11987,7 @@
         <v>7.1643518518518514E-3</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="J80" s="2">
@@ -11866,33 +11998,34 @@
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+      <c r="N80" s="58"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
-      <c r="T80" s="3">
+      <c r="T80" s="2"/>
+      <c r="U80" s="3">
         <v>7.1990740740740739E-3</v>
       </c>
-      <c r="U80" s="3">
+      <c r="V80" s="3">
         <v>7.2453703703703708E-3</v>
       </c>
-      <c r="V80" s="3">
-        <f xml:space="preserve"> U80-T80</f>
+      <c r="W80" s="3">
+        <f xml:space="preserve"> V80-U80</f>
         <v>4.6296296296296884E-5</v>
       </c>
-      <c r="W80" s="3">
-        <f>T80-H80</f>
+      <c r="X80" s="3">
+        <f t="shared" si="22"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
-      <c r="Z80" s="3">
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
         <v>36</v>
       </c>
@@ -11920,7 +12053,7 @@
       <c r="K81" s="19"/>
       <c r="L81" s="19"/>
       <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
+      <c r="N81" s="61"/>
       <c r="O81" s="19"/>
       <c r="P81" s="19"/>
       <c r="Q81" s="19"/>
@@ -11928,19 +12061,20 @@
       <c r="S81" s="19"/>
       <c r="T81" s="19"/>
       <c r="U81" s="19"/>
-      <c r="V81" s="20">
-        <f>SUM(V72:V80)</f>
-        <v>1.0416666666666675E-3</v>
-      </c>
+      <c r="V81" s="19"/>
       <c r="W81" s="20">
         <f>SUM(W72:W80)</f>
+        <v>1.0416666666666675E-3</v>
+      </c>
+      <c r="X81" s="20">
+        <f>SUM(X72:X80)</f>
         <v>1.3888888888888892E-4</v>
       </c>
-      <c r="X81" s="19"/>
       <c r="Y81" s="19"/>
       <c r="Z81" s="19"/>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA81" s="19"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -11954,7 +12088,7 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
+      <c r="N82" s="63"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -11967,8 +12101,9 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
-    </row>
-    <row r="83" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AA82" s="1"/>
+    </row>
+    <row r="83" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
         <v>38</v>
       </c>
@@ -11984,7 +12119,7 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
+      <c r="N83" s="63"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -11997,8 +12132,9 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA83" s="1"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -12012,7 +12148,7 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
+      <c r="N84" s="63"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -12025,8 +12161,9 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA84" s="1"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -12040,7 +12177,7 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
+      <c r="N85" s="63"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -12053,8 +12190,9 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA85" s="1"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -12068,7 +12206,7 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
+      <c r="N86" s="63"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -12081,8 +12219,9 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA86" s="1"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -12096,7 +12235,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
+      <c r="N87" s="63"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -12109,8 +12248,9 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA87" s="1"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -12124,7 +12264,7 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
+      <c r="N88" s="63"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -12137,8 +12277,9 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA88" s="1"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -12152,7 +12293,7 @@
       <c r="K89" s="15"/>
       <c r="L89" s="15"/>
       <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
+      <c r="N89" s="64"/>
       <c r="O89" s="15"/>
       <c r="P89" s="15"/>
       <c r="Q89" s="15"/>
@@ -12165,8 +12306,9 @@
       <c r="X89" s="15"/>
       <c r="Y89" s="15"/>
       <c r="Z89" s="15"/>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA89" s="15"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -12180,7 +12322,7 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
+      <c r="N90" s="63"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -12193,8 +12335,9 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA90" s="1"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -12208,7 +12351,7 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
+      <c r="N91" s="63"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -12221,8 +12364,9 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA91" s="1"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -12236,7 +12380,7 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
+      <c r="N92" s="63"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -12249,8 +12393,9 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA92" s="1"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -12264,7 +12409,7 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
+      <c r="N93" s="63"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -12277,8 +12422,9 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA93" s="1"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -12292,7 +12438,7 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
+      <c r="N94" s="63"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -12305,8 +12451,9 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA94" s="1"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -12320,7 +12467,7 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
+      <c r="N95" s="63"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
@@ -12333,8 +12480,9 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA95" s="1"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -12348,7 +12496,7 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
+      <c r="N96" s="63"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -12361,8 +12509,9 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA96" s="1"/>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -12376,7 +12525,7 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
+      <c r="N97" s="63"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -12389,8 +12538,9 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA97" s="1"/>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -12404,7 +12554,7 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
+      <c r="N98" s="63"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -12417,8 +12567,9 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA98" s="1"/>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -12432,7 +12583,7 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
+      <c r="N99" s="63"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
@@ -12445,8 +12596,9 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA99" s="1"/>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -12460,7 +12612,7 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
+      <c r="N100" s="63"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
@@ -12473,8 +12625,9 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA100" s="1"/>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -12488,7 +12641,7 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
+      <c r="N101" s="63"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
@@ -12501,8 +12654,9 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA101" s="1"/>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -12516,7 +12670,7 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
+      <c r="N102" s="63"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
@@ -12529,8 +12683,9 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA102" s="1"/>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -12544,7 +12699,7 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
+      <c r="N103" s="63"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
@@ -12557,6 +12712,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -12571,51 +12727,51 @@
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>162</v>
       </c>
       <c r="B5" s="36"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>172</v>
       </c>
       <c r="B6" s="36"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>75</v>
       </c>

--- a/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
+++ b/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\studies\2020_Aperol_Git\Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BEAB99-C192-4C81-97B9-9D6657961261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B84705B-BCFB-4496-B40E-EBAECB7C01DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" activeTab="1" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
   </bookViews>
   <sheets>
     <sheet name="coding scheme" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="188">
   <si>
     <t>onset</t>
   </si>
@@ -441,12 +441,6 @@
     <t>on the screen, person A is asked to "stare out of the window". Person A then moves back with the chair, turns around and stares out of the window until the teacher asks to stop or the next instruction for her/him appears on the screen.</t>
   </si>
   <si>
-    <t>any questions</t>
-  </si>
-  <si>
-    <t>the teachers asks if there is a question.</t>
-  </si>
-  <si>
     <t xml:space="preserve">refusing question </t>
   </si>
   <si>
@@ -468,9 +462,6 @@
     <t>disturbing person is addressed directly with name</t>
   </si>
   <si>
-    <t xml:space="preserve">103; nonverbal: gesture to stop </t>
-  </si>
-  <si>
     <t xml:space="preserve">the teacher addresses the disturbing person directly by name. </t>
   </si>
   <si>
@@ -489,9 +480,6 @@
     <t>103; 104</t>
   </si>
   <si>
-    <t>nonverbal: gesture; 103; 104</t>
-  </si>
-  <si>
     <t>nonverbal: gesture; 104</t>
   </si>
   <si>
@@ -522,9 +510,6 @@
     <t>person A is drumming with the hands on the table. The teacher notices the noise and asks person A to stop the drumming.</t>
   </si>
   <si>
-    <t>103; 102</t>
-  </si>
-  <si>
     <t>105; 102</t>
   </si>
   <si>
@@ -616,6 +601,12 @@
   </si>
   <si>
     <t>the reaction "gaze" is considered as "gaze" when the tracher interrupts the lesson and focuses on the disturbing person</t>
+  </si>
+  <si>
+    <t>asking a question</t>
+  </si>
+  <si>
+    <t>the teachers asks the disturbing person a question.</t>
   </si>
 </sst>
 </file>
@@ -1301,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A75A8A-F741-4C3F-9138-10D56EF9D568}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1494,7 +1485,7 @@
         <v>59</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C14" s="48" t="s">
         <v>70</v>
@@ -1702,7 +1693,7 @@
         <v>121</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C33" s="48" t="s">
         <v>127</v>
@@ -1713,86 +1704,86 @@
     </row>
     <row r="34" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="53" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="B34" s="46">
         <v>100</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="53" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B35" s="46">
         <v>101</v>
       </c>
       <c r="C35" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="40" t="s">
         <v>135</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="53" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B36" s="46">
         <v>102</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B37" s="46">
         <v>103</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="53" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B38" s="46">
         <v>104</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="53" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B39" s="46">
         <v>105</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1800,7 +1791,7 @@
         <v>122</v>
       </c>
       <c r="B40" s="49" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C40" s="48" t="s">
         <v>128</v>
@@ -1811,7 +1802,7 @@
     </row>
     <row r="41" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="54" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B41" s="55">
         <v>200</v>
@@ -1821,19 +1812,19 @@
     </row>
     <row r="42" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="54" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B42" s="55">
         <v>201</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D42" s="56"/>
     </row>
     <row r="43" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="54" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B43" s="55">
         <v>202</v>
@@ -1940,9 +1931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DD2F59-5577-4BF1-9B09-7232E83E7D11}">
   <dimension ref="A1:W89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2000,31 +1991,31 @@
         <v>12</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>16</v>
@@ -2136,12 +2127,14 @@
       <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>147</v>
+      <c r="K3" s="2">
+        <v>103</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="N3" s="2">
+        <v>104</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="3">
@@ -2197,12 +2190,14 @@
       <c r="J4" s="10">
         <v>1</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>147</v>
+      <c r="K4" s="2">
+        <v>103</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="N4" s="2">
+        <v>104</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="12">
@@ -2258,12 +2253,14 @@
       <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>147</v>
+      <c r="K5" s="2">
+        <v>103</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="N5" s="2">
+        <v>104</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="3">
@@ -2380,13 +2377,17 @@
       <c r="J7" s="2">
         <v>1</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>148</v>
+      <c r="K7" s="2">
+        <v>200</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="N7" s="2">
+        <v>103</v>
+      </c>
+      <c r="O7" s="2">
+        <v>104</v>
+      </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="3">
         <v>4.5138888888888893E-3</v>
@@ -2441,8 +2442,8 @@
       <c r="J8" s="2">
         <v>1</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>141</v>
+      <c r="K8" s="2">
+        <v>200</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2563,12 +2564,14 @@
       <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>159</v>
+      <c r="K10" s="2">
+        <v>103</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="N10" s="2">
+        <v>102</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="3">
@@ -3266,12 +3269,14 @@
       <c r="J22" s="2">
         <v>1</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>149</v>
+      <c r="K22" s="2">
+        <v>200</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" s="2">
+        <v>104</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="3">
@@ -3327,12 +3332,14 @@
       <c r="J23" s="2">
         <v>1</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>149</v>
+      <c r="K23" s="2">
+        <v>200</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" s="2">
+        <v>104</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="3">
@@ -3449,12 +3456,14 @@
       <c r="J25" s="2">
         <v>1</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>160</v>
+      <c r="K25" s="2">
+        <v>105</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="N25" s="2">
+        <v>102</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3">
@@ -3510,12 +3519,14 @@
       <c r="J26" s="2">
         <v>1</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>23</v>
+      <c r="K26" s="2">
+        <v>201</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="N26" s="2">
+        <v>200</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3">
@@ -3571,12 +3582,14 @@
       <c r="J27" s="2">
         <v>1</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>150</v>
+      <c r="K27" s="2">
+        <v>202</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" s="2">
+        <v>104</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3">
@@ -3632,12 +3645,14 @@
       <c r="J28" s="2">
         <v>1</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>24</v>
+      <c r="K28" s="2">
+        <v>202</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="N28" s="2">
+        <v>104</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3">
@@ -3924,8 +3939,8 @@
       <c r="J33" s="2">
         <v>1</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>26</v>
+      <c r="K33" s="2">
+        <v>201</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -3985,12 +4000,14 @@
       <c r="J34" s="2">
         <v>1</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>151</v>
+      <c r="K34" s="2">
+        <v>201</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="N34" s="2">
+        <v>103</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3">
@@ -4290,12 +4307,14 @@
       <c r="J39" s="2">
         <v>1</v>
       </c>
-      <c r="K39" s="2" t="s">
-        <v>151</v>
+      <c r="K39" s="2">
+        <v>201</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="N39" s="2">
+        <v>103</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="3">
@@ -4351,12 +4370,14 @@
       <c r="J40" s="2">
         <v>1</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>151</v>
+      <c r="K40" s="2">
+        <v>201</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" s="2">
+        <v>103</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="3">
@@ -4521,12 +4542,14 @@
       <c r="J43" s="2">
         <v>1</v>
       </c>
-      <c r="K43" s="2" t="s">
-        <v>151</v>
+      <c r="K43" s="2">
+        <v>201</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43" s="2">
+        <v>103</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3">
@@ -4704,12 +4727,14 @@
       <c r="J46" s="2">
         <v>1</v>
       </c>
-      <c r="K46" s="2" t="s">
-        <v>152</v>
+      <c r="K46" s="2">
+        <v>201</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="N46" s="2">
+        <v>104</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3">
@@ -5359,12 +5384,14 @@
       <c r="J57" s="2">
         <v>1</v>
       </c>
-      <c r="K57" s="2" t="s">
-        <v>161</v>
+      <c r="K57" s="2">
+        <v>201</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" s="2">
+        <v>105</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="3">
@@ -5420,12 +5447,14 @@
       <c r="J58" s="2">
         <v>1</v>
       </c>
-      <c r="K58" s="2" t="s">
-        <v>32</v>
+      <c r="K58" s="2">
+        <v>100</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="N58" s="2">
+        <v>201</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="3">
@@ -5481,8 +5510,8 @@
       <c r="J59" s="2">
         <v>1</v>
       </c>
-      <c r="K59" s="2" t="s">
-        <v>33</v>
+      <c r="K59" s="2">
+        <v>100</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -5709,12 +5738,14 @@
       <c r="J63" s="2">
         <v>1</v>
       </c>
-      <c r="K63" s="2" t="s">
-        <v>151</v>
+      <c r="K63" s="2">
+        <v>201</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+      <c r="N63" s="2">
+        <v>103</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="3">
@@ -5770,12 +5801,14 @@
       <c r="J64" s="2">
         <v>1</v>
       </c>
-      <c r="K64" s="2" t="s">
-        <v>151</v>
+      <c r="K64" s="2">
+        <v>201</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="N64" s="2">
+        <v>103</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="3">
@@ -6014,8 +6047,8 @@
       <c r="J68" s="2">
         <v>1</v>
       </c>
-      <c r="K68" s="2" t="s">
-        <v>40</v>
+      <c r="K68" s="2">
+        <v>201</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -6484,8 +6517,8 @@
       <c r="J76" s="2">
         <v>1</v>
       </c>
-      <c r="K76" s="2" t="s">
-        <v>41</v>
+      <c r="K76" s="2">
+        <v>100</v>
       </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -6871,43 +6904,43 @@
         <v>12</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="N1" s="59" t="s">
+      <c r="V1" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>16</v>
@@ -7034,7 +7067,7 @@
         <v>1.712962962962963E-3</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N3" s="58">
         <v>104</v>
@@ -7178,7 +7211,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L5" s="5">
         <v>4.0972222222222226E-3</v>
@@ -7196,7 +7229,7 @@
         <v>4.2245370370370371E-3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -7255,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="52" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L6" s="57">
         <v>4.0393518518518521E-3</v>
@@ -7274,7 +7307,7 @@
         <v>4.0393518518518521E-3</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="W6" s="3" t="e">
         <f xml:space="preserve"> V6-U6</f>
@@ -7324,7 +7357,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L7" s="5">
         <v>4.5254629629629629E-3</v>
@@ -7401,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L8" s="5">
         <v>5.2430555555555555E-3</v>
@@ -7470,7 +7503,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L9" s="5">
         <v>6.0995370370370361E-3</v>
@@ -7543,7 +7576,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L10" s="5">
         <v>6.7708333333333336E-3</v>
@@ -7589,7 +7622,7 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F11" s="21">
         <f>SUM(F2:F10)</f>
@@ -8300,7 +8333,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -8365,7 +8398,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -8495,7 +8528,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -8625,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -9067,7 +9100,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -9392,7 +9425,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -9457,7 +9490,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -9639,7 +9672,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -9834,7 +9867,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -10533,7 +10566,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -10907,7 +10940,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -10972,7 +11005,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -12746,18 +12779,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B5" s="36"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B6" s="36"/>
     </row>

--- a/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
+++ b/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\studies\2020_Aperol_Git\Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B84705B-BCFB-4496-B40E-EBAECB7C01DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6096A5C5-9587-492C-AB6C-960404679FD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
   </bookViews>
@@ -1292,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A75A8A-F741-4C3F-9138-10D56EF9D568}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1931,9 +1931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DD2F59-5577-4BF1-9B09-7232E83E7D11}">
   <dimension ref="A1:W89"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2839,11 +2839,11 @@
         <v>3.0092592592592588E-3</v>
       </c>
       <c r="E15" s="5">
-        <v>3.6111111111111114E-3</v>
+        <v>3.7500000000000003E-3</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="4"/>
-        <v>6.0185185185185255E-4</v>
+        <v>7.4074074074074146E-4</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -3201,7 +3201,7 @@
       <c r="E21" s="19"/>
       <c r="F21" s="21">
         <f>SUM(F12:F20)</f>
-        <v>1.9212962962962959E-3</v>
+        <v>2.0601851851851849E-3</v>
       </c>
       <c r="G21" s="19">
         <f>SUM(G12:G20)</f>

--- a/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
+++ b/studies/2020_Aperol_Git/Coding/manual_coding_b_ET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\studies\2020_Aperol_Git\Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6096A5C5-9587-492C-AB6C-960404679FD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FCF3F5-4ABD-4D1B-BD71-622EE335B1A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" activeTab="1" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
   </bookViews>
   <sheets>
     <sheet name="coding scheme" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="189">
   <si>
     <t>onset</t>
   </si>
@@ -459,12 +459,6 @@
     <t>100-199</t>
   </si>
   <si>
-    <t>disturbing person is addressed directly with name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the teacher addresses the disturbing person directly by name. </t>
-  </si>
-  <si>
     <t xml:space="preserve">allowing an action/ answering a question </t>
   </si>
   <si>
@@ -495,9 +489,6 @@
     <t>the teacher allows an action/ answeres a question.</t>
   </si>
   <si>
-    <t>person A starts clicking nervously with the pen. The teacher notices the disturbance and addresses person A directly by name, asking him to stop the disturbance.</t>
-  </si>
-  <si>
     <t xml:space="preserve">3. Wie katergorisiere ich unterschiedliche Reaktionen? Zählt die erste Reaktion oder die gesamte Reaktionszeit? </t>
   </si>
   <si>
@@ -607,6 +598,18 @@
   </si>
   <si>
     <t>the teachers asks the disturbing person a question.</t>
+  </si>
+  <si>
+    <t>disturbing person is addressed directly (by name)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the teacher addresses the disturbing person directly (by name). </t>
+  </si>
+  <si>
+    <t>person A starts clicking nervously with the pen. The teacher notices the disturbance and addresses person A directly (by name), asking him to stop the disturbance.</t>
+  </si>
+  <si>
+    <t>6. Wie lange wird dynamische AOI aktiviert? Nur für Störungszeit oder noch bis Reaktion der Lehrkraft vorbei ist?</t>
   </si>
 </sst>
 </file>
@@ -616,7 +619,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,6 +681,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -785,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -976,6 +987,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1292,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A75A8A-F741-4C3F-9138-10D56EF9D568}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1485,7 +1497,7 @@
         <v>59</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C14" s="48" t="s">
         <v>70</v>
@@ -1704,13 +1716,13 @@
     </row>
     <row r="34" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="53" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B34" s="46">
         <v>100</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D34" s="40" t="s">
         <v>134</v>
@@ -1732,13 +1744,13 @@
     </row>
     <row r="36" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B36" s="46">
         <v>102</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D36" s="40" t="s">
         <v>136</v>
@@ -1746,44 +1758,44 @@
     </row>
     <row r="37" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="53" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="B37" s="46">
         <v>103</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B38" s="46">
         <v>104</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="53" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B39" s="46">
         <v>105</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1791,7 +1803,7 @@
         <v>122</v>
       </c>
       <c r="B40" s="49" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C40" s="48" t="s">
         <v>128</v>
@@ -1802,7 +1814,7 @@
     </row>
     <row r="41" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B41" s="55">
         <v>200</v>
@@ -1812,19 +1824,19 @@
     </row>
     <row r="42" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="54" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B42" s="55">
         <v>201</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D42" s="56"/>
     </row>
     <row r="43" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="54" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B43" s="55">
         <v>202</v>
@@ -1929,11 +1941,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DD2F59-5577-4BF1-9B09-7232E83E7D11}">
-  <dimension ref="A1:W89"/>
+  <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1950,19 +1962,20 @@
     <col min="11" max="11" width="17.44140625" style="1" customWidth="1"/>
     <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" style="1" customWidth="1"/>
-    <col min="20" max="20" width="21.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.88671875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5546875" style="1"/>
+    <col min="15" max="16" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.88671875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -1991,49 +2004,55 @@
         <v>12</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="R1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -2074,27 +2093,29 @@
       <c r="N2" s="52"/>
       <c r="O2" s="52"/>
       <c r="P2" s="52"/>
-      <c r="Q2" s="3">
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="3">
         <v>9.2592592592592585E-4</v>
       </c>
-      <c r="R2" s="3">
+      <c r="T2" s="3">
         <v>9.6064814814814808E-4</v>
       </c>
-      <c r="S2" s="3">
-        <f t="shared" ref="S2:S10" si="1" xml:space="preserve"> R2-Q2</f>
+      <c r="U2" s="3">
+        <f t="shared" ref="U2:U10" si="1" xml:space="preserve"> T2-S2</f>
         <v>3.4722222222222229E-5</v>
       </c>
-      <c r="T2" s="3">
-        <f>Q2-H2</f>
+      <c r="V2" s="3">
+        <f>S2-H2</f>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="3">
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2137,27 +2158,29 @@
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="3">
         <v>1.7245370370370372E-3</v>
       </c>
-      <c r="R3" s="3">
+      <c r="T3" s="3">
         <v>2.0254629629629629E-3</v>
       </c>
-      <c r="S3" s="3">
+      <c r="U3" s="3">
         <f t="shared" si="1"/>
         <v>3.0092592592592562E-4</v>
       </c>
-      <c r="T3" s="3">
-        <f t="shared" ref="T3:T10" si="3">Q3-H3</f>
+      <c r="V3" s="3">
+        <f t="shared" ref="V3:V10" si="3">S3-H3</f>
         <v>1.1574074074074221E-5</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="3">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -2200,27 +2223,29 @@
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="12">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="12">
         <v>2.8587962962962963E-3</v>
       </c>
-      <c r="R4" s="12">
+      <c r="T4" s="12">
         <v>2.9282407407407412E-3</v>
       </c>
-      <c r="S4" s="12">
+      <c r="U4" s="12">
         <f t="shared" si="1"/>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="T4" s="12">
+      <c r="V4" s="12">
         <f t="shared" si="3"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="12">
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="12">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -2263,27 +2288,29 @@
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="3">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="3">
         <v>4.108796296296297E-3</v>
       </c>
-      <c r="R5" s="3">
+      <c r="T5" s="3">
         <v>4.2129629629629626E-3</v>
       </c>
-      <c r="S5" s="3">
+      <c r="U5" s="3">
         <f t="shared" si="1"/>
         <v>1.041666666666656E-4</v>
       </c>
-      <c r="T5" s="3">
+      <c r="V5" s="3">
         <f t="shared" si="3"/>
         <v>7.8703703703703791E-4</v>
       </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="3">
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2324,27 +2351,29 @@
       <c r="N6" s="52"/>
       <c r="O6" s="52"/>
       <c r="P6" s="52"/>
-      <c r="Q6" s="3">
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="3">
         <v>4.0277777777777777E-3</v>
       </c>
-      <c r="R6" s="3">
+      <c r="T6" s="3">
         <v>4.0624999999999993E-3</v>
       </c>
-      <c r="S6" s="3">
+      <c r="U6" s="3">
         <f t="shared" si="1"/>
         <v>3.4722222222221578E-5</v>
       </c>
-      <c r="T6" s="3">
+      <c r="V6" s="3">
         <f t="shared" si="3"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="3">
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2385,31 +2414,33 @@
       <c r="N7" s="2">
         <v>103</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2">
         <v>104</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="3">
+      <c r="R7" s="2"/>
+      <c r="S7" s="3">
         <v>4.5138888888888893E-3</v>
       </c>
-      <c r="R7" s="3">
+      <c r="T7" s="3">
         <v>4.5717592592592589E-3</v>
       </c>
-      <c r="S7" s="3">
+      <c r="U7" s="3">
         <f t="shared" si="1"/>
         <v>5.7870370370369587E-5</v>
       </c>
-      <c r="T7" s="3">
+      <c r="V7" s="3">
         <f t="shared" si="3"/>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="3">
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2450,27 +2481,29 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="3">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3">
         <v>5.2430555555555555E-3</v>
       </c>
-      <c r="R8" s="6">
+      <c r="T8" s="6">
         <v>5.3009259259259251E-3</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <f t="shared" si="1"/>
         <v>5.7870370370369587E-5</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <f t="shared" si="3"/>
         <v>1.9675925925925937E-4</v>
       </c>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="3">
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2511,27 +2544,29 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="3">
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3">
         <v>6.1111111111111114E-3</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>6.1342592592592594E-3</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <f t="shared" si="1"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <f t="shared" si="3"/>
         <v>3.9351851851851874E-4</v>
       </c>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="3">
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -2574,27 +2609,29 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="3">
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3">
         <v>6.7708333333333336E-3</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>6.851851851851852E-3</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <f t="shared" si="1"/>
         <v>8.1018518518518462E-5</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="3">
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>36</v>
       </c>
@@ -2630,19 +2667,21 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
-      <c r="S11" s="20">
-        <f>SUM(S12:S20)</f>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="20">
+        <f>SUM(U12:U20)</f>
         <v>6.9444444444444631E-4</v>
       </c>
-      <c r="T11" s="20">
-        <f>SUM(T12:T20)</f>
+      <c r="V11" s="20">
+        <f>SUM(V12:V20)</f>
         <v>3.8194444444444137E-4</v>
       </c>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
       <c r="W11" s="19"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -2683,27 +2722,29 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="3">
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3">
         <v>1.0300925925925926E-3</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1.1226851851851851E-3</v>
       </c>
-      <c r="S12" s="3">
-        <f xml:space="preserve"> R12-Q12</f>
+      <c r="U12" s="3">
+        <f xml:space="preserve"> T12-S12</f>
         <v>9.2592592592592466E-5</v>
       </c>
-      <c r="T12" s="3">
-        <f>Q12-H12</f>
+      <c r="V12" s="3">
+        <f>S12-H12</f>
         <v>1.273148148148148E-4</v>
       </c>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="3">
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -2744,27 +2785,29 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="3">
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3">
         <v>1.5856481481481479E-3</v>
       </c>
-      <c r="R13" s="3">
+      <c r="T13" s="3">
         <v>1.6666666666666668E-3</v>
       </c>
-      <c r="S13" s="3">
-        <f xml:space="preserve"> R13-Q13</f>
+      <c r="U13" s="3">
+        <f xml:space="preserve"> T13-S13</f>
         <v>8.1018518518518896E-5</v>
       </c>
-      <c r="T13" s="3">
-        <f>Q13-H13</f>
+      <c r="V13" s="3">
+        <f>S13-H13</f>
         <v>1.1574074074073787E-5</v>
       </c>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="3">
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -2805,27 +2848,29 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="3">
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3">
         <v>2.3958333333333336E-3</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>2.5231481481481481E-3</v>
       </c>
-      <c r="S14" s="3">
-        <f xml:space="preserve"> R14-Q14</f>
+      <c r="U14" s="3">
+        <f xml:space="preserve"> T14-S14</f>
         <v>1.2731481481481448E-4</v>
       </c>
-      <c r="T14" s="3">
-        <f>H14-Q14</f>
+      <c r="V14" s="3">
+        <f>H14-S14</f>
         <v>8.1018518518518028E-5</v>
       </c>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="3">
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -2865,25 +2910,27 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="3">
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -2924,27 +2971,29 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="3">
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3">
         <v>3.6342592592592594E-3</v>
       </c>
-      <c r="R16" s="3">
+      <c r="T16" s="3">
         <v>3.7268518518518514E-3</v>
       </c>
-      <c r="S16" s="3">
-        <f xml:space="preserve"> R16-Q16</f>
+      <c r="U16" s="3">
+        <f xml:space="preserve"> T16-S16</f>
         <v>9.2592592592592032E-5</v>
       </c>
-      <c r="T16" s="3">
-        <f>Q16-H16</f>
+      <c r="V16" s="3">
+        <f>S16-H16</f>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="3">
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -2985,27 +3034,29 @@
       <c r="N17" s="52"/>
       <c r="O17" s="52"/>
       <c r="P17" s="52"/>
-      <c r="Q17" s="3">
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="3">
         <v>4.3287037037037035E-3</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>4.363425925925926E-3</v>
       </c>
-      <c r="S17" s="3">
-        <f xml:space="preserve"> R17-Q17</f>
+      <c r="U17" s="3">
+        <f xml:space="preserve"> T17-S17</f>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="T17" s="3">
-        <f>Q17-H17</f>
+      <c r="V17" s="3">
+        <f>S17-H17</f>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="3">
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
@@ -3046,27 +3097,29 @@
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
-      <c r="Q18" s="12">
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="12">
         <v>5.4050925925925924E-3</v>
       </c>
-      <c r="R18" s="12">
+      <c r="T18" s="12">
         <v>5.4745370370370373E-3</v>
       </c>
-      <c r="S18" s="12">
-        <f xml:space="preserve"> R18-Q18</f>
+      <c r="U18" s="12">
+        <f xml:space="preserve"> T18-S18</f>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="T18" s="12">
-        <f>Q18-H18</f>
+      <c r="V18" s="12">
+        <f>S18-H18</f>
         <v>2.3148148148147141E-5</v>
       </c>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="12">
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="12">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -3107,27 +3160,29 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="3">
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3">
         <v>5.9490740740740745E-3</v>
       </c>
-      <c r="R19" s="3">
+      <c r="T19" s="3">
         <v>6.0879629629629643E-3</v>
       </c>
-      <c r="S19" s="3">
-        <f xml:space="preserve"> R19-Q19</f>
+      <c r="U19" s="3">
+        <f xml:space="preserve"> T19-S19</f>
         <v>1.3888888888888978E-4</v>
       </c>
-      <c r="T19" s="3">
-        <f>Q19-H19</f>
+      <c r="V19" s="3">
+        <f>S19-H19</f>
         <v>4.6296296296296884E-5</v>
       </c>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="3">
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -3168,27 +3223,29 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="3">
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3">
         <v>6.4930555555555549E-3</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>6.5509259259259262E-3</v>
       </c>
-      <c r="S20" s="3">
-        <f xml:space="preserve"> R20-Q20</f>
+      <c r="U20" s="3">
+        <f xml:space="preserve"> T20-S20</f>
         <v>5.7870370370371321E-5</v>
       </c>
-      <c r="T20" s="3">
-        <f>Q20-H20</f>
+      <c r="V20" s="3">
+        <f>S20-H20</f>
         <v>5.7870370370368719E-5</v>
       </c>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="3">
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>36</v>
       </c>
@@ -3224,19 +3281,21 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
-      <c r="S21" s="20">
-        <f>SUM(S12:S20)</f>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="20">
+        <f>SUM(U12:U20)</f>
         <v>6.9444444444444631E-4</v>
       </c>
-      <c r="T21" s="20">
-        <f>SUM(T12:T20)</f>
+      <c r="V21" s="20">
+        <f>SUM(V12:V20)</f>
         <v>3.8194444444444137E-4</v>
       </c>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
       <c r="W21" s="19"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -3272,34 +3331,44 @@
       <c r="K22" s="2">
         <v>200</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="L22" s="3">
+        <v>1.4699074074074074E-3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1.4930555555555556E-3</v>
+      </c>
       <c r="N22" s="2">
         <v>104</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="3">
+      <c r="O22" s="3">
         <v>1.4814814814814814E-3</v>
       </c>
-      <c r="R22" s="3">
+      <c r="P22" s="3">
+        <v>1.5393518518518519E-3</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3">
+        <v>1.4814814814814814E-3</v>
+      </c>
+      <c r="T22" s="3">
         <v>1.5624999999999999E-3</v>
       </c>
-      <c r="S22" s="3">
-        <f t="shared" ref="S22:S30" si="8" xml:space="preserve"> R22-Q22</f>
+      <c r="U22" s="3">
+        <f t="shared" ref="U22:U30" si="8" xml:space="preserve"> T22-S22</f>
         <v>8.1018518518518462E-5</v>
       </c>
-      <c r="T22" s="3">
-        <f t="shared" ref="T22:T30" si="9">Q22-H22</f>
+      <c r="V22" s="3">
+        <f t="shared" ref="V22:V30" si="9">S22-H22</f>
         <v>2.0833333333333316E-4</v>
       </c>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="3">
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3342,27 +3411,29 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="3">
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3">
         <v>2.0023148148148148E-3</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2.0601851851851853E-3</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <f t="shared" si="8"/>
         <v>5.7870370370370454E-5</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <f t="shared" si="9"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="3">
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -3403,27 +3474,29 @@
       <c r="N24" s="52"/>
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
-      <c r="Q24" s="3">
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="3">
         <v>2.2337962962962967E-3</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>2.3148148148148151E-3</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <f t="shared" si="8"/>
         <v>8.1018518518518462E-5</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <f t="shared" si="9"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="3">
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -3466,27 +3539,29 @@
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="3">
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3">
         <v>3.0439814814814821E-3</v>
       </c>
-      <c r="R25" s="3">
+      <c r="T25" s="3">
         <v>3.0902777777777782E-3</v>
       </c>
-      <c r="S25" s="3">
+      <c r="U25" s="3">
         <f t="shared" si="8"/>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="T25" s="3">
+      <c r="V25" s="3">
         <f t="shared" si="9"/>
         <v>1.1574074074074871E-5</v>
       </c>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="3">
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -3529,27 +3604,29 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="3">
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3">
         <v>3.8425925925925923E-3</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>3.9236111111111112E-3</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <f t="shared" si="8"/>
         <v>8.1018518518518896E-5</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="3">
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -3560,14 +3637,14 @@
         <v>31</v>
       </c>
       <c r="D27" s="3">
-        <v>4.2361111111111106E-3</v>
+        <v>4.2824074074074075E-3</v>
       </c>
       <c r="E27" s="3">
         <v>4.6874999999999998E-3</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="6"/>
-        <v>4.5138888888888919E-4</v>
+        <v>4.0509259259259231E-4</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -3577,7 +3654,7 @@
       </c>
       <c r="I27" s="3">
         <f t="shared" si="7"/>
-        <v>5.7870370370370454E-5</v>
+        <v>1.157407407407357E-5</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
@@ -3592,27 +3669,29 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="3">
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3">
         <v>4.5717592592592589E-3</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>4.7453703703703703E-3</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <f t="shared" si="8"/>
         <v>1.7361111111111136E-4</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <f t="shared" si="9"/>
         <v>2.7777777777777783E-4</v>
       </c>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="3">
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -3655,27 +3734,29 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="3">
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3">
         <v>5.2777777777777771E-3</v>
       </c>
-      <c r="R28" s="3">
+      <c r="T28" s="3">
         <v>5.4166666666666669E-3</v>
       </c>
-      <c r="S28" s="3">
+      <c r="U28" s="3">
         <f t="shared" si="8"/>
         <v>1.3888888888888978E-4</v>
       </c>
-      <c r="T28" s="3">
+      <c r="V28" s="3">
         <f t="shared" si="9"/>
         <v>2.3148148148147141E-5</v>
       </c>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="3">
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -3716,27 +3797,29 @@
       <c r="N29" s="52"/>
       <c r="O29" s="52"/>
       <c r="P29" s="52"/>
-      <c r="Q29" s="3">
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="3">
         <v>6.053240740740741E-3</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>6.2268518518518515E-3</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <f t="shared" si="8"/>
         <v>1.7361111111111049E-4</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <f t="shared" si="9"/>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="3">
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -3777,27 +3860,29 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="3">
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3">
         <v>6.4930555555555549E-3</v>
       </c>
-      <c r="R30" s="3">
+      <c r="T30" s="3">
         <v>6.6550925925925935E-3</v>
       </c>
-      <c r="S30" s="3">
+      <c r="U30" s="3">
         <f t="shared" si="8"/>
         <v>1.6203703703703866E-4</v>
       </c>
-      <c r="T30" s="3">
+      <c r="V30" s="3">
         <f t="shared" si="9"/>
         <v>1.0416666666666647E-4</v>
       </c>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="3">
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>36</v>
       </c>
@@ -3810,7 +3895,7 @@
       <c r="E31" s="19"/>
       <c r="F31" s="21">
         <f>SUM(F22:F30)</f>
-        <v>3.9120370370370359E-3</v>
+        <v>3.865740740740739E-3</v>
       </c>
       <c r="G31" s="19">
         <f>SUM(G22:G30)</f>
@@ -3819,7 +3904,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="20">
         <f>SUM(I22:I30)</f>
-        <v>9.1435185185184957E-4</v>
+        <v>8.6805555555555269E-4</v>
       </c>
       <c r="J31" s="19">
         <f>SUM(J22:J30)</f>
@@ -3833,19 +3918,21 @@
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
-      <c r="S31" s="20">
-        <f>SUM(S22:S30)</f>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="20">
+        <f>SUM(U22:U30)</f>
         <v>9.9537037037037259E-4</v>
       </c>
-      <c r="T31" s="20">
-        <f>SUM(T22:T30)</f>
+      <c r="V31" s="20">
+        <f>SUM(V22:V30)</f>
         <v>7.175925925925928E-4</v>
       </c>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
       <c r="W31" s="19"/>
-    </row>
-    <row r="32" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+    </row>
+    <row r="32" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -3886,27 +3973,29 @@
       <c r="N32" s="52"/>
       <c r="O32" s="52"/>
       <c r="P32" s="52"/>
-      <c r="Q32" s="3">
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="3">
         <v>7.407407407407407E-4</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>8.9120370370370362E-4</v>
       </c>
-      <c r="S32" s="3">
-        <f xml:space="preserve"> R32-Q32</f>
+      <c r="U32" s="3">
+        <f xml:space="preserve"> T32-S32</f>
         <v>1.5046296296296292E-4</v>
       </c>
-      <c r="T32" s="3">
-        <f>Q32-H32</f>
+      <c r="V32" s="3">
+        <f>S32-H32</f>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="3">
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -3947,27 +4036,29 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="3">
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3">
         <v>1.8750000000000001E-3</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1.9097222222222222E-3</v>
       </c>
-      <c r="S33" s="3">
-        <f xml:space="preserve"> R33-Q33</f>
+      <c r="U33" s="3">
+        <f xml:space="preserve"> T33-S33</f>
         <v>3.4722222222222012E-5</v>
       </c>
-      <c r="T33" s="3">
-        <f>Q33-H33</f>
+      <c r="V33" s="3">
+        <f>S33-H33</f>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="3">
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
@@ -4010,27 +4101,29 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="3">
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3">
         <v>2.627314814814815E-3</v>
       </c>
-      <c r="R34" s="3">
+      <c r="T34" s="3">
         <v>2.673611111111111E-3</v>
       </c>
-      <c r="S34" s="3">
-        <f xml:space="preserve"> R34-Q34</f>
+      <c r="U34" s="3">
+        <f xml:space="preserve"> T34-S34</f>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="T34" s="3">
-        <f>Q34-H34</f>
+      <c r="V34" s="3">
+        <f>S34-H34</f>
         <v>4.2824074074074075E-4</v>
       </c>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="3">
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>25</v>
       </c>
@@ -4071,27 +4164,29 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="3">
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3">
         <v>4.4212962962962956E-3</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>4.4791666666666669E-3</v>
       </c>
-      <c r="S35" s="3">
-        <f xml:space="preserve"> R34-Q34</f>
+      <c r="U35" s="3">
+        <f xml:space="preserve"> T34-S34</f>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="T35" s="3">
-        <f>Q35-H35</f>
+      <c r="V35" s="3">
+        <f>S35-H35</f>
         <v>2.3148148148147141E-5</v>
       </c>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="3">
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>25</v>
       </c>
@@ -4132,27 +4227,29 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="3">
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3">
         <v>3.5879629629629629E-3</v>
       </c>
-      <c r="R36" s="3">
+      <c r="T36" s="3">
         <v>3.6226851851851854E-3</v>
       </c>
-      <c r="S36" s="3">
-        <f xml:space="preserve"> R35-Q35</f>
+      <c r="U36" s="3">
+        <f xml:space="preserve"> T35-S35</f>
         <v>5.7870370370371321E-5</v>
       </c>
-      <c r="T36" s="3">
-        <f>Q35-H36</f>
+      <c r="V36" s="3">
+        <f>S35-H36</f>
         <v>8.564814814814802E-4</v>
       </c>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="3">
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
@@ -4193,27 +4290,29 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="3">
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3">
         <v>4.6180555555555558E-3</v>
       </c>
-      <c r="R37" s="3">
+      <c r="T37" s="3">
         <v>4.6643518518518518E-3</v>
       </c>
-      <c r="S37" s="3">
-        <f xml:space="preserve"> R37-Q37</f>
+      <c r="U37" s="3">
+        <f xml:space="preserve"> T37-S37</f>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="T37" s="3">
-        <f>Q37-H37</f>
+      <c r="V37" s="3">
+        <f>S37-H37</f>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="3">
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
@@ -4254,27 +4353,29 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="3">
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3">
         <v>4.9537037037037041E-3</v>
       </c>
-      <c r="R38" s="3">
+      <c r="T38" s="3">
         <v>5.0694444444444441E-3</v>
       </c>
-      <c r="S38" s="3">
-        <f xml:space="preserve"> R38-Q38</f>
+      <c r="U38" s="3">
+        <f xml:space="preserve"> T38-S38</f>
         <v>1.1574074074074004E-4</v>
       </c>
-      <c r="T38" s="3">
-        <f>Q38-H38</f>
+      <c r="V38" s="3">
+        <f>S38-H38</f>
         <v>1.1574074074075305E-5</v>
       </c>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="3">
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
@@ -4317,27 +4418,29 @@
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="3">
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="R39" s="3">
+      <c r="T39" s="3">
         <v>5.9722222222222225E-3</v>
       </c>
-      <c r="S39" s="3">
-        <f xml:space="preserve"> R39-Q39</f>
+      <c r="U39" s="3">
+        <f xml:space="preserve"> T39-S39</f>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="T39" s="3">
-        <f>Q39-H39</f>
+      <c r="V39" s="3">
+        <f>S39-H39</f>
         <v>1.8518518518518493E-4</v>
       </c>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="3">
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>25</v>
       </c>
@@ -4380,27 +4483,29 @@
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="Q40" s="3">
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3">
         <v>6.2731481481481484E-3</v>
       </c>
-      <c r="R40" s="3">
+      <c r="T40" s="3">
         <v>6.3078703703703708E-3</v>
       </c>
-      <c r="S40" s="3">
-        <f xml:space="preserve"> R40-Q40</f>
+      <c r="U40" s="3">
+        <f xml:space="preserve"> T40-S40</f>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="T40" s="3">
-        <f>Q40-H40</f>
+      <c r="V40" s="3">
+        <f>S40-H40</f>
         <v>4.6296296296296884E-5</v>
       </c>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="3">
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>37</v>
       </c>
@@ -4436,19 +4541,21 @@
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
-      <c r="S41" s="20">
-        <f>SUM(S32:S40)</f>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="20">
+        <f>SUM(U32:U40)</f>
         <v>6.0185185185185168E-4</v>
       </c>
-      <c r="T41" s="20">
-        <f>SUM(T32:T40)</f>
+      <c r="V41" s="20">
+        <f>SUM(V32:V40)</f>
         <v>1.5972222222222212E-3</v>
       </c>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
       <c r="W41" s="19"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>28</v>
       </c>
@@ -4489,27 +4596,29 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
-      <c r="Q42" s="3">
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3">
         <v>1.6782407407407406E-3</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1.712962962962963E-3</v>
       </c>
-      <c r="S42" s="3">
-        <f t="shared" ref="S42" si="14" xml:space="preserve"> R42-Q42</f>
+      <c r="U42" s="3">
+        <f t="shared" ref="U42" si="14" xml:space="preserve"> T42-S42</f>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="T42" s="3">
-        <f t="shared" ref="T42" si="15">Q42-H42</f>
+      <c r="V42" s="3">
+        <f t="shared" ref="V42" si="15">S42-H42</f>
         <v>6.5972222222222192E-4</v>
       </c>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="3">
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
@@ -4552,27 +4661,29 @@
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
-      <c r="Q43" s="3">
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2.1296296296296298E-3</v>
       </c>
-      <c r="S43" s="3">
-        <f t="shared" ref="S43:S50" si="16" xml:space="preserve"> R43-Q43</f>
+      <c r="U43" s="3">
+        <f t="shared" ref="U43:U50" si="16" xml:space="preserve"> T43-S43</f>
         <v>4.629629629629645E-5</v>
       </c>
-      <c r="T43" s="3">
-        <f t="shared" ref="T43:T50" si="17">Q43-H43</f>
+      <c r="V43" s="3">
+        <f t="shared" ref="V43:V50" si="17">S43-H43</f>
         <v>5.4398148148148144E-4</v>
       </c>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="3">
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
@@ -4613,27 +4724,29 @@
       <c r="N44" s="52"/>
       <c r="O44" s="52"/>
       <c r="P44" s="52"/>
-      <c r="Q44" s="3">
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="3">
         <v>2.2800925925925927E-3</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>2.3726851851851851E-3</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <f t="shared" si="16"/>
         <v>9.2592592592592466E-5</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <f t="shared" si="17"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="3">
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>28</v>
       </c>
@@ -4674,27 +4787,29 @@
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
-      <c r="Q45" s="3">
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3">
         <v>3.7152777777777774E-3</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>3.7615740740740739E-3</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <f t="shared" si="16"/>
         <v>4.629629629629645E-5</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <f t="shared" si="17"/>
         <v>4.1666666666666631E-4</v>
       </c>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="3">
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>28</v>
       </c>
@@ -4737,27 +4852,29 @@
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
-      <c r="Q46" s="3">
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3">
         <v>3.8425925925925923E-3</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4.0046296296296297E-3</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <f t="shared" si="16"/>
         <v>1.6203703703703736E-4</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <f t="shared" si="17"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="3">
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -4798,27 +4915,29 @@
       <c r="N47" s="52"/>
       <c r="O47" s="52"/>
       <c r="P47" s="52"/>
-      <c r="Q47" s="3">
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="3">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>4.8842592592592592E-3</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <f t="shared" si="16"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="T47" s="3">
-        <f>Q47-H47</f>
+      <c r="V47" s="3">
+        <f>S47-H47</f>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="3">
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>28</v>
       </c>
@@ -4859,27 +4978,29 @@
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
-      <c r="Q48" s="3">
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3">
         <v>5.138888888888889E-3</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>5.1736111111111115E-3</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <f t="shared" si="16"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="T48" s="3">
-        <f>Q48-H48</f>
+      <c r="V48" s="3">
+        <f>S48-H48</f>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="3">
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>28</v>
       </c>
@@ -4920,27 +5041,29 @@
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
-      <c r="Q49" s="3">
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3">
         <v>6.076388888888889E-3</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>6.0995370370370361E-3</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <f t="shared" si="16"/>
         <v>2.3148148148147141E-5</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <f t="shared" si="17"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="3">
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>28</v>
       </c>
@@ -4981,27 +5104,29 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
-      <c r="Q50" s="3">
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="3">
         <v>6.6550925925925935E-3</v>
       </c>
-      <c r="R50" s="3">
+      <c r="T50" s="3">
         <v>6.6898148148148142E-3</v>
       </c>
-      <c r="S50" s="3">
+      <c r="U50" s="3">
         <f t="shared" si="16"/>
         <v>3.4722222222220711E-5</v>
       </c>
-      <c r="T50" s="3">
+      <c r="V50" s="3">
         <f t="shared" si="17"/>
         <v>1.1574074074074178E-4</v>
       </c>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="3">
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>36</v>
       </c>
@@ -5037,19 +5162,21 @@
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
       <c r="R51" s="19"/>
-      <c r="S51" s="20">
-        <f>SUM(S42:S50)</f>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="20">
+        <f>SUM(U42:U50)</f>
         <v>4.9768518518518347E-4</v>
       </c>
-      <c r="T51" s="20">
-        <f>SUM(T42:T50)</f>
+      <c r="V51" s="20">
+        <f>SUM(V42:V50)</f>
         <v>1.8287037037037048E-3</v>
       </c>
-      <c r="U51" s="19"/>
-      <c r="V51" s="19"/>
       <c r="W51" s="19"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>30</v>
       </c>
@@ -5090,27 +5217,29 @@
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
-      <c r="Q52" s="3">
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="3">
         <v>1.2268518518518518E-3</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1.2731481481481483E-3</v>
       </c>
-      <c r="S52" s="3">
-        <f t="shared" ref="S52:S70" si="19" xml:space="preserve"> R52-Q52</f>
+      <c r="U52" s="3">
+        <f t="shared" ref="U52:U70" si="19" xml:space="preserve"> T52-S52</f>
         <v>4.629629629629645E-5</v>
       </c>
-      <c r="T52" s="3">
-        <f t="shared" ref="T52:T80" si="20">Q52-H52</f>
+      <c r="V52" s="3">
+        <f t="shared" ref="V52:V80" si="20">S52-H52</f>
         <v>3.4722222222222229E-5</v>
       </c>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="3">
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>30</v>
       </c>
@@ -5150,25 +5279,27 @@
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
-      <c r="Q53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R53" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
       <c r="S53" s="3" t="s">
         <v>14</v>
       </c>
       <c r="T53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="3">
+      <c r="U53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>30</v>
       </c>
@@ -5209,27 +5340,29 @@
       <c r="N54" s="52"/>
       <c r="O54" s="52"/>
       <c r="P54" s="52"/>
-      <c r="Q54" s="3">
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="3">
         <v>2.5462962962962961E-3</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2.615740740740741E-3</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <f t="shared" si="19"/>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="3">
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>30</v>
       </c>
@@ -5270,27 +5403,29 @@
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
-      <c r="Q55" s="3">
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="3">
         <v>3.1944444444444442E-3</v>
       </c>
-      <c r="R55" s="3">
+      <c r="T55" s="3">
         <v>3.2523148148148151E-3</v>
       </c>
-      <c r="S55" s="3">
+      <c r="U55" s="3">
         <f t="shared" si="19"/>
         <v>5.7870370370370888E-5</v>
       </c>
-      <c r="T55" s="3">
+      <c r="V55" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="3">
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>30</v>
       </c>
@@ -5331,27 +5466,29 @@
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
-      <c r="Q56" s="3">
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="3">
         <v>4.0046296296296297E-3</v>
       </c>
-      <c r="R56" s="3">
+      <c r="T56" s="3">
         <v>4.0277777777777777E-3</v>
       </c>
-      <c r="S56" s="3">
+      <c r="U56" s="3">
         <f t="shared" si="19"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="T56" s="3">
+      <c r="V56" s="3">
         <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="3">
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>30</v>
       </c>
@@ -5394,27 +5531,29 @@
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
-      <c r="Q57" s="3">
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="3">
         <v>4.7106481481481478E-3</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <f t="shared" si="19"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="3">
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>30</v>
       </c>
@@ -5457,27 +5596,29 @@
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
-      <c r="Q58" s="3">
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="3">
         <v>5.4166666666666669E-3</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>5.5439814814814822E-3</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <f t="shared" si="19"/>
         <v>1.2731481481481535E-4</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="3">
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>30</v>
       </c>
@@ -5518,27 +5659,29 @@
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
-      <c r="Q59" s="3">
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="3">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>5.9375000000000009E-3</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <f t="shared" si="19"/>
         <v>3.4722222222223313E-5</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <f t="shared" si="20"/>
         <v>3.4722222222223313E-5</v>
       </c>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="3">
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
@@ -5579,27 +5722,29 @@
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
-      <c r="Q60" s="3">
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="3">
         <v>6.6550925925925935E-3</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6.7129629629629622E-3</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <f t="shared" si="19"/>
         <v>5.7870370370368719E-5</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <f t="shared" si="20"/>
         <v>2.3148148148148875E-5</v>
       </c>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="3">
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>37</v>
       </c>
@@ -5632,19 +5777,21 @@
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
       <c r="R61" s="19"/>
-      <c r="S61" s="20">
-        <f>SUM(S52:S60)</f>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="20">
+        <f>SUM(U52:U60)</f>
         <v>4.2824074074074205E-4</v>
       </c>
-      <c r="T61" s="20">
-        <f>SUM(T52:T60)</f>
+      <c r="V61" s="20">
+        <f>SUM(V52:V60)</f>
         <v>1.7361111111111288E-4</v>
       </c>
-      <c r="U61" s="19"/>
-      <c r="V61" s="19"/>
       <c r="W61" s="19"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X61" s="19"/>
+      <c r="Y61" s="19"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>34</v>
       </c>
@@ -5685,27 +5832,29 @@
       <c r="N62" s="52"/>
       <c r="O62" s="52"/>
       <c r="P62" s="52"/>
-      <c r="Q62" s="3">
+      <c r="Q62" s="52"/>
+      <c r="R62" s="52"/>
+      <c r="S62" s="3">
         <v>1.0300925925925926E-3</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1.1689814814814816E-3</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <f t="shared" si="19"/>
         <v>1.3888888888888892E-4</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <f t="shared" si="20"/>
         <v>2.3148148148148225E-5</v>
       </c>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="3">
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>34</v>
       </c>
@@ -5748,27 +5897,29 @@
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
-      <c r="Q63" s="3">
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="3">
         <v>1.8518518518518517E-3</v>
       </c>
-      <c r="R63" s="3">
+      <c r="T63" s="3">
         <v>1.8865740740740742E-3</v>
       </c>
-      <c r="S63" s="3">
+      <c r="U63" s="3">
         <f t="shared" si="19"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="T63" s="3">
+      <c r="V63" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="3">
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>34</v>
       </c>
@@ -5811,27 +5962,29 @@
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
-      <c r="Q64" s="3">
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="3">
         <v>2.4537037037037036E-3</v>
       </c>
-      <c r="R64" s="3">
+      <c r="T64" s="3">
         <v>2.6388888888888885E-3</v>
       </c>
-      <c r="S64" s="3">
+      <c r="U64" s="3">
         <f t="shared" si="19"/>
         <v>1.8518518518518493E-4</v>
       </c>
-      <c r="T64" s="3">
+      <c r="V64" s="3">
         <f t="shared" si="20"/>
         <v>1.6203703703703692E-4</v>
       </c>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="3">
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>34</v>
       </c>
@@ -5872,27 +6025,29 @@
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
-      <c r="Q65" s="3">
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="3">
         <v>3.4027777777777784E-3</v>
       </c>
-      <c r="R65" s="3">
+      <c r="T65" s="3">
         <v>3.5532407407407405E-3</v>
       </c>
-      <c r="S65" s="3">
+      <c r="U65" s="3">
         <f t="shared" si="19"/>
         <v>1.5046296296296205E-4</v>
       </c>
-      <c r="T65" s="3">
+      <c r="V65" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074871E-5</v>
       </c>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="3">
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>34</v>
       </c>
@@ -5933,27 +6088,29 @@
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
-      <c r="Q66" s="3">
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="3">
         <v>3.7962962962962963E-3</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3.8541666666666668E-3</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <f t="shared" si="19"/>
         <v>5.7870370370370454E-5</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
-      <c r="W66" s="3">
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>34</v>
       </c>
@@ -5994,27 +6151,29 @@
       <c r="N67" s="52"/>
       <c r="O67" s="52"/>
       <c r="P67" s="52"/>
-      <c r="Q67" s="3">
+      <c r="Q67" s="52"/>
+      <c r="R67" s="52"/>
+      <c r="S67" s="3">
         <v>4.5486111111111109E-3</v>
       </c>
-      <c r="R67" s="3">
+      <c r="T67" s="3">
         <v>4.5833333333333334E-3</v>
       </c>
-      <c r="S67" s="3">
+      <c r="U67" s="3">
         <f t="shared" si="19"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="T67" s="3">
+      <c r="V67" s="3">
         <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="3">
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>34</v>
       </c>
@@ -6055,27 +6214,29 @@
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
-      <c r="Q68" s="3">
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="3">
         <v>6.053240740740741E-3</v>
       </c>
-      <c r="R68" s="3">
+      <c r="T68" s="3">
         <v>6.3657407407407404E-3</v>
       </c>
-      <c r="S68" s="3">
+      <c r="U68" s="3">
         <f t="shared" si="19"/>
         <v>3.1249999999999941E-4</v>
       </c>
-      <c r="T68" s="3">
+      <c r="V68" s="3">
         <f t="shared" si="20"/>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="3">
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>34</v>
       </c>
@@ -6116,27 +6277,29 @@
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
-      <c r="Q69" s="3">
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="3">
         <v>6.9212962962962969E-3</v>
       </c>
-      <c r="R69" s="3">
+      <c r="T69" s="3">
         <v>7.106481481481481E-3</v>
       </c>
-      <c r="S69" s="3">
+      <c r="U69" s="3">
         <f t="shared" si="19"/>
         <v>1.8518518518518406E-4</v>
       </c>
-      <c r="T69" s="3">
+      <c r="V69" s="3">
         <f t="shared" si="20"/>
         <v>5.7870370370370541E-4</v>
       </c>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="3">
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>34</v>
       </c>
@@ -6177,27 +6340,29 @@
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
-      <c r="Q70" s="3">
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="3">
         <v>6.6782407407407415E-3</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>6.7245370370370367E-3</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <f t="shared" si="19"/>
         <v>4.6296296296295149E-5</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <f t="shared" si="20"/>
         <v>8.1018518518519329E-5</v>
       </c>
-      <c r="U70" s="2"/>
-      <c r="V70" s="2"/>
-      <c r="W70" s="3">
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
         <v>36</v>
       </c>
@@ -6230,19 +6395,21 @@
       <c r="P71" s="19"/>
       <c r="Q71" s="19"/>
       <c r="R71" s="19"/>
-      <c r="S71" s="20">
-        <f>SUM(S62:S70)</f>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="20">
+        <f>SUM(U62:U70)</f>
         <v>1.1458333333333299E-3</v>
       </c>
-      <c r="T71" s="20">
-        <f>SUM(T62:T70)</f>
+      <c r="V71" s="20">
+        <f>SUM(V62:V70)</f>
         <v>9.8379629629629967E-4</v>
       </c>
-      <c r="U71" s="19"/>
-      <c r="V71" s="19"/>
       <c r="W71" s="19"/>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X71" s="19"/>
+      <c r="Y71" s="19"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>39</v>
       </c>
@@ -6283,27 +6450,29 @@
       <c r="N72" s="52"/>
       <c r="O72" s="52"/>
       <c r="P72" s="52"/>
-      <c r="Q72" s="3">
+      <c r="Q72" s="52"/>
+      <c r="R72" s="52"/>
+      <c r="S72" s="3">
         <v>1.9907407407407408E-3</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>2.1064814814814813E-3</v>
       </c>
-      <c r="S72" s="3">
-        <f t="shared" ref="S72:S77" si="22" xml:space="preserve"> R72-Q72</f>
+      <c r="U72" s="3">
+        <f t="shared" ref="U72:U77" si="22" xml:space="preserve"> T72-S72</f>
         <v>1.1574074074074047E-4</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="3">
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>39</v>
       </c>
@@ -6344,27 +6513,29 @@
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
-      <c r="Q73" s="3">
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="3">
         <v>1.9097222222222222E-3</v>
       </c>
-      <c r="R73" s="3">
+      <c r="T73" s="3">
         <v>2.0023148148148148E-3</v>
       </c>
-      <c r="S73" s="3">
+      <c r="U73" s="3">
         <f t="shared" si="22"/>
         <v>9.2592592592592683E-5</v>
       </c>
-      <c r="T73" s="3">
+      <c r="V73" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="3">
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>39</v>
       </c>
@@ -6405,25 +6576,27 @@
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
-      <c r="Q74" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R74" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
       <c r="S74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T74" s="3" t="s">
+      <c r="T74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="3">
+      <c r="U74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>39</v>
       </c>
@@ -6464,27 +6637,29 @@
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
-      <c r="Q75" s="3">
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="3">
         <v>3.3101851851851851E-3</v>
       </c>
-      <c r="R75" s="3">
+      <c r="T75" s="3">
         <v>3.5995370370370369E-3</v>
       </c>
-      <c r="S75" s="3">
+      <c r="U75" s="3">
         <f t="shared" si="22"/>
         <v>2.8935185185185184E-4</v>
       </c>
-      <c r="T75" s="3">
+      <c r="V75" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="3">
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>39</v>
       </c>
@@ -6525,27 +6700,29 @@
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
-      <c r="Q76" s="3">
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="3">
         <v>3.7037037037037034E-3</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3.9004629629629632E-3</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <f t="shared" si="22"/>
         <v>1.967592592592598E-4</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <f t="shared" si="20"/>
         <v>1.157407407407357E-5</v>
       </c>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="3">
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>39</v>
       </c>
@@ -6586,27 +6763,29 @@
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
-      <c r="Q77" s="3">
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="3">
         <v>4.6412037037037038E-3</v>
       </c>
-      <c r="R77" s="3">
+      <c r="T77" s="3">
         <v>4.6759259259259263E-3</v>
       </c>
-      <c r="S77" s="3">
+      <c r="U77" s="3">
         <f t="shared" si="22"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="T77" s="3">
+      <c r="V77" s="3">
         <f t="shared" si="20"/>
         <v>5.7870370370370454E-5</v>
       </c>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="3">
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>39</v>
       </c>
@@ -6647,27 +6826,29 @@
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
-      <c r="Q78" s="3">
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="3">
         <v>5.8564814814814825E-3</v>
       </c>
-      <c r="R78" s="3">
+      <c r="T78" s="3">
         <v>6.076388888888889E-3</v>
       </c>
-      <c r="S78" s="3">
-        <f xml:space="preserve"> R78-Q78</f>
+      <c r="U78" s="3">
+        <f xml:space="preserve"> T78-S78</f>
         <v>2.1990740740740651E-4</v>
       </c>
-      <c r="T78" s="3">
+      <c r="V78" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="3">
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>39</v>
       </c>
@@ -6708,27 +6889,29 @@
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
-      <c r="Q79" s="3">
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="3">
         <v>6.1574074074074074E-3</v>
       </c>
-      <c r="R79" s="3">
+      <c r="T79" s="3">
         <v>6.2037037037037043E-3</v>
       </c>
-      <c r="S79" s="3">
-        <f xml:space="preserve"> R79-Q79</f>
+      <c r="U79" s="3">
+        <f xml:space="preserve"> T79-S79</f>
         <v>4.6296296296296884E-5</v>
       </c>
-      <c r="T79" s="3">
+      <c r="V79" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="3">
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>39</v>
       </c>
@@ -6769,27 +6952,29 @@
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
-      <c r="Q80" s="3">
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="3">
         <v>7.1990740740740739E-3</v>
       </c>
-      <c r="R80" s="3">
+      <c r="T80" s="3">
         <v>7.2453703703703708E-3</v>
       </c>
-      <c r="S80" s="3">
-        <f xml:space="preserve"> R80-Q80</f>
+      <c r="U80" s="3">
+        <f xml:space="preserve"> T80-S80</f>
         <v>4.6296296296296884E-5</v>
       </c>
-      <c r="T80" s="3">
+      <c r="V80" s="3">
         <f t="shared" si="20"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="3">
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
         <v>36</v>
       </c>
@@ -6822,24 +7007,26 @@
       <c r="P81" s="19"/>
       <c r="Q81" s="19"/>
       <c r="R81" s="19"/>
-      <c r="S81" s="20">
-        <f>SUM(S72:S80)</f>
+      <c r="S81" s="19"/>
+      <c r="T81" s="19"/>
+      <c r="U81" s="20">
+        <f>SUM(U72:U80)</f>
         <v>1.0416666666666675E-3</v>
       </c>
-      <c r="T81" s="20">
-        <f>SUM(T72:T80)</f>
+      <c r="V81" s="20">
+        <f>SUM(V72:V80)</f>
         <v>1.3888888888888892E-4</v>
       </c>
-      <c r="U81" s="19"/>
-      <c r="V81" s="19"/>
       <c r="W81" s="19"/>
-    </row>
-    <row r="83" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="X81" s="19"/>
+      <c r="Y81" s="19"/>
+    </row>
+    <row r="83" spans="1:25" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6851,7 +7038,7 @@
   <dimension ref="A1:AA103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6904,43 +7091,43 @@
         <v>12</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="R1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="N1" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>16</v>
@@ -7067,7 +7254,7 @@
         <v>1.712962962962963E-3</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N3" s="58">
         <v>104</v>
@@ -7211,7 +7398,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L5" s="5">
         <v>4.0972222222222226E-3</v>
@@ -7229,7 +7416,7 @@
         <v>4.2245370370370371E-3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -7288,7 +7475,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L6" s="57">
         <v>4.0393518518518521E-3</v>
@@ -7307,7 +7494,7 @@
         <v>4.0393518518518521E-3</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="W6" s="3" t="e">
         <f xml:space="preserve"> V6-U6</f>
@@ -7357,7 +7544,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L7" s="5">
         <v>4.5254629629629629E-3</v>
@@ -7434,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L8" s="5">
         <v>5.2430555555555555E-3</v>
@@ -7503,7 +7690,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L9" s="5">
         <v>6.0995370370370361E-3</v>
@@ -7576,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L10" s="5">
         <v>6.7708333333333336E-3</v>
@@ -7622,7 +7809,7 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F11" s="21">
         <f>SUM(F2:F10)</f>
@@ -8333,7 +8520,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -8398,7 +8585,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -8528,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -8658,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -9100,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -9425,7 +9612,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -9490,7 +9677,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -9672,7 +9859,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -9867,7 +10054,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -10566,7 +10753,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -10940,7 +11127,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -11005,7 +11192,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -12754,10 +12941,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D00FF1-E49A-4AE2-A2F4-707024AC9741}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12778,38 +12965,44 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>151</v>
+      <c r="A4" s="66" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B5" s="36"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B6" s="36"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>